--- a/docs/テスト観点カタログ.xlsx
+++ b/docs/テスト観点カタログ.xlsx
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2603" uniqueCount="1409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2604" uniqueCount="1410">
   <si>
     <t>No</t>
     <phoneticPr fontId="4"/>
@@ -17620,6 +17620,16 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>カツドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テスト種別&amp;観点カタログ©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
+    <rPh sb="3" eb="5">
+      <t>シュベツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンテン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -20321,7 +20331,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -20760,30 +20770,39 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -20796,9 +20815,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -20808,6 +20866,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -20816,54 +20883,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="561">
@@ -21897,7 +21916,7 @@
   </sheetPr>
   <dimension ref="A1:AI510"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="77" zoomScaleNormal="100" zoomScaleSheetLayoutView="77" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="18.75"/>
   <cols>
@@ -23212,7 +23231,9 @@
     </row>
     <row r="36" spans="1:35" ht="13.5" customHeight="1">
       <c r="A36" s="129"/>
-      <c r="B36" s="129"/>
+      <c r="B36" s="129" t="s">
+        <v>1409</v>
+      </c>
       <c r="C36" s="129"/>
       <c r="D36" s="129"/>
       <c r="E36" s="129"/>
@@ -23741,7 +23762,7 @@
   </sheetPr>
   <dimension ref="B1:Q38"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -23766,24 +23787,24 @@
       <c r="C4" s="108" t="s">
         <v>760</v>
       </c>
-      <c r="D4" s="156" t="s">
+      <c r="D4" s="159" t="s">
         <v>779</v>
       </c>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="156" t="s">
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="156"/>
-      <c r="J4" s="156"/>
-      <c r="K4" s="156"/>
-      <c r="L4" s="156"/>
-      <c r="M4" s="156"/>
-      <c r="N4" s="156"/>
-      <c r="O4" s="156"/>
-      <c r="P4" s="156"/>
-      <c r="Q4" s="156"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="159"/>
+      <c r="O4" s="159"/>
+      <c r="P4" s="159"/>
+      <c r="Q4" s="159"/>
     </row>
     <row r="5" spans="2:17" ht="15" customHeight="1">
       <c r="C5" s="58">
@@ -24425,7 +24446,7 @@
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="32" max="16" man="1"/>
   </rowBreaks>
@@ -24443,7 +24464,7 @@
   </sheetPr>
   <dimension ref="B1:K25"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -24791,7 +24812,7 @@
   </sheetPr>
   <dimension ref="B1:Q24"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -24815,24 +24836,24 @@
       <c r="C4" s="108" t="s">
         <v>760</v>
       </c>
-      <c r="D4" s="156" t="s">
+      <c r="D4" s="159" t="s">
         <v>779</v>
       </c>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="156" t="s">
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="156"/>
-      <c r="J4" s="156"/>
-      <c r="K4" s="156"/>
-      <c r="L4" s="156"/>
-      <c r="M4" s="156"/>
-      <c r="N4" s="156"/>
-      <c r="O4" s="156"/>
-      <c r="P4" s="156"/>
-      <c r="Q4" s="156"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="159"/>
+      <c r="O4" s="159"/>
+      <c r="P4" s="159"/>
+      <c r="Q4" s="159"/>
     </row>
     <row r="5" spans="2:17">
       <c r="C5" s="58">
@@ -25242,7 +25263,7 @@
   </sheetPr>
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -25781,7 +25802,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C26" s="157" t="s">
+      <c r="C26" s="160" t="s">
         <v>706</v>
       </c>
       <c r="D26" s="109" t="s">
@@ -25809,7 +25830,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C27" s="158"/>
+      <c r="C27" s="161"/>
       <c r="D27" s="110"/>
       <c r="E27" s="52"/>
       <c r="F27" s="110"/>
@@ -26473,7 +26494,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C58" s="157" t="s">
+      <c r="C58" s="160" t="s">
         <v>707</v>
       </c>
       <c r="D58" s="109" t="s">
@@ -26503,7 +26524,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C59" s="155"/>
+      <c r="C59" s="158"/>
       <c r="D59" s="107"/>
       <c r="E59" s="51"/>
       <c r="F59" s="50" t="s">
@@ -26943,7 +26964,7 @@
         <f t="shared" ref="B85:B86" si="3">ROW()-ROW($B$83)</f>
         <v>2</v>
       </c>
-      <c r="C85" s="157" t="s">
+      <c r="C85" s="160" t="s">
         <v>707</v>
       </c>
       <c r="D85" s="109" t="s">
@@ -26973,7 +26994,7 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="C86" s="158"/>
+      <c r="C86" s="161"/>
       <c r="D86" s="110"/>
       <c r="E86" s="54" t="s">
         <v>1122</v>
@@ -27014,7 +27035,7 @@
   </sheetPr>
   <dimension ref="B1:Q18"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -27038,68 +27059,68 @@
       <c r="C4" s="76" t="s">
         <v>760</v>
       </c>
-      <c r="D4" s="160" t="s">
+      <c r="D4" s="173" t="s">
         <v>761</v>
       </c>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160" t="s">
+      <c r="E4" s="173"/>
+      <c r="F4" s="173"/>
+      <c r="G4" s="173"/>
+      <c r="H4" s="173" t="s">
         <v>759</v>
       </c>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160"/>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="160"/>
-      <c r="O4" s="160"/>
-      <c r="P4" s="160"/>
-      <c r="Q4" s="160"/>
+      <c r="I4" s="173"/>
+      <c r="J4" s="173"/>
+      <c r="K4" s="173"/>
+      <c r="L4" s="173"/>
+      <c r="M4" s="173"/>
+      <c r="N4" s="173"/>
+      <c r="O4" s="173"/>
+      <c r="P4" s="173"/>
+      <c r="Q4" s="173"/>
     </row>
     <row r="5" spans="2:17" ht="36" customHeight="1">
       <c r="C5" s="75">
         <v>1</v>
       </c>
-      <c r="D5" s="161" t="s">
+      <c r="D5" s="177" t="s">
         <v>762</v>
       </c>
-      <c r="E5" s="162"/>
-      <c r="F5" s="162"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="159" t="s">
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="179"/>
+      <c r="H5" s="162" t="s">
         <v>763</v>
       </c>
-      <c r="I5" s="159"/>
-      <c r="J5" s="159"/>
-      <c r="K5" s="159"/>
-      <c r="L5" s="159"/>
-      <c r="M5" s="159"/>
-      <c r="N5" s="159"/>
-      <c r="O5" s="159"/>
-      <c r="P5" s="159"/>
-      <c r="Q5" s="159"/>
+      <c r="I5" s="162"/>
+      <c r="J5" s="162"/>
+      <c r="K5" s="162"/>
+      <c r="L5" s="162"/>
+      <c r="M5" s="162"/>
+      <c r="N5" s="162"/>
+      <c r="O5" s="162"/>
+      <c r="P5" s="162"/>
+      <c r="Q5" s="162"/>
     </row>
     <row r="6" spans="2:17" ht="36" customHeight="1">
       <c r="C6" s="75">
         <v>2</v>
       </c>
-      <c r="D6" s="164"/>
-      <c r="E6" s="165"/>
-      <c r="F6" s="165"/>
-      <c r="G6" s="166"/>
-      <c r="H6" s="159" t="s">
+      <c r="D6" s="183"/>
+      <c r="E6" s="184"/>
+      <c r="F6" s="184"/>
+      <c r="G6" s="185"/>
+      <c r="H6" s="162" t="s">
         <v>764</v>
       </c>
-      <c r="I6" s="159"/>
-      <c r="J6" s="159"/>
-      <c r="K6" s="159"/>
-      <c r="L6" s="159"/>
-      <c r="M6" s="159"/>
-      <c r="N6" s="159"/>
-      <c r="O6" s="159"/>
-      <c r="P6" s="159"/>
-      <c r="Q6" s="159"/>
+      <c r="I6" s="162"/>
+      <c r="J6" s="162"/>
+      <c r="K6" s="162"/>
+      <c r="L6" s="162"/>
+      <c r="M6" s="162"/>
+      <c r="N6" s="162"/>
+      <c r="O6" s="162"/>
+      <c r="P6" s="162"/>
+      <c r="Q6" s="162"/>
     </row>
     <row r="9" spans="2:17">
       <c r="B9" s="106" t="s">
@@ -27110,203 +27131,215 @@
       <c r="C10" s="76" t="s">
         <v>760</v>
       </c>
-      <c r="D10" s="160" t="s">
+      <c r="D10" s="173" t="s">
         <v>761</v>
       </c>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="160" t="s">
+      <c r="E10" s="173"/>
+      <c r="F10" s="173"/>
+      <c r="G10" s="173"/>
+      <c r="H10" s="173" t="s">
         <v>759</v>
       </c>
-      <c r="I10" s="160"/>
-      <c r="J10" s="160"/>
-      <c r="K10" s="160"/>
-      <c r="L10" s="160"/>
-      <c r="M10" s="160"/>
-      <c r="N10" s="160"/>
-      <c r="O10" s="160"/>
-      <c r="P10" s="160"/>
-      <c r="Q10" s="160"/>
+      <c r="I10" s="173"/>
+      <c r="J10" s="173"/>
+      <c r="K10" s="173"/>
+      <c r="L10" s="173"/>
+      <c r="M10" s="173"/>
+      <c r="N10" s="173"/>
+      <c r="O10" s="173"/>
+      <c r="P10" s="173"/>
+      <c r="Q10" s="173"/>
     </row>
     <row r="11" spans="2:17" ht="55.5" customHeight="1">
       <c r="C11" s="75">
         <v>1</v>
       </c>
-      <c r="D11" s="161" t="s">
+      <c r="D11" s="177" t="s">
         <v>768</v>
       </c>
-      <c r="E11" s="162"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="163"/>
-      <c r="H11" s="159" t="s">
+      <c r="E11" s="178"/>
+      <c r="F11" s="178"/>
+      <c r="G11" s="179"/>
+      <c r="H11" s="162" t="s">
         <v>1402</v>
       </c>
-      <c r="I11" s="159"/>
-      <c r="J11" s="159"/>
-      <c r="K11" s="159"/>
-      <c r="L11" s="159"/>
-      <c r="M11" s="159"/>
-      <c r="N11" s="159"/>
-      <c r="O11" s="159"/>
-      <c r="P11" s="159"/>
-      <c r="Q11" s="159"/>
+      <c r="I11" s="162"/>
+      <c r="J11" s="162"/>
+      <c r="K11" s="162"/>
+      <c r="L11" s="162"/>
+      <c r="M11" s="162"/>
+      <c r="N11" s="162"/>
+      <c r="O11" s="162"/>
+      <c r="P11" s="162"/>
+      <c r="Q11" s="162"/>
     </row>
     <row r="12" spans="2:17" ht="37.5" customHeight="1">
       <c r="C12" s="102">
         <v>2</v>
       </c>
-      <c r="D12" s="171"/>
-      <c r="E12" s="172"/>
-      <c r="F12" s="172"/>
-      <c r="G12" s="173"/>
-      <c r="H12" s="159" t="s">
+      <c r="D12" s="180"/>
+      <c r="E12" s="181"/>
+      <c r="F12" s="181"/>
+      <c r="G12" s="182"/>
+      <c r="H12" s="162" t="s">
         <v>767</v>
       </c>
-      <c r="I12" s="159"/>
-      <c r="J12" s="159"/>
-      <c r="K12" s="159"/>
-      <c r="L12" s="159"/>
-      <c r="M12" s="159"/>
-      <c r="N12" s="159"/>
-      <c r="O12" s="159"/>
-      <c r="P12" s="159"/>
-      <c r="Q12" s="159"/>
+      <c r="I12" s="162"/>
+      <c r="J12" s="162"/>
+      <c r="K12" s="162"/>
+      <c r="L12" s="162"/>
+      <c r="M12" s="162"/>
+      <c r="N12" s="162"/>
+      <c r="O12" s="162"/>
+      <c r="P12" s="162"/>
+      <c r="Q12" s="162"/>
     </row>
     <row r="13" spans="2:17" ht="131.25" customHeight="1">
       <c r="C13" s="102">
         <v>3</v>
       </c>
-      <c r="D13" s="164"/>
-      <c r="E13" s="165"/>
-      <c r="F13" s="165"/>
-      <c r="G13" s="166"/>
-      <c r="H13" s="159" t="s">
+      <c r="D13" s="183"/>
+      <c r="E13" s="184"/>
+      <c r="F13" s="184"/>
+      <c r="G13" s="185"/>
+      <c r="H13" s="162" t="s">
         <v>1401</v>
       </c>
-      <c r="I13" s="167"/>
-      <c r="J13" s="167"/>
-      <c r="K13" s="167"/>
-      <c r="L13" s="167"/>
-      <c r="M13" s="167"/>
-      <c r="N13" s="167"/>
-      <c r="O13" s="167"/>
-      <c r="P13" s="167"/>
-      <c r="Q13" s="167"/>
+      <c r="I13" s="163"/>
+      <c r="J13" s="163"/>
+      <c r="K13" s="163"/>
+      <c r="L13" s="163"/>
+      <c r="M13" s="163"/>
+      <c r="N13" s="163"/>
+      <c r="O13" s="163"/>
+      <c r="P13" s="163"/>
+      <c r="Q13" s="163"/>
     </row>
     <row r="14" spans="2:17" ht="50.25" customHeight="1">
       <c r="C14" s="102">
         <v>4</v>
       </c>
-      <c r="D14" s="174" t="s">
+      <c r="D14" s="164" t="s">
         <v>1125</v>
       </c>
-      <c r="E14" s="175"/>
-      <c r="F14" s="175"/>
-      <c r="G14" s="176"/>
-      <c r="H14" s="159" t="s">
+      <c r="E14" s="165"/>
+      <c r="F14" s="165"/>
+      <c r="G14" s="166"/>
+      <c r="H14" s="162" t="s">
         <v>1004</v>
       </c>
-      <c r="I14" s="167"/>
-      <c r="J14" s="167"/>
-      <c r="K14" s="167"/>
-      <c r="L14" s="167"/>
-      <c r="M14" s="167"/>
-      <c r="N14" s="167"/>
-      <c r="O14" s="167"/>
-      <c r="P14" s="167"/>
-      <c r="Q14" s="167"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="163"/>
+      <c r="K14" s="163"/>
+      <c r="L14" s="163"/>
+      <c r="M14" s="163"/>
+      <c r="N14" s="163"/>
+      <c r="O14" s="163"/>
+      <c r="P14" s="163"/>
+      <c r="Q14" s="163"/>
     </row>
     <row r="15" spans="2:17" ht="39" customHeight="1">
       <c r="C15" s="102">
         <v>5</v>
       </c>
-      <c r="D15" s="177"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="178"/>
-      <c r="G15" s="179"/>
-      <c r="H15" s="167" t="s">
+      <c r="D15" s="167"/>
+      <c r="E15" s="168"/>
+      <c r="F15" s="168"/>
+      <c r="G15" s="169"/>
+      <c r="H15" s="163" t="s">
         <v>765</v>
       </c>
-      <c r="I15" s="167"/>
-      <c r="J15" s="167"/>
-      <c r="K15" s="167"/>
-      <c r="L15" s="167"/>
-      <c r="M15" s="167"/>
-      <c r="N15" s="167"/>
-      <c r="O15" s="167"/>
-      <c r="P15" s="167"/>
-      <c r="Q15" s="167"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="163"/>
+      <c r="K15" s="163"/>
+      <c r="L15" s="163"/>
+      <c r="M15" s="163"/>
+      <c r="N15" s="163"/>
+      <c r="O15" s="163"/>
+      <c r="P15" s="163"/>
+      <c r="Q15" s="163"/>
     </row>
     <row r="16" spans="2:17" ht="33.75" customHeight="1">
       <c r="C16" s="102">
         <v>6</v>
       </c>
-      <c r="D16" s="180"/>
-      <c r="E16" s="181"/>
-      <c r="F16" s="181"/>
-      <c r="G16" s="182"/>
-      <c r="H16" s="168" t="s">
+      <c r="D16" s="170"/>
+      <c r="E16" s="171"/>
+      <c r="F16" s="171"/>
+      <c r="G16" s="172"/>
+      <c r="H16" s="174" t="s">
         <v>766</v>
       </c>
-      <c r="I16" s="169"/>
-      <c r="J16" s="169"/>
-      <c r="K16" s="169"/>
-      <c r="L16" s="169"/>
-      <c r="M16" s="169"/>
-      <c r="N16" s="169"/>
-      <c r="O16" s="169"/>
-      <c r="P16" s="169"/>
-      <c r="Q16" s="170"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="175"/>
+      <c r="K16" s="175"/>
+      <c r="L16" s="175"/>
+      <c r="M16" s="175"/>
+      <c r="N16" s="175"/>
+      <c r="O16" s="175"/>
+      <c r="P16" s="175"/>
+      <c r="Q16" s="176"/>
     </row>
     <row r="17" spans="3:17" ht="161.25" customHeight="1">
       <c r="C17" s="102">
         <v>7</v>
       </c>
-      <c r="D17" s="159" t="s">
+      <c r="D17" s="162" t="s">
         <v>776</v>
       </c>
-      <c r="E17" s="167"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="159" t="s">
+      <c r="E17" s="163"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="162" t="s">
         <v>1400</v>
       </c>
-      <c r="I17" s="159"/>
-      <c r="J17" s="159"/>
-      <c r="K17" s="159"/>
-      <c r="L17" s="159"/>
-      <c r="M17" s="159"/>
-      <c r="N17" s="159"/>
-      <c r="O17" s="159"/>
-      <c r="P17" s="159"/>
-      <c r="Q17" s="159"/>
+      <c r="I17" s="162"/>
+      <c r="J17" s="162"/>
+      <c r="K17" s="162"/>
+      <c r="L17" s="162"/>
+      <c r="M17" s="162"/>
+      <c r="N17" s="162"/>
+      <c r="O17" s="162"/>
+      <c r="P17" s="162"/>
+      <c r="Q17" s="162"/>
     </row>
     <row r="18" spans="3:17" ht="145.5" customHeight="1">
       <c r="C18" s="75">
         <v>8</v>
       </c>
-      <c r="D18" s="159" t="s">
+      <c r="D18" s="162" t="s">
         <v>775</v>
       </c>
-      <c r="E18" s="167"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="167"/>
-      <c r="H18" s="159" t="s">
+      <c r="E18" s="163"/>
+      <c r="F18" s="163"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="162" t="s">
         <v>774</v>
       </c>
-      <c r="I18" s="167"/>
-      <c r="J18" s="167"/>
-      <c r="K18" s="167"/>
-      <c r="L18" s="167"/>
-      <c r="M18" s="167"/>
-      <c r="N18" s="167"/>
-      <c r="O18" s="167"/>
-      <c r="P18" s="167"/>
-      <c r="Q18" s="167"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="163"/>
+      <c r="L18" s="163"/>
+      <c r="M18" s="163"/>
+      <c r="N18" s="163"/>
+      <c r="O18" s="163"/>
+      <c r="P18" s="163"/>
+      <c r="Q18" s="163"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="H5:Q5"/>
+    <mergeCell ref="H4:Q4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H6:Q6"/>
+    <mergeCell ref="D5:G6"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:Q10"/>
+    <mergeCell ref="H14:Q14"/>
+    <mergeCell ref="H15:Q15"/>
+    <mergeCell ref="H16:Q16"/>
+    <mergeCell ref="D11:G13"/>
+    <mergeCell ref="H11:Q11"/>
     <mergeCell ref="H17:Q17"/>
     <mergeCell ref="D17:G17"/>
     <mergeCell ref="H18:Q18"/>
@@ -27314,23 +27347,11 @@
     <mergeCell ref="H12:Q12"/>
     <mergeCell ref="H13:Q13"/>
     <mergeCell ref="D14:G16"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H10:Q10"/>
-    <mergeCell ref="H14:Q14"/>
-    <mergeCell ref="H15:Q15"/>
-    <mergeCell ref="H16:Q16"/>
-    <mergeCell ref="D11:G13"/>
-    <mergeCell ref="H11:Q11"/>
-    <mergeCell ref="H5:Q5"/>
-    <mergeCell ref="H4:Q4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H6:Q6"/>
-    <mergeCell ref="D5:G6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -27342,7 +27363,7 @@
   </sheetPr>
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -28505,7 +28526,7 @@
   </sheetPr>
   <dimension ref="B1:Q54"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -28529,24 +28550,24 @@
       <c r="C4" s="108" t="s">
         <v>760</v>
       </c>
-      <c r="D4" s="156" t="s">
+      <c r="D4" s="159" t="s">
         <v>779</v>
       </c>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="156" t="s">
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="156"/>
-      <c r="J4" s="156"/>
-      <c r="K4" s="156"/>
-      <c r="L4" s="156"/>
-      <c r="M4" s="156"/>
-      <c r="N4" s="156"/>
-      <c r="O4" s="156"/>
-      <c r="P4" s="156"/>
-      <c r="Q4" s="156"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="159"/>
+      <c r="O4" s="159"/>
+      <c r="P4" s="159"/>
+      <c r="Q4" s="159"/>
     </row>
     <row r="5" spans="2:17">
       <c r="C5" s="59">
@@ -28953,24 +28974,24 @@
       <c r="C28" s="108" t="s">
         <v>760</v>
       </c>
-      <c r="D28" s="156" t="s">
+      <c r="D28" s="159" t="s">
         <v>779</v>
       </c>
-      <c r="E28" s="156"/>
-      <c r="F28" s="156"/>
-      <c r="G28" s="156"/>
-      <c r="H28" s="156" t="s">
+      <c r="E28" s="159"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="159" t="s">
         <v>68</v>
       </c>
-      <c r="I28" s="156"/>
-      <c r="J28" s="156"/>
-      <c r="K28" s="156"/>
-      <c r="L28" s="156"/>
-      <c r="M28" s="156"/>
-      <c r="N28" s="156"/>
-      <c r="O28" s="156"/>
-      <c r="P28" s="156"/>
-      <c r="Q28" s="156"/>
+      <c r="I28" s="159"/>
+      <c r="J28" s="159"/>
+      <c r="K28" s="159"/>
+      <c r="L28" s="159"/>
+      <c r="M28" s="159"/>
+      <c r="N28" s="159"/>
+      <c r="O28" s="159"/>
+      <c r="P28" s="159"/>
+      <c r="Q28" s="159"/>
     </row>
     <row r="29" spans="2:17">
       <c r="C29" s="59">
@@ -29042,24 +29063,24 @@
       <c r="C35" s="108" t="s">
         <v>760</v>
       </c>
-      <c r="D35" s="156" t="s">
+      <c r="D35" s="159" t="s">
         <v>779</v>
       </c>
-      <c r="E35" s="156"/>
-      <c r="F35" s="156"/>
-      <c r="G35" s="156"/>
-      <c r="H35" s="156" t="s">
+      <c r="E35" s="159"/>
+      <c r="F35" s="159"/>
+      <c r="G35" s="159"/>
+      <c r="H35" s="159" t="s">
         <v>68</v>
       </c>
-      <c r="I35" s="156"/>
-      <c r="J35" s="156"/>
-      <c r="K35" s="156"/>
-      <c r="L35" s="156"/>
-      <c r="M35" s="156"/>
-      <c r="N35" s="156"/>
-      <c r="O35" s="156"/>
-      <c r="P35" s="156"/>
-      <c r="Q35" s="156"/>
+      <c r="I35" s="159"/>
+      <c r="J35" s="159"/>
+      <c r="K35" s="159"/>
+      <c r="L35" s="159"/>
+      <c r="M35" s="159"/>
+      <c r="N35" s="159"/>
+      <c r="O35" s="159"/>
+      <c r="P35" s="159"/>
+      <c r="Q35" s="159"/>
     </row>
     <row r="36" spans="2:17">
       <c r="C36" s="58">
@@ -29131,24 +29152,24 @@
       <c r="C42" s="108" t="s">
         <v>760</v>
       </c>
-      <c r="D42" s="156" t="s">
+      <c r="D42" s="159" t="s">
         <v>779</v>
       </c>
-      <c r="E42" s="156"/>
-      <c r="F42" s="156"/>
-      <c r="G42" s="156"/>
-      <c r="H42" s="156" t="s">
+      <c r="E42" s="159"/>
+      <c r="F42" s="159"/>
+      <c r="G42" s="159"/>
+      <c r="H42" s="159" t="s">
         <v>68</v>
       </c>
-      <c r="I42" s="156"/>
-      <c r="J42" s="156"/>
-      <c r="K42" s="156"/>
-      <c r="L42" s="156"/>
-      <c r="M42" s="156"/>
-      <c r="N42" s="156"/>
-      <c r="O42" s="156"/>
-      <c r="P42" s="156"/>
-      <c r="Q42" s="156"/>
+      <c r="I42" s="159"/>
+      <c r="J42" s="159"/>
+      <c r="K42" s="159"/>
+      <c r="L42" s="159"/>
+      <c r="M42" s="159"/>
+      <c r="N42" s="159"/>
+      <c r="O42" s="159"/>
+      <c r="P42" s="159"/>
+      <c r="Q42" s="159"/>
     </row>
     <row r="43" spans="2:17">
       <c r="C43" s="58">
@@ -29246,24 +29267,24 @@
       <c r="C50" s="108" t="s">
         <v>760</v>
       </c>
-      <c r="D50" s="156" t="s">
+      <c r="D50" s="159" t="s">
         <v>779</v>
       </c>
-      <c r="E50" s="156"/>
-      <c r="F50" s="156"/>
-      <c r="G50" s="156"/>
-      <c r="H50" s="156" t="s">
+      <c r="E50" s="159"/>
+      <c r="F50" s="159"/>
+      <c r="G50" s="159"/>
+      <c r="H50" s="159" t="s">
         <v>68</v>
       </c>
-      <c r="I50" s="156"/>
-      <c r="J50" s="156"/>
-      <c r="K50" s="156"/>
-      <c r="L50" s="156"/>
-      <c r="M50" s="156"/>
-      <c r="N50" s="156"/>
-      <c r="O50" s="156"/>
-      <c r="P50" s="156"/>
-      <c r="Q50" s="156"/>
+      <c r="I50" s="159"/>
+      <c r="J50" s="159"/>
+      <c r="K50" s="159"/>
+      <c r="L50" s="159"/>
+      <c r="M50" s="159"/>
+      <c r="N50" s="159"/>
+      <c r="O50" s="159"/>
+      <c r="P50" s="159"/>
+      <c r="Q50" s="159"/>
     </row>
     <row r="51" spans="2:17">
       <c r="C51" s="79">
@@ -29361,7 +29382,7 @@
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -29373,7 +29394,7 @@
   </sheetPr>
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -29746,7 +29767,7 @@
   </sheetPr>
   <dimension ref="B1:Q8"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -29770,24 +29791,24 @@
       <c r="C4" s="108" t="s">
         <v>760</v>
       </c>
-      <c r="D4" s="156" t="s">
+      <c r="D4" s="159" t="s">
         <v>779</v>
       </c>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="156" t="s">
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="156"/>
-      <c r="J4" s="156"/>
-      <c r="K4" s="156"/>
-      <c r="L4" s="156"/>
-      <c r="M4" s="156"/>
-      <c r="N4" s="156"/>
-      <c r="O4" s="156"/>
-      <c r="P4" s="156"/>
-      <c r="Q4" s="156"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="159"/>
+      <c r="O4" s="159"/>
+      <c r="P4" s="159"/>
+      <c r="Q4" s="159"/>
     </row>
     <row r="5" spans="2:17">
       <c r="C5" s="58">
@@ -29877,7 +29898,7 @@
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -29889,7 +29910,7 @@
   </sheetPr>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -30312,7 +30333,7 @@
   </sheetPr>
   <dimension ref="B2:L48"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -30328,24 +30349,24 @@
       </c>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="149" t="s">
+      <c r="B4" s="152" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="150"/>
-      <c r="D4" s="148" t="s">
+      <c r="C4" s="153"/>
+      <c r="D4" s="151" t="s">
         <v>199</v>
       </c>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
       <c r="J4" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="151"/>
-      <c r="C5" s="152"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="155"/>
       <c r="D5" s="57" t="s">
         <v>201</v>
       </c>
@@ -30370,10 +30391,10 @@
       <c r="L5" s="69"/>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="153" t="s">
+      <c r="B6" s="156" t="s">
         <v>200</v>
       </c>
-      <c r="C6" s="154"/>
+      <c r="C6" s="157"/>
       <c r="D6" s="77" t="s">
         <v>202</v>
       </c>
@@ -30398,10 +30419,10 @@
       <c r="L6" s="70"/>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="153" t="s">
+      <c r="B7" s="156" t="s">
         <v>735</v>
       </c>
-      <c r="C7" s="154"/>
+      <c r="C7" s="157"/>
       <c r="D7" s="77" t="s">
         <v>202</v>
       </c>
@@ -30426,10 +30447,10 @@
       <c r="L7" s="70"/>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="153" t="s">
+      <c r="B8" s="156" t="s">
         <v>747</v>
       </c>
-      <c r="C8" s="154"/>
+      <c r="C8" s="157"/>
       <c r="D8" s="77" t="s">
         <v>202</v>
       </c>
@@ -30447,10 +30468,10 @@
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="153" t="s">
+      <c r="B9" s="156" t="s">
         <v>734</v>
       </c>
-      <c r="C9" s="154"/>
+      <c r="C9" s="157"/>
       <c r="D9" s="77" t="s">
         <v>202</v>
       </c>
@@ -30468,10 +30489,10 @@
       </c>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="153" t="s">
+      <c r="B10" s="156" t="s">
         <v>733</v>
       </c>
-      <c r="C10" s="154"/>
+      <c r="C10" s="157"/>
       <c r="D10" s="77" t="s">
         <v>202</v>
       </c>
@@ -30489,10 +30510,10 @@
       </c>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="153" t="s">
+      <c r="B11" s="156" t="s">
         <v>729</v>
       </c>
-      <c r="C11" s="154"/>
+      <c r="C11" s="157"/>
       <c r="D11" s="77" t="s">
         <v>202</v>
       </c>
@@ -30510,10 +30531,10 @@
       </c>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="153" t="s">
+      <c r="B12" s="156" t="s">
         <v>730</v>
       </c>
-      <c r="C12" s="154"/>
+      <c r="C12" s="157"/>
       <c r="D12" s="77" t="s">
         <v>202</v>
       </c>
@@ -30531,10 +30552,10 @@
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="153" t="s">
+      <c r="B13" s="156" t="s">
         <v>731</v>
       </c>
-      <c r="C13" s="154"/>
+      <c r="C13" s="157"/>
       <c r="D13" s="77" t="s">
         <v>202</v>
       </c>
@@ -30552,10 +30573,10 @@
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="153" t="s">
+      <c r="B14" s="156" t="s">
         <v>732</v>
       </c>
-      <c r="C14" s="154"/>
+      <c r="C14" s="157"/>
       <c r="D14" s="77" t="s">
         <v>202</v>
       </c>
@@ -30573,10 +30594,10 @@
       </c>
     </row>
     <row r="15" spans="2:12" s="67" customFormat="1">
-      <c r="B15" s="153" t="s">
+      <c r="B15" s="156" t="s">
         <v>1115</v>
       </c>
-      <c r="C15" s="154"/>
+      <c r="C15" s="157"/>
       <c r="D15" s="77" t="s">
         <v>1116</v>
       </c>
@@ -30594,10 +30615,10 @@
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="153" t="s">
+      <c r="B16" s="156" t="s">
         <v>746</v>
       </c>
-      <c r="C16" s="154"/>
+      <c r="C16" s="157"/>
       <c r="D16" s="77" t="s">
         <v>202</v>
       </c>
@@ -30615,10 +30636,10 @@
       </c>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="153" t="s">
+      <c r="B17" s="156" t="s">
         <v>728</v>
       </c>
-      <c r="C17" s="154"/>
+      <c r="C17" s="157"/>
       <c r="D17" s="111" t="s">
         <v>560</v>
       </c>
@@ -30847,7 +30868,7 @@
   </sheetPr>
   <dimension ref="B1:Q22"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -30871,24 +30892,24 @@
       <c r="C4" s="108" t="s">
         <v>760</v>
       </c>
-      <c r="D4" s="156" t="s">
+      <c r="D4" s="159" t="s">
         <v>779</v>
       </c>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="156" t="s">
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="156"/>
-      <c r="J4" s="156"/>
-      <c r="K4" s="156"/>
-      <c r="L4" s="156"/>
-      <c r="M4" s="156"/>
-      <c r="N4" s="156"/>
-      <c r="O4" s="156"/>
-      <c r="P4" s="156"/>
-      <c r="Q4" s="156"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="159"/>
+      <c r="O4" s="159"/>
+      <c r="P4" s="159"/>
+      <c r="Q4" s="159"/>
     </row>
     <row r="5" spans="2:17">
       <c r="C5" s="96">
@@ -31078,24 +31099,24 @@
       <c r="C17" s="108" t="s">
         <v>760</v>
       </c>
-      <c r="D17" s="156" t="s">
+      <c r="D17" s="159" t="s">
         <v>779</v>
       </c>
-      <c r="E17" s="156"/>
-      <c r="F17" s="156"/>
-      <c r="G17" s="156"/>
-      <c r="H17" s="156" t="s">
+      <c r="E17" s="159"/>
+      <c r="F17" s="159"/>
+      <c r="G17" s="159"/>
+      <c r="H17" s="159" t="s">
         <v>68</v>
       </c>
-      <c r="I17" s="156"/>
-      <c r="J17" s="156"/>
-      <c r="K17" s="156"/>
-      <c r="L17" s="156"/>
-      <c r="M17" s="156"/>
-      <c r="N17" s="156"/>
-      <c r="O17" s="156"/>
-      <c r="P17" s="156"/>
-      <c r="Q17" s="156"/>
+      <c r="I17" s="159"/>
+      <c r="J17" s="159"/>
+      <c r="K17" s="159"/>
+      <c r="L17" s="159"/>
+      <c r="M17" s="159"/>
+      <c r="N17" s="159"/>
+      <c r="O17" s="159"/>
+      <c r="P17" s="159"/>
+      <c r="Q17" s="159"/>
     </row>
     <row r="18" spans="3:17">
       <c r="C18" s="58">
@@ -31206,7 +31227,7 @@
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -31218,7 +31239,7 @@
   </sheetPr>
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -31758,11 +31779,13 @@
   </sheetPr>
   <dimension ref="B1:K309"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="E1" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3" style="11" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="11" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" style="8" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" style="9" customWidth="1"/>
     <col min="4" max="4" width="19.140625" style="9" customWidth="1"/>
@@ -31789,7 +31812,8 @@
       <c r="I1" s="5"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="2" spans="2:11" ht="9.75" customHeight="1"/>
+    <row r="3" spans="2:11" ht="17.25" customHeight="1">
       <c r="B3" s="8" t="s">
         <v>153</v>
       </c>
@@ -31801,7 +31825,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="4" spans="2:11" s="14" customFormat="1">
+    <row r="4" spans="2:11" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="B4" s="28" t="s">
         <v>0</v>
       </c>
@@ -32444,7 +32468,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="35" spans="2:10" s="32" customFormat="1">
+    <row r="35" spans="2:10" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="B35" s="18">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -33173,9 +33197,9 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="C74" s="51"/>
-      <c r="E74" s="107"/>
-      <c r="F74" s="107"/>
+      <c r="C74" s="148"/>
+      <c r="E74" s="148"/>
+      <c r="F74" s="148"/>
       <c r="G74" s="50" t="s">
         <v>395</v>
       </c>
@@ -33185,47 +33209,47 @@
       <c r="I74" s="107"/>
       <c r="J74" s="50"/>
     </row>
-    <row r="75" spans="2:10" s="32" customFormat="1">
+    <row r="75" spans="2:10" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="B75" s="18">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="C75" s="51"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="49"/>
-      <c r="F75" s="49"/>
-      <c r="G75" s="50" t="s">
+      <c r="C75" s="150"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="150"/>
+      <c r="F75" s="150"/>
+      <c r="G75" s="54" t="s">
         <v>689</v>
       </c>
-      <c r="H75" s="49" t="s">
+      <c r="H75" s="150" t="s">
         <v>509</v>
       </c>
-      <c r="I75" s="107"/>
-      <c r="J75" s="50"/>
+      <c r="I75" s="150"/>
+      <c r="J75" s="54"/>
     </row>
     <row r="76" spans="2:10" s="32" customFormat="1">
       <c r="B76" s="18">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="C76" s="51"/>
-      <c r="D76" s="36" t="s">
+      <c r="C76" s="35"/>
+      <c r="D76" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="E76" s="53" t="s">
+      <c r="E76" s="149" t="s">
         <v>60</v>
       </c>
-      <c r="F76" s="53" t="s">
+      <c r="F76" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="G76" s="50" t="s">
+      <c r="G76" s="48" t="s">
         <v>246</v>
       </c>
-      <c r="H76" s="50" t="s">
+      <c r="H76" s="48" t="s">
         <v>1063</v>
       </c>
-      <c r="I76" s="107"/>
-      <c r="J76" s="50"/>
+      <c r="I76" s="149"/>
+      <c r="J76" s="48"/>
     </row>
     <row r="77" spans="2:10" s="32" customFormat="1" ht="30">
       <c r="B77" s="18">
@@ -33234,7 +33258,7 @@
       </c>
       <c r="C77" s="51"/>
       <c r="D77" s="16"/>
-      <c r="E77" s="107"/>
+      <c r="E77" s="148"/>
       <c r="F77" s="49"/>
       <c r="G77" s="50" t="s">
         <v>1227</v>
@@ -33242,7 +33266,7 @@
       <c r="H77" s="50" t="s">
         <v>1063</v>
       </c>
-      <c r="I77" s="107"/>
+      <c r="I77" s="148"/>
       <c r="J77" s="50"/>
     </row>
     <row r="78" spans="2:10" s="32" customFormat="1">
@@ -33252,7 +33276,7 @@
       </c>
       <c r="C78" s="51"/>
       <c r="D78" s="16"/>
-      <c r="E78" s="107"/>
+      <c r="E78" s="148"/>
       <c r="F78" s="53" t="s">
         <v>245</v>
       </c>
@@ -33262,7 +33286,7 @@
       <c r="H78" s="50" t="s">
         <v>1063</v>
       </c>
-      <c r="I78" s="107"/>
+      <c r="I78" s="148"/>
       <c r="J78" s="50"/>
     </row>
     <row r="79" spans="2:10" s="32" customFormat="1" ht="30">
@@ -33954,7 +33978,7 @@
         <f t="shared" ref="B114:B181" si="2">ROW()-ROW($B$112)</f>
         <v>2</v>
       </c>
-      <c r="C114" s="155" t="s">
+      <c r="C114" s="158" t="s">
         <v>701</v>
       </c>
       <c r="D114" s="16"/>
@@ -33976,7 +34000,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="C115" s="155"/>
+      <c r="C115" s="158"/>
       <c r="D115" s="16"/>
       <c r="E115" s="107"/>
       <c r="F115" s="51"/>
@@ -34305,15 +34329,15 @@
       <c r="I131" s="51"/>
       <c r="J131" s="49"/>
     </row>
-    <row r="132" spans="2:10" s="32" customFormat="1" ht="30">
+    <row r="132" spans="2:10" s="32" customFormat="1" ht="36.75" customHeight="1">
       <c r="B132" s="18">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="C132" s="52"/>
-      <c r="D132" s="110"/>
-      <c r="E132" s="110"/>
-      <c r="F132" s="110"/>
+      <c r="D132" s="150"/>
+      <c r="E132" s="150"/>
+      <c r="F132" s="150"/>
       <c r="G132" s="52" t="s">
         <v>1240</v>
       </c>
@@ -34321,7 +34345,7 @@
         <v>408</v>
       </c>
       <c r="I132" s="52"/>
-      <c r="J132" s="110"/>
+      <c r="J132" s="150"/>
     </row>
     <row r="133" spans="2:10" s="32" customFormat="1">
       <c r="B133" s="48">
@@ -34356,7 +34380,7 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="C134" s="155" t="s">
+      <c r="C134" s="158" t="s">
         <v>702</v>
       </c>
       <c r="D134" s="16"/>
@@ -34378,7 +34402,7 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="C135" s="155"/>
+      <c r="C135" s="158"/>
       <c r="D135" s="16"/>
       <c r="E135" s="107"/>
       <c r="F135" s="107"/>
@@ -35058,42 +35082,42 @@
       <c r="J169" s="50"/>
     </row>
     <row r="170" spans="2:10" s="32" customFormat="1">
-      <c r="B170" s="48">
+      <c r="B170" s="18">
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
-      <c r="C170" s="51"/>
-      <c r="D170" s="16"/>
-      <c r="E170" s="107"/>
-      <c r="F170" s="49"/>
-      <c r="G170" s="50" t="s">
+      <c r="C170" s="150"/>
+      <c r="D170" s="21"/>
+      <c r="E170" s="150"/>
+      <c r="F170" s="150"/>
+      <c r="G170" s="54" t="s">
         <v>871</v>
       </c>
-      <c r="H170" s="49" t="s">
+      <c r="H170" s="150" t="s">
         <v>513</v>
       </c>
-      <c r="I170" s="107"/>
-      <c r="J170" s="50"/>
+      <c r="I170" s="150"/>
+      <c r="J170" s="54"/>
     </row>
     <row r="171" spans="2:10" s="32" customFormat="1">
       <c r="B171" s="48">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
-      <c r="C171" s="51"/>
-      <c r="D171" s="16"/>
-      <c r="E171" s="107"/>
-      <c r="F171" s="53" t="s">
+      <c r="C171" s="35"/>
+      <c r="D171" s="38"/>
+      <c r="E171" s="149"/>
+      <c r="F171" s="149" t="s">
         <v>1102</v>
       </c>
-      <c r="G171" s="34" t="s">
+      <c r="G171" s="39" t="s">
         <v>1248</v>
       </c>
-      <c r="H171" s="34" t="s">
+      <c r="H171" s="39" t="s">
         <v>410</v>
       </c>
-      <c r="I171" s="107"/>
-      <c r="J171" s="50"/>
+      <c r="I171" s="149"/>
+      <c r="J171" s="48"/>
     </row>
     <row r="172" spans="2:10" s="32" customFormat="1" ht="30">
       <c r="B172" s="48">
@@ -35102,15 +35126,15 @@
       </c>
       <c r="C172" s="51"/>
       <c r="D172" s="16"/>
-      <c r="E172" s="107"/>
-      <c r="F172" s="107"/>
+      <c r="E172" s="148"/>
+      <c r="F172" s="148"/>
       <c r="G172" s="34" t="s">
         <v>1249</v>
       </c>
       <c r="H172" s="34" t="s">
         <v>410</v>
       </c>
-      <c r="I172" s="107"/>
+      <c r="I172" s="148"/>
       <c r="J172" s="50"/>
     </row>
     <row r="173" spans="2:10" s="32" customFormat="1" ht="30">
@@ -35920,18 +35944,18 @@
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="C215" s="51"/>
-      <c r="D215" s="51"/>
-      <c r="E215" s="49"/>
-      <c r="F215" s="49"/>
-      <c r="G215" s="50" t="s">
+      <c r="C215" s="52"/>
+      <c r="D215" s="52"/>
+      <c r="E215" s="150"/>
+      <c r="F215" s="150"/>
+      <c r="G215" s="54" t="s">
         <v>436</v>
       </c>
-      <c r="H215" s="50" t="s">
+      <c r="H215" s="54" t="s">
         <v>514</v>
       </c>
-      <c r="I215" s="107"/>
-      <c r="J215" s="50" t="s">
+      <c r="I215" s="150"/>
+      <c r="J215" s="54" t="s">
         <v>903</v>
       </c>
     </row>
@@ -35940,22 +35964,22 @@
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="C216" s="51"/>
-      <c r="D216" s="51"/>
-      <c r="E216" s="53" t="s">
+      <c r="C216" s="35"/>
+      <c r="D216" s="35"/>
+      <c r="E216" s="149" t="s">
         <v>29</v>
       </c>
-      <c r="F216" s="53" t="s">
+      <c r="F216" s="149" t="s">
         <v>64</v>
       </c>
-      <c r="G216" s="50" t="s">
+      <c r="G216" s="48" t="s">
         <v>546</v>
       </c>
-      <c r="H216" s="50" t="s">
+      <c r="H216" s="48" t="s">
         <v>268</v>
       </c>
-      <c r="I216" s="107"/>
-      <c r="J216" s="50"/>
+      <c r="I216" s="149"/>
+      <c r="J216" s="48"/>
     </row>
     <row r="217" spans="2:10" s="32" customFormat="1">
       <c r="B217" s="18">
@@ -36299,7 +36323,7 @@
       <c r="I234" s="107"/>
       <c r="J234" s="50"/>
     </row>
-    <row r="235" spans="2:10" s="32" customFormat="1">
+    <row r="235" spans="2:10" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="B235" s="18">
         <f t="shared" si="5"/>
         <v>47</v>
@@ -37747,7 +37771,7 @@
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="73" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="10" manualBreakCount="10">
     <brk id="37" max="9" man="1"/>
     <brk id="75" max="9" man="1"/>
@@ -37771,7 +37795,7 @@
   </sheetPr>
   <dimension ref="B1:J97"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A73" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -37802,7 +37826,8 @@
       <c r="I1" s="5"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="2" spans="2:10" ht="8.25" customHeight="1"/>
+    <row r="3" spans="2:10" ht="12" customHeight="1">
       <c r="B3" s="8" t="s">
         <v>217</v>
       </c>
@@ -38625,25 +38650,25 @@
       <c r="J47" s="50"/>
     </row>
     <row r="48" spans="2:10" s="32" customFormat="1">
-      <c r="B48" s="48">
+      <c r="B48" s="18">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="C48" s="51"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="50" t="s">
+      <c r="C48" s="52"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="150"/>
+      <c r="F48" s="150"/>
+      <c r="G48" s="54" t="s">
         <v>300</v>
       </c>
-      <c r="H48" s="50" t="s">
+      <c r="H48" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="I48" s="107"/>
-      <c r="J48" s="50"/>
+      <c r="I48" s="150"/>
+      <c r="J48" s="54"/>
     </row>
     <row r="49" spans="2:10" s="32" customFormat="1">
-      <c r="B49" s="48">
+      <c r="B49" s="49">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
@@ -38655,14 +38680,14 @@
       <c r="F49" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="G49" s="50" t="s">
+      <c r="G49" s="49" t="s">
         <v>308</v>
       </c>
-      <c r="H49" s="34" t="s">
+      <c r="H49" s="15" t="s">
         <v>302</v>
       </c>
       <c r="I49" s="107"/>
-      <c r="J49" s="50"/>
+      <c r="J49" s="49"/>
     </row>
     <row r="50" spans="2:10" s="32" customFormat="1">
       <c r="B50" s="48">
@@ -39442,7 +39467,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="90" spans="2:10" s="32" customFormat="1">
+    <row r="90" spans="2:10" s="32" customFormat="1" ht="30" customHeight="1">
       <c r="B90" s="18">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -39514,7 +39539,7 @@
   </sheetPr>
   <dimension ref="B1:J50"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -40134,7 +40159,7 @@
   </sheetPr>
   <dimension ref="B1:J51"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -40626,7 +40651,7 @@
   </sheetPr>
   <dimension ref="B1:J49"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -41027,7 +41052,7 @@
   </sheetPr>
   <dimension ref="B1:J26"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -41294,7 +41319,7 @@
   </sheetPr>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>

--- a/docs/テスト観点カタログ.xlsx
+++ b/docs/テスト観点カタログ.xlsx
@@ -3,77 +3,79 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B1F495-B8E6-494D-8886-315E32F557D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AE24F9-754E-46F4-9354-3F3C07993809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" tabRatio="735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" tabRatio="735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="48" r:id="rId1"/>
-    <sheet name="一覧" sheetId="34" r:id="rId2"/>
-    <sheet name="機能テスト【共通】" sheetId="32" r:id="rId3"/>
-    <sheet name="機能テスト【ウェブアプリケーション】" sheetId="31" r:id="rId4"/>
-    <sheet name="機能テスト【モバイルアプリケーション】" sheetId="49" r:id="rId5"/>
-    <sheet name="機能テスト【バッチアプリケーション】" sheetId="33" r:id="rId6"/>
-    <sheet name="機能テスト【メッセージング】" sheetId="35" r:id="rId7"/>
-    <sheet name="機能テスト【ウェブサービス】" sheetId="36" r:id="rId8"/>
-    <sheet name="データ互換性テスト" sheetId="25" r:id="rId9"/>
-    <sheet name="業務シナリオテスト" sheetId="20" r:id="rId10"/>
-    <sheet name="業務シナリオテスト_補足" sheetId="40" r:id="rId11"/>
-    <sheet name="構成テスト" sheetId="3" r:id="rId12"/>
-    <sheet name="構成テスト_補足" sheetId="43" r:id="rId13"/>
-    <sheet name="セキュリティテスト" sheetId="16" r:id="rId14"/>
-    <sheet name="セキュリティテスト_補足" sheetId="39" r:id="rId15"/>
-    <sheet name="性能テスト、ストレステストなど" sheetId="18" r:id="rId16"/>
-    <sheet name="性能テスト、ストレステストなど_補足" sheetId="42" r:id="rId17"/>
-    <sheet name="障害テスト" sheetId="46" r:id="rId18"/>
-    <sheet name="障害テスト_補足" sheetId="47" r:id="rId19"/>
-    <sheet name="運用シナリオテスト" sheetId="26" r:id="rId20"/>
-    <sheet name="運用シナリオテスト_補足" sheetId="45" r:id="rId21"/>
-    <sheet name="ユーザビリティテスト" sheetId="30" r:id="rId22"/>
+    <sheet name="変更履歴" sheetId="50" r:id="rId2"/>
+    <sheet name="一覧" sheetId="34" r:id="rId3"/>
+    <sheet name="機能テスト【共通】" sheetId="32" r:id="rId4"/>
+    <sheet name="機能テスト【ウェブアプリケーション】" sheetId="31" r:id="rId5"/>
+    <sheet name="機能テスト【モバイルアプリケーション】" sheetId="49" r:id="rId6"/>
+    <sheet name="機能テスト【バッチアプリケーション】" sheetId="33" r:id="rId7"/>
+    <sheet name="機能テスト【メッセージング】" sheetId="35" r:id="rId8"/>
+    <sheet name="機能テスト【ウェブサービス】" sheetId="36" r:id="rId9"/>
+    <sheet name="データ互換性テスト" sheetId="25" r:id="rId10"/>
+    <sheet name="業務シナリオテスト" sheetId="20" r:id="rId11"/>
+    <sheet name="業務シナリオテスト_補足" sheetId="40" r:id="rId12"/>
+    <sheet name="構成テスト" sheetId="3" r:id="rId13"/>
+    <sheet name="構成テスト_補足" sheetId="43" r:id="rId14"/>
+    <sheet name="セキュリティテスト" sheetId="16" r:id="rId15"/>
+    <sheet name="セキュリティテスト_補足" sheetId="39" r:id="rId16"/>
+    <sheet name="性能テスト、ストレステストなど" sheetId="18" r:id="rId17"/>
+    <sheet name="性能テスト、ストレステストなど_補足" sheetId="42" r:id="rId18"/>
+    <sheet name="障害テスト" sheetId="46" r:id="rId19"/>
+    <sheet name="障害テスト_補足" sheetId="47" r:id="rId20"/>
+    <sheet name="運用シナリオテスト" sheetId="26" r:id="rId21"/>
+    <sheet name="運用シナリオテスト_補足" sheetId="45" r:id="rId22"/>
+    <sheet name="ユーザビリティテスト" sheetId="30" r:id="rId23"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">機能テスト【ウェブアプリケーション】!$A$4:$J$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">機能テスト【ウェブサービス】!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">機能テスト【バッチアプリケーション】!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">機能テスト【メッセージング】!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">機能テスト【モバイルアプリケーション】!$A$5:$J$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">機能テスト【共通】!$A$4:$J$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">業務シナリオテスト!$B$26:$K$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="13">セキュリティテスト!$A$1:$J$87</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="14">セキュリティテスト_補足!$A$1:$Q$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">データ互換性テスト!$A$1:$J$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="21">ユーザビリティテスト!$A$1:$J$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">一覧!$A$1:$M$48</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="19">運用シナリオテスト!$A$1:$K$31</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="20">運用シナリオテスト_補足!$A$1:$Q$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">機能テスト【ウェブアプリケーション】!$A$1:$J$92</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">機能テスト【ウェブサービス】!$A$1:$J$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">機能テスト【バッチアプリケーション】!$A$1:$J$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">機能テスト【メッセージング】!$A$1:$J$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">機能テスト【共通】!$A$1:$J$311</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">業務シナリオテスト!$A$1:$K$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">業務シナリオテスト_補足!$A$1:$Q$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">構成テスト!$A$1:$K$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="12">構成テスト_補足!$A$1:$Q$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="17">障害テスト!$A$1:$K$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="18">障害テスト_補足!$A$1:$Q$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="15">'性能テスト、ストレステストなど'!$A$1:$J$64</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="16">'性能テスト、ストレステストなど_補足'!$A$1:$Q$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">機能テスト【ウェブアプリケーション】!$A$4:$J$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">機能テスト【ウェブサービス】!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">機能テスト【バッチアプリケーション】!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">機能テスト【メッセージング】!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">機能テスト【モバイルアプリケーション】!$A$5:$J$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">機能テスト【共通】!$A$4:$J$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">業務シナリオテスト!$B$26:$K$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="14">セキュリティテスト!$A$1:$J$87</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="15">セキュリティテスト_補足!$A$1:$Q$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">データ互換性テスト!$A$1:$J$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="22">ユーザビリティテスト!$A$1:$J$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">一覧!$A$1:$M$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="20">運用シナリオテスト!$A$1:$K$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="21">運用シナリオテスト_補足!$A$1:$Q$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">機能テスト【ウェブアプリケーション】!$A$1:$J$92</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">機能テスト【ウェブサービス】!$A$1:$J$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">機能テスト【バッチアプリケーション】!$A$1:$J$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">機能テスト【メッセージング】!$A$1:$J$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">機能テスト【共通】!$A$1:$J$311</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">業務シナリオテスト!$A$1:$K$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">業務シナリオテスト_補足!$A$1:$Q$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">構成テスト!$A$1:$K$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="13">構成テスト_補足!$A$1:$Q$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="18">障害テスト!$A$1:$K$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="19">障害テスト_補足!$A$1:$Q$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="16">'性能テスト、ストレステストなど'!$A$1:$J$64</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="17">'性能テスト、ストレステストなど_補足'!$A$1:$Q$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AI$36</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="13">セキュリティテスト!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="8">データ互換性テスト!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="21">ユーザビリティテスト!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="19">運用シナリオテスト!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">機能テスト【ウェブアプリケーション】!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="7">機能テスト【ウェブサービス】!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">機能テスト【バッチアプリケーション】!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">機能テスト【メッセージング】!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">機能テスト【モバイルアプリケーション】!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">機能テスト【共通】!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="9">業務シナリオテスト!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="11">構成テスト!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="17">障害テスト!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="15">'性能テスト、ストレステストなど'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="14">セキュリティテスト!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="9">データ互換性テスト!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="22">ユーザビリティテスト!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="20">運用シナリオテスト!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">機能テスト【ウェブアプリケーション】!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="8">機能テスト【ウェブサービス】!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">機能テスト【バッチアプリケーション】!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">機能テスト【メッセージング】!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">機能テスト【モバイルアプリケーション】!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">機能テスト【共通】!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="10">業務シナリオテスト!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="12">構成テスト!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="18">障害テスト!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="16">'性能テスト、ストレステストなど'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
     <definedName name="シナリオテスト_バッチ">業務シナリオテスト!$A$22</definedName>
     <definedName name="シナリオテスト_共通">業務シナリオテスト!$A$3</definedName>
     <definedName name="ストレステスト_共通">'性能テスト、ストレステストなど'!$A$20</definedName>
@@ -86,7 +88,7 @@
     <definedName name="ユーザビリティテスト_ウェブアプリ">ユーザビリティテスト!$A$6</definedName>
     <definedName name="ロングランテスト_共通">'性能テスト、ストレステストなど'!$A$30</definedName>
     <definedName name="運用シナリオテスト_共通">運用シナリオテスト!$A$3</definedName>
-    <definedName name="機能テスト_ウェブアプリ" localSheetId="4">一覧!$J$24</definedName>
+    <definedName name="機能テスト_ウェブアプリ" localSheetId="5">一覧!$J$24</definedName>
     <definedName name="機能テスト_ウェブアプリ">機能テスト【ウェブアプリケーション】!$A$1</definedName>
     <definedName name="機能テスト_ウェブサービス">機能テスト【ウェブサービス】!$A$1</definedName>
     <definedName name="機能テスト_バッチ">機能テスト【バッチアプリケーション】!$A$1</definedName>
@@ -98,7 +100,7 @@
     <definedName name="性能テスト_ウェブアプリケーション">'性能テスト、ストレステストなど'!$A$37</definedName>
     <definedName name="性能テスト_バッチアプリケーション">'性能テスト、ストレステストなど'!$A$50</definedName>
     <definedName name="性能テスト_メッセージング">'性能テスト、ストレステストなど'!$A$56</definedName>
-    <definedName name="性能テスト_共通" localSheetId="4">'性能テスト、ストレステストなど'!#REF!</definedName>
+    <definedName name="性能テスト_共通" localSheetId="5">'性能テスト、ストレステストなど'!#REF!</definedName>
     <definedName name="性能テスト_共通">'性能テスト、ストレステストなど'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -117,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2797" uniqueCount="1389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2858" uniqueCount="1430">
   <si>
     <t>TIS株式会社</t>
     <rPh sb="1" eb="3">
@@ -17646,6 +17648,317 @@
   </si>
   <si>
     <t>数値項目に数値以外が入力された場合、エラーとなること。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変更履歴</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>版数</t>
+    <rPh sb="0" eb="2">
+      <t>ハンスウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>変更日</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンコウビ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>区分</t>
+    <rPh sb="0" eb="2">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>変更項目の番号・名称</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>変更内容</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>1.2版</t>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>表紙</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>ライセンス情報を付与</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フヨ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>テスト種別
+　性能テスト
+　ストレステスト
+　ボリュームテスト</t>
+    <rPh sb="3" eb="5">
+      <t>シュベツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイノウ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>性能テスト計画ガイドに合わせて、整合性が取れる表現に変更。</t>
+    <rPh sb="0" eb="2">
+      <t>セイノウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイカク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セイゴウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.2版</t>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>機能テスト【共通】
+　No.8</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>結合文字や合字についての観点を追加</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>機能テスト【ウェブアプリケーション】
+　No.87 ～ 93</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログ出力やリトライ制御、WebSocketについての観点を追加</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>機能テスト【ウェブサービス】
+　No.16</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バージョニングについての観点を追加</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セキュリティテスト
+■ウェブアプリケーション
+　No.5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WebSocketについての観点を追加</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セキュリティテスト
+■ウェブサービス
+　No2～4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>認可やCSRFについての観点を追加</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.3版</t>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>性能テスト、ストレステストなど
+■共通
+　性能テスト - SQL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>性能テスト、ストレステストなど
+■共通
+　No.16 〜 18</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新規に作成した性能テスト計画ガイドに合わせて、整合性が取れる表現に変更</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>性能テスト、ストレステストなど
+■共通
+　性能テスト - システム - IO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>機能テスト【モバイルアプリケーション】</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.4版</t>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>IOは性能の評価項目ではないため、記載を削除</t>
+    <rPh sb="3" eb="5">
+      <t>セイノウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テスト観点についての記載ではないため、記載を削除</t>
+    <rPh sb="3" eb="5">
+      <t>カンテン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>機能テスト【ウェブアプリケーション】
+　No.50</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>絵文字についての観点を追加</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>性能テスト、ストレステストなど
+■モバイルアプリケーション</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モバイルアプリケーションの性能テスト観点を追加</t>
+    <rPh sb="13" eb="15">
+      <t>セイノウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カンテン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モバイルアプリケーションの機能テスト観点を追加</t>
+    <rPh sb="13" eb="15">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テスト種別&amp;観点カタログ変更履歴_第1.1版以前.pdf</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※1.1版以前の履歴は、以下を参照してください。</t>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サンショウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -18226,7 +18539,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -18714,6 +19027,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="561">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -20352,7 +20721,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -20698,6 +21067,61 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="513" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="513" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="513" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="513" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="43" xfId="513" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="6" xfId="513" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="6" xfId="513" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="513" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -20734,9 +21158,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -20746,6 +21209,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -20755,53 +21227,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="561">
@@ -21849,7 +22276,7 @@
   </sheetPr>
   <dimension ref="A1:AI510"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.08984375" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
   <cols>
@@ -23688,6 +24115,263 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFCCFFCC"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:J25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="3" style="7" customWidth="1"/>
+    <col min="2" max="2" width="4.90625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="19.08984375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="21" style="8" customWidth="1"/>
+    <col min="6" max="6" width="15.90625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="92.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.54296875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="35.453125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="45.6328125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="7" customWidth="1"/>
+    <col min="12" max="16384" width="9.08984375" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.5">
+      <c r="B1" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="2:10" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.5">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B3" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="J3" s="55" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>862</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" s="8" customFormat="1" ht="43.5" x14ac:dyDescent="0.5">
+      <c r="B5" s="15">
+        <f>ROW()-ROW($B$4)</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="81" t="s">
+        <v>863</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>864</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>865</v>
+      </c>
+      <c r="I5" s="81" t="s">
+        <v>866</v>
+      </c>
+      <c r="J5" s="81" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" s="8" customFormat="1" ht="43.5" x14ac:dyDescent="0.5">
+      <c r="B6" s="15">
+        <f>ROW()-ROW($B$4)</f>
+        <v>2</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>868</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>865</v>
+      </c>
+      <c r="I6" s="79" t="s">
+        <v>870</v>
+      </c>
+      <c r="J6" s="79"/>
+    </row>
+    <row r="7" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
+      <c r="B7" s="82">
+        <f>ROW()-ROW($B$4)</f>
+        <v>3</v>
+      </c>
+      <c r="C7" s="79" t="s">
+        <v>871</v>
+      </c>
+      <c r="D7" s="79" t="s">
+        <v>872</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>873</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>865</v>
+      </c>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+    </row>
+    <row r="8" spans="2:10" s="8" customFormat="1" ht="43.5" x14ac:dyDescent="0.5">
+      <c r="B8" s="15">
+        <f>ROW()-ROW($B$4)</f>
+        <v>4</v>
+      </c>
+      <c r="C8" s="82"/>
+      <c r="D8" s="45" t="s">
+        <v>874</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="G8" s="82" t="s">
+        <v>875</v>
+      </c>
+      <c r="H8" s="82" t="s">
+        <v>865</v>
+      </c>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+    </row>
+    <row r="9" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="7" t="s">
+        <v>876</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="12" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="15" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="16" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="7" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B20" s="7" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B21" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B24" s="7" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B25" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FFCCFFCC"/>
@@ -24238,7 +24922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -24271,24 +24955,24 @@
       <c r="C4" s="80" t="s">
         <v>924</v>
       </c>
-      <c r="D4" s="125" t="s">
+      <c r="D4" s="144" t="s">
         <v>925</v>
       </c>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125" t="s">
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="125"/>
-      <c r="M4" s="125"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="144"/>
+      <c r="L4" s="144"/>
+      <c r="M4" s="144"/>
+      <c r="N4" s="144"/>
+      <c r="O4" s="144"/>
+      <c r="P4" s="144"/>
+      <c r="Q4" s="144"/>
     </row>
     <row r="5" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C5" s="49">
@@ -24630,7 +25314,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFCCFFCC"/>
@@ -24720,7 +25404,7 @@
     </row>
     <row r="5" spans="2:11" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B5" s="15">
-        <f t="shared" ref="B5:B6" si="0">ROW()-ROW($B$4)</f>
+        <f>ROW()-ROW($B$4)</f>
         <v>1</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -24751,7 +25435,7 @@
     </row>
     <row r="6" spans="2:11" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B6" s="15">
-        <f t="shared" si="0"/>
+        <f>ROW()-ROW($B$4)</f>
         <v>2</v>
       </c>
       <c r="C6" s="15" t="s">
@@ -24828,7 +25512,7 @@
     </row>
     <row r="11" spans="2:11" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B11" s="15">
-        <f t="shared" ref="B11:B13" si="1">ROW()-ROW($B$10)</f>
+        <f>ROW()-ROW($B$10)</f>
         <v>1</v>
       </c>
       <c r="C11" s="81" t="s">
@@ -24859,7 +25543,7 @@
     </row>
     <row r="12" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B12" s="15">
-        <f t="shared" si="1"/>
+        <f>ROW()-ROW($B$10)</f>
         <v>2</v>
       </c>
       <c r="C12" s="79"/>
@@ -24888,7 +25572,7 @@
     </row>
     <row r="13" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B13" s="15">
-        <f t="shared" si="1"/>
+        <f>ROW()-ROW($B$10)</f>
         <v>3</v>
       </c>
       <c r="C13" s="79"/>
@@ -24962,7 +25646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -24994,24 +25678,24 @@
       <c r="C4" s="80" t="s">
         <v>924</v>
       </c>
-      <c r="D4" s="125" t="s">
+      <c r="D4" s="144" t="s">
         <v>925</v>
       </c>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125" t="s">
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="125"/>
-      <c r="M4" s="125"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="144"/>
+      <c r="L4" s="144"/>
+      <c r="M4" s="144"/>
+      <c r="N4" s="144"/>
+      <c r="O4" s="144"/>
+      <c r="P4" s="144"/>
+      <c r="Q4" s="144"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.5">
       <c r="C5" s="49">
@@ -25253,7 +25937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFCCFFCC"/>
@@ -25793,7 +26477,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C26" s="126" t="s">
+      <c r="C26" s="145" t="s">
         <v>1056</v>
       </c>
       <c r="D26" s="81" t="s">
@@ -25821,7 +26505,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C27" s="127"/>
+      <c r="C27" s="146"/>
       <c r="D27" s="82"/>
       <c r="E27" s="43"/>
       <c r="F27" s="82"/>
@@ -26478,7 +27162,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C58" s="126" t="s">
+      <c r="C58" s="145" t="s">
         <v>1061</v>
       </c>
       <c r="D58" s="81" t="s">
@@ -26508,7 +27192,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C59" s="124"/>
+      <c r="C59" s="143"/>
       <c r="D59" s="79"/>
       <c r="E59" s="42"/>
       <c r="F59" s="41" t="s">
@@ -26895,7 +27579,7 @@
     </row>
     <row r="84" spans="2:10" s="8" customFormat="1" ht="58" x14ac:dyDescent="0.5">
       <c r="B84" s="15">
-        <f t="shared" ref="B84" si="2">ROW()-ROW($B$83)</f>
+        <f>ROW()-ROW($B$83)</f>
         <v>1</v>
       </c>
       <c r="C84" s="81" t="s">
@@ -26923,10 +27607,10 @@
     </row>
     <row r="85" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B85" s="15">
-        <f t="shared" ref="B85:B86" si="3">ROW()-ROW($B$83)</f>
+        <f>ROW()-ROW($B$83)</f>
         <v>2</v>
       </c>
-      <c r="C85" s="126" t="s">
+      <c r="C85" s="145" t="s">
         <v>1061</v>
       </c>
       <c r="D85" s="81" t="s">
@@ -26953,10 +27637,10 @@
     </row>
     <row r="86" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B86" s="15">
-        <f t="shared" si="3"/>
+        <f>ROW()-ROW($B$83)</f>
         <v>3</v>
       </c>
-      <c r="C86" s="127"/>
+      <c r="C86" s="146"/>
       <c r="D86" s="82"/>
       <c r="E86" s="45" t="s">
         <v>1007</v>
@@ -26989,7 +27673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -27021,68 +27705,68 @@
       <c r="C4" s="62" t="s">
         <v>924</v>
       </c>
-      <c r="D4" s="129" t="s">
+      <c r="D4" s="158" t="s">
         <v>1148</v>
       </c>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129" t="s">
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="158" t="s">
         <v>1149</v>
       </c>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129"/>
-      <c r="K4" s="129"/>
-      <c r="L4" s="129"/>
-      <c r="M4" s="129"/>
-      <c r="N4" s="129"/>
-      <c r="O4" s="129"/>
-      <c r="P4" s="129"/>
-      <c r="Q4" s="129"/>
+      <c r="I4" s="158"/>
+      <c r="J4" s="158"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="158"/>
+      <c r="M4" s="158"/>
+      <c r="N4" s="158"/>
+      <c r="O4" s="158"/>
+      <c r="P4" s="158"/>
+      <c r="Q4" s="158"/>
     </row>
     <row r="5" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C5" s="61">
         <v>1</v>
       </c>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="162" t="s">
         <v>1150</v>
       </c>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="128" t="s">
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="164"/>
+      <c r="H5" s="147" t="s">
         <v>1151</v>
       </c>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
-      <c r="M5" s="128"/>
-      <c r="N5" s="128"/>
-      <c r="O5" s="128"/>
-      <c r="P5" s="128"/>
-      <c r="Q5" s="128"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="147"/>
+      <c r="K5" s="147"/>
+      <c r="L5" s="147"/>
+      <c r="M5" s="147"/>
+      <c r="N5" s="147"/>
+      <c r="O5" s="147"/>
+      <c r="P5" s="147"/>
+      <c r="Q5" s="147"/>
     </row>
     <row r="6" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C6" s="61">
         <v>2</v>
       </c>
-      <c r="D6" s="133"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="128" t="s">
+      <c r="D6" s="168"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="147" t="s">
         <v>1152</v>
       </c>
-      <c r="I6" s="128"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="128"/>
-      <c r="L6" s="128"/>
-      <c r="M6" s="128"/>
-      <c r="N6" s="128"/>
-      <c r="O6" s="128"/>
-      <c r="P6" s="128"/>
-      <c r="Q6" s="128"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="147"/>
+      <c r="K6" s="147"/>
+      <c r="L6" s="147"/>
+      <c r="M6" s="147"/>
+      <c r="N6" s="147"/>
+      <c r="O6" s="147"/>
+      <c r="P6" s="147"/>
+      <c r="Q6" s="147"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B9" s="78" t="s">
@@ -27093,203 +27777,215 @@
       <c r="C10" s="62" t="s">
         <v>924</v>
       </c>
-      <c r="D10" s="129" t="s">
+      <c r="D10" s="158" t="s">
         <v>1148</v>
       </c>
-      <c r="E10" s="129"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="129"/>
-      <c r="H10" s="129" t="s">
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="158" t="s">
         <v>1149</v>
       </c>
-      <c r="I10" s="129"/>
-      <c r="J10" s="129"/>
-      <c r="K10" s="129"/>
-      <c r="L10" s="129"/>
-      <c r="M10" s="129"/>
-      <c r="N10" s="129"/>
-      <c r="O10" s="129"/>
-      <c r="P10" s="129"/>
-      <c r="Q10" s="129"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="158"/>
+      <c r="K10" s="158"/>
+      <c r="L10" s="158"/>
+      <c r="M10" s="158"/>
+      <c r="N10" s="158"/>
+      <c r="O10" s="158"/>
+      <c r="P10" s="158"/>
+      <c r="Q10" s="158"/>
     </row>
     <row r="11" spans="2:17" ht="55.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C11" s="61">
         <v>1</v>
       </c>
-      <c r="D11" s="130" t="s">
+      <c r="D11" s="162" t="s">
         <v>1154</v>
       </c>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="128" t="s">
+      <c r="E11" s="163"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="164"/>
+      <c r="H11" s="147" t="s">
         <v>1155</v>
       </c>
-      <c r="I11" s="128"/>
-      <c r="J11" s="128"/>
-      <c r="K11" s="128"/>
-      <c r="L11" s="128"/>
-      <c r="M11" s="128"/>
-      <c r="N11" s="128"/>
-      <c r="O11" s="128"/>
-      <c r="P11" s="128"/>
-      <c r="Q11" s="128"/>
+      <c r="I11" s="147"/>
+      <c r="J11" s="147"/>
+      <c r="K11" s="147"/>
+      <c r="L11" s="147"/>
+      <c r="M11" s="147"/>
+      <c r="N11" s="147"/>
+      <c r="O11" s="147"/>
+      <c r="P11" s="147"/>
+      <c r="Q11" s="147"/>
     </row>
     <row r="12" spans="2:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C12" s="61">
         <v>2</v>
       </c>
-      <c r="D12" s="140"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="141"/>
-      <c r="G12" s="142"/>
-      <c r="H12" s="128" t="s">
+      <c r="D12" s="165"/>
+      <c r="E12" s="166"/>
+      <c r="F12" s="166"/>
+      <c r="G12" s="167"/>
+      <c r="H12" s="147" t="s">
         <v>1156</v>
       </c>
-      <c r="I12" s="128"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="128"/>
-      <c r="L12" s="128"/>
-      <c r="M12" s="128"/>
-      <c r="N12" s="128"/>
-      <c r="O12" s="128"/>
-      <c r="P12" s="128"/>
-      <c r="Q12" s="128"/>
+      <c r="I12" s="147"/>
+      <c r="J12" s="147"/>
+      <c r="K12" s="147"/>
+      <c r="L12" s="147"/>
+      <c r="M12" s="147"/>
+      <c r="N12" s="147"/>
+      <c r="O12" s="147"/>
+      <c r="P12" s="147"/>
+      <c r="Q12" s="147"/>
     </row>
     <row r="13" spans="2:17" ht="131.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C13" s="61">
         <v>3</v>
       </c>
-      <c r="D13" s="133"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="128" t="s">
+      <c r="D13" s="168"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="169"/>
+      <c r="G13" s="170"/>
+      <c r="H13" s="147" t="s">
         <v>1157</v>
       </c>
-      <c r="I13" s="136"/>
-      <c r="J13" s="136"/>
-      <c r="K13" s="136"/>
-      <c r="L13" s="136"/>
-      <c r="M13" s="136"/>
-      <c r="N13" s="136"/>
-      <c r="O13" s="136"/>
-      <c r="P13" s="136"/>
-      <c r="Q13" s="136"/>
+      <c r="I13" s="148"/>
+      <c r="J13" s="148"/>
+      <c r="K13" s="148"/>
+      <c r="L13" s="148"/>
+      <c r="M13" s="148"/>
+      <c r="N13" s="148"/>
+      <c r="O13" s="148"/>
+      <c r="P13" s="148"/>
+      <c r="Q13" s="148"/>
     </row>
     <row r="14" spans="2:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C14" s="61">
         <v>4</v>
       </c>
-      <c r="D14" s="143" t="s">
+      <c r="D14" s="149" t="s">
         <v>1158</v>
       </c>
-      <c r="E14" s="144"/>
-      <c r="F14" s="144"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="128" t="s">
+      <c r="E14" s="150"/>
+      <c r="F14" s="150"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="147" t="s">
         <v>1159</v>
       </c>
-      <c r="I14" s="136"/>
-      <c r="J14" s="136"/>
-      <c r="K14" s="136"/>
-      <c r="L14" s="136"/>
-      <c r="M14" s="136"/>
-      <c r="N14" s="136"/>
-      <c r="O14" s="136"/>
-      <c r="P14" s="136"/>
-      <c r="Q14" s="136"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="148"/>
+      <c r="K14" s="148"/>
+      <c r="L14" s="148"/>
+      <c r="M14" s="148"/>
+      <c r="N14" s="148"/>
+      <c r="O14" s="148"/>
+      <c r="P14" s="148"/>
+      <c r="Q14" s="148"/>
     </row>
     <row r="15" spans="2:17" ht="39" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C15" s="61">
         <v>5</v>
       </c>
-      <c r="D15" s="146"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="148"/>
-      <c r="H15" s="136" t="s">
+      <c r="D15" s="152"/>
+      <c r="E15" s="153"/>
+      <c r="F15" s="153"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="148" t="s">
         <v>1160</v>
       </c>
-      <c r="I15" s="136"/>
-      <c r="J15" s="136"/>
-      <c r="K15" s="136"/>
-      <c r="L15" s="136"/>
-      <c r="M15" s="136"/>
-      <c r="N15" s="136"/>
-      <c r="O15" s="136"/>
-      <c r="P15" s="136"/>
-      <c r="Q15" s="136"/>
+      <c r="I15" s="148"/>
+      <c r="J15" s="148"/>
+      <c r="K15" s="148"/>
+      <c r="L15" s="148"/>
+      <c r="M15" s="148"/>
+      <c r="N15" s="148"/>
+      <c r="O15" s="148"/>
+      <c r="P15" s="148"/>
+      <c r="Q15" s="148"/>
     </row>
     <row r="16" spans="2:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C16" s="61">
         <v>6</v>
       </c>
-      <c r="D16" s="149"/>
-      <c r="E16" s="150"/>
-      <c r="F16" s="150"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="137" t="s">
+      <c r="D16" s="155"/>
+      <c r="E16" s="156"/>
+      <c r="F16" s="156"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="159" t="s">
         <v>1161</v>
       </c>
-      <c r="I16" s="138"/>
-      <c r="J16" s="138"/>
-      <c r="K16" s="138"/>
-      <c r="L16" s="138"/>
-      <c r="M16" s="138"/>
-      <c r="N16" s="138"/>
-      <c r="O16" s="138"/>
-      <c r="P16" s="138"/>
-      <c r="Q16" s="139"/>
+      <c r="I16" s="160"/>
+      <c r="J16" s="160"/>
+      <c r="K16" s="160"/>
+      <c r="L16" s="160"/>
+      <c r="M16" s="160"/>
+      <c r="N16" s="160"/>
+      <c r="O16" s="160"/>
+      <c r="P16" s="160"/>
+      <c r="Q16" s="161"/>
     </row>
     <row r="17" spans="3:17" ht="161.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C17" s="61">
         <v>7</v>
       </c>
-      <c r="D17" s="128" t="s">
+      <c r="D17" s="147" t="s">
         <v>1162</v>
       </c>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="128" t="s">
+      <c r="E17" s="148"/>
+      <c r="F17" s="148"/>
+      <c r="G17" s="148"/>
+      <c r="H17" s="147" t="s">
         <v>1163</v>
       </c>
-      <c r="I17" s="128"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="128"/>
-      <c r="L17" s="128"/>
-      <c r="M17" s="128"/>
-      <c r="N17" s="128"/>
-      <c r="O17" s="128"/>
-      <c r="P17" s="128"/>
-      <c r="Q17" s="128"/>
+      <c r="I17" s="147"/>
+      <c r="J17" s="147"/>
+      <c r="K17" s="147"/>
+      <c r="L17" s="147"/>
+      <c r="M17" s="147"/>
+      <c r="N17" s="147"/>
+      <c r="O17" s="147"/>
+      <c r="P17" s="147"/>
+      <c r="Q17" s="147"/>
     </row>
     <row r="18" spans="3:17" ht="145.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C18" s="61">
         <v>8</v>
       </c>
-      <c r="D18" s="128" t="s">
+      <c r="D18" s="147" t="s">
         <v>1164</v>
       </c>
-      <c r="E18" s="136"/>
-      <c r="F18" s="136"/>
-      <c r="G18" s="136"/>
-      <c r="H18" s="128" t="s">
+      <c r="E18" s="148"/>
+      <c r="F18" s="148"/>
+      <c r="G18" s="148"/>
+      <c r="H18" s="147" t="s">
         <v>1165</v>
       </c>
-      <c r="I18" s="136"/>
-      <c r="J18" s="136"/>
-      <c r="K18" s="136"/>
-      <c r="L18" s="136"/>
-      <c r="M18" s="136"/>
-      <c r="N18" s="136"/>
-      <c r="O18" s="136"/>
-      <c r="P18" s="136"/>
-      <c r="Q18" s="136"/>
+      <c r="I18" s="148"/>
+      <c r="J18" s="148"/>
+      <c r="K18" s="148"/>
+      <c r="L18" s="148"/>
+      <c r="M18" s="148"/>
+      <c r="N18" s="148"/>
+      <c r="O18" s="148"/>
+      <c r="P18" s="148"/>
+      <c r="Q18" s="148"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="H5:Q5"/>
+    <mergeCell ref="H4:Q4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H6:Q6"/>
+    <mergeCell ref="D5:G6"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:Q10"/>
+    <mergeCell ref="H14:Q14"/>
+    <mergeCell ref="H15:Q15"/>
+    <mergeCell ref="H16:Q16"/>
+    <mergeCell ref="D11:G13"/>
+    <mergeCell ref="H11:Q11"/>
     <mergeCell ref="H17:Q17"/>
     <mergeCell ref="D17:G17"/>
     <mergeCell ref="H18:Q18"/>
@@ -27297,18 +27993,6 @@
     <mergeCell ref="H12:Q12"/>
     <mergeCell ref="H13:Q13"/>
     <mergeCell ref="D14:G16"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H10:Q10"/>
-    <mergeCell ref="H14:Q14"/>
-    <mergeCell ref="H15:Q15"/>
-    <mergeCell ref="H16:Q16"/>
-    <mergeCell ref="D11:G13"/>
-    <mergeCell ref="H11:Q11"/>
-    <mergeCell ref="H5:Q5"/>
-    <mergeCell ref="H4:Q4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H6:Q6"/>
-    <mergeCell ref="D5:G6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -27317,7 +28001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -28028,7 +28712,7 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B37" s="15">
-        <f t="shared" ref="B37:B38" si="1">ROW()-ROW($B$36)</f>
+        <f>ROW()-ROW($B$36)</f>
         <v>1</v>
       </c>
       <c r="C37" s="81" t="s">
@@ -28056,7 +28740,7 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B38" s="15">
-        <f t="shared" si="1"/>
+        <f>ROW()-ROW($B$36)</f>
         <v>2</v>
       </c>
       <c r="C38" s="82"/>
@@ -28356,7 +29040,7 @@
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B57" s="15">
-        <f t="shared" ref="B57:B59" si="2">ROW()-ROW($B$55)</f>
+        <f>ROW()-ROW($B$55)</f>
         <v>2</v>
       </c>
       <c r="C57" s="50"/>
@@ -28376,7 +29060,7 @@
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B58" s="15">
-        <f t="shared" si="2"/>
+        <f>ROW()-ROW($B$55)</f>
         <v>3</v>
       </c>
       <c r="C58" s="50"/>
@@ -28396,7 +29080,7 @@
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B59" s="15">
-        <f t="shared" si="2"/>
+        <f>ROW()-ROW($B$55)</f>
         <v>4</v>
       </c>
       <c r="C59" s="52"/>
@@ -28438,7 +29122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -28470,24 +29154,24 @@
       <c r="C4" s="80" t="s">
         <v>924</v>
       </c>
-      <c r="D4" s="125" t="s">
+      <c r="D4" s="144" t="s">
         <v>925</v>
       </c>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125" t="s">
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="125"/>
-      <c r="M4" s="125"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="144"/>
+      <c r="L4" s="144"/>
+      <c r="M4" s="144"/>
+      <c r="N4" s="144"/>
+      <c r="O4" s="144"/>
+      <c r="P4" s="144"/>
+      <c r="Q4" s="144"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.5">
       <c r="C5" s="50">
@@ -28734,24 +29418,24 @@
       <c r="C28" s="80" t="s">
         <v>924</v>
       </c>
-      <c r="D28" s="125" t="s">
+      <c r="D28" s="144" t="s">
         <v>925</v>
       </c>
-      <c r="E28" s="125"/>
-      <c r="F28" s="125"/>
-      <c r="G28" s="125"/>
-      <c r="H28" s="125" t="s">
+      <c r="E28" s="144"/>
+      <c r="F28" s="144"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="144" t="s">
         <v>66</v>
       </c>
-      <c r="I28" s="125"/>
-      <c r="J28" s="125"/>
-      <c r="K28" s="125"/>
-      <c r="L28" s="125"/>
-      <c r="M28" s="125"/>
-      <c r="N28" s="125"/>
-      <c r="O28" s="125"/>
-      <c r="P28" s="125"/>
-      <c r="Q28" s="125"/>
+      <c r="I28" s="144"/>
+      <c r="J28" s="144"/>
+      <c r="K28" s="144"/>
+      <c r="L28" s="144"/>
+      <c r="M28" s="144"/>
+      <c r="N28" s="144"/>
+      <c r="O28" s="144"/>
+      <c r="P28" s="144"/>
+      <c r="Q28" s="144"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.5">
       <c r="C29" s="50">
@@ -28803,24 +29487,24 @@
       <c r="C35" s="80" t="s">
         <v>924</v>
       </c>
-      <c r="D35" s="125" t="s">
+      <c r="D35" s="144" t="s">
         <v>925</v>
       </c>
-      <c r="E35" s="125"/>
-      <c r="F35" s="125"/>
-      <c r="G35" s="125"/>
-      <c r="H35" s="125" t="s">
+      <c r="E35" s="144"/>
+      <c r="F35" s="144"/>
+      <c r="G35" s="144"/>
+      <c r="H35" s="144" t="s">
         <v>66</v>
       </c>
-      <c r="I35" s="125"/>
-      <c r="J35" s="125"/>
-      <c r="K35" s="125"/>
-      <c r="L35" s="125"/>
-      <c r="M35" s="125"/>
-      <c r="N35" s="125"/>
-      <c r="O35" s="125"/>
-      <c r="P35" s="125"/>
-      <c r="Q35" s="125"/>
+      <c r="I35" s="144"/>
+      <c r="J35" s="144"/>
+      <c r="K35" s="144"/>
+      <c r="L35" s="144"/>
+      <c r="M35" s="144"/>
+      <c r="N35" s="144"/>
+      <c r="O35" s="144"/>
+      <c r="P35" s="144"/>
+      <c r="Q35" s="144"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.5">
       <c r="C36" s="49">
@@ -28882,24 +29566,24 @@
       <c r="C42" s="80" t="s">
         <v>924</v>
       </c>
-      <c r="D42" s="125" t="s">
+      <c r="D42" s="144" t="s">
         <v>925</v>
       </c>
-      <c r="E42" s="125"/>
-      <c r="F42" s="125"/>
-      <c r="G42" s="125"/>
-      <c r="H42" s="125" t="s">
+      <c r="E42" s="144"/>
+      <c r="F42" s="144"/>
+      <c r="G42" s="144"/>
+      <c r="H42" s="144" t="s">
         <v>66</v>
       </c>
-      <c r="I42" s="125"/>
-      <c r="J42" s="125"/>
-      <c r="K42" s="125"/>
-      <c r="L42" s="125"/>
-      <c r="M42" s="125"/>
-      <c r="N42" s="125"/>
-      <c r="O42" s="125"/>
-      <c r="P42" s="125"/>
-      <c r="Q42" s="125"/>
+      <c r="I42" s="144"/>
+      <c r="J42" s="144"/>
+      <c r="K42" s="144"/>
+      <c r="L42" s="144"/>
+      <c r="M42" s="144"/>
+      <c r="N42" s="144"/>
+      <c r="O42" s="144"/>
+      <c r="P42" s="144"/>
+      <c r="Q42" s="144"/>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.5">
       <c r="C43" s="49">
@@ -28982,24 +29666,24 @@
       <c r="C50" s="80" t="s">
         <v>924</v>
       </c>
-      <c r="D50" s="125" t="s">
+      <c r="D50" s="144" t="s">
         <v>925</v>
       </c>
-      <c r="E50" s="125"/>
-      <c r="F50" s="125"/>
-      <c r="G50" s="125"/>
-      <c r="H50" s="125" t="s">
+      <c r="E50" s="144"/>
+      <c r="F50" s="144"/>
+      <c r="G50" s="144"/>
+      <c r="H50" s="144" t="s">
         <v>66</v>
       </c>
-      <c r="I50" s="125"/>
-      <c r="J50" s="125"/>
-      <c r="K50" s="125"/>
-      <c r="L50" s="125"/>
-      <c r="M50" s="125"/>
-      <c r="N50" s="125"/>
-      <c r="O50" s="125"/>
-      <c r="P50" s="125"/>
-      <c r="Q50" s="125"/>
+      <c r="I50" s="144"/>
+      <c r="J50" s="144"/>
+      <c r="K50" s="144"/>
+      <c r="L50" s="144"/>
+      <c r="M50" s="144"/>
+      <c r="N50" s="144"/>
+      <c r="O50" s="144"/>
+      <c r="P50" s="144"/>
+      <c r="Q50" s="144"/>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.5">
       <c r="C51" s="65">
@@ -29079,7 +29763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFCCFFCC"/>
@@ -29402,7 +30086,338 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA9DBA0-2246-4C3A-80ED-646269B04D10}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="4.453125" style="135" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1796875" style="135" customWidth="1"/>
+    <col min="3" max="4" width="10.453125" style="135" customWidth="1"/>
+    <col min="5" max="5" width="23.54296875" style="135" customWidth="1"/>
+    <col min="6" max="6" width="49.7265625" style="135" customWidth="1"/>
+    <col min="7" max="16384" width="3.90625" style="135"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="119" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="117" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="118"/>
+    </row>
+    <row r="2" spans="1:6" s="119" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="119" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="119" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="171" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="122" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="120" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B4" s="121" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C4" s="121" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D4" s="121" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E4" s="121" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F4" s="120" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="122" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="123">
+        <v>1</v>
+      </c>
+      <c r="B5" s="124" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C5" s="125">
+        <v>43370</v>
+      </c>
+      <c r="D5" s="124" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E5" s="126" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F5" s="127" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="122" customFormat="1" ht="58" x14ac:dyDescent="0.5">
+      <c r="A6" s="128">
+        <v>2</v>
+      </c>
+      <c r="B6" s="129" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C6" s="130">
+        <v>43245</v>
+      </c>
+      <c r="D6" s="129" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E6" s="131" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F6" s="132" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="122" customFormat="1" ht="29" x14ac:dyDescent="0.5">
+      <c r="A7" s="128">
+        <v>3</v>
+      </c>
+      <c r="B7" s="129" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C7" s="133">
+        <v>44279</v>
+      </c>
+      <c r="D7" s="134" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E7" s="131" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F7" s="132" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="122" customFormat="1" ht="43.5" x14ac:dyDescent="0.5">
+      <c r="A8" s="128">
+        <v>4</v>
+      </c>
+      <c r="B8" s="129" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C8" s="133">
+        <v>44279</v>
+      </c>
+      <c r="D8" s="134" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E8" s="131" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F8" s="132" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="122" customFormat="1" ht="29" x14ac:dyDescent="0.5">
+      <c r="A9" s="128">
+        <v>5</v>
+      </c>
+      <c r="B9" s="129" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C9" s="133">
+        <v>44279</v>
+      </c>
+      <c r="D9" s="134" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E9" s="131" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F9" s="132" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="122" customFormat="1" ht="43.5" x14ac:dyDescent="0.5">
+      <c r="A10" s="128">
+        <v>6</v>
+      </c>
+      <c r="B10" s="129" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C10" s="133">
+        <v>44279</v>
+      </c>
+      <c r="D10" s="134" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E10" s="131" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F10" s="132" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="122" customFormat="1" ht="43.5" x14ac:dyDescent="0.5">
+      <c r="A11" s="128">
+        <v>7</v>
+      </c>
+      <c r="B11" s="129" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C11" s="133">
+        <v>44279</v>
+      </c>
+      <c r="D11" s="134" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E11" s="131" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F11" s="132" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="122" customFormat="1" ht="58" x14ac:dyDescent="0.5">
+      <c r="A12" s="128">
+        <v>8</v>
+      </c>
+      <c r="B12" s="129" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C12" s="133">
+        <v>44651</v>
+      </c>
+      <c r="D12" s="134" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E12" s="131" t="s">
+        <v>1415</v>
+      </c>
+      <c r="F12" s="132" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="122" customFormat="1" ht="58" x14ac:dyDescent="0.5">
+      <c r="A13" s="128">
+        <v>9</v>
+      </c>
+      <c r="B13" s="129" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C13" s="133">
+        <v>44651</v>
+      </c>
+      <c r="D13" s="134" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E13" s="131" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F13" s="132" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="122" customFormat="1" ht="58" x14ac:dyDescent="0.5">
+      <c r="A14" s="128">
+        <v>10</v>
+      </c>
+      <c r="B14" s="129" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C14" s="133">
+        <v>44651</v>
+      </c>
+      <c r="D14" s="134" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E14" s="131" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F14" s="132" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="122" customFormat="1" ht="43.5" x14ac:dyDescent="0.5">
+      <c r="A15" s="128">
+        <v>11</v>
+      </c>
+      <c r="B15" s="129" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C15" s="133">
+        <v>45016</v>
+      </c>
+      <c r="D15" s="134" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E15" s="131" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F15" s="132" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="122" customFormat="1" ht="29" x14ac:dyDescent="0.5">
+      <c r="A16" s="128">
+        <v>12</v>
+      </c>
+      <c r="B16" s="129" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C16" s="133">
+        <v>45016</v>
+      </c>
+      <c r="D16" s="134" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E16" s="131" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F16" s="132" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="122" customFormat="1" ht="43.5" x14ac:dyDescent="0.5">
+      <c r="A17" s="128">
+        <v>13</v>
+      </c>
+      <c r="B17" s="129" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C17" s="133">
+        <v>45016</v>
+      </c>
+      <c r="D17" s="134" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E17" s="131" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F17" s="132" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{5751A7F8-C241-4534-9C1B-759D3CB59C7B}"/>
+  </hyperlinks>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="6" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -29434,24 +30449,24 @@
       <c r="C4" s="80" t="s">
         <v>924</v>
       </c>
-      <c r="D4" s="125" t="s">
+      <c r="D4" s="144" t="s">
         <v>925</v>
       </c>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125" t="s">
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="125"/>
-      <c r="M4" s="125"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="144"/>
+      <c r="L4" s="144"/>
+      <c r="M4" s="144"/>
+      <c r="N4" s="144"/>
+      <c r="O4" s="144"/>
+      <c r="P4" s="144"/>
+      <c r="Q4" s="144"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.5">
       <c r="C5" s="49">
@@ -29525,14 +30540,1205 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFCCFFCC"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="3" style="7" customWidth="1"/>
+    <col min="2" max="2" width="4.90625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="19.08984375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="21" style="8" customWidth="1"/>
+    <col min="6" max="6" width="15.90625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="92.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.54296875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="35.453125" style="7" customWidth="1"/>
+    <col min="10" max="11" width="45.6328125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="9.08984375" style="7" customWidth="1"/>
+    <col min="13" max="16384" width="9.08984375" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.5">
+      <c r="B1" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.5">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="K3" s="55" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>862</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
+      <c r="B5" s="15">
+        <f>ROW()-ROW($B$4)</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="81" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D5" s="81" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E5" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>1312</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>1313</v>
+      </c>
+      <c r="I5" s="81" t="s">
+        <v>1314</v>
+      </c>
+      <c r="J5" s="81" t="s">
+        <v>1315</v>
+      </c>
+      <c r="K5" s="39"/>
+    </row>
+    <row r="6" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="15">
+        <f>ROW()-ROW($B$4)</f>
+        <v>2</v>
+      </c>
+      <c r="C6" s="79"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="40" t="s">
+        <v>1316</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>1313</v>
+      </c>
+      <c r="I6" s="79" t="s">
+        <v>1317</v>
+      </c>
+      <c r="J6" s="79"/>
+      <c r="K6" s="92"/>
+    </row>
+    <row r="7" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="15">
+        <f>ROW()-ROW($B$4)</f>
+        <v>3</v>
+      </c>
+      <c r="C7" s="79"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40" t="s">
+        <v>1318</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>1313</v>
+      </c>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="92"/>
+    </row>
+    <row r="8" spans="1:11" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
+      <c r="B8" s="15">
+        <f t="shared" ref="B8:B14" si="0">ROW()-ROW($B$4)</f>
+        <v>4</v>
+      </c>
+      <c r="C8" s="82"/>
+      <c r="D8" s="45" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>1320</v>
+      </c>
+      <c r="H8" s="82" t="s">
+        <v>1313</v>
+      </c>
+      <c r="I8" s="79"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="45" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="8" customFormat="1" ht="58" x14ac:dyDescent="0.5">
+      <c r="B9" s="15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C9" s="81" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>1324</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>1325</v>
+      </c>
+      <c r="I9" s="79"/>
+      <c r="J9" s="81" t="s">
+        <v>1326</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
+      <c r="B10" s="15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C10" s="82"/>
+      <c r="D10" s="45" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E10" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>1329</v>
+      </c>
+      <c r="H10" s="45" t="s">
+        <v>1325</v>
+      </c>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="45" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
+      <c r="B11" s="15">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C11" s="81" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D11" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>1332</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>1333</v>
+      </c>
+      <c r="I11" s="81" t="s">
+        <v>1334</v>
+      </c>
+      <c r="J11" s="81" t="s">
+        <v>1335</v>
+      </c>
+      <c r="K11" s="39"/>
+    </row>
+    <row r="12" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="15">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C12" s="79"/>
+      <c r="D12" s="44" t="s">
+        <v>524</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>1336</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I12" s="79" t="s">
+        <v>1037</v>
+      </c>
+      <c r="J12" s="79"/>
+      <c r="K12" s="93"/>
+    </row>
+    <row r="13" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="15">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="41" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I13" s="79" t="s">
+        <v>268</v>
+      </c>
+      <c r="J13" s="79"/>
+      <c r="K13" s="93"/>
+    </row>
+    <row r="14" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="45" t="s">
+        <v>1339</v>
+      </c>
+      <c r="H14" s="45" t="s">
+        <v>527</v>
+      </c>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="94"/>
+    </row>
+    <row r="15" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="16" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="20" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="21" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B21" s="7" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B22" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B25" s="7" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B26" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B29" s="7" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B30" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:Q22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="3" style="7" customWidth="1"/>
+    <col min="2" max="3" width="4.90625" style="7" customWidth="1"/>
+    <col min="4" max="6" width="9.08984375" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="9.08984375" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17" ht="16" x14ac:dyDescent="0.5">
+      <c r="B1" s="1" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="B3" s="7" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="C4" s="80" t="s">
+        <v>924</v>
+      </c>
+      <c r="D4" s="144" t="s">
+        <v>925</v>
+      </c>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="144"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="144"/>
+      <c r="L4" s="144"/>
+      <c r="M4" s="144"/>
+      <c r="N4" s="144"/>
+      <c r="O4" s="144"/>
+      <c r="P4" s="144"/>
+      <c r="Q4" s="144"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="C5" s="50">
+        <v>1</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>1342</v>
+      </c>
+      <c r="G5" s="68"/>
+      <c r="H5" s="67" t="s">
+        <v>1343</v>
+      </c>
+      <c r="Q5" s="68"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="C6" s="50"/>
+      <c r="D6" s="67"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="71" t="s">
+        <v>1344</v>
+      </c>
+      <c r="Q6" s="68"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="C7" s="50"/>
+      <c r="D7" s="67"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="71" t="s">
+        <v>1345</v>
+      </c>
+      <c r="Q7" s="68"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="C8" s="50"/>
+      <c r="D8" s="67"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="71" t="s">
+        <v>1346</v>
+      </c>
+      <c r="Q8" s="68"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="C9" s="50"/>
+      <c r="D9" s="67"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="67" t="s">
+        <v>1347</v>
+      </c>
+      <c r="Q9" s="68"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="C10" s="49">
+        <v>2</v>
+      </c>
+      <c r="D10" s="65" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="65" t="s">
+        <v>1348</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="66"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="C11" s="50"/>
+      <c r="D11" s="67"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="67" t="s">
+        <v>1349</v>
+      </c>
+      <c r="Q11" s="68"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="C12" s="50"/>
+      <c r="D12" s="67"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="67" t="s">
+        <v>1350</v>
+      </c>
+      <c r="Q12" s="68"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="C13" s="52"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="72" t="s">
+        <v>1351</v>
+      </c>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="70"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="B16" s="7" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.5">
+      <c r="C17" s="80" t="s">
+        <v>924</v>
+      </c>
+      <c r="D17" s="144" t="s">
+        <v>925</v>
+      </c>
+      <c r="E17" s="144"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="144" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="144"/>
+      <c r="J17" s="144"/>
+      <c r="K17" s="144"/>
+      <c r="L17" s="144"/>
+      <c r="M17" s="144"/>
+      <c r="N17" s="144"/>
+      <c r="O17" s="144"/>
+      <c r="P17" s="144"/>
+      <c r="Q17" s="144"/>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.5">
+      <c r="C18" s="49">
+        <v>1</v>
+      </c>
+      <c r="D18" s="65" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="65" t="s">
+        <v>1354</v>
+      </c>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="66"/>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.5">
+      <c r="C19" s="50"/>
+      <c r="D19" s="67"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="71" t="s">
+        <v>1355</v>
+      </c>
+      <c r="Q19" s="68"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.5">
+      <c r="C20" s="50"/>
+      <c r="D20" s="67"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="71" t="s">
+        <v>1356</v>
+      </c>
+      <c r="Q20" s="68"/>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.5">
+      <c r="C21" s="50"/>
+      <c r="D21" s="67"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="71" t="s">
+        <v>1357</v>
+      </c>
+      <c r="Q21" s="68"/>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.5">
+      <c r="C22" s="52"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="69" t="s">
+        <v>1358</v>
+      </c>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="70"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:Q4"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="H17:Q17"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFCCFFCC"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:J38"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="3" style="7" customWidth="1"/>
+    <col min="2" max="2" width="4.90625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="19.08984375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="21" style="8" customWidth="1"/>
+    <col min="6" max="6" width="15.90625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="92.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.54296875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="35.453125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="45.6328125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="7" customWidth="1"/>
+    <col min="12" max="16384" width="9.08984375" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.5">
+      <c r="B1" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="2:10" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.5">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="2:10" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.5">
+      <c r="B3" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="2:10" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.5">
+      <c r="B4" s="7" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="2:10" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.5">
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B6" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="J6" s="55" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>862</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="15">
+        <f t="shared" ref="B8:B26" si="0">ROW()-ROW($B$7)</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="81" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D8" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>1362</v>
+      </c>
+      <c r="H8" s="44" t="s">
+        <v>1363</v>
+      </c>
+      <c r="I8" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="J8" s="39"/>
+    </row>
+    <row r="9" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="41" t="s">
+        <v>1364</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>1109</v>
+      </c>
+      <c r="I9" s="79"/>
+      <c r="J9" s="41"/>
+    </row>
+    <row r="10" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="41" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="I10" s="79"/>
+      <c r="J10" s="41"/>
+    </row>
+    <row r="11" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="40" t="s">
+        <v>1366</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>593</v>
+      </c>
+      <c r="I11" s="79"/>
+      <c r="J11" s="41"/>
+    </row>
+    <row r="12" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="41" t="s">
+        <v>1367</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>1368</v>
+      </c>
+      <c r="I12" s="79"/>
+      <c r="J12" s="41"/>
+    </row>
+    <row r="13" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="44" t="s">
+        <v>1369</v>
+      </c>
+      <c r="H13" s="44" t="s">
+        <v>1034</v>
+      </c>
+      <c r="I13" s="79"/>
+      <c r="J13" s="44"/>
+    </row>
+    <row r="14" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="15">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="45" t="s">
+        <v>1370</v>
+      </c>
+      <c r="H14" s="45" t="s">
+        <v>1034</v>
+      </c>
+      <c r="I14" s="79"/>
+      <c r="J14" s="41"/>
+    </row>
+    <row r="15" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="15">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C15" s="81" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D15" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>1372</v>
+      </c>
+      <c r="H15" s="40" t="s">
+        <v>1034</v>
+      </c>
+      <c r="I15" s="79"/>
+      <c r="J15" s="39"/>
+    </row>
+    <row r="16" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="15">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="41" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H16" s="41" t="s">
+        <v>1034</v>
+      </c>
+      <c r="I16" s="79"/>
+      <c r="J16" s="41"/>
+    </row>
+    <row r="17" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="40" t="s">
+        <v>1374</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>1034</v>
+      </c>
+      <c r="I17" s="79"/>
+      <c r="J17" s="40"/>
+    </row>
+    <row r="18" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="15">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="41" t="s">
+        <v>1375</v>
+      </c>
+      <c r="H18" s="41" t="s">
+        <v>593</v>
+      </c>
+      <c r="I18" s="79"/>
+      <c r="J18" s="41"/>
+    </row>
+    <row r="19" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="41" t="s">
+        <v>1376</v>
+      </c>
+      <c r="H19" s="41" t="s">
+        <v>654</v>
+      </c>
+      <c r="I19" s="79"/>
+      <c r="J19" s="41"/>
+    </row>
+    <row r="20" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B20" s="15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="41" t="s">
+        <v>1377</v>
+      </c>
+      <c r="H20" s="41" t="s">
+        <v>654</v>
+      </c>
+      <c r="I20" s="79"/>
+      <c r="J20" s="41"/>
+    </row>
+    <row r="21" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B21" s="15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="41" t="s">
+        <v>1378</v>
+      </c>
+      <c r="H21" s="41" t="s">
+        <v>593</v>
+      </c>
+      <c r="I21" s="79"/>
+      <c r="J21" s="41"/>
+    </row>
+    <row r="22" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B22" s="15">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="40" t="s">
+        <v>1379</v>
+      </c>
+      <c r="H22" s="40" t="s">
+        <v>1368</v>
+      </c>
+      <c r="I22" s="79"/>
+      <c r="J22" s="41"/>
+    </row>
+    <row r="23" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="15">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="45" t="s">
+        <v>1380</v>
+      </c>
+      <c r="H23" s="45" t="s">
+        <v>593</v>
+      </c>
+      <c r="I23" s="79"/>
+      <c r="J23" s="45"/>
+    </row>
+    <row r="24" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B24" s="15">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C24" s="81" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D24" s="79" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="F24" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="G24" s="40" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H24" s="40" t="s">
+        <v>593</v>
+      </c>
+      <c r="I24" s="79"/>
+      <c r="J24" s="39"/>
+    </row>
+    <row r="25" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B25" s="15">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="41" t="s">
+        <v>1383</v>
+      </c>
+      <c r="H25" s="41" t="s">
+        <v>593</v>
+      </c>
+      <c r="I25" s="79"/>
+      <c r="J25" s="41"/>
+    </row>
+    <row r="26" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B26" s="15">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="45" t="s">
+        <v>1384</v>
+      </c>
+      <c r="H26" s="45" t="s">
+        <v>593</v>
+      </c>
+      <c r="I26" s="82"/>
+      <c r="J26" s="45"/>
+    </row>
+    <row r="27" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B27" s="16"/>
+    </row>
+    <row r="28" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="29" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B29" s="7" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B30" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B33" s="7" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B34" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B37" s="7" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B38" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:M47"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
   <cols>
@@ -29548,25 +31754,25 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="119"/>
-      <c r="D4" s="117" t="s">
+      <c r="C4" s="138"/>
+      <c r="D4" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
       <c r="K4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B5" s="120"/>
-      <c r="C5" s="121"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="140"/>
       <c r="D5" s="48" t="s">
         <v>9</v>
       </c>
@@ -29594,10 +31800,10 @@
       <c r="M5" s="56"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="123"/>
+      <c r="C6" s="142"/>
       <c r="D6" s="63" t="s">
         <v>18</v>
       </c>
@@ -29625,10 +31831,10 @@
       <c r="M6" s="57"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="123"/>
+      <c r="C7" s="142"/>
       <c r="D7" s="63" t="s">
         <v>18</v>
       </c>
@@ -29656,10 +31862,10 @@
       <c r="M7" s="57"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B8" s="122" t="s">
+      <c r="B8" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="123"/>
+      <c r="C8" s="142"/>
       <c r="D8" s="63" t="s">
         <v>18</v>
       </c>
@@ -29680,10 +31886,10 @@
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="123"/>
+      <c r="C9" s="142"/>
       <c r="D9" s="63" t="s">
         <v>18</v>
       </c>
@@ -29704,10 +31910,10 @@
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B10" s="122" t="s">
+      <c r="B10" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="123"/>
+      <c r="C10" s="142"/>
       <c r="D10" s="63" t="s">
         <v>18</v>
       </c>
@@ -29728,10 +31934,10 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="141" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="123"/>
+      <c r="C11" s="142"/>
       <c r="D11" s="63" t="s">
         <v>18</v>
       </c>
@@ -29752,10 +31958,10 @@
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B12" s="122" t="s">
+      <c r="B12" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="123"/>
+      <c r="C12" s="142"/>
       <c r="D12" s="63" t="s">
         <v>18</v>
       </c>
@@ -29776,10 +31982,10 @@
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B13" s="122" t="s">
+      <c r="B13" s="141" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="123"/>
+      <c r="C13" s="142"/>
       <c r="D13" s="63" t="s">
         <v>18</v>
       </c>
@@ -29800,10 +32006,10 @@
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B14" s="122" t="s">
+      <c r="B14" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="123"/>
+      <c r="C14" s="142"/>
       <c r="D14" s="63" t="s">
         <v>18</v>
       </c>
@@ -29824,10 +32030,10 @@
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B15" s="122" t="s">
+      <c r="B15" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="123"/>
+      <c r="C15" s="142"/>
       <c r="D15" s="63" t="s">
         <v>20</v>
       </c>
@@ -29848,10 +32054,10 @@
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="123"/>
+      <c r="C16" s="142"/>
       <c r="D16" s="63" t="s">
         <v>18</v>
       </c>
@@ -29872,10 +32078,10 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B17" s="122" t="s">
+      <c r="B17" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="123"/>
+      <c r="C17" s="142"/>
       <c r="D17" s="83" t="s">
         <v>23</v>
       </c>
@@ -30090,1196 +32296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFCCFFCC"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:K30"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
-  <cols>
-    <col min="1" max="1" width="3" style="7" customWidth="1"/>
-    <col min="2" max="2" width="4.90625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="19.08984375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="21" style="8" customWidth="1"/>
-    <col min="6" max="6" width="15.90625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="92.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.54296875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="35.453125" style="7" customWidth="1"/>
-    <col min="10" max="11" width="45.6328125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="9.08984375" style="7" customWidth="1"/>
-    <col min="13" max="16384" width="9.08984375" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.5">
-      <c r="B1" s="1" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.5">
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.5">
-      <c r="A3" s="3"/>
-      <c r="B3" s="7" t="s">
-        <v>861</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="K3" s="55" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>862</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
-      <c r="B5" s="15">
-        <f>ROW()-ROW($B$4)</f>
-        <v>1</v>
-      </c>
-      <c r="C5" s="81" t="s">
-        <v>1310</v>
-      </c>
-      <c r="D5" s="81" t="s">
-        <v>1311</v>
-      </c>
-      <c r="E5" s="81" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="81" t="s">
-        <v>131</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>1312</v>
-      </c>
-      <c r="H5" s="39" t="s">
-        <v>1313</v>
-      </c>
-      <c r="I5" s="81" t="s">
-        <v>1314</v>
-      </c>
-      <c r="J5" s="81" t="s">
-        <v>1315</v>
-      </c>
-      <c r="K5" s="39"/>
-    </row>
-    <row r="6" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="15">
-        <f t="shared" ref="B6:B7" si="0">ROW()-ROW($B$4)</f>
-        <v>2</v>
-      </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="40" t="s">
-        <v>1316</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>1313</v>
-      </c>
-      <c r="I6" s="79" t="s">
-        <v>1317</v>
-      </c>
-      <c r="J6" s="79"/>
-      <c r="K6" s="92"/>
-    </row>
-    <row r="7" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40" t="s">
-        <v>1318</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>1313</v>
-      </c>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="92"/>
-    </row>
-    <row r="8" spans="1:11" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
-      <c r="B8" s="15">
-        <f t="shared" ref="B8:B14" si="1">ROW()-ROW($B$4)</f>
-        <v>4</v>
-      </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="45" t="s">
-        <v>1319</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="F8" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="G8" s="45" t="s">
-        <v>1320</v>
-      </c>
-      <c r="H8" s="82" t="s">
-        <v>1313</v>
-      </c>
-      <c r="I8" s="79"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="45" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="8" customFormat="1" ht="58" x14ac:dyDescent="0.5">
-      <c r="B9" s="15">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C9" s="81" t="s">
-        <v>1322</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>1323</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>1324</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>1325</v>
-      </c>
-      <c r="I9" s="79"/>
-      <c r="J9" s="81" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
-      <c r="B10" s="15">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="45" t="s">
-        <v>1328</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="F10" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="G10" s="45" t="s">
-        <v>1329</v>
-      </c>
-      <c r="H10" s="45" t="s">
-        <v>1325</v>
-      </c>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="45" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
-      <c r="B11" s="15">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="C11" s="81" t="s">
-        <v>1331</v>
-      </c>
-      <c r="D11" s="81" t="s">
-        <v>131</v>
-      </c>
-      <c r="E11" s="81" t="s">
-        <v>131</v>
-      </c>
-      <c r="F11" s="81" t="s">
-        <v>131</v>
-      </c>
-      <c r="G11" s="39" t="s">
-        <v>1332</v>
-      </c>
-      <c r="H11" s="39" t="s">
-        <v>1333</v>
-      </c>
-      <c r="I11" s="81" t="s">
-        <v>1334</v>
-      </c>
-      <c r="J11" s="81" t="s">
-        <v>1335</v>
-      </c>
-      <c r="K11" s="39"/>
-    </row>
-    <row r="12" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="15">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="44" t="s">
-        <v>524</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="F12" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="G12" s="41" t="s">
-        <v>1336</v>
-      </c>
-      <c r="H12" s="41" t="s">
-        <v>1337</v>
-      </c>
-      <c r="I12" s="79" t="s">
-        <v>1037</v>
-      </c>
-      <c r="J12" s="79"/>
-      <c r="K12" s="93"/>
-    </row>
-    <row r="13" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="15">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="41" t="s">
-        <v>1338</v>
-      </c>
-      <c r="H13" s="41" t="s">
-        <v>1337</v>
-      </c>
-      <c r="I13" s="79" t="s">
-        <v>268</v>
-      </c>
-      <c r="J13" s="79"/>
-      <c r="K13" s="93"/>
-    </row>
-    <row r="14" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="15">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="45" t="s">
-        <v>1339</v>
-      </c>
-      <c r="H14" s="45" t="s">
-        <v>527</v>
-      </c>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="94"/>
-    </row>
-    <row r="15" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="16" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="7" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="20" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="21" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="7" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B25" s="7" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B26" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B29" s="7" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B30" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B1:Q22"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
-  <cols>
-    <col min="1" max="1" width="3" style="7" customWidth="1"/>
-    <col min="2" max="3" width="4.90625" style="7" customWidth="1"/>
-    <col min="4" max="6" width="9.08984375" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="9.08984375" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:17" ht="16" x14ac:dyDescent="0.5">
-      <c r="B1" s="1" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.5">
-      <c r="B3" s="7" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.5">
-      <c r="C4" s="80" t="s">
-        <v>924</v>
-      </c>
-      <c r="D4" s="125" t="s">
-        <v>925</v>
-      </c>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="125"/>
-      <c r="M4" s="125"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.5">
-      <c r="C5" s="50">
-        <v>1</v>
-      </c>
-      <c r="D5" s="67" t="s">
-        <v>1342</v>
-      </c>
-      <c r="G5" s="68"/>
-      <c r="H5" s="67" t="s">
-        <v>1343</v>
-      </c>
-      <c r="Q5" s="68"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.5">
-      <c r="C6" s="50"/>
-      <c r="D6" s="67"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="71" t="s">
-        <v>1344</v>
-      </c>
-      <c r="Q6" s="68"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.5">
-      <c r="C7" s="50"/>
-      <c r="D7" s="67"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="71" t="s">
-        <v>1345</v>
-      </c>
-      <c r="Q7" s="68"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.5">
-      <c r="C8" s="50"/>
-      <c r="D8" s="67"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="71" t="s">
-        <v>1346</v>
-      </c>
-      <c r="Q8" s="68"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.5">
-      <c r="C9" s="50"/>
-      <c r="D9" s="67"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="67" t="s">
-        <v>1347</v>
-      </c>
-      <c r="Q9" s="68"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.5">
-      <c r="C10" s="49">
-        <v>2</v>
-      </c>
-      <c r="D10" s="65" t="s">
-        <v>1264</v>
-      </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="65" t="s">
-        <v>1348</v>
-      </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="66"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.5">
-      <c r="C11" s="50"/>
-      <c r="D11" s="67"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="67" t="s">
-        <v>1349</v>
-      </c>
-      <c r="Q11" s="68"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.5">
-      <c r="C12" s="50"/>
-      <c r="D12" s="67"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="67" t="s">
-        <v>1350</v>
-      </c>
-      <c r="Q12" s="68"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.5">
-      <c r="C13" s="52"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="72" t="s">
-        <v>1351</v>
-      </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="70"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.5">
-      <c r="B16" s="7" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.5">
-      <c r="C17" s="80" t="s">
-        <v>924</v>
-      </c>
-      <c r="D17" s="125" t="s">
-        <v>925</v>
-      </c>
-      <c r="E17" s="125"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="125" t="s">
-        <v>66</v>
-      </c>
-      <c r="I17" s="125"/>
-      <c r="J17" s="125"/>
-      <c r="K17" s="125"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="125"/>
-      <c r="N17" s="125"/>
-      <c r="O17" s="125"/>
-      <c r="P17" s="125"/>
-      <c r="Q17" s="125"/>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.5">
-      <c r="C18" s="49">
-        <v>1</v>
-      </c>
-      <c r="D18" s="65" t="s">
-        <v>1353</v>
-      </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="65" t="s">
-        <v>1354</v>
-      </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="66"/>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.5">
-      <c r="C19" s="50"/>
-      <c r="D19" s="67"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="71" t="s">
-        <v>1355</v>
-      </c>
-      <c r="Q19" s="68"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.5">
-      <c r="C20" s="50"/>
-      <c r="D20" s="67"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="71" t="s">
-        <v>1356</v>
-      </c>
-      <c r="Q20" s="68"/>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.5">
-      <c r="C21" s="50"/>
-      <c r="D21" s="67"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="71" t="s">
-        <v>1357</v>
-      </c>
-      <c r="Q21" s="68"/>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.5">
-      <c r="C22" s="52"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="69" t="s">
-        <v>1358</v>
-      </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="70"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:Q4"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="H17:Q17"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFCCFFCC"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B1:J38"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
-  <cols>
-    <col min="1" max="1" width="3" style="7" customWidth="1"/>
-    <col min="2" max="2" width="4.90625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="19.08984375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="21" style="8" customWidth="1"/>
-    <col min="6" max="6" width="15.90625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="92.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.54296875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="35.453125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="45.6328125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="7" customWidth="1"/>
-    <col min="12" max="16384" width="9.08984375" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.5">
-      <c r="B1" s="1" t="s">
-        <v>1359</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="2:10" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.5">
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="2:10" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.5">
-      <c r="B3" s="7" t="s">
-        <v>861</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="2:10" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.5">
-      <c r="B4" s="7" t="s">
-        <v>1360</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="2:10" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.5">
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B6" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="J6" s="55" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>862</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="15">
-        <f t="shared" ref="B8:B26" si="0">ROW()-ROW($B$7)</f>
-        <v>1</v>
-      </c>
-      <c r="C8" s="81" t="s">
-        <v>1361</v>
-      </c>
-      <c r="D8" s="81" t="s">
-        <v>139</v>
-      </c>
-      <c r="E8" s="81" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" s="81" t="s">
-        <v>139</v>
-      </c>
-      <c r="G8" s="44" t="s">
-        <v>1362</v>
-      </c>
-      <c r="H8" s="44" t="s">
-        <v>1363</v>
-      </c>
-      <c r="I8" s="81" t="s">
-        <v>131</v>
-      </c>
-      <c r="J8" s="39"/>
-    </row>
-    <row r="9" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="15">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="41" t="s">
-        <v>1364</v>
-      </c>
-      <c r="H9" s="41" t="s">
-        <v>1109</v>
-      </c>
-      <c r="I9" s="79"/>
-      <c r="J9" s="41"/>
-    </row>
-    <row r="10" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="41" t="s">
-        <v>1365</v>
-      </c>
-      <c r="H10" s="41" t="s">
-        <v>237</v>
-      </c>
-      <c r="I10" s="79"/>
-      <c r="J10" s="41"/>
-    </row>
-    <row r="11" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="15">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="40" t="s">
-        <v>1366</v>
-      </c>
-      <c r="H11" s="40" t="s">
-        <v>593</v>
-      </c>
-      <c r="I11" s="79"/>
-      <c r="J11" s="41"/>
-    </row>
-    <row r="12" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="15">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="41" t="s">
-        <v>1367</v>
-      </c>
-      <c r="H12" s="41" t="s">
-        <v>1368</v>
-      </c>
-      <c r="I12" s="79"/>
-      <c r="J12" s="41"/>
-    </row>
-    <row r="13" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="15">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="44" t="s">
-        <v>1369</v>
-      </c>
-      <c r="H13" s="44" t="s">
-        <v>1034</v>
-      </c>
-      <c r="I13" s="79"/>
-      <c r="J13" s="44"/>
-    </row>
-    <row r="14" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="15">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="45" t="s">
-        <v>1370</v>
-      </c>
-      <c r="H14" s="45" t="s">
-        <v>1034</v>
-      </c>
-      <c r="I14" s="79"/>
-      <c r="J14" s="41"/>
-    </row>
-    <row r="15" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="15">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C15" s="81" t="s">
-        <v>1371</v>
-      </c>
-      <c r="D15" s="81" t="s">
-        <v>139</v>
-      </c>
-      <c r="E15" s="81" t="s">
-        <v>139</v>
-      </c>
-      <c r="F15" s="81" t="s">
-        <v>139</v>
-      </c>
-      <c r="G15" s="40" t="s">
-        <v>1372</v>
-      </c>
-      <c r="H15" s="40" t="s">
-        <v>1034</v>
-      </c>
-      <c r="I15" s="79"/>
-      <c r="J15" s="39"/>
-    </row>
-    <row r="16" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="15">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="41" t="s">
-        <v>1373</v>
-      </c>
-      <c r="H16" s="41" t="s">
-        <v>1034</v>
-      </c>
-      <c r="I16" s="79"/>
-      <c r="J16" s="41"/>
-    </row>
-    <row r="17" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="15">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="40" t="s">
-        <v>1374</v>
-      </c>
-      <c r="H17" s="40" t="s">
-        <v>1034</v>
-      </c>
-      <c r="I17" s="79"/>
-      <c r="J17" s="40"/>
-    </row>
-    <row r="18" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="15">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="41" t="s">
-        <v>1375</v>
-      </c>
-      <c r="H18" s="41" t="s">
-        <v>593</v>
-      </c>
-      <c r="I18" s="79"/>
-      <c r="J18" s="41"/>
-    </row>
-    <row r="19" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="15">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="41" t="s">
-        <v>1376</v>
-      </c>
-      <c r="H19" s="41" t="s">
-        <v>654</v>
-      </c>
-      <c r="I19" s="79"/>
-      <c r="J19" s="41"/>
-    </row>
-    <row r="20" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="15">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="41" t="s">
-        <v>1377</v>
-      </c>
-      <c r="H20" s="41" t="s">
-        <v>654</v>
-      </c>
-      <c r="I20" s="79"/>
-      <c r="J20" s="41"/>
-    </row>
-    <row r="21" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="15">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="41" t="s">
-        <v>1378</v>
-      </c>
-      <c r="H21" s="41" t="s">
-        <v>593</v>
-      </c>
-      <c r="I21" s="79"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="15">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="40" t="s">
-        <v>1379</v>
-      </c>
-      <c r="H22" s="40" t="s">
-        <v>1368</v>
-      </c>
-      <c r="I22" s="79"/>
-      <c r="J22" s="41"/>
-    </row>
-    <row r="23" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="15">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="45" t="s">
-        <v>1380</v>
-      </c>
-      <c r="H23" s="45" t="s">
-        <v>593</v>
-      </c>
-      <c r="I23" s="79"/>
-      <c r="J23" s="45"/>
-    </row>
-    <row r="24" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="15">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C24" s="81" t="s">
-        <v>1381</v>
-      </c>
-      <c r="D24" s="79" t="s">
-        <v>131</v>
-      </c>
-      <c r="E24" s="79" t="s">
-        <v>139</v>
-      </c>
-      <c r="F24" s="79" t="s">
-        <v>139</v>
-      </c>
-      <c r="G24" s="40" t="s">
-        <v>1382</v>
-      </c>
-      <c r="H24" s="40" t="s">
-        <v>593</v>
-      </c>
-      <c r="I24" s="79"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="25" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="15">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="41" t="s">
-        <v>1383</v>
-      </c>
-      <c r="H25" s="41" t="s">
-        <v>593</v>
-      </c>
-      <c r="I25" s="79"/>
-      <c r="J25" s="41"/>
-    </row>
-    <row r="26" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="15">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="45" t="s">
-        <v>1384</v>
-      </c>
-      <c r="H26" s="45" t="s">
-        <v>593</v>
-      </c>
-      <c r="I26" s="82"/>
-      <c r="J26" s="45"/>
-    </row>
-    <row r="27" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="16"/>
-    </row>
-    <row r="28" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="29" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="7" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B30" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B33" s="7" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B34" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B37" s="7" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B38" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFCC"/>
@@ -33501,7 +34518,7 @@
         <f t="shared" ref="B115:B182" si="2">ROW()-ROW($B$113)</f>
         <v>2</v>
       </c>
-      <c r="C115" s="124" t="s">
+      <c r="C115" s="143" t="s">
         <v>280</v>
       </c>
       <c r="D115" s="13"/>
@@ -33523,7 +34540,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="C116" s="124"/>
+      <c r="C116" s="143"/>
       <c r="D116" s="13"/>
       <c r="E116" s="79"/>
       <c r="F116" s="42"/>
@@ -33903,7 +34920,7 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="C135" s="124" t="s">
+      <c r="C135" s="143" t="s">
         <v>312</v>
       </c>
       <c r="D135" s="13"/>
@@ -33925,7 +34942,7 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="C136" s="124"/>
+      <c r="C136" s="143"/>
       <c r="D136" s="13"/>
       <c r="E136" s="79"/>
       <c r="F136" s="79"/>
@@ -34832,7 +35849,7 @@
     </row>
     <row r="183" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B183" s="39">
-        <f t="shared" ref="B183:B185" si="3">ROW()-ROW($B$113)</f>
+        <f>ROW()-ROW($B$113)</f>
         <v>70</v>
       </c>
       <c r="C183" s="81" t="s">
@@ -34860,7 +35877,7 @@
     </row>
     <row r="184" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B184" s="39">
-        <f t="shared" si="3"/>
+        <f>ROW()-ROW($B$113)</f>
         <v>71</v>
       </c>
       <c r="C184" s="79"/>
@@ -34884,7 +35901,7 @@
     </row>
     <row r="185" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B185" s="15">
-        <f t="shared" si="3"/>
+        <f>ROW()-ROW($B$113)</f>
         <v>72</v>
       </c>
       <c r="C185" s="82"/>
@@ -34949,7 +35966,7 @@
     </row>
     <row r="190" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B190" s="15">
-        <f t="shared" ref="B190:B219" si="4">ROW()-ROW($B$189)</f>
+        <f t="shared" ref="B190:B219" si="3">ROW()-ROW($B$189)</f>
         <v>1</v>
       </c>
       <c r="C190" s="81" t="s">
@@ -34977,7 +35994,7 @@
     </row>
     <row r="191" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B191" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C191" s="42"/>
@@ -34999,7 +36016,7 @@
     </row>
     <row r="192" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B192" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="C192" s="42"/>
@@ -35020,7 +36037,7 @@
     </row>
     <row r="193" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B193" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C193" s="42"/>
@@ -35042,7 +36059,7 @@
     </row>
     <row r="194" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B194" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="C194" s="42"/>
@@ -35062,7 +36079,7 @@
     </row>
     <row r="195" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B195" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="C195" s="42"/>
@@ -35084,7 +36101,7 @@
     </row>
     <row r="196" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B196" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="C196" s="42"/>
@@ -35108,7 +36125,7 @@
     </row>
     <row r="197" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B197" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="C197" s="42"/>
@@ -35125,7 +36142,7 @@
     </row>
     <row r="198" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B198" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="C198" s="42"/>
@@ -35142,7 +36159,7 @@
     </row>
     <row r="199" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B199" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="C199" s="42"/>
@@ -35159,7 +36176,7 @@
     </row>
     <row r="200" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B200" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="C200" s="42"/>
@@ -35176,7 +36193,7 @@
     </row>
     <row r="201" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B201" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="C201" s="42"/>
@@ -35193,7 +36210,7 @@
     </row>
     <row r="202" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B202" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="C202" s="42"/>
@@ -35210,7 +36227,7 @@
     </row>
     <row r="203" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B203" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="C203" s="42"/>
@@ -35230,7 +36247,7 @@
     </row>
     <row r="204" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B204" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="C204" s="42"/>
@@ -35252,7 +36269,7 @@
     </row>
     <row r="205" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B205" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="C205" s="42"/>
@@ -35270,7 +36287,7 @@
     </row>
     <row r="206" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B206" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="C206" s="42"/>
@@ -35288,7 +36305,7 @@
     </row>
     <row r="207" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B207" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="C207" s="42"/>
@@ -35306,7 +36323,7 @@
     </row>
     <row r="208" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B208" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="C208" s="42"/>
@@ -35326,7 +36343,7 @@
     </row>
     <row r="209" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B209" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="C209" s="42"/>
@@ -35346,7 +36363,7 @@
     </row>
     <row r="210" spans="2:10" s="8" customFormat="1" ht="58" x14ac:dyDescent="0.5">
       <c r="B210" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="C210" s="42"/>
@@ -35366,7 +36383,7 @@
     </row>
     <row r="211" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B211" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="C211" s="42"/>
@@ -35386,7 +36403,7 @@
     </row>
     <row r="212" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B212" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="C212" s="42"/>
@@ -35406,7 +36423,7 @@
     </row>
     <row r="213" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B213" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="C213" s="42"/>
@@ -35424,7 +36441,7 @@
     </row>
     <row r="214" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B214" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="C214" s="42"/>
@@ -35442,7 +36459,7 @@
     </row>
     <row r="215" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B215" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="C215" s="42"/>
@@ -35462,7 +36479,7 @@
     </row>
     <row r="216" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B216" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="C216" s="43"/>
@@ -35482,7 +36499,7 @@
     </row>
     <row r="217" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B217" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="C217" s="27"/>
@@ -35504,7 +36521,7 @@
     </row>
     <row r="218" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B218" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="C218" s="42"/>
@@ -35522,7 +36539,7 @@
     </row>
     <row r="219" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B219" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="C219" s="42"/>
@@ -35540,7 +36557,7 @@
     </row>
     <row r="220" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B220" s="15">
-        <f t="shared" ref="B220:B236" si="5">ROW()-ROW($B$189)</f>
+        <f t="shared" ref="B220:B236" si="4">ROW()-ROW($B$189)</f>
         <v>31</v>
       </c>
       <c r="C220" s="42"/>
@@ -35558,7 +36575,7 @@
     </row>
     <row r="221" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B221" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="C221" s="42"/>
@@ -35576,7 +36593,7 @@
     </row>
     <row r="222" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B222" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="C222" s="42"/>
@@ -35594,7 +36611,7 @@
     </row>
     <row r="223" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B223" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="C223" s="42"/>
@@ -35614,7 +36631,7 @@
     </row>
     <row r="224" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B224" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="C224" s="42"/>
@@ -35634,7 +36651,7 @@
     </row>
     <row r="225" spans="2:10" s="8" customFormat="1" ht="58" x14ac:dyDescent="0.5">
       <c r="B225" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="C225" s="42"/>
@@ -35654,7 +36671,7 @@
     </row>
     <row r="226" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B226" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="C226" s="42"/>
@@ -35674,7 +36691,7 @@
     </row>
     <row r="227" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B227" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="C227" s="42"/>
@@ -35694,7 +36711,7 @@
     </row>
     <row r="228" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B228" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="C228" s="42"/>
@@ -35712,7 +36729,7 @@
     </row>
     <row r="229" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B229" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="C229" s="42"/>
@@ -35730,7 +36747,7 @@
     </row>
     <row r="230" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B230" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="C230" s="42"/>
@@ -35750,7 +36767,7 @@
     </row>
     <row r="231" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B231" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="C231" s="42"/>
@@ -35770,7 +36787,7 @@
     </row>
     <row r="232" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B232" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="C232" s="42"/>
@@ -35790,7 +36807,7 @@
     </row>
     <row r="233" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B233" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="C233" s="42"/>
@@ -35808,7 +36825,7 @@
     </row>
     <row r="234" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B234" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="C234" s="42"/>
@@ -35826,7 +36843,7 @@
     </row>
     <row r="235" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B235" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="C235" s="42"/>
@@ -35846,7 +36863,7 @@
     </row>
     <row r="236" spans="2:10" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B236" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="C236" s="82"/>
@@ -35909,7 +36926,7 @@
     </row>
     <row r="241" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B241" s="39">
-        <f t="shared" ref="B241:B268" si="6">ROW()-ROW($B$240)</f>
+        <f t="shared" ref="B241:B268" si="5">ROW()-ROW($B$240)</f>
         <v>1</v>
       </c>
       <c r="C241" s="81" t="s">
@@ -35937,7 +36954,7 @@
     </row>
     <row r="242" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B242" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="C242" s="42"/>
@@ -35959,7 +36976,7 @@
     </row>
     <row r="243" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B243" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="C243" s="42"/>
@@ -35979,7 +36996,7 @@
     </row>
     <row r="244" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B244" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="C244" s="42"/>
@@ -35999,7 +37016,7 @@
     </row>
     <row r="245" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B245" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="C245" s="42"/>
@@ -36019,7 +37036,7 @@
     </row>
     <row r="246" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B246" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="C246" s="42"/>
@@ -36037,7 +37054,7 @@
     </row>
     <row r="247" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B247" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="C247" s="42"/>
@@ -36057,7 +37074,7 @@
     </row>
     <row r="248" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B248" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="C248" s="42"/>
@@ -36075,7 +37092,7 @@
     </row>
     <row r="249" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B249" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="C249" s="42"/>
@@ -36095,7 +37112,7 @@
     </row>
     <row r="250" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B250" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="C250" s="42"/>
@@ -36113,7 +37130,7 @@
     </row>
     <row r="251" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B251" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="C251" s="42"/>
@@ -36131,7 +37148,7 @@
     </row>
     <row r="252" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B252" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="C252" s="42"/>
@@ -36153,7 +37170,7 @@
     </row>
     <row r="253" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B253" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="C253" s="82"/>
@@ -36177,7 +37194,7 @@
     </row>
     <row r="254" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B254" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="C254" s="81" t="s">
@@ -36205,7 +37222,7 @@
     </row>
     <row r="255" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B255" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="C255" s="42"/>
@@ -36225,7 +37242,7 @@
     </row>
     <row r="256" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B256" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="C256" s="42"/>
@@ -36249,7 +37266,7 @@
     </row>
     <row r="257" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B257" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="C257" s="42"/>
@@ -36269,7 +37286,7 @@
     </row>
     <row r="258" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B258" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="C258" s="42"/>
@@ -36293,7 +37310,7 @@
     </row>
     <row r="259" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B259" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="C259" s="42"/>
@@ -36313,7 +37330,7 @@
     </row>
     <row r="260" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B260" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="C260" s="42"/>
@@ -36333,7 +37350,7 @@
     </row>
     <row r="261" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B261" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="C261" s="42"/>
@@ -36353,7 +37370,7 @@
     </row>
     <row r="262" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B262" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="C262" s="42"/>
@@ -36375,7 +37392,7 @@
     </row>
     <row r="263" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B263" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="C263" s="42"/>
@@ -36393,7 +37410,7 @@
     </row>
     <row r="264" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B264" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="C264" s="42"/>
@@ -36415,7 +37432,7 @@
     </row>
     <row r="265" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B265" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="C265" s="42"/>
@@ -36435,7 +37452,7 @@
     </row>
     <row r="266" spans="2:10" s="8" customFormat="1" ht="58" x14ac:dyDescent="0.5">
       <c r="B266" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="C266" s="42"/>
@@ -36455,7 +37472,7 @@
     </row>
     <row r="267" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B267" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="C267" s="42"/>
@@ -36475,7 +37492,7 @@
     </row>
     <row r="268" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B268" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="C268" s="79"/>
@@ -36495,7 +37512,7 @@
     </row>
     <row r="269" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B269" s="39">
-        <f t="shared" ref="B269:B289" si="7">ROW()-ROW($B$240)</f>
+        <f t="shared" ref="B269:B289" si="6">ROW()-ROW($B$240)</f>
         <v>29</v>
       </c>
       <c r="C269" s="42"/>
@@ -36513,7 +37530,7 @@
     </row>
     <row r="270" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B270" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="C270" s="42"/>
@@ -36531,7 +37548,7 @@
     </row>
     <row r="271" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B271" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="C271" s="42"/>
@@ -36551,7 +37568,7 @@
     </row>
     <row r="272" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B272" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="C272" s="42"/>
@@ -36569,7 +37586,7 @@
     </row>
     <row r="273" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B273" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="C273" s="42"/>
@@ -36587,7 +37604,7 @@
     </row>
     <row r="274" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B274" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
       <c r="C274" s="42"/>
@@ -36605,7 +37622,7 @@
     </row>
     <row r="275" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B275" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="C275" s="42"/>
@@ -36625,7 +37642,7 @@
     </row>
     <row r="276" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B276" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="C276" s="42"/>
@@ -36643,7 +37660,7 @@
     </row>
     <row r="277" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B277" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
       <c r="C277" s="42"/>
@@ -36661,7 +37678,7 @@
     </row>
     <row r="278" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B278" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
       <c r="C278" s="42"/>
@@ -36679,7 +37696,7 @@
     </row>
     <row r="279" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B279" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
       <c r="C279" s="42"/>
@@ -36697,7 +37714,7 @@
     </row>
     <row r="280" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B280" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="C280" s="42"/>
@@ -36715,7 +37732,7 @@
     </row>
     <row r="281" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B281" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>41</v>
       </c>
       <c r="C281" s="42"/>
@@ -36735,7 +37752,7 @@
     </row>
     <row r="282" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B282" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
       <c r="C282" s="42"/>
@@ -36753,7 +37770,7 @@
     </row>
     <row r="283" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B283" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43</v>
       </c>
       <c r="C283" s="42"/>
@@ -36771,7 +37788,7 @@
     </row>
     <row r="284" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B284" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
       <c r="C284" s="42"/>
@@ -36789,7 +37806,7 @@
     </row>
     <row r="285" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B285" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="C285" s="42"/>
@@ -36807,7 +37824,7 @@
     </row>
     <row r="286" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B286" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
       <c r="C286" s="42"/>
@@ -36827,7 +37844,7 @@
     </row>
     <row r="287" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B287" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>47</v>
       </c>
       <c r="C287" s="42"/>
@@ -36845,7 +37862,7 @@
     </row>
     <row r="288" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B288" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
       <c r="C288" s="42"/>
@@ -36863,7 +37880,7 @@
     </row>
     <row r="289" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B289" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
       <c r="C289" s="43"/>
@@ -36936,7 +37953,7 @@
     </row>
     <row r="294" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B294" s="39">
-        <f t="shared" ref="B294:B310" si="8">ROW()-ROW($B$293)</f>
+        <f t="shared" ref="B294:B310" si="7">ROW()-ROW($B$293)</f>
         <v>1</v>
       </c>
       <c r="C294" s="81" t="s">
@@ -36964,7 +37981,7 @@
     </row>
     <row r="295" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B295" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="C295" s="42"/>
@@ -36984,7 +38001,7 @@
     </row>
     <row r="296" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B296" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="C296" s="42"/>
@@ -37004,7 +38021,7 @@
     </row>
     <row r="297" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B297" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="C297" s="42"/>
@@ -37024,7 +38041,7 @@
     </row>
     <row r="298" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B298" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="C298" s="42"/>
@@ -37048,7 +38065,7 @@
     </row>
     <row r="299" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B299" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="C299" s="42"/>
@@ -37068,7 +38085,7 @@
     </row>
     <row r="300" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B300" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="C300" s="42"/>
@@ -37088,7 +38105,7 @@
     </row>
     <row r="301" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B301" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="C301" s="42"/>
@@ -37108,7 +38125,7 @@
     </row>
     <row r="302" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B302" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="C302" s="42"/>
@@ -37130,7 +38147,7 @@
     </row>
     <row r="303" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B303" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="C303" s="42"/>
@@ -37148,7 +38165,7 @@
     </row>
     <row r="304" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B304" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="C304" s="42"/>
@@ -37168,7 +38185,7 @@
     </row>
     <row r="305" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B305" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="C305" s="42"/>
@@ -37188,7 +38205,7 @@
     </row>
     <row r="306" spans="2:10" s="8" customFormat="1" ht="58" x14ac:dyDescent="0.5">
       <c r="B306" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="C306" s="42"/>
@@ -37208,7 +38225,7 @@
     </row>
     <row r="307" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B307" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="C307" s="42"/>
@@ -37228,7 +38245,7 @@
     </row>
     <row r="308" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
       <c r="B308" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="C308" s="42"/>
@@ -37248,7 +38265,7 @@
     </row>
     <row r="309" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B309" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="C309" s="42"/>
@@ -37266,7 +38283,7 @@
     </row>
     <row r="310" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B310" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="C310" s="43"/>
@@ -37306,7 +38323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFCC"/>
@@ -37314,7 +38331,9 @@
   </sheetPr>
   <dimension ref="B1:J93"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B54" sqref="A54:XFD54"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
   <cols>
@@ -39036,7 +40055,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E4876C-B3C0-4B83-860C-2FEB618D4411}">
   <sheetPr>
     <tabColor rgb="FFFFFFCC"/>
@@ -40499,7 +41518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFCC"/>
@@ -41090,7 +42109,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFCC"/>
@@ -41552,7 +42571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFCC"/>
@@ -41937,261 +42956,4 @@
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFCCFFCC"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B1:J25"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
-  <cols>
-    <col min="1" max="1" width="3" style="7" customWidth="1"/>
-    <col min="2" max="2" width="4.90625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="19.08984375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="21" style="8" customWidth="1"/>
-    <col min="6" max="6" width="15.90625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="92.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.54296875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="35.453125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="45.6328125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="7" customWidth="1"/>
-    <col min="12" max="16384" width="9.08984375" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.5">
-      <c r="B1" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="2:10" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.5">
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B3" s="7" t="s">
-        <v>861</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="J3" s="55" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>862</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" s="8" customFormat="1" ht="43.5" x14ac:dyDescent="0.5">
-      <c r="B5" s="15">
-        <f t="shared" ref="B5:B8" si="0">ROW()-ROW($B$4)</f>
-        <v>1</v>
-      </c>
-      <c r="C5" s="81" t="s">
-        <v>863</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>864</v>
-      </c>
-      <c r="H5" s="39" t="s">
-        <v>865</v>
-      </c>
-      <c r="I5" s="81" t="s">
-        <v>866</v>
-      </c>
-      <c r="J5" s="81" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" s="8" customFormat="1" ht="43.5" x14ac:dyDescent="0.5">
-      <c r="B6" s="15">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>868</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>869</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>865</v>
-      </c>
-      <c r="I6" s="79" t="s">
-        <v>870</v>
-      </c>
-      <c r="J6" s="79"/>
-    </row>
-    <row r="7" spans="2:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.5">
-      <c r="B7" s="82">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C7" s="79" t="s">
-        <v>871</v>
-      </c>
-      <c r="D7" s="79" t="s">
-        <v>872</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>873</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>865</v>
-      </c>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-    </row>
-    <row r="8" spans="2:10" s="8" customFormat="1" ht="43.5" x14ac:dyDescent="0.5">
-      <c r="B8" s="15">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="45" t="s">
-        <v>874</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" s="82" t="s">
-        <v>139</v>
-      </c>
-      <c r="G8" s="82" t="s">
-        <v>875</v>
-      </c>
-      <c r="H8" s="82" t="s">
-        <v>865</v>
-      </c>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-    </row>
-    <row r="9" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="7" t="s">
-        <v>876</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-    </row>
-    <row r="10" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="7"/>
-    </row>
-    <row r="11" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="12" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="7" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="15" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="16" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="7" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B20" s="7" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B21" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B24" s="7" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B25" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-</worksheet>
 </file>
--- a/docs/テスト観点カタログ.xlsx
+++ b/docs/テスト観点カタログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AE24F9-754E-46F4-9354-3F3C07993809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101E696C-566F-4C22-9D5D-754B24E02131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" tabRatio="735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2858" uniqueCount="1430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2866" uniqueCount="1435">
   <si>
     <t>TIS株式会社</t>
     <rPh sb="1" eb="3">
@@ -17958,6 +17958,73 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.5版</t>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>機能テスト【共通】
+　No.14</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「有効範囲の下限値+1」ではなく「有効範囲の下限値-1」が正しいため、記載を修正</t>
+    <rPh sb="1" eb="5">
+      <t>ユウコウハンイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>カゲンチ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>ユウコウハンイ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>カゲンチ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>機能テスト【共通】
+　No.15</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>数値項目に数値以外の入力があった場合の観点を追加</t>
+    <rPh sb="0" eb="4">
+      <t>スウチコウモク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カンテン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -21122,6 +21189,9 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="513" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -21158,9 +21228,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -21187,48 +21296,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="561">
@@ -24955,24 +25022,24 @@
       <c r="C4" s="80" t="s">
         <v>924</v>
       </c>
-      <c r="D4" s="144" t="s">
+      <c r="D4" s="145" t="s">
         <v>925</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144" t="s">
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="144"/>
-      <c r="L4" s="144"/>
-      <c r="M4" s="144"/>
-      <c r="N4" s="144"/>
-      <c r="O4" s="144"/>
-      <c r="P4" s="144"/>
-      <c r="Q4" s="144"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="145"/>
+      <c r="L4" s="145"/>
+      <c r="M4" s="145"/>
+      <c r="N4" s="145"/>
+      <c r="O4" s="145"/>
+      <c r="P4" s="145"/>
+      <c r="Q4" s="145"/>
     </row>
     <row r="5" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C5" s="49">
@@ -25678,24 +25745,24 @@
       <c r="C4" s="80" t="s">
         <v>924</v>
       </c>
-      <c r="D4" s="144" t="s">
+      <c r="D4" s="145" t="s">
         <v>925</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144" t="s">
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="144"/>
-      <c r="L4" s="144"/>
-      <c r="M4" s="144"/>
-      <c r="N4" s="144"/>
-      <c r="O4" s="144"/>
-      <c r="P4" s="144"/>
-      <c r="Q4" s="144"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="145"/>
+      <c r="L4" s="145"/>
+      <c r="M4" s="145"/>
+      <c r="N4" s="145"/>
+      <c r="O4" s="145"/>
+      <c r="P4" s="145"/>
+      <c r="Q4" s="145"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.5">
       <c r="C5" s="49">
@@ -26477,7 +26544,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C26" s="145" t="s">
+      <c r="C26" s="146" t="s">
         <v>1056</v>
       </c>
       <c r="D26" s="81" t="s">
@@ -26505,7 +26572,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C27" s="146"/>
+      <c r="C27" s="147"/>
       <c r="D27" s="82"/>
       <c r="E27" s="43"/>
       <c r="F27" s="82"/>
@@ -27162,7 +27229,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C58" s="145" t="s">
+      <c r="C58" s="146" t="s">
         <v>1061</v>
       </c>
       <c r="D58" s="81" t="s">
@@ -27192,7 +27259,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C59" s="143"/>
+      <c r="C59" s="144"/>
       <c r="D59" s="79"/>
       <c r="E59" s="42"/>
       <c r="F59" s="41" t="s">
@@ -27610,7 +27677,7 @@
         <f>ROW()-ROW($B$83)</f>
         <v>2</v>
       </c>
-      <c r="C85" s="145" t="s">
+      <c r="C85" s="146" t="s">
         <v>1061</v>
       </c>
       <c r="D85" s="81" t="s">
@@ -27640,7 +27707,7 @@
         <f>ROW()-ROW($B$83)</f>
         <v>3</v>
       </c>
-      <c r="C86" s="146"/>
+      <c r="C86" s="147"/>
       <c r="D86" s="82"/>
       <c r="E86" s="45" t="s">
         <v>1007</v>
@@ -27705,68 +27772,68 @@
       <c r="C4" s="62" t="s">
         <v>924</v>
       </c>
-      <c r="D4" s="158" t="s">
+      <c r="D4" s="149" t="s">
         <v>1148</v>
       </c>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="158" t="s">
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149" t="s">
         <v>1149</v>
       </c>
-      <c r="I4" s="158"/>
-      <c r="J4" s="158"/>
-      <c r="K4" s="158"/>
-      <c r="L4" s="158"/>
-      <c r="M4" s="158"/>
-      <c r="N4" s="158"/>
-      <c r="O4" s="158"/>
-      <c r="P4" s="158"/>
-      <c r="Q4" s="158"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="149"/>
+      <c r="L4" s="149"/>
+      <c r="M4" s="149"/>
+      <c r="N4" s="149"/>
+      <c r="O4" s="149"/>
+      <c r="P4" s="149"/>
+      <c r="Q4" s="149"/>
     </row>
     <row r="5" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C5" s="61">
         <v>1</v>
       </c>
-      <c r="D5" s="162" t="s">
+      <c r="D5" s="150" t="s">
         <v>1150</v>
       </c>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="164"/>
-      <c r="H5" s="147" t="s">
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="148" t="s">
         <v>1151</v>
       </c>
-      <c r="I5" s="147"/>
-      <c r="J5" s="147"/>
-      <c r="K5" s="147"/>
-      <c r="L5" s="147"/>
-      <c r="M5" s="147"/>
-      <c r="N5" s="147"/>
-      <c r="O5" s="147"/>
-      <c r="P5" s="147"/>
-      <c r="Q5" s="147"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="148"/>
+      <c r="K5" s="148"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="148"/>
+      <c r="N5" s="148"/>
+      <c r="O5" s="148"/>
+      <c r="P5" s="148"/>
+      <c r="Q5" s="148"/>
     </row>
     <row r="6" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C6" s="61">
         <v>2</v>
       </c>
-      <c r="D6" s="168"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="147" t="s">
+      <c r="D6" s="153"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="155"/>
+      <c r="H6" s="148" t="s">
         <v>1152</v>
       </c>
-      <c r="I6" s="147"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="147"/>
-      <c r="L6" s="147"/>
-      <c r="M6" s="147"/>
-      <c r="N6" s="147"/>
-      <c r="O6" s="147"/>
-      <c r="P6" s="147"/>
-      <c r="Q6" s="147"/>
+      <c r="I6" s="148"/>
+      <c r="J6" s="148"/>
+      <c r="K6" s="148"/>
+      <c r="L6" s="148"/>
+      <c r="M6" s="148"/>
+      <c r="N6" s="148"/>
+      <c r="O6" s="148"/>
+      <c r="P6" s="148"/>
+      <c r="Q6" s="148"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B9" s="78" t="s">
@@ -27777,208 +27844,210 @@
       <c r="C10" s="62" t="s">
         <v>924</v>
       </c>
-      <c r="D10" s="158" t="s">
+      <c r="D10" s="149" t="s">
         <v>1148</v>
       </c>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158" t="s">
+      <c r="E10" s="149"/>
+      <c r="F10" s="149"/>
+      <c r="G10" s="149"/>
+      <c r="H10" s="149" t="s">
         <v>1149</v>
       </c>
-      <c r="I10" s="158"/>
-      <c r="J10" s="158"/>
-      <c r="K10" s="158"/>
-      <c r="L10" s="158"/>
-      <c r="M10" s="158"/>
-      <c r="N10" s="158"/>
-      <c r="O10" s="158"/>
-      <c r="P10" s="158"/>
-      <c r="Q10" s="158"/>
+      <c r="I10" s="149"/>
+      <c r="J10" s="149"/>
+      <c r="K10" s="149"/>
+      <c r="L10" s="149"/>
+      <c r="M10" s="149"/>
+      <c r="N10" s="149"/>
+      <c r="O10" s="149"/>
+      <c r="P10" s="149"/>
+      <c r="Q10" s="149"/>
     </row>
     <row r="11" spans="2:17" ht="55.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C11" s="61">
         <v>1</v>
       </c>
-      <c r="D11" s="162" t="s">
+      <c r="D11" s="150" t="s">
         <v>1154</v>
       </c>
-      <c r="E11" s="163"/>
-      <c r="F11" s="163"/>
-      <c r="G11" s="164"/>
-      <c r="H11" s="147" t="s">
+      <c r="E11" s="151"/>
+      <c r="F11" s="151"/>
+      <c r="G11" s="152"/>
+      <c r="H11" s="148" t="s">
         <v>1155</v>
       </c>
-      <c r="I11" s="147"/>
-      <c r="J11" s="147"/>
-      <c r="K11" s="147"/>
-      <c r="L11" s="147"/>
-      <c r="M11" s="147"/>
-      <c r="N11" s="147"/>
-      <c r="O11" s="147"/>
-      <c r="P11" s="147"/>
-      <c r="Q11" s="147"/>
+      <c r="I11" s="148"/>
+      <c r="J11" s="148"/>
+      <c r="K11" s="148"/>
+      <c r="L11" s="148"/>
+      <c r="M11" s="148"/>
+      <c r="N11" s="148"/>
+      <c r="O11" s="148"/>
+      <c r="P11" s="148"/>
+      <c r="Q11" s="148"/>
     </row>
     <row r="12" spans="2:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C12" s="61">
         <v>2</v>
       </c>
-      <c r="D12" s="165"/>
-      <c r="E12" s="166"/>
-      <c r="F12" s="166"/>
-      <c r="G12" s="167"/>
-      <c r="H12" s="147" t="s">
+      <c r="D12" s="160"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="162"/>
+      <c r="H12" s="148" t="s">
         <v>1156</v>
       </c>
-      <c r="I12" s="147"/>
-      <c r="J12" s="147"/>
-      <c r="K12" s="147"/>
-      <c r="L12" s="147"/>
-      <c r="M12" s="147"/>
-      <c r="N12" s="147"/>
-      <c r="O12" s="147"/>
-      <c r="P12" s="147"/>
-      <c r="Q12" s="147"/>
+      <c r="I12" s="148"/>
+      <c r="J12" s="148"/>
+      <c r="K12" s="148"/>
+      <c r="L12" s="148"/>
+      <c r="M12" s="148"/>
+      <c r="N12" s="148"/>
+      <c r="O12" s="148"/>
+      <c r="P12" s="148"/>
+      <c r="Q12" s="148"/>
     </row>
     <row r="13" spans="2:17" ht="131.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C13" s="61">
         <v>3</v>
       </c>
-      <c r="D13" s="168"/>
-      <c r="E13" s="169"/>
-      <c r="F13" s="169"/>
-      <c r="G13" s="170"/>
-      <c r="H13" s="147" t="s">
+      <c r="D13" s="153"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="154"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="148" t="s">
         <v>1157</v>
       </c>
-      <c r="I13" s="148"/>
-      <c r="J13" s="148"/>
-      <c r="K13" s="148"/>
-      <c r="L13" s="148"/>
-      <c r="M13" s="148"/>
-      <c r="N13" s="148"/>
-      <c r="O13" s="148"/>
-      <c r="P13" s="148"/>
-      <c r="Q13" s="148"/>
+      <c r="I13" s="156"/>
+      <c r="J13" s="156"/>
+      <c r="K13" s="156"/>
+      <c r="L13" s="156"/>
+      <c r="M13" s="156"/>
+      <c r="N13" s="156"/>
+      <c r="O13" s="156"/>
+      <c r="P13" s="156"/>
+      <c r="Q13" s="156"/>
     </row>
     <row r="14" spans="2:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C14" s="61">
         <v>4</v>
       </c>
-      <c r="D14" s="149" t="s">
+      <c r="D14" s="163" t="s">
         <v>1158</v>
       </c>
-      <c r="E14" s="150"/>
-      <c r="F14" s="150"/>
-      <c r="G14" s="151"/>
-      <c r="H14" s="147" t="s">
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="148" t="s">
         <v>1159</v>
       </c>
-      <c r="I14" s="148"/>
-      <c r="J14" s="148"/>
-      <c r="K14" s="148"/>
-      <c r="L14" s="148"/>
-      <c r="M14" s="148"/>
-      <c r="N14" s="148"/>
-      <c r="O14" s="148"/>
-      <c r="P14" s="148"/>
-      <c r="Q14" s="148"/>
+      <c r="I14" s="156"/>
+      <c r="J14" s="156"/>
+      <c r="K14" s="156"/>
+      <c r="L14" s="156"/>
+      <c r="M14" s="156"/>
+      <c r="N14" s="156"/>
+      <c r="O14" s="156"/>
+      <c r="P14" s="156"/>
+      <c r="Q14" s="156"/>
     </row>
     <row r="15" spans="2:17" ht="39" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C15" s="61">
         <v>5</v>
       </c>
-      <c r="D15" s="152"/>
-      <c r="E15" s="153"/>
-      <c r="F15" s="153"/>
-      <c r="G15" s="154"/>
-      <c r="H15" s="148" t="s">
+      <c r="D15" s="166"/>
+      <c r="E15" s="167"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="168"/>
+      <c r="H15" s="156" t="s">
         <v>1160</v>
       </c>
-      <c r="I15" s="148"/>
-      <c r="J15" s="148"/>
-      <c r="K15" s="148"/>
-      <c r="L15" s="148"/>
-      <c r="M15" s="148"/>
-      <c r="N15" s="148"/>
-      <c r="O15" s="148"/>
-      <c r="P15" s="148"/>
-      <c r="Q15" s="148"/>
+      <c r="I15" s="156"/>
+      <c r="J15" s="156"/>
+      <c r="K15" s="156"/>
+      <c r="L15" s="156"/>
+      <c r="M15" s="156"/>
+      <c r="N15" s="156"/>
+      <c r="O15" s="156"/>
+      <c r="P15" s="156"/>
+      <c r="Q15" s="156"/>
     </row>
     <row r="16" spans="2:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C16" s="61">
         <v>6</v>
       </c>
-      <c r="D16" s="155"/>
-      <c r="E16" s="156"/>
-      <c r="F16" s="156"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="159" t="s">
+      <c r="D16" s="169"/>
+      <c r="E16" s="170"/>
+      <c r="F16" s="170"/>
+      <c r="G16" s="171"/>
+      <c r="H16" s="157" t="s">
         <v>1161</v>
       </c>
-      <c r="I16" s="160"/>
-      <c r="J16" s="160"/>
-      <c r="K16" s="160"/>
-      <c r="L16" s="160"/>
-      <c r="M16" s="160"/>
-      <c r="N16" s="160"/>
-      <c r="O16" s="160"/>
-      <c r="P16" s="160"/>
-      <c r="Q16" s="161"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="158"/>
+      <c r="L16" s="158"/>
+      <c r="M16" s="158"/>
+      <c r="N16" s="158"/>
+      <c r="O16" s="158"/>
+      <c r="P16" s="158"/>
+      <c r="Q16" s="159"/>
     </row>
     <row r="17" spans="3:17" ht="161.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C17" s="61">
         <v>7</v>
       </c>
-      <c r="D17" s="147" t="s">
+      <c r="D17" s="148" t="s">
         <v>1162</v>
       </c>
-      <c r="E17" s="148"/>
-      <c r="F17" s="148"/>
-      <c r="G17" s="148"/>
-      <c r="H17" s="147" t="s">
+      <c r="E17" s="156"/>
+      <c r="F17" s="156"/>
+      <c r="G17" s="156"/>
+      <c r="H17" s="148" t="s">
         <v>1163</v>
       </c>
-      <c r="I17" s="147"/>
-      <c r="J17" s="147"/>
-      <c r="K17" s="147"/>
-      <c r="L17" s="147"/>
-      <c r="M17" s="147"/>
-      <c r="N17" s="147"/>
-      <c r="O17" s="147"/>
-      <c r="P17" s="147"/>
-      <c r="Q17" s="147"/>
+      <c r="I17" s="148"/>
+      <c r="J17" s="148"/>
+      <c r="K17" s="148"/>
+      <c r="L17" s="148"/>
+      <c r="M17" s="148"/>
+      <c r="N17" s="148"/>
+      <c r="O17" s="148"/>
+      <c r="P17" s="148"/>
+      <c r="Q17" s="148"/>
     </row>
     <row r="18" spans="3:17" ht="145.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C18" s="61">
         <v>8</v>
       </c>
-      <c r="D18" s="147" t="s">
+      <c r="D18" s="148" t="s">
         <v>1164</v>
       </c>
-      <c r="E18" s="148"/>
-      <c r="F18" s="148"/>
-      <c r="G18" s="148"/>
-      <c r="H18" s="147" t="s">
+      <c r="E18" s="156"/>
+      <c r="F18" s="156"/>
+      <c r="G18" s="156"/>
+      <c r="H18" s="148" t="s">
         <v>1165</v>
       </c>
-      <c r="I18" s="148"/>
-      <c r="J18" s="148"/>
-      <c r="K18" s="148"/>
-      <c r="L18" s="148"/>
-      <c r="M18" s="148"/>
-      <c r="N18" s="148"/>
-      <c r="O18" s="148"/>
-      <c r="P18" s="148"/>
-      <c r="Q18" s="148"/>
+      <c r="I18" s="156"/>
+      <c r="J18" s="156"/>
+      <c r="K18" s="156"/>
+      <c r="L18" s="156"/>
+      <c r="M18" s="156"/>
+      <c r="N18" s="156"/>
+      <c r="O18" s="156"/>
+      <c r="P18" s="156"/>
+      <c r="Q18" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="H5:Q5"/>
-    <mergeCell ref="H4:Q4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H6:Q6"/>
-    <mergeCell ref="D5:G6"/>
+    <mergeCell ref="H17:Q17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="H18:Q18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H12:Q12"/>
+    <mergeCell ref="H13:Q13"/>
+    <mergeCell ref="D14:G16"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="H10:Q10"/>
     <mergeCell ref="H14:Q14"/>
@@ -27986,13 +28055,11 @@
     <mergeCell ref="H16:Q16"/>
     <mergeCell ref="D11:G13"/>
     <mergeCell ref="H11:Q11"/>
-    <mergeCell ref="H17:Q17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="H18:Q18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="H12:Q12"/>
-    <mergeCell ref="H13:Q13"/>
-    <mergeCell ref="D14:G16"/>
+    <mergeCell ref="H5:Q5"/>
+    <mergeCell ref="H4:Q4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H6:Q6"/>
+    <mergeCell ref="D5:G6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -29154,24 +29221,24 @@
       <c r="C4" s="80" t="s">
         <v>924</v>
       </c>
-      <c r="D4" s="144" t="s">
+      <c r="D4" s="145" t="s">
         <v>925</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144" t="s">
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="144"/>
-      <c r="L4" s="144"/>
-      <c r="M4" s="144"/>
-      <c r="N4" s="144"/>
-      <c r="O4" s="144"/>
-      <c r="P4" s="144"/>
-      <c r="Q4" s="144"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="145"/>
+      <c r="L4" s="145"/>
+      <c r="M4" s="145"/>
+      <c r="N4" s="145"/>
+      <c r="O4" s="145"/>
+      <c r="P4" s="145"/>
+      <c r="Q4" s="145"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.5">
       <c r="C5" s="50">
@@ -29418,24 +29485,24 @@
       <c r="C28" s="80" t="s">
         <v>924</v>
       </c>
-      <c r="D28" s="144" t="s">
+      <c r="D28" s="145" t="s">
         <v>925</v>
       </c>
-      <c r="E28" s="144"/>
-      <c r="F28" s="144"/>
-      <c r="G28" s="144"/>
-      <c r="H28" s="144" t="s">
+      <c r="E28" s="145"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="145" t="s">
         <v>66</v>
       </c>
-      <c r="I28" s="144"/>
-      <c r="J28" s="144"/>
-      <c r="K28" s="144"/>
-      <c r="L28" s="144"/>
-      <c r="M28" s="144"/>
-      <c r="N28" s="144"/>
-      <c r="O28" s="144"/>
-      <c r="P28" s="144"/>
-      <c r="Q28" s="144"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="145"/>
+      <c r="K28" s="145"/>
+      <c r="L28" s="145"/>
+      <c r="M28" s="145"/>
+      <c r="N28" s="145"/>
+      <c r="O28" s="145"/>
+      <c r="P28" s="145"/>
+      <c r="Q28" s="145"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.5">
       <c r="C29" s="50">
@@ -29487,24 +29554,24 @@
       <c r="C35" s="80" t="s">
         <v>924</v>
       </c>
-      <c r="D35" s="144" t="s">
+      <c r="D35" s="145" t="s">
         <v>925</v>
       </c>
-      <c r="E35" s="144"/>
-      <c r="F35" s="144"/>
-      <c r="G35" s="144"/>
-      <c r="H35" s="144" t="s">
+      <c r="E35" s="145"/>
+      <c r="F35" s="145"/>
+      <c r="G35" s="145"/>
+      <c r="H35" s="145" t="s">
         <v>66</v>
       </c>
-      <c r="I35" s="144"/>
-      <c r="J35" s="144"/>
-      <c r="K35" s="144"/>
-      <c r="L35" s="144"/>
-      <c r="M35" s="144"/>
-      <c r="N35" s="144"/>
-      <c r="O35" s="144"/>
-      <c r="P35" s="144"/>
-      <c r="Q35" s="144"/>
+      <c r="I35" s="145"/>
+      <c r="J35" s="145"/>
+      <c r="K35" s="145"/>
+      <c r="L35" s="145"/>
+      <c r="M35" s="145"/>
+      <c r="N35" s="145"/>
+      <c r="O35" s="145"/>
+      <c r="P35" s="145"/>
+      <c r="Q35" s="145"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.5">
       <c r="C36" s="49">
@@ -29566,24 +29633,24 @@
       <c r="C42" s="80" t="s">
         <v>924</v>
       </c>
-      <c r="D42" s="144" t="s">
+      <c r="D42" s="145" t="s">
         <v>925</v>
       </c>
-      <c r="E42" s="144"/>
-      <c r="F42" s="144"/>
-      <c r="G42" s="144"/>
-      <c r="H42" s="144" t="s">
+      <c r="E42" s="145"/>
+      <c r="F42" s="145"/>
+      <c r="G42" s="145"/>
+      <c r="H42" s="145" t="s">
         <v>66</v>
       </c>
-      <c r="I42" s="144"/>
-      <c r="J42" s="144"/>
-      <c r="K42" s="144"/>
-      <c r="L42" s="144"/>
-      <c r="M42" s="144"/>
-      <c r="N42" s="144"/>
-      <c r="O42" s="144"/>
-      <c r="P42" s="144"/>
-      <c r="Q42" s="144"/>
+      <c r="I42" s="145"/>
+      <c r="J42" s="145"/>
+      <c r="K42" s="145"/>
+      <c r="L42" s="145"/>
+      <c r="M42" s="145"/>
+      <c r="N42" s="145"/>
+      <c r="O42" s="145"/>
+      <c r="P42" s="145"/>
+      <c r="Q42" s="145"/>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.5">
       <c r="C43" s="49">
@@ -29666,24 +29733,24 @@
       <c r="C50" s="80" t="s">
         <v>924</v>
       </c>
-      <c r="D50" s="144" t="s">
+      <c r="D50" s="145" t="s">
         <v>925</v>
       </c>
-      <c r="E50" s="144"/>
-      <c r="F50" s="144"/>
-      <c r="G50" s="144"/>
-      <c r="H50" s="144" t="s">
+      <c r="E50" s="145"/>
+      <c r="F50" s="145"/>
+      <c r="G50" s="145"/>
+      <c r="H50" s="145" t="s">
         <v>66</v>
       </c>
-      <c r="I50" s="144"/>
-      <c r="J50" s="144"/>
-      <c r="K50" s="144"/>
-      <c r="L50" s="144"/>
-      <c r="M50" s="144"/>
-      <c r="N50" s="144"/>
-      <c r="O50" s="144"/>
-      <c r="P50" s="144"/>
-      <c r="Q50" s="144"/>
+      <c r="I50" s="145"/>
+      <c r="J50" s="145"/>
+      <c r="K50" s="145"/>
+      <c r="L50" s="145"/>
+      <c r="M50" s="145"/>
+      <c r="N50" s="145"/>
+      <c r="O50" s="145"/>
+      <c r="P50" s="145"/>
+      <c r="Q50" s="145"/>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.5">
       <c r="C51" s="65">
@@ -30088,10 +30155,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA9DBA0-2246-4C3A-80ED-646269B04D10}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
@@ -30120,7 +30187,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="119" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="171" t="s">
+      <c r="A3" s="136" t="s">
         <v>1428</v>
       </c>
     </row>
@@ -30402,6 +30469,46 @@
       </c>
       <c r="F17" s="132" t="s">
         <v>1426</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="122" customFormat="1" ht="29" x14ac:dyDescent="0.5">
+      <c r="A18" s="128">
+        <v>14</v>
+      </c>
+      <c r="B18" s="129" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C18" s="133">
+        <v>45394</v>
+      </c>
+      <c r="D18" s="134" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E18" s="131" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F18" s="132" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="122" customFormat="1" ht="29" x14ac:dyDescent="0.5">
+      <c r="A19" s="128">
+        <v>14</v>
+      </c>
+      <c r="B19" s="129" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C19" s="133">
+        <v>45394</v>
+      </c>
+      <c r="D19" s="134" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E19" s="131" t="s">
+        <v>1433</v>
+      </c>
+      <c r="F19" s="132" t="s">
+        <v>1434</v>
       </c>
     </row>
   </sheetData>
@@ -30449,24 +30556,24 @@
       <c r="C4" s="80" t="s">
         <v>924</v>
       </c>
-      <c r="D4" s="144" t="s">
+      <c r="D4" s="145" t="s">
         <v>925</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144" t="s">
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="144"/>
-      <c r="L4" s="144"/>
-      <c r="M4" s="144"/>
-      <c r="N4" s="144"/>
-      <c r="O4" s="144"/>
-      <c r="P4" s="144"/>
-      <c r="Q4" s="144"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="145"/>
+      <c r="L4" s="145"/>
+      <c r="M4" s="145"/>
+      <c r="N4" s="145"/>
+      <c r="O4" s="145"/>
+      <c r="P4" s="145"/>
+      <c r="Q4" s="145"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.5">
       <c r="C5" s="49">
@@ -30969,24 +31076,24 @@
       <c r="C4" s="80" t="s">
         <v>924</v>
       </c>
-      <c r="D4" s="144" t="s">
+      <c r="D4" s="145" t="s">
         <v>925</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144" t="s">
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="144"/>
-      <c r="L4" s="144"/>
-      <c r="M4" s="144"/>
-      <c r="N4" s="144"/>
-      <c r="O4" s="144"/>
-      <c r="P4" s="144"/>
-      <c r="Q4" s="144"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="145"/>
+      <c r="L4" s="145"/>
+      <c r="M4" s="145"/>
+      <c r="N4" s="145"/>
+      <c r="O4" s="145"/>
+      <c r="P4" s="145"/>
+      <c r="Q4" s="145"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.5">
       <c r="C5" s="50">
@@ -31106,24 +31213,24 @@
       <c r="C17" s="80" t="s">
         <v>924</v>
       </c>
-      <c r="D17" s="144" t="s">
+      <c r="D17" s="145" t="s">
         <v>925</v>
       </c>
-      <c r="E17" s="144"/>
-      <c r="F17" s="144"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="144" t="s">
+      <c r="E17" s="145"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="145" t="s">
         <v>66</v>
       </c>
-      <c r="I17" s="144"/>
-      <c r="J17" s="144"/>
-      <c r="K17" s="144"/>
-      <c r="L17" s="144"/>
-      <c r="M17" s="144"/>
-      <c r="N17" s="144"/>
-      <c r="O17" s="144"/>
-      <c r="P17" s="144"/>
-      <c r="Q17" s="144"/>
+      <c r="I17" s="145"/>
+      <c r="J17" s="145"/>
+      <c r="K17" s="145"/>
+      <c r="L17" s="145"/>
+      <c r="M17" s="145"/>
+      <c r="N17" s="145"/>
+      <c r="O17" s="145"/>
+      <c r="P17" s="145"/>
+      <c r="Q17" s="145"/>
     </row>
     <row r="18" spans="3:17" x14ac:dyDescent="0.5">
       <c r="C18" s="49">
@@ -31754,25 +31861,25 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="138"/>
-      <c r="D4" s="136" t="s">
+      <c r="C4" s="139"/>
+      <c r="D4" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
       <c r="K4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B5" s="139"/>
-      <c r="C5" s="140"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="141"/>
       <c r="D5" s="48" t="s">
         <v>9</v>
       </c>
@@ -31800,10 +31907,10 @@
       <c r="M5" s="56"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="142"/>
+      <c r="C6" s="143"/>
       <c r="D6" s="63" t="s">
         <v>18</v>
       </c>
@@ -31831,10 +31938,10 @@
       <c r="M6" s="57"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="142"/>
+      <c r="C7" s="143"/>
       <c r="D7" s="63" t="s">
         <v>18</v>
       </c>
@@ -31862,10 +31969,10 @@
       <c r="M7" s="57"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B8" s="141" t="s">
+      <c r="B8" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="142"/>
+      <c r="C8" s="143"/>
       <c r="D8" s="63" t="s">
         <v>18</v>
       </c>
@@ -31886,10 +31993,10 @@
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B9" s="141" t="s">
+      <c r="B9" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="142"/>
+      <c r="C9" s="143"/>
       <c r="D9" s="63" t="s">
         <v>18</v>
       </c>
@@ -31910,10 +32017,10 @@
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B10" s="141" t="s">
+      <c r="B10" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="142"/>
+      <c r="C10" s="143"/>
       <c r="D10" s="63" t="s">
         <v>18</v>
       </c>
@@ -31934,10 +32041,10 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B11" s="141" t="s">
+      <c r="B11" s="142" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="142"/>
+      <c r="C11" s="143"/>
       <c r="D11" s="63" t="s">
         <v>18</v>
       </c>
@@ -31958,10 +32065,10 @@
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B12" s="141" t="s">
+      <c r="B12" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="142"/>
+      <c r="C12" s="143"/>
       <c r="D12" s="63" t="s">
         <v>18</v>
       </c>
@@ -31982,10 +32089,10 @@
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B13" s="141" t="s">
+      <c r="B13" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="142"/>
+      <c r="C13" s="143"/>
       <c r="D13" s="63" t="s">
         <v>18</v>
       </c>
@@ -32006,10 +32113,10 @@
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B14" s="141" t="s">
+      <c r="B14" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="142"/>
+      <c r="C14" s="143"/>
       <c r="D14" s="63" t="s">
         <v>18</v>
       </c>
@@ -32030,10 +32137,10 @@
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B15" s="141" t="s">
+      <c r="B15" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="142"/>
+      <c r="C15" s="143"/>
       <c r="D15" s="63" t="s">
         <v>20</v>
       </c>
@@ -32054,10 +32161,10 @@
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B16" s="141" t="s">
+      <c r="B16" s="142" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="142"/>
+      <c r="C16" s="143"/>
       <c r="D16" s="63" t="s">
         <v>18</v>
       </c>
@@ -32078,10 +32185,10 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B17" s="141" t="s">
+      <c r="B17" s="142" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="142"/>
+      <c r="C17" s="143"/>
       <c r="D17" s="83" t="s">
         <v>23</v>
       </c>
@@ -32304,7 +32411,9 @@
   </sheetPr>
   <dimension ref="B1:K310"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
   <cols>
@@ -34518,7 +34627,7 @@
         <f t="shared" ref="B115:B182" si="2">ROW()-ROW($B$113)</f>
         <v>2</v>
       </c>
-      <c r="C115" s="143" t="s">
+      <c r="C115" s="144" t="s">
         <v>280</v>
       </c>
       <c r="D115" s="13"/>
@@ -34540,7 +34649,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="C116" s="143"/>
+      <c r="C116" s="144"/>
       <c r="D116" s="13"/>
       <c r="E116" s="79"/>
       <c r="F116" s="42"/>
@@ -34920,7 +35029,7 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="C135" s="143" t="s">
+      <c r="C135" s="144" t="s">
         <v>312</v>
       </c>
       <c r="D135" s="13"/>
@@ -34942,7 +35051,7 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="C136" s="143"/>
+      <c r="C136" s="144"/>
       <c r="D136" s="13"/>
       <c r="E136" s="79"/>
       <c r="F136" s="79"/>

--- a/docs/テスト観点カタログ.xlsx
+++ b/docs/テスト観点カタログ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101E696C-566F-4C22-9D5D-754B24E02131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16B2E4C-1243-4A0C-B86E-1875BAC48A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" tabRatio="735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" tabRatio="735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="48" r:id="rId1"/>
@@ -21228,9 +21228,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -21240,6 +21279,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -21248,54 +21296,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="561">
@@ -22343,7 +22343,7 @@
   </sheetPr>
   <dimension ref="A1:AI510"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.08984375" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
   <cols>
@@ -27772,35 +27772,35 @@
       <c r="C4" s="62" t="s">
         <v>924</v>
       </c>
-      <c r="D4" s="149" t="s">
+      <c r="D4" s="159" t="s">
         <v>1148</v>
       </c>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149" t="s">
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159" t="s">
         <v>1149</v>
       </c>
-      <c r="I4" s="149"/>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
-      <c r="M4" s="149"/>
-      <c r="N4" s="149"/>
-      <c r="O4" s="149"/>
-      <c r="P4" s="149"/>
-      <c r="Q4" s="149"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="159"/>
+      <c r="O4" s="159"/>
+      <c r="P4" s="159"/>
+      <c r="Q4" s="159"/>
     </row>
     <row r="5" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C5" s="61">
         <v>1</v>
       </c>
-      <c r="D5" s="150" t="s">
+      <c r="D5" s="163" t="s">
         <v>1150</v>
       </c>
-      <c r="E5" s="151"/>
-      <c r="F5" s="151"/>
-      <c r="G5" s="152"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="164"/>
+      <c r="G5" s="165"/>
       <c r="H5" s="148" t="s">
         <v>1151</v>
       </c>
@@ -27818,10 +27818,10 @@
       <c r="C6" s="61">
         <v>2</v>
       </c>
-      <c r="D6" s="153"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="155"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="171"/>
       <c r="H6" s="148" t="s">
         <v>1152</v>
       </c>
@@ -27844,35 +27844,35 @@
       <c r="C10" s="62" t="s">
         <v>924</v>
       </c>
-      <c r="D10" s="149" t="s">
+      <c r="D10" s="159" t="s">
         <v>1148</v>
       </c>
-      <c r="E10" s="149"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="149"/>
-      <c r="H10" s="149" t="s">
+      <c r="E10" s="159"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="159" t="s">
         <v>1149</v>
       </c>
-      <c r="I10" s="149"/>
-      <c r="J10" s="149"/>
-      <c r="K10" s="149"/>
-      <c r="L10" s="149"/>
-      <c r="M10" s="149"/>
-      <c r="N10" s="149"/>
-      <c r="O10" s="149"/>
-      <c r="P10" s="149"/>
-      <c r="Q10" s="149"/>
+      <c r="I10" s="159"/>
+      <c r="J10" s="159"/>
+      <c r="K10" s="159"/>
+      <c r="L10" s="159"/>
+      <c r="M10" s="159"/>
+      <c r="N10" s="159"/>
+      <c r="O10" s="159"/>
+      <c r="P10" s="159"/>
+      <c r="Q10" s="159"/>
     </row>
     <row r="11" spans="2:17" ht="55.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C11" s="61">
         <v>1</v>
       </c>
-      <c r="D11" s="150" t="s">
+      <c r="D11" s="163" t="s">
         <v>1154</v>
       </c>
-      <c r="E11" s="151"/>
-      <c r="F11" s="151"/>
-      <c r="G11" s="152"/>
+      <c r="E11" s="164"/>
+      <c r="F11" s="164"/>
+      <c r="G11" s="165"/>
       <c r="H11" s="148" t="s">
         <v>1155</v>
       </c>
@@ -27890,10 +27890,10 @@
       <c r="C12" s="61">
         <v>2</v>
       </c>
-      <c r="D12" s="160"/>
-      <c r="E12" s="161"/>
-      <c r="F12" s="161"/>
-      <c r="G12" s="162"/>
+      <c r="D12" s="166"/>
+      <c r="E12" s="167"/>
+      <c r="F12" s="167"/>
+      <c r="G12" s="168"/>
       <c r="H12" s="148" t="s">
         <v>1156</v>
       </c>
@@ -27911,87 +27911,87 @@
       <c r="C13" s="61">
         <v>3</v>
       </c>
-      <c r="D13" s="153"/>
-      <c r="E13" s="154"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="155"/>
+      <c r="D13" s="169"/>
+      <c r="E13" s="170"/>
+      <c r="F13" s="170"/>
+      <c r="G13" s="171"/>
       <c r="H13" s="148" t="s">
         <v>1157</v>
       </c>
-      <c r="I13" s="156"/>
-      <c r="J13" s="156"/>
-      <c r="K13" s="156"/>
-      <c r="L13" s="156"/>
-      <c r="M13" s="156"/>
-      <c r="N13" s="156"/>
-      <c r="O13" s="156"/>
-      <c r="P13" s="156"/>
-      <c r="Q13" s="156"/>
+      <c r="I13" s="149"/>
+      <c r="J13" s="149"/>
+      <c r="K13" s="149"/>
+      <c r="L13" s="149"/>
+      <c r="M13" s="149"/>
+      <c r="N13" s="149"/>
+      <c r="O13" s="149"/>
+      <c r="P13" s="149"/>
+      <c r="Q13" s="149"/>
     </row>
     <row r="14" spans="2:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C14" s="61">
         <v>4</v>
       </c>
-      <c r="D14" s="163" t="s">
+      <c r="D14" s="150" t="s">
         <v>1158</v>
       </c>
-      <c r="E14" s="164"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="165"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="152"/>
       <c r="H14" s="148" t="s">
         <v>1159</v>
       </c>
-      <c r="I14" s="156"/>
-      <c r="J14" s="156"/>
-      <c r="K14" s="156"/>
-      <c r="L14" s="156"/>
-      <c r="M14" s="156"/>
-      <c r="N14" s="156"/>
-      <c r="O14" s="156"/>
-      <c r="P14" s="156"/>
-      <c r="Q14" s="156"/>
+      <c r="I14" s="149"/>
+      <c r="J14" s="149"/>
+      <c r="K14" s="149"/>
+      <c r="L14" s="149"/>
+      <c r="M14" s="149"/>
+      <c r="N14" s="149"/>
+      <c r="O14" s="149"/>
+      <c r="P14" s="149"/>
+      <c r="Q14" s="149"/>
     </row>
     <row r="15" spans="2:17" ht="39" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C15" s="61">
         <v>5</v>
       </c>
-      <c r="D15" s="166"/>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="156" t="s">
+      <c r="D15" s="153"/>
+      <c r="E15" s="154"/>
+      <c r="F15" s="154"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="149" t="s">
         <v>1160</v>
       </c>
-      <c r="I15" s="156"/>
-      <c r="J15" s="156"/>
-      <c r="K15" s="156"/>
-      <c r="L15" s="156"/>
-      <c r="M15" s="156"/>
-      <c r="N15" s="156"/>
-      <c r="O15" s="156"/>
-      <c r="P15" s="156"/>
-      <c r="Q15" s="156"/>
+      <c r="I15" s="149"/>
+      <c r="J15" s="149"/>
+      <c r="K15" s="149"/>
+      <c r="L15" s="149"/>
+      <c r="M15" s="149"/>
+      <c r="N15" s="149"/>
+      <c r="O15" s="149"/>
+      <c r="P15" s="149"/>
+      <c r="Q15" s="149"/>
     </row>
     <row r="16" spans="2:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C16" s="61">
         <v>6</v>
       </c>
-      <c r="D16" s="169"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="170"/>
-      <c r="G16" s="171"/>
-      <c r="H16" s="157" t="s">
+      <c r="D16" s="156"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="160" t="s">
         <v>1161</v>
       </c>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
-      <c r="M16" s="158"/>
-      <c r="N16" s="158"/>
-      <c r="O16" s="158"/>
-      <c r="P16" s="158"/>
-      <c r="Q16" s="159"/>
+      <c r="I16" s="161"/>
+      <c r="J16" s="161"/>
+      <c r="K16" s="161"/>
+      <c r="L16" s="161"/>
+      <c r="M16" s="161"/>
+      <c r="N16" s="161"/>
+      <c r="O16" s="161"/>
+      <c r="P16" s="161"/>
+      <c r="Q16" s="162"/>
     </row>
     <row r="17" spans="3:17" ht="161.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C17" s="61">
@@ -28000,9 +28000,9 @@
       <c r="D17" s="148" t="s">
         <v>1162</v>
       </c>
-      <c r="E17" s="156"/>
-      <c r="F17" s="156"/>
-      <c r="G17" s="156"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="149"/>
       <c r="H17" s="148" t="s">
         <v>1163</v>
       </c>
@@ -28023,24 +28023,36 @@
       <c r="D18" s="148" t="s">
         <v>1164</v>
       </c>
-      <c r="E18" s="156"/>
-      <c r="F18" s="156"/>
-      <c r="G18" s="156"/>
+      <c r="E18" s="149"/>
+      <c r="F18" s="149"/>
+      <c r="G18" s="149"/>
       <c r="H18" s="148" t="s">
         <v>1165</v>
       </c>
-      <c r="I18" s="156"/>
-      <c r="J18" s="156"/>
-      <c r="K18" s="156"/>
-      <c r="L18" s="156"/>
-      <c r="M18" s="156"/>
-      <c r="N18" s="156"/>
-      <c r="O18" s="156"/>
-      <c r="P18" s="156"/>
-      <c r="Q18" s="156"/>
+      <c r="I18" s="149"/>
+      <c r="J18" s="149"/>
+      <c r="K18" s="149"/>
+      <c r="L18" s="149"/>
+      <c r="M18" s="149"/>
+      <c r="N18" s="149"/>
+      <c r="O18" s="149"/>
+      <c r="P18" s="149"/>
+      <c r="Q18" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="H5:Q5"/>
+    <mergeCell ref="H4:Q4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H6:Q6"/>
+    <mergeCell ref="D5:G6"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:Q10"/>
+    <mergeCell ref="H14:Q14"/>
+    <mergeCell ref="H15:Q15"/>
+    <mergeCell ref="H16:Q16"/>
+    <mergeCell ref="D11:G13"/>
+    <mergeCell ref="H11:Q11"/>
     <mergeCell ref="H17:Q17"/>
     <mergeCell ref="D17:G17"/>
     <mergeCell ref="H18:Q18"/>
@@ -28048,18 +28060,6 @@
     <mergeCell ref="H12:Q12"/>
     <mergeCell ref="H13:Q13"/>
     <mergeCell ref="D14:G16"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H10:Q10"/>
-    <mergeCell ref="H14:Q14"/>
-    <mergeCell ref="H15:Q15"/>
-    <mergeCell ref="H16:Q16"/>
-    <mergeCell ref="D11:G13"/>
-    <mergeCell ref="H11:Q11"/>
-    <mergeCell ref="H5:Q5"/>
-    <mergeCell ref="H4:Q4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H6:Q6"/>
-    <mergeCell ref="D5:G6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -30157,9 +30157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA9DBA0-2246-4C3A-80ED-646269B04D10}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
   <cols>
@@ -31843,9 +31841,7 @@
   </sheetPr>
   <dimension ref="B2:M47"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
   <cols>
@@ -32411,9 +32407,7 @@
   </sheetPr>
   <dimension ref="B1:K310"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
   <cols>
@@ -38440,9 +38434,7 @@
   </sheetPr>
   <dimension ref="B1:J93"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B54" sqref="A54:XFD54"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
   <cols>
@@ -40172,9 +40164,7 @@
   </sheetPr>
   <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A30" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
   <cols>

--- a/docs/テスト観点カタログ.xlsx
+++ b/docs/テスト観点カタログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D22CE54-3B04-4D9D-8A56-C572AD03CAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3BAF26-1E87-4943-9504-D6D83383B6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2927" uniqueCount="1459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2923" uniqueCount="1457">
   <si>
     <t>TIS株式会社</t>
     <rPh sb="1" eb="3">
@@ -17734,47 +17734,6 @@
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>テスト種別
-　性能テスト
-　ストレステスト
-　ボリュームテスト</t>
-    <rPh sb="3" eb="5">
-      <t>シュベツ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>セイノウ</t>
-    </rPh>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>性能テスト計画ガイドに合わせて、整合性が取れる表現に変更。</t>
-    <rPh sb="0" eb="2">
-      <t>セイノウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ケイカク</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>セイゴウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒョウゲン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
     <t>変更</t>
     <rPh sb="0" eb="2">
       <t>ヘンコウ</t>
@@ -17817,10 +17776,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>認可やCSRFについての観点を追加</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>1.3版</t>
     <rPh sb="3" eb="4">
       <t>ハン</t>
@@ -17896,11 +17851,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>機能テスト【ウェブアプリケーション】
-　No.50</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>絵文字についての観点を追加</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -17954,11 +17904,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>機能テスト【共通】
-　No.14</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「有効範囲の下限値+1」ではなく「有効範囲の下限値-1」が正しいため、記載を修正</t>
     <rPh sb="1" eb="5">
       <t>ユウコウハンイ</t>
@@ -17981,11 +17926,6 @@
     <rPh sb="38" eb="40">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>機能テスト【共通】
-　No.15</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -18302,6 +18242,31 @@
     <t>機能テスト【ウェブサービス】
 ■ウェブサービス
 　No.16</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トークンベースのユーザ認証、認可、CSRFについての観点を追加</t>
+    <rPh sb="11" eb="13">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>機能テスト【ウェブアプリケーション】
+■ウェブアプリケーション
+　No.50</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>機能テスト【共通】
+■バリデーション
+　No.14</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>機能テスト【共通】
+■バリデーション
+　No.15</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -21064,7 +21029,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -21449,9 +21414,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="6" xfId="513" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -21477,6 +21439,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -21513,9 +21481,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -21525,6 +21532,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -21533,60 +21549,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="561">
@@ -25313,24 +25275,24 @@
       <c r="C4" s="80" t="s">
         <v>924</v>
       </c>
-      <c r="D4" s="148" t="s">
+      <c r="D4" s="149" t="s">
         <v>925</v>
       </c>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148" t="s">
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="148"/>
-      <c r="M4" s="148"/>
-      <c r="N4" s="148"/>
-      <c r="O4" s="148"/>
-      <c r="P4" s="148"/>
-      <c r="Q4" s="148"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="149"/>
+      <c r="L4" s="149"/>
+      <c r="M4" s="149"/>
+      <c r="N4" s="149"/>
+      <c r="O4" s="149"/>
+      <c r="P4" s="149"/>
+      <c r="Q4" s="149"/>
     </row>
     <row r="5" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="49">
@@ -26036,24 +25998,24 @@
       <c r="C4" s="80" t="s">
         <v>924</v>
       </c>
-      <c r="D4" s="148" t="s">
+      <c r="D4" s="149" t="s">
         <v>925</v>
       </c>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148" t="s">
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="148"/>
-      <c r="M4" s="148"/>
-      <c r="N4" s="148"/>
-      <c r="O4" s="148"/>
-      <c r="P4" s="148"/>
-      <c r="Q4" s="148"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="149"/>
+      <c r="L4" s="149"/>
+      <c r="M4" s="149"/>
+      <c r="N4" s="149"/>
+      <c r="O4" s="149"/>
+      <c r="P4" s="149"/>
+      <c r="Q4" s="149"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C5" s="49">
@@ -26303,7 +26265,7 @@
   </sheetPr>
   <dimension ref="B1:J90"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A79" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
@@ -26837,7 +26799,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C26" s="149" t="s">
+      <c r="C26" s="150" t="s">
         <v>1056</v>
       </c>
       <c r="D26" s="81" t="s">
@@ -26865,7 +26827,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C27" s="150"/>
+      <c r="C27" s="151"/>
       <c r="D27" s="82"/>
       <c r="E27" s="43"/>
       <c r="F27" s="82"/>
@@ -27362,26 +27324,26 @@
       <c r="J50" s="41"/>
     </row>
     <row r="51" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="176">
+      <c r="B51" s="140">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C51" s="137"/>
-      <c r="D51" s="137"/>
+      <c r="C51" s="136"/>
+      <c r="D51" s="136"/>
       <c r="E51" s="41" t="s">
-        <v>1443</v>
+        <v>1437</v>
       </c>
       <c r="F51" s="40"/>
       <c r="G51" s="40" t="s">
-        <v>1450</v>
+        <v>1444</v>
       </c>
       <c r="H51" s="12" t="s">
         <v>593</v>
       </c>
-      <c r="I51" s="137" t="s">
+      <c r="I51" s="136" t="s">
         <v>1037</v>
       </c>
-      <c r="J51" s="137"/>
+      <c r="J51" s="136"/>
     </row>
     <row r="52" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B52" s="81">
@@ -27542,7 +27504,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C59" s="149" t="s">
+      <c r="C59" s="150" t="s">
         <v>1061</v>
       </c>
       <c r="D59" s="81" t="s">
@@ -27572,7 +27534,7 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C60" s="147"/>
+      <c r="C60" s="148"/>
       <c r="D60" s="79"/>
       <c r="E60" s="42"/>
       <c r="F60" s="41" t="s">
@@ -27986,35 +27948,35 @@
       <c r="J85" s="39"/>
     </row>
     <row r="86" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="175">
+      <c r="B86" s="139">
         <f t="shared" ref="B86:B88" si="2">ROW()-ROW($B$84)</f>
         <v>2</v>
       </c>
-      <c r="C86" s="137"/>
-      <c r="D86" s="137"/>
+      <c r="C86" s="136"/>
+      <c r="D86" s="136"/>
       <c r="E86" s="41" t="s">
-        <v>1451</v>
+        <v>1445</v>
       </c>
       <c r="F86" s="41" t="s">
         <v>131</v>
       </c>
       <c r="G86" s="26" t="s">
-        <v>1452</v>
+        <v>1446</v>
       </c>
       <c r="H86" s="26" t="s">
-        <v>1453</v>
-      </c>
-      <c r="I86" s="137"/>
+        <v>1447</v>
+      </c>
+      <c r="I86" s="136"/>
       <c r="J86" s="41"/>
     </row>
     <row r="87" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="175">
+      <c r="B87" s="139">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="C87" s="139"/>
+      <c r="C87" s="138"/>
       <c r="D87" s="45" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
       <c r="E87" s="45" t="s">
         <v>131</v>
@@ -28023,16 +27985,16 @@
         <v>131</v>
       </c>
       <c r="G87" s="29" t="s">
-        <v>1455</v>
+        <v>1449</v>
       </c>
       <c r="H87" s="29" t="s">
-        <v>1453</v>
-      </c>
-      <c r="I87" s="139"/>
-      <c r="J87" s="139"/>
+        <v>1447</v>
+      </c>
+      <c r="I87" s="138"/>
+      <c r="J87" s="138"/>
     </row>
     <row r="88" spans="2:10" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.35">
-      <c r="B88" s="175">
+      <c r="B88" s="139">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -28049,7 +28011,7 @@
         <v>131</v>
       </c>
       <c r="G88" s="36" t="s">
-        <v>1456</v>
+        <v>1450</v>
       </c>
       <c r="H88" s="36" t="s">
         <v>841</v>
@@ -28064,7 +28026,7 @@
         <f>ROW()-ROW($B$84)</f>
         <v>5</v>
       </c>
-      <c r="C89" s="149" t="s">
+      <c r="C89" s="150" t="s">
         <v>1061</v>
       </c>
       <c r="D89" s="81" t="s">
@@ -28094,7 +28056,7 @@
         <f>ROW()-ROW($B$84)</f>
         <v>6</v>
       </c>
-      <c r="C90" s="150"/>
+      <c r="C90" s="151"/>
       <c r="D90" s="82"/>
       <c r="E90" s="45" t="s">
         <v>1007</v>
@@ -28159,68 +28121,68 @@
       <c r="C4" s="62" t="s">
         <v>924</v>
       </c>
-      <c r="D4" s="152" t="s">
+      <c r="D4" s="163" t="s">
         <v>1148</v>
       </c>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152" t="s">
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163" t="s">
         <v>1149</v>
       </c>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="152"/>
-      <c r="L4" s="152"/>
-      <c r="M4" s="152"/>
-      <c r="N4" s="152"/>
-      <c r="O4" s="152"/>
-      <c r="P4" s="152"/>
-      <c r="Q4" s="152"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="163"/>
+      <c r="L4" s="163"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="163"/>
+      <c r="O4" s="163"/>
+      <c r="P4" s="163"/>
+      <c r="Q4" s="163"/>
     </row>
     <row r="5" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="61">
         <v>1</v>
       </c>
-      <c r="D5" s="153" t="s">
+      <c r="D5" s="167" t="s">
         <v>1150</v>
       </c>
-      <c r="E5" s="154"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="151" t="s">
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="169"/>
+      <c r="H5" s="152" t="s">
         <v>1151</v>
       </c>
-      <c r="I5" s="151"/>
-      <c r="J5" s="151"/>
-      <c r="K5" s="151"/>
-      <c r="L5" s="151"/>
-      <c r="M5" s="151"/>
-      <c r="N5" s="151"/>
-      <c r="O5" s="151"/>
-      <c r="P5" s="151"/>
-      <c r="Q5" s="151"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="152"/>
+      <c r="K5" s="152"/>
+      <c r="L5" s="152"/>
+      <c r="M5" s="152"/>
+      <c r="N5" s="152"/>
+      <c r="O5" s="152"/>
+      <c r="P5" s="152"/>
+      <c r="Q5" s="152"/>
     </row>
     <row r="6" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="61">
         <v>2</v>
       </c>
-      <c r="D6" s="156"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="158"/>
-      <c r="H6" s="151" t="s">
+      <c r="D6" s="173"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="174"/>
+      <c r="G6" s="175"/>
+      <c r="H6" s="152" t="s">
         <v>1152</v>
       </c>
-      <c r="I6" s="151"/>
-      <c r="J6" s="151"/>
-      <c r="K6" s="151"/>
-      <c r="L6" s="151"/>
-      <c r="M6" s="151"/>
-      <c r="N6" s="151"/>
-      <c r="O6" s="151"/>
-      <c r="P6" s="151"/>
-      <c r="Q6" s="151"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="152"/>
+      <c r="K6" s="152"/>
+      <c r="L6" s="152"/>
+      <c r="M6" s="152"/>
+      <c r="N6" s="152"/>
+      <c r="O6" s="152"/>
+      <c r="P6" s="152"/>
+      <c r="Q6" s="152"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B9" s="78" t="s">
@@ -28231,203 +28193,215 @@
       <c r="C10" s="62" t="s">
         <v>924</v>
       </c>
-      <c r="D10" s="152" t="s">
+      <c r="D10" s="163" t="s">
         <v>1148</v>
       </c>
-      <c r="E10" s="152"/>
-      <c r="F10" s="152"/>
-      <c r="G10" s="152"/>
-      <c r="H10" s="152" t="s">
+      <c r="E10" s="163"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="163" t="s">
         <v>1149</v>
       </c>
-      <c r="I10" s="152"/>
-      <c r="J10" s="152"/>
-      <c r="K10" s="152"/>
-      <c r="L10" s="152"/>
-      <c r="M10" s="152"/>
-      <c r="N10" s="152"/>
-      <c r="O10" s="152"/>
-      <c r="P10" s="152"/>
-      <c r="Q10" s="152"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="163"/>
+      <c r="K10" s="163"/>
+      <c r="L10" s="163"/>
+      <c r="M10" s="163"/>
+      <c r="N10" s="163"/>
+      <c r="O10" s="163"/>
+      <c r="P10" s="163"/>
+      <c r="Q10" s="163"/>
     </row>
     <row r="11" spans="2:17" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" s="61">
         <v>1</v>
       </c>
-      <c r="D11" s="153" t="s">
+      <c r="D11" s="167" t="s">
         <v>1154</v>
       </c>
-      <c r="E11" s="154"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="155"/>
-      <c r="H11" s="151" t="s">
+      <c r="E11" s="168"/>
+      <c r="F11" s="168"/>
+      <c r="G11" s="169"/>
+      <c r="H11" s="152" t="s">
         <v>1155</v>
       </c>
-      <c r="I11" s="151"/>
-      <c r="J11" s="151"/>
-      <c r="K11" s="151"/>
-      <c r="L11" s="151"/>
-      <c r="M11" s="151"/>
-      <c r="N11" s="151"/>
-      <c r="O11" s="151"/>
-      <c r="P11" s="151"/>
-      <c r="Q11" s="151"/>
+      <c r="I11" s="152"/>
+      <c r="J11" s="152"/>
+      <c r="K11" s="152"/>
+      <c r="L11" s="152"/>
+      <c r="M11" s="152"/>
+      <c r="N11" s="152"/>
+      <c r="O11" s="152"/>
+      <c r="P11" s="152"/>
+      <c r="Q11" s="152"/>
     </row>
     <row r="12" spans="2:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C12" s="61">
         <v>2</v>
       </c>
-      <c r="D12" s="163"/>
-      <c r="E12" s="164"/>
-      <c r="F12" s="164"/>
-      <c r="G12" s="165"/>
-      <c r="H12" s="151" t="s">
+      <c r="D12" s="170"/>
+      <c r="E12" s="171"/>
+      <c r="F12" s="171"/>
+      <c r="G12" s="172"/>
+      <c r="H12" s="152" t="s">
         <v>1156</v>
       </c>
-      <c r="I12" s="151"/>
-      <c r="J12" s="151"/>
-      <c r="K12" s="151"/>
-      <c r="L12" s="151"/>
-      <c r="M12" s="151"/>
-      <c r="N12" s="151"/>
-      <c r="O12" s="151"/>
-      <c r="P12" s="151"/>
-      <c r="Q12" s="151"/>
+      <c r="I12" s="152"/>
+      <c r="J12" s="152"/>
+      <c r="K12" s="152"/>
+      <c r="L12" s="152"/>
+      <c r="M12" s="152"/>
+      <c r="N12" s="152"/>
+      <c r="O12" s="152"/>
+      <c r="P12" s="152"/>
+      <c r="Q12" s="152"/>
     </row>
     <row r="13" spans="2:17" ht="131.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C13" s="61">
         <v>3</v>
       </c>
-      <c r="D13" s="156"/>
-      <c r="E13" s="157"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="158"/>
-      <c r="H13" s="151" t="s">
+      <c r="D13" s="173"/>
+      <c r="E13" s="174"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="175"/>
+      <c r="H13" s="152" t="s">
         <v>1157</v>
       </c>
-      <c r="I13" s="159"/>
-      <c r="J13" s="159"/>
-      <c r="K13" s="159"/>
-      <c r="L13" s="159"/>
-      <c r="M13" s="159"/>
-      <c r="N13" s="159"/>
-      <c r="O13" s="159"/>
-      <c r="P13" s="159"/>
-      <c r="Q13" s="159"/>
+      <c r="I13" s="153"/>
+      <c r="J13" s="153"/>
+      <c r="K13" s="153"/>
+      <c r="L13" s="153"/>
+      <c r="M13" s="153"/>
+      <c r="N13" s="153"/>
+      <c r="O13" s="153"/>
+      <c r="P13" s="153"/>
+      <c r="Q13" s="153"/>
     </row>
     <row r="14" spans="2:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C14" s="61">
         <v>4</v>
       </c>
-      <c r="D14" s="166" t="s">
+      <c r="D14" s="154" t="s">
         <v>1158</v>
       </c>
-      <c r="E14" s="167"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="168"/>
-      <c r="H14" s="151" t="s">
+      <c r="E14" s="155"/>
+      <c r="F14" s="155"/>
+      <c r="G14" s="156"/>
+      <c r="H14" s="152" t="s">
         <v>1159</v>
       </c>
-      <c r="I14" s="159"/>
-      <c r="J14" s="159"/>
-      <c r="K14" s="159"/>
-      <c r="L14" s="159"/>
-      <c r="M14" s="159"/>
-      <c r="N14" s="159"/>
-      <c r="O14" s="159"/>
-      <c r="P14" s="159"/>
-      <c r="Q14" s="159"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="153"/>
+      <c r="K14" s="153"/>
+      <c r="L14" s="153"/>
+      <c r="M14" s="153"/>
+      <c r="N14" s="153"/>
+      <c r="O14" s="153"/>
+      <c r="P14" s="153"/>
+      <c r="Q14" s="153"/>
     </row>
     <row r="15" spans="2:17" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C15" s="61">
         <v>5</v>
       </c>
-      <c r="D15" s="169"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="170"/>
-      <c r="G15" s="171"/>
-      <c r="H15" s="159" t="s">
+      <c r="D15" s="157"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="159"/>
+      <c r="H15" s="153" t="s">
         <v>1160</v>
       </c>
-      <c r="I15" s="159"/>
-      <c r="J15" s="159"/>
-      <c r="K15" s="159"/>
-      <c r="L15" s="159"/>
-      <c r="M15" s="159"/>
-      <c r="N15" s="159"/>
-      <c r="O15" s="159"/>
-      <c r="P15" s="159"/>
-      <c r="Q15" s="159"/>
+      <c r="I15" s="153"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="153"/>
+      <c r="L15" s="153"/>
+      <c r="M15" s="153"/>
+      <c r="N15" s="153"/>
+      <c r="O15" s="153"/>
+      <c r="P15" s="153"/>
+      <c r="Q15" s="153"/>
     </row>
     <row r="16" spans="2:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C16" s="61">
         <v>6</v>
       </c>
-      <c r="D16" s="172"/>
-      <c r="E16" s="173"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="174"/>
-      <c r="H16" s="160" t="s">
+      <c r="D16" s="160"/>
+      <c r="E16" s="161"/>
+      <c r="F16" s="161"/>
+      <c r="G16" s="162"/>
+      <c r="H16" s="164" t="s">
         <v>1161</v>
       </c>
-      <c r="I16" s="161"/>
-      <c r="J16" s="161"/>
-      <c r="K16" s="161"/>
-      <c r="L16" s="161"/>
-      <c r="M16" s="161"/>
-      <c r="N16" s="161"/>
-      <c r="O16" s="161"/>
-      <c r="P16" s="161"/>
-      <c r="Q16" s="162"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="165"/>
+      <c r="M16" s="165"/>
+      <c r="N16" s="165"/>
+      <c r="O16" s="165"/>
+      <c r="P16" s="165"/>
+      <c r="Q16" s="166"/>
     </row>
     <row r="17" spans="3:17" ht="161.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="61">
         <v>7</v>
       </c>
-      <c r="D17" s="151" t="s">
+      <c r="D17" s="152" t="s">
         <v>1162</v>
       </c>
-      <c r="E17" s="159"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="151" t="s">
+      <c r="E17" s="153"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="152" t="s">
         <v>1163</v>
       </c>
-      <c r="I17" s="151"/>
-      <c r="J17" s="151"/>
-      <c r="K17" s="151"/>
-      <c r="L17" s="151"/>
-      <c r="M17" s="151"/>
-      <c r="N17" s="151"/>
-      <c r="O17" s="151"/>
-      <c r="P17" s="151"/>
-      <c r="Q17" s="151"/>
+      <c r="I17" s="152"/>
+      <c r="J17" s="152"/>
+      <c r="K17" s="152"/>
+      <c r="L17" s="152"/>
+      <c r="M17" s="152"/>
+      <c r="N17" s="152"/>
+      <c r="O17" s="152"/>
+      <c r="P17" s="152"/>
+      <c r="Q17" s="152"/>
     </row>
     <row r="18" spans="3:17" ht="145.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C18" s="61">
         <v>8</v>
       </c>
-      <c r="D18" s="151" t="s">
+      <c r="D18" s="152" t="s">
         <v>1164</v>
       </c>
-      <c r="E18" s="159"/>
-      <c r="F18" s="159"/>
-      <c r="G18" s="159"/>
-      <c r="H18" s="151" t="s">
+      <c r="E18" s="153"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="152" t="s">
         <v>1165</v>
       </c>
-      <c r="I18" s="159"/>
-      <c r="J18" s="159"/>
-      <c r="K18" s="159"/>
-      <c r="L18" s="159"/>
-      <c r="M18" s="159"/>
-      <c r="N18" s="159"/>
-      <c r="O18" s="159"/>
-      <c r="P18" s="159"/>
-      <c r="Q18" s="159"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="153"/>
+      <c r="K18" s="153"/>
+      <c r="L18" s="153"/>
+      <c r="M18" s="153"/>
+      <c r="N18" s="153"/>
+      <c r="O18" s="153"/>
+      <c r="P18" s="153"/>
+      <c r="Q18" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="H5:Q5"/>
+    <mergeCell ref="H4:Q4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H6:Q6"/>
+    <mergeCell ref="D5:G6"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:Q10"/>
+    <mergeCell ref="H14:Q14"/>
+    <mergeCell ref="H15:Q15"/>
+    <mergeCell ref="H16:Q16"/>
+    <mergeCell ref="D11:G13"/>
+    <mergeCell ref="H11:Q11"/>
     <mergeCell ref="H17:Q17"/>
     <mergeCell ref="D17:G17"/>
     <mergeCell ref="H18:Q18"/>
@@ -28435,18 +28409,6 @@
     <mergeCell ref="H12:Q12"/>
     <mergeCell ref="H13:Q13"/>
     <mergeCell ref="D14:G16"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H10:Q10"/>
-    <mergeCell ref="H14:Q14"/>
-    <mergeCell ref="H15:Q15"/>
-    <mergeCell ref="H16:Q16"/>
-    <mergeCell ref="D11:G13"/>
-    <mergeCell ref="H11:Q11"/>
-    <mergeCell ref="H5:Q5"/>
-    <mergeCell ref="H4:Q4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H6:Q6"/>
-    <mergeCell ref="D5:G6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -29608,24 +29570,24 @@
       <c r="C4" s="80" t="s">
         <v>924</v>
       </c>
-      <c r="D4" s="148" t="s">
+      <c r="D4" s="149" t="s">
         <v>925</v>
       </c>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148" t="s">
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="148"/>
-      <c r="M4" s="148"/>
-      <c r="N4" s="148"/>
-      <c r="O4" s="148"/>
-      <c r="P4" s="148"/>
-      <c r="Q4" s="148"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="149"/>
+      <c r="L4" s="149"/>
+      <c r="M4" s="149"/>
+      <c r="N4" s="149"/>
+      <c r="O4" s="149"/>
+      <c r="P4" s="149"/>
+      <c r="Q4" s="149"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C5" s="50">
@@ -29872,24 +29834,24 @@
       <c r="C28" s="80" t="s">
         <v>924</v>
       </c>
-      <c r="D28" s="148" t="s">
+      <c r="D28" s="149" t="s">
         <v>925</v>
       </c>
-      <c r="E28" s="148"/>
-      <c r="F28" s="148"/>
-      <c r="G28" s="148"/>
-      <c r="H28" s="148" t="s">
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149" t="s">
         <v>66</v>
       </c>
-      <c r="I28" s="148"/>
-      <c r="J28" s="148"/>
-      <c r="K28" s="148"/>
-      <c r="L28" s="148"/>
-      <c r="M28" s="148"/>
-      <c r="N28" s="148"/>
-      <c r="O28" s="148"/>
-      <c r="P28" s="148"/>
-      <c r="Q28" s="148"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
+      <c r="N28" s="149"/>
+      <c r="O28" s="149"/>
+      <c r="P28" s="149"/>
+      <c r="Q28" s="149"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C29" s="50">
@@ -29941,24 +29903,24 @@
       <c r="C35" s="80" t="s">
         <v>924</v>
       </c>
-      <c r="D35" s="148" t="s">
+      <c r="D35" s="149" t="s">
         <v>925</v>
       </c>
-      <c r="E35" s="148"/>
-      <c r="F35" s="148"/>
-      <c r="G35" s="148"/>
-      <c r="H35" s="148" t="s">
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149" t="s">
         <v>66</v>
       </c>
-      <c r="I35" s="148"/>
-      <c r="J35" s="148"/>
-      <c r="K35" s="148"/>
-      <c r="L35" s="148"/>
-      <c r="M35" s="148"/>
-      <c r="N35" s="148"/>
-      <c r="O35" s="148"/>
-      <c r="P35" s="148"/>
-      <c r="Q35" s="148"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
+      <c r="N35" s="149"/>
+      <c r="O35" s="149"/>
+      <c r="P35" s="149"/>
+      <c r="Q35" s="149"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C36" s="49">
@@ -30020,24 +29982,24 @@
       <c r="C42" s="80" t="s">
         <v>924</v>
       </c>
-      <c r="D42" s="148" t="s">
+      <c r="D42" s="149" t="s">
         <v>925</v>
       </c>
-      <c r="E42" s="148"/>
-      <c r="F42" s="148"/>
-      <c r="G42" s="148"/>
-      <c r="H42" s="148" t="s">
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149" t="s">
         <v>66</v>
       </c>
-      <c r="I42" s="148"/>
-      <c r="J42" s="148"/>
-      <c r="K42" s="148"/>
-      <c r="L42" s="148"/>
-      <c r="M42" s="148"/>
-      <c r="N42" s="148"/>
-      <c r="O42" s="148"/>
-      <c r="P42" s="148"/>
-      <c r="Q42" s="148"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
+      <c r="N42" s="149"/>
+      <c r="O42" s="149"/>
+      <c r="P42" s="149"/>
+      <c r="Q42" s="149"/>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C43" s="49">
@@ -30120,24 +30082,24 @@
       <c r="C50" s="80" t="s">
         <v>924</v>
       </c>
-      <c r="D50" s="148" t="s">
+      <c r="D50" s="149" t="s">
         <v>925</v>
       </c>
-      <c r="E50" s="148"/>
-      <c r="F50" s="148"/>
-      <c r="G50" s="148"/>
-      <c r="H50" s="148" t="s">
+      <c r="E50" s="149"/>
+      <c r="F50" s="149"/>
+      <c r="G50" s="149"/>
+      <c r="H50" s="149" t="s">
         <v>66</v>
       </c>
-      <c r="I50" s="148"/>
-      <c r="J50" s="148"/>
-      <c r="K50" s="148"/>
-      <c r="L50" s="148"/>
-      <c r="M50" s="148"/>
-      <c r="N50" s="148"/>
-      <c r="O50" s="148"/>
-      <c r="P50" s="148"/>
-      <c r="Q50" s="148"/>
+      <c r="I50" s="149"/>
+      <c r="J50" s="149"/>
+      <c r="K50" s="149"/>
+      <c r="L50" s="149"/>
+      <c r="M50" s="149"/>
+      <c r="N50" s="149"/>
+      <c r="O50" s="149"/>
+      <c r="P50" s="149"/>
+      <c r="Q50" s="149"/>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C51" s="65">
@@ -30542,20 +30504,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA9DBA0-2246-4C3A-80ED-646269B04D10}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="135" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="135" customWidth="1"/>
-    <col min="3" max="4" width="10.42578125" style="135" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" style="135" customWidth="1"/>
-    <col min="6" max="6" width="49.7109375" style="135" customWidth="1"/>
-    <col min="7" max="16384" width="3.85546875" style="135"/>
+    <col min="1" max="1" width="4.42578125" style="134" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="134" customWidth="1"/>
+    <col min="3" max="4" width="10.42578125" style="134" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" style="134" customWidth="1"/>
+    <col min="6" max="6" width="49.7109375" style="134" customWidth="1"/>
+    <col min="7" max="16384" width="3.85546875" style="134"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="119" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -30570,12 +30532,12 @@
     </row>
     <row r="2" spans="1:6" s="119" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="119" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="119" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="136" t="s">
-        <v>1425</v>
+      <c r="A3" s="135" t="s">
+        <v>1421</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="122" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -30618,44 +30580,44 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="122" customFormat="1" ht="60" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" s="122" customFormat="1" ht="45" x14ac:dyDescent="0.35">
       <c r="A6" s="128">
         <v>2</v>
       </c>
       <c r="B6" s="129" t="s">
-        <v>1396</v>
-      </c>
-      <c r="C6" s="130">
+        <v>1401</v>
+      </c>
+      <c r="C6" s="132">
         <v>44651</v>
       </c>
-      <c r="D6" s="129" t="s">
-        <v>1397</v>
-      </c>
-      <c r="E6" s="131" t="s">
+      <c r="D6" s="133" t="s">
         <v>1400</v>
       </c>
-      <c r="F6" s="132" t="s">
+      <c r="E6" s="130" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F6" s="131" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="122" customFormat="1" ht="60" x14ac:dyDescent="0.35">
+      <c r="A7" s="123">
+        <v>3</v>
+      </c>
+      <c r="B7" s="129" t="s">
         <v>1401</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" s="122" customFormat="1" ht="45" x14ac:dyDescent="0.35">
-      <c r="A7" s="128">
-        <v>3</v>
-      </c>
-      <c r="B7" s="129" t="s">
+      <c r="C7" s="132">
+        <v>44651</v>
+      </c>
+      <c r="D7" s="133" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E7" s="130" t="s">
+        <v>1451</v>
+      </c>
+      <c r="F7" s="131" t="s">
         <v>1403</v>
-      </c>
-      <c r="C7" s="133">
-        <v>44279</v>
-      </c>
-      <c r="D7" s="134" t="s">
-        <v>1402</v>
-      </c>
-      <c r="E7" s="131" t="s">
-        <v>1432</v>
-      </c>
-      <c r="F7" s="132" t="s">
-        <v>1404</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="122" customFormat="1" ht="60" x14ac:dyDescent="0.35">
@@ -30663,38 +30625,38 @@
         <v>4</v>
       </c>
       <c r="B8" s="129" t="s">
-        <v>1403</v>
-      </c>
-      <c r="C8" s="133">
-        <v>44279</v>
-      </c>
-      <c r="D8" s="134" t="s">
-        <v>1402</v>
-      </c>
-      <c r="E8" s="131" t="s">
-        <v>1457</v>
-      </c>
-      <c r="F8" s="132" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C8" s="132">
+        <v>44651</v>
+      </c>
+      <c r="D8" s="133" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E8" s="130" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F8" s="131" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="122" customFormat="1" ht="45" x14ac:dyDescent="0.35">
+      <c r="A9" s="123">
+        <v>5</v>
+      </c>
+      <c r="B9" s="129" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C9" s="132">
+        <v>44651</v>
+      </c>
+      <c r="D9" s="133" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E9" s="130" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" s="122" customFormat="1" ht="60" x14ac:dyDescent="0.35">
-      <c r="A9" s="128">
-        <v>5</v>
-      </c>
-      <c r="B9" s="129" t="s">
-        <v>1403</v>
-      </c>
-      <c r="C9" s="133">
-        <v>44279</v>
-      </c>
-      <c r="D9" s="134" t="s">
-        <v>1402</v>
-      </c>
-      <c r="E9" s="131" t="s">
-        <v>1458</v>
-      </c>
-      <c r="F9" s="132" t="s">
+      <c r="F9" s="131" t="s">
         <v>1406</v>
       </c>
     </row>
@@ -30703,39 +30665,39 @@
         <v>6</v>
       </c>
       <c r="B10" s="129" t="s">
-        <v>1403</v>
-      </c>
-      <c r="C10" s="133">
-        <v>44279</v>
-      </c>
-      <c r="D10" s="134" t="s">
-        <v>1402</v>
-      </c>
-      <c r="E10" s="131" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C10" s="132">
+        <v>44651</v>
+      </c>
+      <c r="D10" s="133" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E10" s="130" t="s">
         <v>1407</v>
       </c>
-      <c r="F10" s="132" t="s">
+      <c r="F10" s="131" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="122" customFormat="1" ht="60" x14ac:dyDescent="0.35">
+      <c r="A11" s="123">
+        <v>7</v>
+      </c>
+      <c r="B11" s="129" t="s">
         <v>1408</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" s="122" customFormat="1" ht="45" x14ac:dyDescent="0.35">
-      <c r="A11" s="128">
-        <v>7</v>
-      </c>
-      <c r="B11" s="129" t="s">
-        <v>1403</v>
-      </c>
-      <c r="C11" s="133">
-        <v>44279</v>
-      </c>
-      <c r="D11" s="134" t="s">
-        <v>1402</v>
-      </c>
-      <c r="E11" s="131" t="s">
+      <c r="C11" s="132">
+        <v>44651</v>
+      </c>
+      <c r="D11" s="133" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E11" s="130" t="s">
         <v>1409</v>
       </c>
-      <c r="F11" s="132" t="s">
-        <v>1410</v>
+      <c r="F11" s="131" t="s">
+        <v>1416</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="122" customFormat="1" ht="60" x14ac:dyDescent="0.35">
@@ -30743,39 +30705,39 @@
         <v>8</v>
       </c>
       <c r="B12" s="129" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C12" s="132">
+        <v>44651</v>
+      </c>
+      <c r="D12" s="133" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E12" s="130" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F12" s="131" t="s">
         <v>1411</v>
       </c>
-      <c r="C12" s="133">
+    </row>
+    <row r="13" spans="1:6" s="122" customFormat="1" ht="60" x14ac:dyDescent="0.35">
+      <c r="A13" s="123">
+        <v>9</v>
+      </c>
+      <c r="B13" s="129" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C13" s="132">
         <v>44651</v>
       </c>
-      <c r="D12" s="134" t="s">
-        <v>1402</v>
-      </c>
-      <c r="E12" s="131" t="s">
+      <c r="D13" s="133" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E13" s="130" t="s">
         <v>1412</v>
       </c>
-      <c r="F12" s="132" t="s">
-        <v>1419</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="122" customFormat="1" ht="60" x14ac:dyDescent="0.35">
-      <c r="A13" s="128">
-        <v>9</v>
-      </c>
-      <c r="B13" s="129" t="s">
-        <v>1411</v>
-      </c>
-      <c r="C13" s="133">
-        <v>44651</v>
-      </c>
-      <c r="D13" s="134" t="s">
-        <v>1402</v>
-      </c>
-      <c r="E13" s="131" t="s">
-        <v>1413</v>
-      </c>
-      <c r="F13" s="132" t="s">
-        <v>1414</v>
+      <c r="F13" s="131" t="s">
+        <v>1415</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="122" customFormat="1" ht="60" x14ac:dyDescent="0.35">
@@ -30783,119 +30745,99 @@
         <v>10</v>
       </c>
       <c r="B14" s="129" t="s">
-        <v>1411</v>
-      </c>
-      <c r="C14" s="133">
-        <v>44651</v>
-      </c>
-      <c r="D14" s="134" t="s">
-        <v>1402</v>
-      </c>
-      <c r="E14" s="131" t="s">
-        <v>1415</v>
-      </c>
-      <c r="F14" s="132" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="122" customFormat="1" ht="45" x14ac:dyDescent="0.35">
-      <c r="A15" s="128">
+        <v>1414</v>
+      </c>
+      <c r="C14" s="132">
+        <v>45016</v>
+      </c>
+      <c r="D14" s="133" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E14" s="130" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F14" s="131" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="122" customFormat="1" ht="30" x14ac:dyDescent="0.35">
+      <c r="A15" s="123">
         <v>11</v>
       </c>
       <c r="B15" s="129" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C15" s="133">
+        <v>1414</v>
+      </c>
+      <c r="C15" s="132">
         <v>45016</v>
       </c>
-      <c r="D15" s="134" t="s">
-        <v>1402</v>
-      </c>
-      <c r="E15" s="131" t="s">
+      <c r="D15" s="133" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E15" s="130" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F15" s="131" t="s">
         <v>1420</v>
       </c>
-      <c r="F15" s="132" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="122" customFormat="1" ht="30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:6" s="122" customFormat="1" ht="45" x14ac:dyDescent="0.35">
       <c r="A16" s="128">
         <v>12</v>
       </c>
       <c r="B16" s="129" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C16" s="133">
+        <v>1414</v>
+      </c>
+      <c r="C16" s="132">
         <v>45016</v>
       </c>
-      <c r="D16" s="134" t="s">
-        <v>1402</v>
-      </c>
-      <c r="E16" s="131" t="s">
-        <v>1416</v>
-      </c>
-      <c r="F16" s="132" t="s">
+      <c r="D16" s="133" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E16" s="130" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F16" s="131" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="122" customFormat="1" ht="45" x14ac:dyDescent="0.35">
+      <c r="A17" s="123">
+        <v>13</v>
+      </c>
+      <c r="B17" s="129" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C17" s="132">
+        <v>45394</v>
+      </c>
+      <c r="D17" s="133" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E17" s="130" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F17" s="131" t="s">
         <v>1424</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="122" customFormat="1" ht="45" x14ac:dyDescent="0.35">
-      <c r="A17" s="128">
-        <v>13</v>
-      </c>
-      <c r="B17" s="129" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C17" s="133">
-        <v>45016</v>
-      </c>
-      <c r="D17" s="134" t="s">
-        <v>1402</v>
-      </c>
-      <c r="E17" s="131" t="s">
-        <v>1422</v>
-      </c>
-      <c r="F17" s="132" t="s">
-        <v>1423</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="122" customFormat="1" ht="30" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" s="122" customFormat="1" ht="45" x14ac:dyDescent="0.35">
       <c r="A18" s="128">
         <v>14</v>
       </c>
       <c r="B18" s="129" t="s">
-        <v>1427</v>
-      </c>
-      <c r="C18" s="133">
+        <v>1423</v>
+      </c>
+      <c r="C18" s="132">
         <v>45394</v>
       </c>
-      <c r="D18" s="134" t="s">
-        <v>1402</v>
-      </c>
-      <c r="E18" s="131" t="s">
-        <v>1428</v>
-      </c>
-      <c r="F18" s="132" t="s">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="122" customFormat="1" ht="30" x14ac:dyDescent="0.35">
-      <c r="A19" s="128">
-        <v>14</v>
-      </c>
-      <c r="B19" s="129" t="s">
-        <v>1427</v>
-      </c>
-      <c r="C19" s="133">
-        <v>45394</v>
-      </c>
-      <c r="D19" s="134" t="s">
-        <v>1402</v>
-      </c>
-      <c r="E19" s="131" t="s">
-        <v>1430</v>
-      </c>
-      <c r="F19" s="132" t="s">
-        <v>1431</v>
+      <c r="D18" s="133" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E18" s="130" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F18" s="131" t="s">
+        <v>1425</v>
       </c>
     </row>
   </sheetData>
@@ -30943,24 +30885,24 @@
       <c r="C4" s="80" t="s">
         <v>924</v>
       </c>
-      <c r="D4" s="148" t="s">
+      <c r="D4" s="149" t="s">
         <v>925</v>
       </c>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148" t="s">
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="148"/>
-      <c r="M4" s="148"/>
-      <c r="N4" s="148"/>
-      <c r="O4" s="148"/>
-      <c r="P4" s="148"/>
-      <c r="Q4" s="148"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="149"/>
+      <c r="L4" s="149"/>
+      <c r="M4" s="149"/>
+      <c r="N4" s="149"/>
+      <c r="O4" s="149"/>
+      <c r="P4" s="149"/>
+      <c r="Q4" s="149"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C5" s="49">
@@ -31463,24 +31405,24 @@
       <c r="C4" s="80" t="s">
         <v>924</v>
       </c>
-      <c r="D4" s="148" t="s">
+      <c r="D4" s="149" t="s">
         <v>925</v>
       </c>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148" t="s">
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="148"/>
-      <c r="M4" s="148"/>
-      <c r="N4" s="148"/>
-      <c r="O4" s="148"/>
-      <c r="P4" s="148"/>
-      <c r="Q4" s="148"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="149"/>
+      <c r="L4" s="149"/>
+      <c r="M4" s="149"/>
+      <c r="N4" s="149"/>
+      <c r="O4" s="149"/>
+      <c r="P4" s="149"/>
+      <c r="Q4" s="149"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C5" s="50">
@@ -31600,24 +31542,24 @@
       <c r="C17" s="80" t="s">
         <v>924</v>
       </c>
-      <c r="D17" s="148" t="s">
+      <c r="D17" s="149" t="s">
         <v>925</v>
       </c>
-      <c r="E17" s="148"/>
-      <c r="F17" s="148"/>
-      <c r="G17" s="148"/>
-      <c r="H17" s="148" t="s">
+      <c r="E17" s="149"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="149" t="s">
         <v>66</v>
       </c>
-      <c r="I17" s="148"/>
-      <c r="J17" s="148"/>
-      <c r="K17" s="148"/>
-      <c r="L17" s="148"/>
-      <c r="M17" s="148"/>
-      <c r="N17" s="148"/>
-      <c r="O17" s="148"/>
-      <c r="P17" s="148"/>
-      <c r="Q17" s="148"/>
+      <c r="I17" s="149"/>
+      <c r="J17" s="149"/>
+      <c r="K17" s="149"/>
+      <c r="L17" s="149"/>
+      <c r="M17" s="149"/>
+      <c r="N17" s="149"/>
+      <c r="O17" s="149"/>
+      <c r="P17" s="149"/>
+      <c r="Q17" s="149"/>
     </row>
     <row r="18" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C18" s="49">
@@ -32246,25 +32188,25 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="142"/>
-      <c r="D4" s="140" t="s">
+      <c r="C4" s="143"/>
+      <c r="D4" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="140"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="141"/>
       <c r="K4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B5" s="143"/>
-      <c r="C5" s="144"/>
+      <c r="B5" s="144"/>
+      <c r="C5" s="145"/>
       <c r="D5" s="48" t="s">
         <v>9</v>
       </c>
@@ -32292,10 +32234,10 @@
       <c r="M5" s="56"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B6" s="145" t="s">
+      <c r="B6" s="146" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="146"/>
+      <c r="C6" s="147"/>
       <c r="D6" s="63" t="s">
         <v>18</v>
       </c>
@@ -32323,10 +32265,10 @@
       <c r="M6" s="57"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B7" s="145" t="s">
+      <c r="B7" s="146" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="146"/>
+      <c r="C7" s="147"/>
       <c r="D7" s="63" t="s">
         <v>18</v>
       </c>
@@ -32354,10 +32296,10 @@
       <c r="M7" s="57"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B8" s="145" t="s">
+      <c r="B8" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="146"/>
+      <c r="C8" s="147"/>
       <c r="D8" s="63" t="s">
         <v>18</v>
       </c>
@@ -32378,10 +32320,10 @@
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B9" s="145" t="s">
+      <c r="B9" s="146" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="146"/>
+      <c r="C9" s="147"/>
       <c r="D9" s="63" t="s">
         <v>18</v>
       </c>
@@ -32402,10 +32344,10 @@
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B10" s="145" t="s">
+      <c r="B10" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="146"/>
+      <c r="C10" s="147"/>
       <c r="D10" s="63" t="s">
         <v>18</v>
       </c>
@@ -32426,10 +32368,10 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B11" s="145" t="s">
+      <c r="B11" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="146"/>
+      <c r="C11" s="147"/>
       <c r="D11" s="63" t="s">
         <v>18</v>
       </c>
@@ -32450,10 +32392,10 @@
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B12" s="145" t="s">
+      <c r="B12" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="146"/>
+      <c r="C12" s="147"/>
       <c r="D12" s="63" t="s">
         <v>18</v>
       </c>
@@ -32474,10 +32416,10 @@
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B13" s="145" t="s">
+      <c r="B13" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="146"/>
+      <c r="C13" s="147"/>
       <c r="D13" s="63" t="s">
         <v>18</v>
       </c>
@@ -32498,10 +32440,10 @@
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B14" s="145" t="s">
+      <c r="B14" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="146"/>
+      <c r="C14" s="147"/>
       <c r="D14" s="63" t="s">
         <v>18</v>
       </c>
@@ -32522,10 +32464,10 @@
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B15" s="145" t="s">
+      <c r="B15" s="146" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="146"/>
+      <c r="C15" s="147"/>
       <c r="D15" s="63" t="s">
         <v>20</v>
       </c>
@@ -32546,10 +32488,10 @@
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B16" s="145" t="s">
+      <c r="B16" s="146" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="146"/>
+      <c r="C16" s="147"/>
       <c r="D16" s="63" t="s">
         <v>18</v>
       </c>
@@ -32570,10 +32512,10 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B17" s="145" t="s">
+      <c r="B17" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="146"/>
+      <c r="C17" s="147"/>
       <c r="D17" s="83" t="s">
         <v>23</v>
       </c>
@@ -33015,7 +32957,7 @@
       <c r="C11" s="42"/>
       <c r="D11" s="42"/>
       <c r="E11" s="13"/>
-      <c r="F11" s="137"/>
+      <c r="F11" s="136"/>
       <c r="G11" s="40" t="s">
         <v>94</v>
       </c>
@@ -33033,16 +32975,16 @@
       <c r="C12" s="42"/>
       <c r="D12" s="42"/>
       <c r="E12" s="13"/>
-      <c r="F12" s="137"/>
+      <c r="F12" s="136"/>
       <c r="G12" s="40" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
       <c r="H12" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="I12" s="137"/>
+      <c r="I12" s="136"/>
       <c r="J12" s="40" t="s">
-        <v>1434</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="13" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -35032,7 +34974,7 @@
         <f t="shared" ref="B116:B183" si="2">ROW()-ROW($B$114)</f>
         <v>2</v>
       </c>
-      <c r="C116" s="147" t="s">
+      <c r="C116" s="148" t="s">
         <v>280</v>
       </c>
       <c r="D116" s="13"/>
@@ -35054,7 +34996,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="C117" s="147"/>
+      <c r="C117" s="148"/>
       <c r="D117" s="13"/>
       <c r="E117" s="79"/>
       <c r="F117" s="42"/>
@@ -35434,7 +35376,7 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="C136" s="147" t="s">
+      <c r="C136" s="148" t="s">
         <v>312</v>
       </c>
       <c r="D136" s="13"/>
@@ -35456,7 +35398,7 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="C137" s="147"/>
+      <c r="C137" s="148"/>
       <c r="D137" s="13"/>
       <c r="E137" s="79"/>
       <c r="F137" s="79"/>
@@ -38845,8 +38787,8 @@
   </sheetPr>
   <dimension ref="B1:J100"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -40557,7 +40499,7 @@
       </c>
     </row>
     <row r="92" spans="2:10" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.35">
-      <c r="B92" s="175">
+      <c r="B92" s="139">
         <f t="shared" ref="B92:B98" si="2">ROW()-ROW($B$4)</f>
         <v>88</v>
       </c>
@@ -40574,139 +40516,139 @@
         <v>131</v>
       </c>
       <c r="G92" s="36" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
       <c r="H92" s="15" t="s">
         <v>527</v>
       </c>
       <c r="I92" s="15" t="s">
-        <v>1436</v>
+        <v>1430</v>
       </c>
       <c r="J92" s="15"/>
     </row>
     <row r="93" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="175">
+      <c r="B93" s="139">
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
-      <c r="C93" s="138" t="s">
-        <v>1437</v>
-      </c>
-      <c r="D93" s="138" t="s">
-        <v>1438</v>
-      </c>
-      <c r="E93" s="138" t="s">
+      <c r="C93" s="137" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D93" s="137" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E93" s="137" t="s">
         <v>131</v>
       </c>
-      <c r="F93" s="138" t="s">
+      <c r="F93" s="137" t="s">
         <v>131</v>
       </c>
       <c r="G93" s="15" t="s">
-        <v>1439</v>
+        <v>1433</v>
       </c>
       <c r="H93" s="36" t="s">
         <v>681</v>
       </c>
-      <c r="I93" s="138" t="s">
+      <c r="I93" s="137" t="s">
         <v>648</v>
       </c>
-      <c r="J93" s="138"/>
+      <c r="J93" s="137"/>
     </row>
     <row r="94" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="175">
+      <c r="B94" s="139">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="C94" s="137"/>
-      <c r="D94" s="137"/>
-      <c r="E94" s="137"/>
-      <c r="F94" s="137"/>
+      <c r="C94" s="136"/>
+      <c r="D94" s="136"/>
+      <c r="E94" s="136"/>
+      <c r="F94" s="136"/>
       <c r="G94" s="15" t="s">
-        <v>1440</v>
+        <v>1434</v>
       </c>
       <c r="H94" s="36" t="s">
         <v>681</v>
       </c>
-      <c r="I94" s="137" t="s">
+      <c r="I94" s="136" t="s">
         <v>648</v>
       </c>
-      <c r="J94" s="137"/>
+      <c r="J94" s="136"/>
     </row>
     <row r="95" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="175">
+      <c r="B95" s="139">
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
-      <c r="C95" s="139"/>
-      <c r="D95" s="139"/>
-      <c r="E95" s="139"/>
-      <c r="F95" s="139"/>
+      <c r="C95" s="138"/>
+      <c r="D95" s="138"/>
+      <c r="E95" s="138"/>
+      <c r="F95" s="138"/>
       <c r="G95" s="15" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
       <c r="H95" s="36" t="s">
         <v>681</v>
       </c>
-      <c r="I95" s="139" t="s">
+      <c r="I95" s="138" t="s">
         <v>390</v>
       </c>
-      <c r="J95" s="139"/>
+      <c r="J95" s="138"/>
     </row>
     <row r="96" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="175">
+      <c r="B96" s="139">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="C96" s="138" t="s">
-        <v>1442</v>
-      </c>
-      <c r="D96" s="138" t="s">
-        <v>1443</v>
-      </c>
-      <c r="E96" s="138" t="s">
+      <c r="C96" s="137" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D96" s="137" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E96" s="137" t="s">
         <v>131</v>
       </c>
-      <c r="F96" s="138" t="s">
+      <c r="F96" s="137" t="s">
         <v>131</v>
       </c>
       <c r="G96" s="15" t="s">
-        <v>1444</v>
+        <v>1438</v>
       </c>
       <c r="H96" s="36" t="s">
         <v>681</v>
       </c>
-      <c r="I96" s="138" t="s">
-        <v>1445</v>
-      </c>
-      <c r="J96" s="138"/>
+      <c r="I96" s="137" t="s">
+        <v>1439</v>
+      </c>
+      <c r="J96" s="137"/>
     </row>
     <row r="97" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B97" s="175">
+      <c r="B97" s="139">
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="C97" s="137"/>
-      <c r="D97" s="137"/>
-      <c r="E97" s="139"/>
-      <c r="F97" s="139"/>
+      <c r="C97" s="136"/>
+      <c r="D97" s="136"/>
+      <c r="E97" s="138"/>
+      <c r="F97" s="138"/>
       <c r="G97" s="15" t="s">
-        <v>1446</v>
+        <v>1440</v>
       </c>
       <c r="H97" s="36" t="s">
         <v>681</v>
       </c>
-      <c r="I97" s="137" t="s">
+      <c r="I97" s="136" t="s">
         <v>648</v>
       </c>
-      <c r="J97" s="137"/>
+      <c r="J97" s="136"/>
     </row>
     <row r="98" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="175">
+      <c r="B98" s="139">
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="C98" s="139"/>
-      <c r="D98" s="139"/>
+      <c r="C98" s="138"/>
+      <c r="D98" s="138"/>
       <c r="E98" s="15" t="s">
         <v>1139</v>
       </c>
@@ -40714,15 +40656,15 @@
         <v>131</v>
       </c>
       <c r="G98" s="15" t="s">
-        <v>1447</v>
+        <v>1441</v>
       </c>
       <c r="H98" s="36" t="s">
         <v>681</v>
       </c>
-      <c r="I98" s="139" t="s">
+      <c r="I98" s="138" t="s">
         <v>390</v>
       </c>
-      <c r="J98" s="139"/>
+      <c r="J98" s="138"/>
     </row>
     <row r="99" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="100" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -43594,7 +43536,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="137"/>
+      <c r="D18" s="136"/>
       <c r="E18" s="13"/>
       <c r="F18" s="79"/>
       <c r="G18" s="26" t="s">
@@ -43611,7 +43553,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="137"/>
+      <c r="D19" s="136"/>
       <c r="E19" s="14"/>
       <c r="F19" s="40"/>
       <c r="G19" s="41" t="s">
@@ -43620,30 +43562,30 @@
       <c r="H19" s="41" t="s">
         <v>841</v>
       </c>
-      <c r="I19" s="137"/>
+      <c r="I19" s="136"/>
       <c r="J19" s="41"/>
     </row>
     <row r="20" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="175">
+      <c r="B20" s="139">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C20" s="139"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="139" t="s">
-        <v>1448</v>
-      </c>
-      <c r="F20" s="139" t="s">
+      <c r="C20" s="138"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138" t="s">
+        <v>1442</v>
+      </c>
+      <c r="F20" s="138" t="s">
         <v>131</v>
       </c>
-      <c r="G20" s="139" t="s">
-        <v>1449</v>
-      </c>
-      <c r="H20" s="139" t="s">
+      <c r="G20" s="138" t="s">
+        <v>1443</v>
+      </c>
+      <c r="H20" s="138" t="s">
         <v>841</v>
       </c>
-      <c r="I20" s="139"/>
-      <c r="J20" s="139"/>
+      <c r="I20" s="138"/>
+      <c r="J20" s="138"/>
     </row>
     <row r="21" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="48" spans="7:7" x14ac:dyDescent="0.35">

--- a/docs/テスト観点カタログ.xlsx
+++ b/docs/テスト観点カタログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3BAF26-1E87-4943-9504-D6D83383B6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8614593-A1B4-472C-8658-A5708EA269D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21481,9 +21481,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -21510,45 +21549,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="561">
@@ -28121,35 +28121,35 @@
       <c r="C4" s="62" t="s">
         <v>924</v>
       </c>
-      <c r="D4" s="163" t="s">
+      <c r="D4" s="153" t="s">
         <v>1148</v>
       </c>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163" t="s">
+      <c r="E4" s="153"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="153" t="s">
         <v>1149</v>
       </c>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
-      <c r="K4" s="163"/>
-      <c r="L4" s="163"/>
-      <c r="M4" s="163"/>
-      <c r="N4" s="163"/>
-      <c r="O4" s="163"/>
-      <c r="P4" s="163"/>
-      <c r="Q4" s="163"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
+      <c r="L4" s="153"/>
+      <c r="M4" s="153"/>
+      <c r="N4" s="153"/>
+      <c r="O4" s="153"/>
+      <c r="P4" s="153"/>
+      <c r="Q4" s="153"/>
     </row>
     <row r="5" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="61">
         <v>1</v>
       </c>
-      <c r="D5" s="167" t="s">
+      <c r="D5" s="154" t="s">
         <v>1150</v>
       </c>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
-      <c r="G5" s="169"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="156"/>
       <c r="H5" s="152" t="s">
         <v>1151</v>
       </c>
@@ -28167,10 +28167,10 @@
       <c r="C6" s="61">
         <v>2</v>
       </c>
-      <c r="D6" s="173"/>
-      <c r="E6" s="174"/>
-      <c r="F6" s="174"/>
-      <c r="G6" s="175"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="159"/>
       <c r="H6" s="152" t="s">
         <v>1152</v>
       </c>
@@ -28193,35 +28193,35 @@
       <c r="C10" s="62" t="s">
         <v>924</v>
       </c>
-      <c r="D10" s="163" t="s">
+      <c r="D10" s="153" t="s">
         <v>1148</v>
       </c>
-      <c r="E10" s="163"/>
-      <c r="F10" s="163"/>
-      <c r="G10" s="163"/>
-      <c r="H10" s="163" t="s">
+      <c r="E10" s="153"/>
+      <c r="F10" s="153"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="153" t="s">
         <v>1149</v>
       </c>
-      <c r="I10" s="163"/>
-      <c r="J10" s="163"/>
-      <c r="K10" s="163"/>
-      <c r="L10" s="163"/>
-      <c r="M10" s="163"/>
-      <c r="N10" s="163"/>
-      <c r="O10" s="163"/>
-      <c r="P10" s="163"/>
-      <c r="Q10" s="163"/>
+      <c r="I10" s="153"/>
+      <c r="J10" s="153"/>
+      <c r="K10" s="153"/>
+      <c r="L10" s="153"/>
+      <c r="M10" s="153"/>
+      <c r="N10" s="153"/>
+      <c r="O10" s="153"/>
+      <c r="P10" s="153"/>
+      <c r="Q10" s="153"/>
     </row>
     <row r="11" spans="2:17" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" s="61">
         <v>1</v>
       </c>
-      <c r="D11" s="167" t="s">
+      <c r="D11" s="154" t="s">
         <v>1154</v>
       </c>
-      <c r="E11" s="168"/>
-      <c r="F11" s="168"/>
-      <c r="G11" s="169"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="156"/>
       <c r="H11" s="152" t="s">
         <v>1155</v>
       </c>
@@ -28239,10 +28239,10 @@
       <c r="C12" s="61">
         <v>2</v>
       </c>
-      <c r="D12" s="170"/>
-      <c r="E12" s="171"/>
-      <c r="F12" s="171"/>
-      <c r="G12" s="172"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="165"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="166"/>
       <c r="H12" s="152" t="s">
         <v>1156</v>
       </c>
@@ -28260,87 +28260,87 @@
       <c r="C13" s="61">
         <v>3</v>
       </c>
-      <c r="D13" s="173"/>
-      <c r="E13" s="174"/>
-      <c r="F13" s="174"/>
-      <c r="G13" s="175"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="159"/>
       <c r="H13" s="152" t="s">
         <v>1157</v>
       </c>
-      <c r="I13" s="153"/>
-      <c r="J13" s="153"/>
-      <c r="K13" s="153"/>
-      <c r="L13" s="153"/>
-      <c r="M13" s="153"/>
-      <c r="N13" s="153"/>
-      <c r="O13" s="153"/>
-      <c r="P13" s="153"/>
-      <c r="Q13" s="153"/>
+      <c r="I13" s="160"/>
+      <c r="J13" s="160"/>
+      <c r="K13" s="160"/>
+      <c r="L13" s="160"/>
+      <c r="M13" s="160"/>
+      <c r="N13" s="160"/>
+      <c r="O13" s="160"/>
+      <c r="P13" s="160"/>
+      <c r="Q13" s="160"/>
     </row>
     <row r="14" spans="2:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C14" s="61">
         <v>4</v>
       </c>
-      <c r="D14" s="154" t="s">
+      <c r="D14" s="167" t="s">
         <v>1158</v>
       </c>
-      <c r="E14" s="155"/>
-      <c r="F14" s="155"/>
-      <c r="G14" s="156"/>
+      <c r="E14" s="168"/>
+      <c r="F14" s="168"/>
+      <c r="G14" s="169"/>
       <c r="H14" s="152" t="s">
         <v>1159</v>
       </c>
-      <c r="I14" s="153"/>
-      <c r="J14" s="153"/>
-      <c r="K14" s="153"/>
-      <c r="L14" s="153"/>
-      <c r="M14" s="153"/>
-      <c r="N14" s="153"/>
-      <c r="O14" s="153"/>
-      <c r="P14" s="153"/>
-      <c r="Q14" s="153"/>
+      <c r="I14" s="160"/>
+      <c r="J14" s="160"/>
+      <c r="K14" s="160"/>
+      <c r="L14" s="160"/>
+      <c r="M14" s="160"/>
+      <c r="N14" s="160"/>
+      <c r="O14" s="160"/>
+      <c r="P14" s="160"/>
+      <c r="Q14" s="160"/>
     </row>
     <row r="15" spans="2:17" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C15" s="61">
         <v>5</v>
       </c>
-      <c r="D15" s="157"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="158"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="153" t="s">
+      <c r="D15" s="170"/>
+      <c r="E15" s="171"/>
+      <c r="F15" s="171"/>
+      <c r="G15" s="172"/>
+      <c r="H15" s="160" t="s">
         <v>1160</v>
       </c>
-      <c r="I15" s="153"/>
-      <c r="J15" s="153"/>
-      <c r="K15" s="153"/>
-      <c r="L15" s="153"/>
-      <c r="M15" s="153"/>
-      <c r="N15" s="153"/>
-      <c r="O15" s="153"/>
-      <c r="P15" s="153"/>
-      <c r="Q15" s="153"/>
+      <c r="I15" s="160"/>
+      <c r="J15" s="160"/>
+      <c r="K15" s="160"/>
+      <c r="L15" s="160"/>
+      <c r="M15" s="160"/>
+      <c r="N15" s="160"/>
+      <c r="O15" s="160"/>
+      <c r="P15" s="160"/>
+      <c r="Q15" s="160"/>
     </row>
     <row r="16" spans="2:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C16" s="61">
         <v>6</v>
       </c>
-      <c r="D16" s="160"/>
-      <c r="E16" s="161"/>
-      <c r="F16" s="161"/>
-      <c r="G16" s="162"/>
-      <c r="H16" s="164" t="s">
+      <c r="D16" s="173"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="175"/>
+      <c r="H16" s="161" t="s">
         <v>1161</v>
       </c>
-      <c r="I16" s="165"/>
-      <c r="J16" s="165"/>
-      <c r="K16" s="165"/>
-      <c r="L16" s="165"/>
-      <c r="M16" s="165"/>
-      <c r="N16" s="165"/>
-      <c r="O16" s="165"/>
-      <c r="P16" s="165"/>
-      <c r="Q16" s="166"/>
+      <c r="I16" s="162"/>
+      <c r="J16" s="162"/>
+      <c r="K16" s="162"/>
+      <c r="L16" s="162"/>
+      <c r="M16" s="162"/>
+      <c r="N16" s="162"/>
+      <c r="O16" s="162"/>
+      <c r="P16" s="162"/>
+      <c r="Q16" s="163"/>
     </row>
     <row r="17" spans="3:17" ht="161.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="61">
@@ -28349,9 +28349,9 @@
       <c r="D17" s="152" t="s">
         <v>1162</v>
       </c>
-      <c r="E17" s="153"/>
-      <c r="F17" s="153"/>
-      <c r="G17" s="153"/>
+      <c r="E17" s="160"/>
+      <c r="F17" s="160"/>
+      <c r="G17" s="160"/>
       <c r="H17" s="152" t="s">
         <v>1163</v>
       </c>
@@ -28372,29 +28372,31 @@
       <c r="D18" s="152" t="s">
         <v>1164</v>
       </c>
-      <c r="E18" s="153"/>
-      <c r="F18" s="153"/>
-      <c r="G18" s="153"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="160"/>
+      <c r="G18" s="160"/>
       <c r="H18" s="152" t="s">
         <v>1165</v>
       </c>
-      <c r="I18" s="153"/>
-      <c r="J18" s="153"/>
-      <c r="K18" s="153"/>
-      <c r="L18" s="153"/>
-      <c r="M18" s="153"/>
-      <c r="N18" s="153"/>
-      <c r="O18" s="153"/>
-      <c r="P18" s="153"/>
-      <c r="Q18" s="153"/>
+      <c r="I18" s="160"/>
+      <c r="J18" s="160"/>
+      <c r="K18" s="160"/>
+      <c r="L18" s="160"/>
+      <c r="M18" s="160"/>
+      <c r="N18" s="160"/>
+      <c r="O18" s="160"/>
+      <c r="P18" s="160"/>
+      <c r="Q18" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="H5:Q5"/>
-    <mergeCell ref="H4:Q4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H6:Q6"/>
-    <mergeCell ref="D5:G6"/>
+    <mergeCell ref="H17:Q17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="H18:Q18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H12:Q12"/>
+    <mergeCell ref="H13:Q13"/>
+    <mergeCell ref="D14:G16"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="H10:Q10"/>
     <mergeCell ref="H14:Q14"/>
@@ -28402,13 +28404,11 @@
     <mergeCell ref="H16:Q16"/>
     <mergeCell ref="D11:G13"/>
     <mergeCell ref="H11:Q11"/>
-    <mergeCell ref="H17:Q17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="H18:Q18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="H12:Q12"/>
-    <mergeCell ref="H13:Q13"/>
-    <mergeCell ref="D14:G16"/>
+    <mergeCell ref="H5:Q5"/>
+    <mergeCell ref="H4:Q4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H6:Q6"/>
+    <mergeCell ref="D5:G6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -30507,7 +30507,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -30568,7 +30568,7 @@
         <v>1396</v>
       </c>
       <c r="C5" s="125">
-        <v>43370</v>
+        <v>43328</v>
       </c>
       <c r="D5" s="124" t="s">
         <v>1397</v>

--- a/docs/テスト観点カタログ.xlsx
+++ b/docs/テスト観点カタログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8614593-A1B4-472C-8658-A5708EA269D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0292E7FD-39C1-4907-8A87-2379689CC356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2923" uniqueCount="1457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2923" uniqueCount="1456">
   <si>
     <t>TIS株式会社</t>
     <rPh sb="1" eb="3">
@@ -17737,13 +17737,6 @@
     <t>変更</t>
     <rPh sb="0" eb="2">
       <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.2版</t>
-    <rPh sb="3" eb="4">
-      <t>ハン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -21481,9 +21474,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -21493,6 +21525,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -21501,54 +21542,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="561">
@@ -27331,11 +27324,11 @@
       <c r="C51" s="136"/>
       <c r="D51" s="136"/>
       <c r="E51" s="41" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="F51" s="40"/>
       <c r="G51" s="40" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="H51" s="12" t="s">
         <v>593</v>
@@ -27955,16 +27948,16 @@
       <c r="C86" s="136"/>
       <c r="D86" s="136"/>
       <c r="E86" s="41" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="F86" s="41" t="s">
         <v>131</v>
       </c>
       <c r="G86" s="26" t="s">
+        <v>1445</v>
+      </c>
+      <c r="H86" s="26" t="s">
         <v>1446</v>
-      </c>
-      <c r="H86" s="26" t="s">
-        <v>1447</v>
       </c>
       <c r="I86" s="136"/>
       <c r="J86" s="41"/>
@@ -27976,7 +27969,7 @@
       </c>
       <c r="C87" s="138"/>
       <c r="D87" s="45" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="E87" s="45" t="s">
         <v>131</v>
@@ -27985,10 +27978,10 @@
         <v>131</v>
       </c>
       <c r="G87" s="29" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="H87" s="29" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="I87" s="138"/>
       <c r="J87" s="138"/>
@@ -28011,7 +28004,7 @@
         <v>131</v>
       </c>
       <c r="G88" s="36" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="H88" s="36" t="s">
         <v>841</v>
@@ -28121,35 +28114,35 @@
       <c r="C4" s="62" t="s">
         <v>924</v>
       </c>
-      <c r="D4" s="153" t="s">
+      <c r="D4" s="163" t="s">
         <v>1148</v>
       </c>
-      <c r="E4" s="153"/>
-      <c r="F4" s="153"/>
-      <c r="G4" s="153"/>
-      <c r="H4" s="153" t="s">
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163" t="s">
         <v>1149</v>
       </c>
-      <c r="I4" s="153"/>
-      <c r="J4" s="153"/>
-      <c r="K4" s="153"/>
-      <c r="L4" s="153"/>
-      <c r="M4" s="153"/>
-      <c r="N4" s="153"/>
-      <c r="O4" s="153"/>
-      <c r="P4" s="153"/>
-      <c r="Q4" s="153"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="163"/>
+      <c r="L4" s="163"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="163"/>
+      <c r="O4" s="163"/>
+      <c r="P4" s="163"/>
+      <c r="Q4" s="163"/>
     </row>
     <row r="5" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="61">
         <v>1</v>
       </c>
-      <c r="D5" s="154" t="s">
+      <c r="D5" s="167" t="s">
         <v>1150</v>
       </c>
-      <c r="E5" s="155"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="156"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="169"/>
       <c r="H5" s="152" t="s">
         <v>1151</v>
       </c>
@@ -28167,10 +28160,10 @@
       <c r="C6" s="61">
         <v>2</v>
       </c>
-      <c r="D6" s="157"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
-      <c r="G6" s="159"/>
+      <c r="D6" s="173"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="174"/>
+      <c r="G6" s="175"/>
       <c r="H6" s="152" t="s">
         <v>1152</v>
       </c>
@@ -28193,35 +28186,35 @@
       <c r="C10" s="62" t="s">
         <v>924</v>
       </c>
-      <c r="D10" s="153" t="s">
+      <c r="D10" s="163" t="s">
         <v>1148</v>
       </c>
-      <c r="E10" s="153"/>
-      <c r="F10" s="153"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="153" t="s">
+      <c r="E10" s="163"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="163" t="s">
         <v>1149</v>
       </c>
-      <c r="I10" s="153"/>
-      <c r="J10" s="153"/>
-      <c r="K10" s="153"/>
-      <c r="L10" s="153"/>
-      <c r="M10" s="153"/>
-      <c r="N10" s="153"/>
-      <c r="O10" s="153"/>
-      <c r="P10" s="153"/>
-      <c r="Q10" s="153"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="163"/>
+      <c r="K10" s="163"/>
+      <c r="L10" s="163"/>
+      <c r="M10" s="163"/>
+      <c r="N10" s="163"/>
+      <c r="O10" s="163"/>
+      <c r="P10" s="163"/>
+      <c r="Q10" s="163"/>
     </row>
     <row r="11" spans="2:17" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" s="61">
         <v>1</v>
       </c>
-      <c r="D11" s="154" t="s">
+      <c r="D11" s="167" t="s">
         <v>1154</v>
       </c>
-      <c r="E11" s="155"/>
-      <c r="F11" s="155"/>
-      <c r="G11" s="156"/>
+      <c r="E11" s="168"/>
+      <c r="F11" s="168"/>
+      <c r="G11" s="169"/>
       <c r="H11" s="152" t="s">
         <v>1155</v>
       </c>
@@ -28239,10 +28232,10 @@
       <c r="C12" s="61">
         <v>2</v>
       </c>
-      <c r="D12" s="164"/>
-      <c r="E12" s="165"/>
-      <c r="F12" s="165"/>
-      <c r="G12" s="166"/>
+      <c r="D12" s="170"/>
+      <c r="E12" s="171"/>
+      <c r="F12" s="171"/>
+      <c r="G12" s="172"/>
       <c r="H12" s="152" t="s">
         <v>1156</v>
       </c>
@@ -28260,87 +28253,87 @@
       <c r="C13" s="61">
         <v>3</v>
       </c>
-      <c r="D13" s="157"/>
-      <c r="E13" s="158"/>
-      <c r="F13" s="158"/>
-      <c r="G13" s="159"/>
+      <c r="D13" s="173"/>
+      <c r="E13" s="174"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="175"/>
       <c r="H13" s="152" t="s">
         <v>1157</v>
       </c>
-      <c r="I13" s="160"/>
-      <c r="J13" s="160"/>
-      <c r="K13" s="160"/>
-      <c r="L13" s="160"/>
-      <c r="M13" s="160"/>
-      <c r="N13" s="160"/>
-      <c r="O13" s="160"/>
-      <c r="P13" s="160"/>
-      <c r="Q13" s="160"/>
+      <c r="I13" s="153"/>
+      <c r="J13" s="153"/>
+      <c r="K13" s="153"/>
+      <c r="L13" s="153"/>
+      <c r="M13" s="153"/>
+      <c r="N13" s="153"/>
+      <c r="O13" s="153"/>
+      <c r="P13" s="153"/>
+      <c r="Q13" s="153"/>
     </row>
     <row r="14" spans="2:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C14" s="61">
         <v>4</v>
       </c>
-      <c r="D14" s="167" t="s">
+      <c r="D14" s="154" t="s">
         <v>1158</v>
       </c>
-      <c r="E14" s="168"/>
-      <c r="F14" s="168"/>
-      <c r="G14" s="169"/>
+      <c r="E14" s="155"/>
+      <c r="F14" s="155"/>
+      <c r="G14" s="156"/>
       <c r="H14" s="152" t="s">
         <v>1159</v>
       </c>
-      <c r="I14" s="160"/>
-      <c r="J14" s="160"/>
-      <c r="K14" s="160"/>
-      <c r="L14" s="160"/>
-      <c r="M14" s="160"/>
-      <c r="N14" s="160"/>
-      <c r="O14" s="160"/>
-      <c r="P14" s="160"/>
-      <c r="Q14" s="160"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="153"/>
+      <c r="K14" s="153"/>
+      <c r="L14" s="153"/>
+      <c r="M14" s="153"/>
+      <c r="N14" s="153"/>
+      <c r="O14" s="153"/>
+      <c r="P14" s="153"/>
+      <c r="Q14" s="153"/>
     </row>
     <row r="15" spans="2:17" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C15" s="61">
         <v>5</v>
       </c>
-      <c r="D15" s="170"/>
-      <c r="E15" s="171"/>
-      <c r="F15" s="171"/>
-      <c r="G15" s="172"/>
-      <c r="H15" s="160" t="s">
+      <c r="D15" s="157"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="159"/>
+      <c r="H15" s="153" t="s">
         <v>1160</v>
       </c>
-      <c r="I15" s="160"/>
-      <c r="J15" s="160"/>
-      <c r="K15" s="160"/>
-      <c r="L15" s="160"/>
-      <c r="M15" s="160"/>
-      <c r="N15" s="160"/>
-      <c r="O15" s="160"/>
-      <c r="P15" s="160"/>
-      <c r="Q15" s="160"/>
+      <c r="I15" s="153"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="153"/>
+      <c r="L15" s="153"/>
+      <c r="M15" s="153"/>
+      <c r="N15" s="153"/>
+      <c r="O15" s="153"/>
+      <c r="P15" s="153"/>
+      <c r="Q15" s="153"/>
     </row>
     <row r="16" spans="2:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C16" s="61">
         <v>6</v>
       </c>
-      <c r="D16" s="173"/>
-      <c r="E16" s="174"/>
-      <c r="F16" s="174"/>
-      <c r="G16" s="175"/>
-      <c r="H16" s="161" t="s">
+      <c r="D16" s="160"/>
+      <c r="E16" s="161"/>
+      <c r="F16" s="161"/>
+      <c r="G16" s="162"/>
+      <c r="H16" s="164" t="s">
         <v>1161</v>
       </c>
-      <c r="I16" s="162"/>
-      <c r="J16" s="162"/>
-      <c r="K16" s="162"/>
-      <c r="L16" s="162"/>
-      <c r="M16" s="162"/>
-      <c r="N16" s="162"/>
-      <c r="O16" s="162"/>
-      <c r="P16" s="162"/>
-      <c r="Q16" s="163"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="165"/>
+      <c r="M16" s="165"/>
+      <c r="N16" s="165"/>
+      <c r="O16" s="165"/>
+      <c r="P16" s="165"/>
+      <c r="Q16" s="166"/>
     </row>
     <row r="17" spans="3:17" ht="161.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="61">
@@ -28349,9 +28342,9 @@
       <c r="D17" s="152" t="s">
         <v>1162</v>
       </c>
-      <c r="E17" s="160"/>
-      <c r="F17" s="160"/>
-      <c r="G17" s="160"/>
+      <c r="E17" s="153"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="153"/>
       <c r="H17" s="152" t="s">
         <v>1163</v>
       </c>
@@ -28372,24 +28365,36 @@
       <c r="D18" s="152" t="s">
         <v>1164</v>
       </c>
-      <c r="E18" s="160"/>
-      <c r="F18" s="160"/>
-      <c r="G18" s="160"/>
+      <c r="E18" s="153"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="153"/>
       <c r="H18" s="152" t="s">
         <v>1165</v>
       </c>
-      <c r="I18" s="160"/>
-      <c r="J18" s="160"/>
-      <c r="K18" s="160"/>
-      <c r="L18" s="160"/>
-      <c r="M18" s="160"/>
-      <c r="N18" s="160"/>
-      <c r="O18" s="160"/>
-      <c r="P18" s="160"/>
-      <c r="Q18" s="160"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="153"/>
+      <c r="K18" s="153"/>
+      <c r="L18" s="153"/>
+      <c r="M18" s="153"/>
+      <c r="N18" s="153"/>
+      <c r="O18" s="153"/>
+      <c r="P18" s="153"/>
+      <c r="Q18" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="H5:Q5"/>
+    <mergeCell ref="H4:Q4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H6:Q6"/>
+    <mergeCell ref="D5:G6"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:Q10"/>
+    <mergeCell ref="H14:Q14"/>
+    <mergeCell ref="H15:Q15"/>
+    <mergeCell ref="H16:Q16"/>
+    <mergeCell ref="D11:G13"/>
+    <mergeCell ref="H11:Q11"/>
     <mergeCell ref="H17:Q17"/>
     <mergeCell ref="D17:G17"/>
     <mergeCell ref="H18:Q18"/>
@@ -28397,18 +28402,6 @@
     <mergeCell ref="H12:Q12"/>
     <mergeCell ref="H13:Q13"/>
     <mergeCell ref="D14:G16"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H10:Q10"/>
-    <mergeCell ref="H14:Q14"/>
-    <mergeCell ref="H15:Q15"/>
-    <mergeCell ref="H16:Q16"/>
-    <mergeCell ref="D11:G13"/>
-    <mergeCell ref="H11:Q11"/>
-    <mergeCell ref="H5:Q5"/>
-    <mergeCell ref="H4:Q4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H6:Q6"/>
-    <mergeCell ref="D5:G6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -30507,7 +30500,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -30532,12 +30525,12 @@
     </row>
     <row r="2" spans="1:6" s="119" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="119" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="119" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="135" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="122" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -30585,7 +30578,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="129" t="s">
-        <v>1401</v>
+        <v>1407</v>
       </c>
       <c r="C6" s="132">
         <v>44651</v>
@@ -30594,10 +30587,10 @@
         <v>1400</v>
       </c>
       <c r="E6" s="130" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="F6" s="131" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="122" customFormat="1" ht="60" x14ac:dyDescent="0.35">
@@ -30605,7 +30598,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="129" t="s">
-        <v>1401</v>
+        <v>1407</v>
       </c>
       <c r="C7" s="132">
         <v>44651</v>
@@ -30614,10 +30607,10 @@
         <v>1400</v>
       </c>
       <c r="E7" s="130" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="F7" s="131" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="122" customFormat="1" ht="60" x14ac:dyDescent="0.35">
@@ -30625,7 +30618,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="129" t="s">
-        <v>1401</v>
+        <v>1407</v>
       </c>
       <c r="C8" s="132">
         <v>44651</v>
@@ -30634,10 +30627,10 @@
         <v>1400</v>
       </c>
       <c r="E8" s="130" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="F8" s="131" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="122" customFormat="1" ht="45" x14ac:dyDescent="0.35">
@@ -30645,7 +30638,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="129" t="s">
-        <v>1401</v>
+        <v>1407</v>
       </c>
       <c r="C9" s="132">
         <v>44651</v>
@@ -30654,10 +30647,10 @@
         <v>1400</v>
       </c>
       <c r="E9" s="130" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F9" s="131" t="s">
         <v>1405</v>
-      </c>
-      <c r="F9" s="131" t="s">
-        <v>1406</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="122" customFormat="1" ht="45" x14ac:dyDescent="0.35">
@@ -30665,7 +30658,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="129" t="s">
-        <v>1401</v>
+        <v>1407</v>
       </c>
       <c r="C10" s="132">
         <v>44651</v>
@@ -30674,10 +30667,10 @@
         <v>1400</v>
       </c>
       <c r="E10" s="130" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="F10" s="131" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="122" customFormat="1" ht="60" x14ac:dyDescent="0.35">
@@ -30685,7 +30678,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="129" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="C11" s="132">
         <v>44651</v>
@@ -30694,10 +30687,10 @@
         <v>1400</v>
       </c>
       <c r="E11" s="130" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="F11" s="131" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="122" customFormat="1" ht="60" x14ac:dyDescent="0.35">
@@ -30705,7 +30698,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="129" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="C12" s="132">
         <v>44651</v>
@@ -30714,10 +30707,10 @@
         <v>1400</v>
       </c>
       <c r="E12" s="130" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F12" s="131" t="s">
         <v>1410</v>
-      </c>
-      <c r="F12" s="131" t="s">
-        <v>1411</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="122" customFormat="1" ht="60" x14ac:dyDescent="0.35">
@@ -30725,7 +30718,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="129" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="C13" s="132">
         <v>44651</v>
@@ -30734,10 +30727,10 @@
         <v>1400</v>
       </c>
       <c r="E13" s="130" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="F13" s="131" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="122" customFormat="1" ht="60" x14ac:dyDescent="0.35">
@@ -30745,7 +30738,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="129" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="C14" s="132">
         <v>45016</v>
@@ -30754,10 +30747,10 @@
         <v>1400</v>
       </c>
       <c r="E14" s="130" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="F14" s="131" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="122" customFormat="1" ht="30" x14ac:dyDescent="0.35">
@@ -30765,7 +30758,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="129" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="C15" s="132">
         <v>45016</v>
@@ -30774,10 +30767,10 @@
         <v>1400</v>
       </c>
       <c r="E15" s="130" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="F15" s="131" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="122" customFormat="1" ht="45" x14ac:dyDescent="0.35">
@@ -30785,7 +30778,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="129" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="C16" s="132">
         <v>45016</v>
@@ -30794,10 +30787,10 @@
         <v>1400</v>
       </c>
       <c r="E16" s="130" t="s">
+        <v>1417</v>
+      </c>
+      <c r="F16" s="131" t="s">
         <v>1418</v>
-      </c>
-      <c r="F16" s="131" t="s">
-        <v>1419</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="122" customFormat="1" ht="45" x14ac:dyDescent="0.35">
@@ -30805,7 +30798,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="129" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C17" s="132">
         <v>45394</v>
@@ -30814,10 +30807,10 @@
         <v>1400</v>
       </c>
       <c r="E17" s="130" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="F17" s="131" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="122" customFormat="1" ht="45" x14ac:dyDescent="0.35">
@@ -30825,7 +30818,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="129" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C18" s="132">
         <v>45394</v>
@@ -30834,10 +30827,10 @@
         <v>1400</v>
       </c>
       <c r="E18" s="130" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="F18" s="131" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
   </sheetData>
@@ -32977,14 +32970,14 @@
       <c r="E12" s="13"/>
       <c r="F12" s="136"/>
       <c r="G12" s="40" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="H12" s="40" t="s">
         <v>85</v>
       </c>
       <c r="I12" s="136"/>
       <c r="J12" s="40" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="13" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -40516,13 +40509,13 @@
         <v>131</v>
       </c>
       <c r="G92" s="36" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H92" s="15" t="s">
         <v>527</v>
       </c>
       <c r="I92" s="15" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="J92" s="15"/>
     </row>
@@ -40532,10 +40525,10 @@
         <v>89</v>
       </c>
       <c r="C93" s="137" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D93" s="137" t="s">
         <v>1431</v>
-      </c>
-      <c r="D93" s="137" t="s">
-        <v>1432</v>
       </c>
       <c r="E93" s="137" t="s">
         <v>131</v>
@@ -40544,7 +40537,7 @@
         <v>131</v>
       </c>
       <c r="G93" s="15" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="H93" s="36" t="s">
         <v>681</v>
@@ -40564,7 +40557,7 @@
       <c r="E94" s="136"/>
       <c r="F94" s="136"/>
       <c r="G94" s="15" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="H94" s="36" t="s">
         <v>681</v>
@@ -40584,7 +40577,7 @@
       <c r="E95" s="138"/>
       <c r="F95" s="138"/>
       <c r="G95" s="15" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="H95" s="36" t="s">
         <v>681</v>
@@ -40600,10 +40593,10 @@
         <v>92</v>
       </c>
       <c r="C96" s="137" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D96" s="137" t="s">
         <v>1436</v>
-      </c>
-      <c r="D96" s="137" t="s">
-        <v>1437</v>
       </c>
       <c r="E96" s="137" t="s">
         <v>131</v>
@@ -40612,13 +40605,13 @@
         <v>131</v>
       </c>
       <c r="G96" s="15" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="H96" s="36" t="s">
         <v>681</v>
       </c>
       <c r="I96" s="137" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="J96" s="137"/>
     </row>
@@ -40632,7 +40625,7 @@
       <c r="E97" s="138"/>
       <c r="F97" s="138"/>
       <c r="G97" s="15" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="H97" s="36" t="s">
         <v>681</v>
@@ -40656,7 +40649,7 @@
         <v>131</v>
       </c>
       <c r="G98" s="15" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="H98" s="36" t="s">
         <v>681</v>
@@ -43573,13 +43566,13 @@
       <c r="C20" s="138"/>
       <c r="D20" s="138"/>
       <c r="E20" s="138" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="F20" s="138" t="s">
         <v>131</v>
       </c>
       <c r="G20" s="138" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="H20" s="138" t="s">
         <v>841</v>

--- a/docs/テスト観点カタログ.xlsx
+++ b/docs/テスト観点カタログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0292E7FD-39C1-4907-8A87-2379689CC356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFA71F8-364B-4919-B28A-B5D8D6ED2DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="12">構成テスト!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="18">障害テスト!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="16">'性能テスト、ストレステストなど'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$2</definedName>
     <definedName name="シナリオテスト_バッチ">業務シナリオテスト!$A$22</definedName>
     <definedName name="シナリオテスト_共通">業務シナリオテスト!$A$3</definedName>
     <definedName name="ストレステスト_共通">'性能テスト、ストレステストなど'!$A$20</definedName>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2923" uniqueCount="1456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2921" uniqueCount="1454">
   <si>
     <t>TIS株式会社</t>
     <rPh sb="1" eb="3">
@@ -17869,23 +17869,6 @@
     <t>モバイルアプリケーションの機能テスト観点を追加</t>
     <rPh sb="13" eb="15">
       <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>テスト種別&amp;観点カタログ変更履歴_第1.1版以前.pdf</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※1.1版以前の履歴は、以下を参照してください。</t>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -21022,7 +21005,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -21420,9 +21403,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="513" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -21474,9 +21454,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -21503,45 +21522,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="561">
@@ -25268,24 +25248,24 @@
       <c r="C4" s="80" t="s">
         <v>924</v>
       </c>
-      <c r="D4" s="149" t="s">
+      <c r="D4" s="148" t="s">
         <v>925</v>
       </c>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149" t="s">
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="149"/>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
-      <c r="M4" s="149"/>
-      <c r="N4" s="149"/>
-      <c r="O4" s="149"/>
-      <c r="P4" s="149"/>
-      <c r="Q4" s="149"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="148"/>
+      <c r="N4" s="148"/>
+      <c r="O4" s="148"/>
+      <c r="P4" s="148"/>
+      <c r="Q4" s="148"/>
     </row>
     <row r="5" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="49">
@@ -25991,24 +25971,24 @@
       <c r="C4" s="80" t="s">
         <v>924</v>
       </c>
-      <c r="D4" s="149" t="s">
+      <c r="D4" s="148" t="s">
         <v>925</v>
       </c>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149" t="s">
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="149"/>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
-      <c r="M4" s="149"/>
-      <c r="N4" s="149"/>
-      <c r="O4" s="149"/>
-      <c r="P4" s="149"/>
-      <c r="Q4" s="149"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="148"/>
+      <c r="N4" s="148"/>
+      <c r="O4" s="148"/>
+      <c r="P4" s="148"/>
+      <c r="Q4" s="148"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C5" s="49">
@@ -26792,7 +26772,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C26" s="150" t="s">
+      <c r="C26" s="149" t="s">
         <v>1056</v>
       </c>
       <c r="D26" s="81" t="s">
@@ -26820,7 +26800,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C27" s="151"/>
+      <c r="C27" s="150"/>
       <c r="D27" s="82"/>
       <c r="E27" s="43"/>
       <c r="F27" s="82"/>
@@ -27317,26 +27297,26 @@
       <c r="J50" s="41"/>
     </row>
     <row r="51" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="140">
+      <c r="B51" s="139">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C51" s="136"/>
-      <c r="D51" s="136"/>
+      <c r="C51" s="135"/>
+      <c r="D51" s="135"/>
       <c r="E51" s="41" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="F51" s="40"/>
       <c r="G51" s="40" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="H51" s="12" t="s">
         <v>593</v>
       </c>
-      <c r="I51" s="136" t="s">
+      <c r="I51" s="135" t="s">
         <v>1037</v>
       </c>
-      <c r="J51" s="136"/>
+      <c r="J51" s="135"/>
     </row>
     <row r="52" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B52" s="81">
@@ -27497,7 +27477,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C59" s="150" t="s">
+      <c r="C59" s="149" t="s">
         <v>1061</v>
       </c>
       <c r="D59" s="81" t="s">
@@ -27527,7 +27507,7 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C60" s="148"/>
+      <c r="C60" s="147"/>
       <c r="D60" s="79"/>
       <c r="E60" s="42"/>
       <c r="F60" s="41" t="s">
@@ -27941,35 +27921,35 @@
       <c r="J85" s="39"/>
     </row>
     <row r="86" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="139">
+      <c r="B86" s="138">
         <f t="shared" ref="B86:B88" si="2">ROW()-ROW($B$84)</f>
         <v>2</v>
       </c>
-      <c r="C86" s="136"/>
-      <c r="D86" s="136"/>
+      <c r="C86" s="135"/>
+      <c r="D86" s="135"/>
       <c r="E86" s="41" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="F86" s="41" t="s">
         <v>131</v>
       </c>
       <c r="G86" s="26" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="H86" s="26" t="s">
-        <v>1446</v>
-      </c>
-      <c r="I86" s="136"/>
+        <v>1444</v>
+      </c>
+      <c r="I86" s="135"/>
       <c r="J86" s="41"/>
     </row>
     <row r="87" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="139">
+      <c r="B87" s="138">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="C87" s="138"/>
+      <c r="C87" s="137"/>
       <c r="D87" s="45" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="E87" s="45" t="s">
         <v>131</v>
@@ -27978,16 +27958,16 @@
         <v>131</v>
       </c>
       <c r="G87" s="29" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="H87" s="29" t="s">
-        <v>1446</v>
-      </c>
-      <c r="I87" s="138"/>
-      <c r="J87" s="138"/>
+        <v>1444</v>
+      </c>
+      <c r="I87" s="137"/>
+      <c r="J87" s="137"/>
     </row>
     <row r="88" spans="2:10" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.35">
-      <c r="B88" s="139">
+      <c r="B88" s="138">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -28004,7 +27984,7 @@
         <v>131</v>
       </c>
       <c r="G88" s="36" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="H88" s="36" t="s">
         <v>841</v>
@@ -28019,7 +27999,7 @@
         <f>ROW()-ROW($B$84)</f>
         <v>5</v>
       </c>
-      <c r="C89" s="150" t="s">
+      <c r="C89" s="149" t="s">
         <v>1061</v>
       </c>
       <c r="D89" s="81" t="s">
@@ -28049,7 +28029,7 @@
         <f>ROW()-ROW($B$84)</f>
         <v>6</v>
       </c>
-      <c r="C90" s="151"/>
+      <c r="C90" s="150"/>
       <c r="D90" s="82"/>
       <c r="E90" s="45" t="s">
         <v>1007</v>
@@ -28114,68 +28094,68 @@
       <c r="C4" s="62" t="s">
         <v>924</v>
       </c>
-      <c r="D4" s="163" t="s">
+      <c r="D4" s="152" t="s">
         <v>1148</v>
       </c>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163" t="s">
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152" t="s">
         <v>1149</v>
       </c>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
-      <c r="K4" s="163"/>
-      <c r="L4" s="163"/>
-      <c r="M4" s="163"/>
-      <c r="N4" s="163"/>
-      <c r="O4" s="163"/>
-      <c r="P4" s="163"/>
-      <c r="Q4" s="163"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="152"/>
+      <c r="K4" s="152"/>
+      <c r="L4" s="152"/>
+      <c r="M4" s="152"/>
+      <c r="N4" s="152"/>
+      <c r="O4" s="152"/>
+      <c r="P4" s="152"/>
+      <c r="Q4" s="152"/>
     </row>
     <row r="5" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="61">
         <v>1</v>
       </c>
-      <c r="D5" s="167" t="s">
+      <c r="D5" s="153" t="s">
         <v>1150</v>
       </c>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
-      <c r="G5" s="169"/>
-      <c r="H5" s="152" t="s">
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="151" t="s">
         <v>1151</v>
       </c>
-      <c r="I5" s="152"/>
-      <c r="J5" s="152"/>
-      <c r="K5" s="152"/>
-      <c r="L5" s="152"/>
-      <c r="M5" s="152"/>
-      <c r="N5" s="152"/>
-      <c r="O5" s="152"/>
-      <c r="P5" s="152"/>
-      <c r="Q5" s="152"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="151"/>
+      <c r="L5" s="151"/>
+      <c r="M5" s="151"/>
+      <c r="N5" s="151"/>
+      <c r="O5" s="151"/>
+      <c r="P5" s="151"/>
+      <c r="Q5" s="151"/>
     </row>
     <row r="6" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="61">
         <v>2</v>
       </c>
-      <c r="D6" s="173"/>
-      <c r="E6" s="174"/>
-      <c r="F6" s="174"/>
-      <c r="G6" s="175"/>
-      <c r="H6" s="152" t="s">
+      <c r="D6" s="156"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="151" t="s">
         <v>1152</v>
       </c>
-      <c r="I6" s="152"/>
-      <c r="J6" s="152"/>
-      <c r="K6" s="152"/>
-      <c r="L6" s="152"/>
-      <c r="M6" s="152"/>
-      <c r="N6" s="152"/>
-      <c r="O6" s="152"/>
-      <c r="P6" s="152"/>
-      <c r="Q6" s="152"/>
+      <c r="I6" s="151"/>
+      <c r="J6" s="151"/>
+      <c r="K6" s="151"/>
+      <c r="L6" s="151"/>
+      <c r="M6" s="151"/>
+      <c r="N6" s="151"/>
+      <c r="O6" s="151"/>
+      <c r="P6" s="151"/>
+      <c r="Q6" s="151"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B9" s="78" t="s">
@@ -28186,208 +28166,210 @@
       <c r="C10" s="62" t="s">
         <v>924</v>
       </c>
-      <c r="D10" s="163" t="s">
+      <c r="D10" s="152" t="s">
         <v>1148</v>
       </c>
-      <c r="E10" s="163"/>
-      <c r="F10" s="163"/>
-      <c r="G10" s="163"/>
-      <c r="H10" s="163" t="s">
+      <c r="E10" s="152"/>
+      <c r="F10" s="152"/>
+      <c r="G10" s="152"/>
+      <c r="H10" s="152" t="s">
         <v>1149</v>
       </c>
-      <c r="I10" s="163"/>
-      <c r="J10" s="163"/>
-      <c r="K10" s="163"/>
-      <c r="L10" s="163"/>
-      <c r="M10" s="163"/>
-      <c r="N10" s="163"/>
-      <c r="O10" s="163"/>
-      <c r="P10" s="163"/>
-      <c r="Q10" s="163"/>
+      <c r="I10" s="152"/>
+      <c r="J10" s="152"/>
+      <c r="K10" s="152"/>
+      <c r="L10" s="152"/>
+      <c r="M10" s="152"/>
+      <c r="N10" s="152"/>
+      <c r="O10" s="152"/>
+      <c r="P10" s="152"/>
+      <c r="Q10" s="152"/>
     </row>
     <row r="11" spans="2:17" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" s="61">
         <v>1</v>
       </c>
-      <c r="D11" s="167" t="s">
+      <c r="D11" s="153" t="s">
         <v>1154</v>
       </c>
-      <c r="E11" s="168"/>
-      <c r="F11" s="168"/>
-      <c r="G11" s="169"/>
-      <c r="H11" s="152" t="s">
+      <c r="E11" s="154"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="155"/>
+      <c r="H11" s="151" t="s">
         <v>1155</v>
       </c>
-      <c r="I11" s="152"/>
-      <c r="J11" s="152"/>
-      <c r="K11" s="152"/>
-      <c r="L11" s="152"/>
-      <c r="M11" s="152"/>
-      <c r="N11" s="152"/>
-      <c r="O11" s="152"/>
-      <c r="P11" s="152"/>
-      <c r="Q11" s="152"/>
+      <c r="I11" s="151"/>
+      <c r="J11" s="151"/>
+      <c r="K11" s="151"/>
+      <c r="L11" s="151"/>
+      <c r="M11" s="151"/>
+      <c r="N11" s="151"/>
+      <c r="O11" s="151"/>
+      <c r="P11" s="151"/>
+      <c r="Q11" s="151"/>
     </row>
     <row r="12" spans="2:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C12" s="61">
         <v>2</v>
       </c>
-      <c r="D12" s="170"/>
-      <c r="E12" s="171"/>
-      <c r="F12" s="171"/>
-      <c r="G12" s="172"/>
-      <c r="H12" s="152" t="s">
+      <c r="D12" s="163"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="151" t="s">
         <v>1156</v>
       </c>
-      <c r="I12" s="152"/>
-      <c r="J12" s="152"/>
-      <c r="K12" s="152"/>
-      <c r="L12" s="152"/>
-      <c r="M12" s="152"/>
-      <c r="N12" s="152"/>
-      <c r="O12" s="152"/>
-      <c r="P12" s="152"/>
-      <c r="Q12" s="152"/>
+      <c r="I12" s="151"/>
+      <c r="J12" s="151"/>
+      <c r="K12" s="151"/>
+      <c r="L12" s="151"/>
+      <c r="M12" s="151"/>
+      <c r="N12" s="151"/>
+      <c r="O12" s="151"/>
+      <c r="P12" s="151"/>
+      <c r="Q12" s="151"/>
     </row>
     <row r="13" spans="2:17" ht="131.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C13" s="61">
         <v>3</v>
       </c>
-      <c r="D13" s="173"/>
-      <c r="E13" s="174"/>
-      <c r="F13" s="174"/>
-      <c r="G13" s="175"/>
-      <c r="H13" s="152" t="s">
+      <c r="D13" s="156"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="151" t="s">
         <v>1157</v>
       </c>
-      <c r="I13" s="153"/>
-      <c r="J13" s="153"/>
-      <c r="K13" s="153"/>
-      <c r="L13" s="153"/>
-      <c r="M13" s="153"/>
-      <c r="N13" s="153"/>
-      <c r="O13" s="153"/>
-      <c r="P13" s="153"/>
-      <c r="Q13" s="153"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="159"/>
+      <c r="K13" s="159"/>
+      <c r="L13" s="159"/>
+      <c r="M13" s="159"/>
+      <c r="N13" s="159"/>
+      <c r="O13" s="159"/>
+      <c r="P13" s="159"/>
+      <c r="Q13" s="159"/>
     </row>
     <row r="14" spans="2:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C14" s="61">
         <v>4</v>
       </c>
-      <c r="D14" s="154" t="s">
+      <c r="D14" s="166" t="s">
         <v>1158</v>
       </c>
-      <c r="E14" s="155"/>
-      <c r="F14" s="155"/>
-      <c r="G14" s="156"/>
-      <c r="H14" s="152" t="s">
+      <c r="E14" s="167"/>
+      <c r="F14" s="167"/>
+      <c r="G14" s="168"/>
+      <c r="H14" s="151" t="s">
         <v>1159</v>
       </c>
-      <c r="I14" s="153"/>
-      <c r="J14" s="153"/>
-      <c r="K14" s="153"/>
-      <c r="L14" s="153"/>
-      <c r="M14" s="153"/>
-      <c r="N14" s="153"/>
-      <c r="O14" s="153"/>
-      <c r="P14" s="153"/>
-      <c r="Q14" s="153"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="159"/>
+      <c r="K14" s="159"/>
+      <c r="L14" s="159"/>
+      <c r="M14" s="159"/>
+      <c r="N14" s="159"/>
+      <c r="O14" s="159"/>
+      <c r="P14" s="159"/>
+      <c r="Q14" s="159"/>
     </row>
     <row r="15" spans="2:17" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C15" s="61">
         <v>5</v>
       </c>
-      <c r="D15" s="157"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="158"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="153" t="s">
+      <c r="D15" s="169"/>
+      <c r="E15" s="170"/>
+      <c r="F15" s="170"/>
+      <c r="G15" s="171"/>
+      <c r="H15" s="159" t="s">
         <v>1160</v>
       </c>
-      <c r="I15" s="153"/>
-      <c r="J15" s="153"/>
-      <c r="K15" s="153"/>
-      <c r="L15" s="153"/>
-      <c r="M15" s="153"/>
-      <c r="N15" s="153"/>
-      <c r="O15" s="153"/>
-      <c r="P15" s="153"/>
-      <c r="Q15" s="153"/>
+      <c r="I15" s="159"/>
+      <c r="J15" s="159"/>
+      <c r="K15" s="159"/>
+      <c r="L15" s="159"/>
+      <c r="M15" s="159"/>
+      <c r="N15" s="159"/>
+      <c r="O15" s="159"/>
+      <c r="P15" s="159"/>
+      <c r="Q15" s="159"/>
     </row>
     <row r="16" spans="2:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C16" s="61">
         <v>6</v>
       </c>
-      <c r="D16" s="160"/>
-      <c r="E16" s="161"/>
-      <c r="F16" s="161"/>
-      <c r="G16" s="162"/>
-      <c r="H16" s="164" t="s">
+      <c r="D16" s="172"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="160" t="s">
         <v>1161</v>
       </c>
-      <c r="I16" s="165"/>
-      <c r="J16" s="165"/>
-      <c r="K16" s="165"/>
-      <c r="L16" s="165"/>
-      <c r="M16" s="165"/>
-      <c r="N16" s="165"/>
-      <c r="O16" s="165"/>
-      <c r="P16" s="165"/>
-      <c r="Q16" s="166"/>
+      <c r="I16" s="161"/>
+      <c r="J16" s="161"/>
+      <c r="K16" s="161"/>
+      <c r="L16" s="161"/>
+      <c r="M16" s="161"/>
+      <c r="N16" s="161"/>
+      <c r="O16" s="161"/>
+      <c r="P16" s="161"/>
+      <c r="Q16" s="162"/>
     </row>
     <row r="17" spans="3:17" ht="161.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="61">
         <v>7</v>
       </c>
-      <c r="D17" s="152" t="s">
+      <c r="D17" s="151" t="s">
         <v>1162</v>
       </c>
-      <c r="E17" s="153"/>
-      <c r="F17" s="153"/>
-      <c r="G17" s="153"/>
-      <c r="H17" s="152" t="s">
+      <c r="E17" s="159"/>
+      <c r="F17" s="159"/>
+      <c r="G17" s="159"/>
+      <c r="H17" s="151" t="s">
         <v>1163</v>
       </c>
-      <c r="I17" s="152"/>
-      <c r="J17" s="152"/>
-      <c r="K17" s="152"/>
-      <c r="L17" s="152"/>
-      <c r="M17" s="152"/>
-      <c r="N17" s="152"/>
-      <c r="O17" s="152"/>
-      <c r="P17" s="152"/>
-      <c r="Q17" s="152"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="151"/>
+      <c r="K17" s="151"/>
+      <c r="L17" s="151"/>
+      <c r="M17" s="151"/>
+      <c r="N17" s="151"/>
+      <c r="O17" s="151"/>
+      <c r="P17" s="151"/>
+      <c r="Q17" s="151"/>
     </row>
     <row r="18" spans="3:17" ht="145.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C18" s="61">
         <v>8</v>
       </c>
-      <c r="D18" s="152" t="s">
+      <c r="D18" s="151" t="s">
         <v>1164</v>
       </c>
-      <c r="E18" s="153"/>
-      <c r="F18" s="153"/>
-      <c r="G18" s="153"/>
-      <c r="H18" s="152" t="s">
+      <c r="E18" s="159"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="159"/>
+      <c r="H18" s="151" t="s">
         <v>1165</v>
       </c>
-      <c r="I18" s="153"/>
-      <c r="J18" s="153"/>
-      <c r="K18" s="153"/>
-      <c r="L18" s="153"/>
-      <c r="M18" s="153"/>
-      <c r="N18" s="153"/>
-      <c r="O18" s="153"/>
-      <c r="P18" s="153"/>
-      <c r="Q18" s="153"/>
+      <c r="I18" s="159"/>
+      <c r="J18" s="159"/>
+      <c r="K18" s="159"/>
+      <c r="L18" s="159"/>
+      <c r="M18" s="159"/>
+      <c r="N18" s="159"/>
+      <c r="O18" s="159"/>
+      <c r="P18" s="159"/>
+      <c r="Q18" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="H5:Q5"/>
-    <mergeCell ref="H4:Q4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H6:Q6"/>
-    <mergeCell ref="D5:G6"/>
+    <mergeCell ref="H17:Q17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="H18:Q18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H12:Q12"/>
+    <mergeCell ref="H13:Q13"/>
+    <mergeCell ref="D14:G16"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="H10:Q10"/>
     <mergeCell ref="H14:Q14"/>
@@ -28395,13 +28377,11 @@
     <mergeCell ref="H16:Q16"/>
     <mergeCell ref="D11:G13"/>
     <mergeCell ref="H11:Q11"/>
-    <mergeCell ref="H17:Q17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="H18:Q18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="H12:Q12"/>
-    <mergeCell ref="H13:Q13"/>
-    <mergeCell ref="D14:G16"/>
+    <mergeCell ref="H5:Q5"/>
+    <mergeCell ref="H4:Q4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H6:Q6"/>
+    <mergeCell ref="D5:G6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -29563,24 +29543,24 @@
       <c r="C4" s="80" t="s">
         <v>924</v>
       </c>
-      <c r="D4" s="149" t="s">
+      <c r="D4" s="148" t="s">
         <v>925</v>
       </c>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149" t="s">
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="149"/>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
-      <c r="M4" s="149"/>
-      <c r="N4" s="149"/>
-      <c r="O4" s="149"/>
-      <c r="P4" s="149"/>
-      <c r="Q4" s="149"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="148"/>
+      <c r="N4" s="148"/>
+      <c r="O4" s="148"/>
+      <c r="P4" s="148"/>
+      <c r="Q4" s="148"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C5" s="50">
@@ -29827,24 +29807,24 @@
       <c r="C28" s="80" t="s">
         <v>924</v>
       </c>
-      <c r="D28" s="149" t="s">
+      <c r="D28" s="148" t="s">
         <v>925</v>
       </c>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149" t="s">
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
-      <c r="N28" s="149"/>
-      <c r="O28" s="149"/>
-      <c r="P28" s="149"/>
-      <c r="Q28" s="149"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+      <c r="N28" s="148"/>
+      <c r="O28" s="148"/>
+      <c r="P28" s="148"/>
+      <c r="Q28" s="148"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C29" s="50">
@@ -29896,24 +29876,24 @@
       <c r="C35" s="80" t="s">
         <v>924</v>
       </c>
-      <c r="D35" s="149" t="s">
+      <c r="D35" s="148" t="s">
         <v>925</v>
       </c>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149" t="s">
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
-      <c r="N35" s="149"/>
-      <c r="O35" s="149"/>
-      <c r="P35" s="149"/>
-      <c r="Q35" s="149"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
+      <c r="N35" s="148"/>
+      <c r="O35" s="148"/>
+      <c r="P35" s="148"/>
+      <c r="Q35" s="148"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C36" s="49">
@@ -29975,24 +29955,24 @@
       <c r="C42" s="80" t="s">
         <v>924</v>
       </c>
-      <c r="D42" s="149" t="s">
+      <c r="D42" s="148" t="s">
         <v>925</v>
       </c>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149" t="s">
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
-      <c r="N42" s="149"/>
-      <c r="O42" s="149"/>
-      <c r="P42" s="149"/>
-      <c r="Q42" s="149"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
+      <c r="N42" s="148"/>
+      <c r="O42" s="148"/>
+      <c r="P42" s="148"/>
+      <c r="Q42" s="148"/>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C43" s="49">
@@ -30075,24 +30055,24 @@
       <c r="C50" s="80" t="s">
         <v>924</v>
       </c>
-      <c r="D50" s="149" t="s">
+      <c r="D50" s="148" t="s">
         <v>925</v>
       </c>
-      <c r="E50" s="149"/>
-      <c r="F50" s="149"/>
-      <c r="G50" s="149"/>
-      <c r="H50" s="149" t="s">
+      <c r="E50" s="148"/>
+      <c r="F50" s="148"/>
+      <c r="G50" s="148"/>
+      <c r="H50" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="I50" s="149"/>
-      <c r="J50" s="149"/>
-      <c r="K50" s="149"/>
-      <c r="L50" s="149"/>
-      <c r="M50" s="149"/>
-      <c r="N50" s="149"/>
-      <c r="O50" s="149"/>
-      <c r="P50" s="149"/>
-      <c r="Q50" s="149"/>
+      <c r="I50" s="148"/>
+      <c r="J50" s="148"/>
+      <c r="K50" s="148"/>
+      <c r="L50" s="148"/>
+      <c r="M50" s="148"/>
+      <c r="N50" s="148"/>
+      <c r="O50" s="148"/>
+      <c r="P50" s="148"/>
+      <c r="Q50" s="148"/>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C51" s="65">
@@ -30497,10 +30477,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA9DBA0-2246-4C3A-80ED-646269B04D10}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -30523,59 +30503,89 @@
       <c r="E1" s="117"/>
       <c r="F1" s="118"/>
     </row>
-    <row r="2" spans="1:6" s="119" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="119" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="119" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="135" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="122" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="120" t="s">
+    <row r="2" spans="1:6" s="122" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="120" t="s">
         <v>1390</v>
       </c>
-      <c r="B4" s="121" t="s">
+      <c r="B2" s="121" t="s">
         <v>1391</v>
       </c>
-      <c r="C4" s="121" t="s">
+      <c r="C2" s="121" t="s">
         <v>1392</v>
       </c>
-      <c r="D4" s="121" t="s">
+      <c r="D2" s="121" t="s">
         <v>1393</v>
       </c>
-      <c r="E4" s="121" t="s">
+      <c r="E2" s="121" t="s">
         <v>1394</v>
       </c>
-      <c r="F4" s="120" t="s">
+      <c r="F2" s="120" t="s">
         <v>1395</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="122" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="122" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="123">
+        <v>1</v>
+      </c>
+      <c r="B3" s="124" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C3" s="125">
+        <v>43328</v>
+      </c>
+      <c r="D3" s="124" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E3" s="126" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F3" s="127" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="122" customFormat="1" ht="45" x14ac:dyDescent="0.35">
+      <c r="A4" s="128">
+        <v>2</v>
+      </c>
+      <c r="B4" s="129" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C4" s="132">
+        <v>44651</v>
+      </c>
+      <c r="D4" s="133" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E4" s="130" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F4" s="131" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="122" customFormat="1" ht="60" x14ac:dyDescent="0.35">
       <c r="A5" s="123">
-        <v>1</v>
-      </c>
-      <c r="B5" s="124" t="s">
-        <v>1396</v>
-      </c>
-      <c r="C5" s="125">
-        <v>43328</v>
-      </c>
-      <c r="D5" s="124" t="s">
-        <v>1397</v>
-      </c>
-      <c r="E5" s="126" t="s">
-        <v>1398</v>
-      </c>
-      <c r="F5" s="127" t="s">
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="122" customFormat="1" ht="45" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="B5" s="129" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C5" s="132">
+        <v>44651</v>
+      </c>
+      <c r="D5" s="133" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E5" s="130" t="s">
+        <v>1448</v>
+      </c>
+      <c r="F5" s="131" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="122" customFormat="1" ht="60" x14ac:dyDescent="0.35">
       <c r="A6" s="128">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" s="129" t="s">
         <v>1407</v>
@@ -30587,15 +30597,15 @@
         <v>1400</v>
       </c>
       <c r="E6" s="130" t="s">
-        <v>1425</v>
+        <v>1449</v>
       </c>
       <c r="F6" s="131" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="122" customFormat="1" ht="60" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="122" customFormat="1" ht="45" x14ac:dyDescent="0.35">
       <c r="A7" s="123">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" s="129" t="s">
         <v>1407</v>
@@ -30607,15 +30617,15 @@
         <v>1400</v>
       </c>
       <c r="E7" s="130" t="s">
-        <v>1450</v>
+        <v>1404</v>
       </c>
       <c r="F7" s="131" t="s">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="122" customFormat="1" ht="60" x14ac:dyDescent="0.35">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="122" customFormat="1" ht="45" x14ac:dyDescent="0.35">
       <c r="A8" s="128">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" s="129" t="s">
         <v>1407</v>
@@ -30627,15 +30637,15 @@
         <v>1400</v>
       </c>
       <c r="E8" s="130" t="s">
-        <v>1451</v>
+        <v>1406</v>
       </c>
       <c r="F8" s="131" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="122" customFormat="1" ht="45" x14ac:dyDescent="0.35">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="122" customFormat="1" ht="60" x14ac:dyDescent="0.35">
       <c r="A9" s="123">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9" s="129" t="s">
         <v>1407</v>
@@ -30647,15 +30657,15 @@
         <v>1400</v>
       </c>
       <c r="E9" s="130" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="F9" s="131" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="122" customFormat="1" ht="45" x14ac:dyDescent="0.35">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="122" customFormat="1" ht="60" x14ac:dyDescent="0.35">
       <c r="A10" s="128">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10" s="129" t="s">
         <v>1407</v>
@@ -30667,15 +30677,15 @@
         <v>1400</v>
       </c>
       <c r="E10" s="130" t="s">
-        <v>1406</v>
+        <v>1409</v>
       </c>
       <c r="F10" s="131" t="s">
-        <v>1452</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="122" customFormat="1" ht="60" x14ac:dyDescent="0.35">
       <c r="A11" s="123">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11" s="129" t="s">
         <v>1407</v>
@@ -30687,55 +30697,55 @@
         <v>1400</v>
       </c>
       <c r="E11" s="130" t="s">
-        <v>1408</v>
+        <v>1411</v>
       </c>
       <c r="F11" s="131" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="122" customFormat="1" ht="60" x14ac:dyDescent="0.35">
       <c r="A12" s="128">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B12" s="129" t="s">
-        <v>1407</v>
+        <v>1413</v>
       </c>
       <c r="C12" s="132">
-        <v>44651</v>
+        <v>45016</v>
       </c>
       <c r="D12" s="133" t="s">
         <v>1400</v>
       </c>
       <c r="E12" s="130" t="s">
-        <v>1409</v>
+        <v>1451</v>
       </c>
       <c r="F12" s="131" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="122" customFormat="1" ht="60" x14ac:dyDescent="0.35">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="122" customFormat="1" ht="30" x14ac:dyDescent="0.35">
       <c r="A13" s="123">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13" s="129" t="s">
-        <v>1407</v>
+        <v>1413</v>
       </c>
       <c r="C13" s="132">
-        <v>44651</v>
+        <v>45016</v>
       </c>
       <c r="D13" s="133" t="s">
         <v>1400</v>
       </c>
       <c r="E13" s="130" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="F13" s="131" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="122" customFormat="1" ht="60" x14ac:dyDescent="0.35">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="122" customFormat="1" ht="45" x14ac:dyDescent="0.35">
       <c r="A14" s="128">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14" s="129" t="s">
         <v>1413</v>
@@ -30747,99 +30757,56 @@
         <v>1400</v>
       </c>
       <c r="E14" s="130" t="s">
-        <v>1453</v>
+        <v>1417</v>
       </c>
       <c r="F14" s="131" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="122" customFormat="1" ht="30" x14ac:dyDescent="0.35">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="122" customFormat="1" ht="45" x14ac:dyDescent="0.35">
       <c r="A15" s="123">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B15" s="129" t="s">
-        <v>1413</v>
+        <v>1420</v>
       </c>
       <c r="C15" s="132">
-        <v>45016</v>
+        <v>45394</v>
       </c>
       <c r="D15" s="133" t="s">
         <v>1400</v>
       </c>
       <c r="E15" s="130" t="s">
-        <v>1412</v>
+        <v>1452</v>
       </c>
       <c r="F15" s="131" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="122" customFormat="1" ht="45" x14ac:dyDescent="0.35">
       <c r="A16" s="128">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B16" s="129" t="s">
-        <v>1413</v>
+        <v>1420</v>
       </c>
       <c r="C16" s="132">
-        <v>45016</v>
+        <v>45394</v>
       </c>
       <c r="D16" s="133" t="s">
         <v>1400</v>
       </c>
       <c r="E16" s="130" t="s">
-        <v>1417</v>
+        <v>1453</v>
       </c>
       <c r="F16" s="131" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="122" customFormat="1" ht="45" x14ac:dyDescent="0.35">
-      <c r="A17" s="123">
-        <v>13</v>
-      </c>
-      <c r="B17" s="129" t="s">
         <v>1422</v>
-      </c>
-      <c r="C17" s="132">
-        <v>45394</v>
-      </c>
-      <c r="D17" s="133" t="s">
-        <v>1400</v>
-      </c>
-      <c r="E17" s="130" t="s">
-        <v>1454</v>
-      </c>
-      <c r="F17" s="131" t="s">
-        <v>1423</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="122" customFormat="1" ht="45" x14ac:dyDescent="0.35">
-      <c r="A18" s="128">
-        <v>14</v>
-      </c>
-      <c r="B18" s="129" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C18" s="132">
-        <v>45394</v>
-      </c>
-      <c r="D18" s="133" t="s">
-        <v>1400</v>
-      </c>
-      <c r="E18" s="130" t="s">
-        <v>1455</v>
-      </c>
-      <c r="F18" s="131" t="s">
-        <v>1424</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{5751A7F8-C241-4534-9C1B-759D3CB59C7B}"/>
-  </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="6" max="1048575" man="1"/>
   </colBreaks>
@@ -30878,24 +30845,24 @@
       <c r="C4" s="80" t="s">
         <v>924</v>
       </c>
-      <c r="D4" s="149" t="s">
+      <c r="D4" s="148" t="s">
         <v>925</v>
       </c>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149" t="s">
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="149"/>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
-      <c r="M4" s="149"/>
-      <c r="N4" s="149"/>
-      <c r="O4" s="149"/>
-      <c r="P4" s="149"/>
-      <c r="Q4" s="149"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="148"/>
+      <c r="N4" s="148"/>
+      <c r="O4" s="148"/>
+      <c r="P4" s="148"/>
+      <c r="Q4" s="148"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C5" s="49">
@@ -31398,24 +31365,24 @@
       <c r="C4" s="80" t="s">
         <v>924</v>
       </c>
-      <c r="D4" s="149" t="s">
+      <c r="D4" s="148" t="s">
         <v>925</v>
       </c>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149" t="s">
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="149"/>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
-      <c r="M4" s="149"/>
-      <c r="N4" s="149"/>
-      <c r="O4" s="149"/>
-      <c r="P4" s="149"/>
-      <c r="Q4" s="149"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="148"/>
+      <c r="N4" s="148"/>
+      <c r="O4" s="148"/>
+      <c r="P4" s="148"/>
+      <c r="Q4" s="148"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C5" s="50">
@@ -31535,24 +31502,24 @@
       <c r="C17" s="80" t="s">
         <v>924</v>
       </c>
-      <c r="D17" s="149" t="s">
+      <c r="D17" s="148" t="s">
         <v>925</v>
       </c>
-      <c r="E17" s="149"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="149"/>
-      <c r="H17" s="149" t="s">
+      <c r="E17" s="148"/>
+      <c r="F17" s="148"/>
+      <c r="G17" s="148"/>
+      <c r="H17" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="I17" s="149"/>
-      <c r="J17" s="149"/>
-      <c r="K17" s="149"/>
-      <c r="L17" s="149"/>
-      <c r="M17" s="149"/>
-      <c r="N17" s="149"/>
-      <c r="O17" s="149"/>
-      <c r="P17" s="149"/>
-      <c r="Q17" s="149"/>
+      <c r="I17" s="148"/>
+      <c r="J17" s="148"/>
+      <c r="K17" s="148"/>
+      <c r="L17" s="148"/>
+      <c r="M17" s="148"/>
+      <c r="N17" s="148"/>
+      <c r="O17" s="148"/>
+      <c r="P17" s="148"/>
+      <c r="Q17" s="148"/>
     </row>
     <row r="18" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C18" s="49">
@@ -32181,25 +32148,25 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B4" s="142" t="s">
+      <c r="B4" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="143"/>
-      <c r="D4" s="141" t="s">
+      <c r="C4" s="142"/>
+      <c r="D4" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="140"/>
+      <c r="I4" s="140"/>
       <c r="K4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B5" s="144"/>
-      <c r="C5" s="145"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="144"/>
       <c r="D5" s="48" t="s">
         <v>9</v>
       </c>
@@ -32227,10 +32194,10 @@
       <c r="M5" s="56"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B6" s="146" t="s">
+      <c r="B6" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="147"/>
+      <c r="C6" s="146"/>
       <c r="D6" s="63" t="s">
         <v>18</v>
       </c>
@@ -32258,10 +32225,10 @@
       <c r="M6" s="57"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B7" s="146" t="s">
+      <c r="B7" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="147"/>
+      <c r="C7" s="146"/>
       <c r="D7" s="63" t="s">
         <v>18</v>
       </c>
@@ -32289,10 +32256,10 @@
       <c r="M7" s="57"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B8" s="146" t="s">
+      <c r="B8" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="147"/>
+      <c r="C8" s="146"/>
       <c r="D8" s="63" t="s">
         <v>18</v>
       </c>
@@ -32313,10 +32280,10 @@
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B9" s="146" t="s">
+      <c r="B9" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="147"/>
+      <c r="C9" s="146"/>
       <c r="D9" s="63" t="s">
         <v>18</v>
       </c>
@@ -32337,10 +32304,10 @@
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B10" s="146" t="s">
+      <c r="B10" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="147"/>
+      <c r="C10" s="146"/>
       <c r="D10" s="63" t="s">
         <v>18</v>
       </c>
@@ -32361,10 +32328,10 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B11" s="146" t="s">
+      <c r="B11" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="147"/>
+      <c r="C11" s="146"/>
       <c r="D11" s="63" t="s">
         <v>18</v>
       </c>
@@ -32385,10 +32352,10 @@
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B12" s="146" t="s">
+      <c r="B12" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="147"/>
+      <c r="C12" s="146"/>
       <c r="D12" s="63" t="s">
         <v>18</v>
       </c>
@@ -32409,10 +32376,10 @@
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B13" s="146" t="s">
+      <c r="B13" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="147"/>
+      <c r="C13" s="146"/>
       <c r="D13" s="63" t="s">
         <v>18</v>
       </c>
@@ -32433,10 +32400,10 @@
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B14" s="146" t="s">
+      <c r="B14" s="145" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="147"/>
+      <c r="C14" s="146"/>
       <c r="D14" s="63" t="s">
         <v>18</v>
       </c>
@@ -32457,10 +32424,10 @@
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B15" s="146" t="s">
+      <c r="B15" s="145" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="147"/>
+      <c r="C15" s="146"/>
       <c r="D15" s="63" t="s">
         <v>20</v>
       </c>
@@ -32481,10 +32448,10 @@
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B16" s="146" t="s">
+      <c r="B16" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="147"/>
+      <c r="C16" s="146"/>
       <c r="D16" s="63" t="s">
         <v>18</v>
       </c>
@@ -32505,10 +32472,10 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B17" s="146" t="s">
+      <c r="B17" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="147"/>
+      <c r="C17" s="146"/>
       <c r="D17" s="83" t="s">
         <v>23</v>
       </c>
@@ -32950,7 +32917,7 @@
       <c r="C11" s="42"/>
       <c r="D11" s="42"/>
       <c r="E11" s="13"/>
-      <c r="F11" s="136"/>
+      <c r="F11" s="135"/>
       <c r="G11" s="40" t="s">
         <v>94</v>
       </c>
@@ -32968,16 +32935,16 @@
       <c r="C12" s="42"/>
       <c r="D12" s="42"/>
       <c r="E12" s="13"/>
-      <c r="F12" s="136"/>
+      <c r="F12" s="135"/>
       <c r="G12" s="40" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="H12" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="I12" s="136"/>
+      <c r="I12" s="135"/>
       <c r="J12" s="40" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="13" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -34967,7 +34934,7 @@
         <f t="shared" ref="B116:B183" si="2">ROW()-ROW($B$114)</f>
         <v>2</v>
       </c>
-      <c r="C116" s="148" t="s">
+      <c r="C116" s="147" t="s">
         <v>280</v>
       </c>
       <c r="D116" s="13"/>
@@ -34989,7 +34956,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="C117" s="148"/>
+      <c r="C117" s="147"/>
       <c r="D117" s="13"/>
       <c r="E117" s="79"/>
       <c r="F117" s="42"/>
@@ -35369,7 +35336,7 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="C136" s="148" t="s">
+      <c r="C136" s="147" t="s">
         <v>312</v>
       </c>
       <c r="D136" s="13"/>
@@ -35391,7 +35358,7 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="C137" s="148"/>
+      <c r="C137" s="147"/>
       <c r="D137" s="13"/>
       <c r="E137" s="79"/>
       <c r="F137" s="79"/>
@@ -40492,7 +40459,7 @@
       </c>
     </row>
     <row r="92" spans="2:10" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.35">
-      <c r="B92" s="139">
+      <c r="B92" s="138">
         <f t="shared" ref="B92:B98" si="2">ROW()-ROW($B$4)</f>
         <v>88</v>
       </c>
@@ -40509,139 +40476,139 @@
         <v>131</v>
       </c>
       <c r="G92" s="36" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="H92" s="15" t="s">
         <v>527</v>
       </c>
       <c r="I92" s="15" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="J92" s="15"/>
     </row>
     <row r="93" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="139">
+      <c r="B93" s="138">
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
-      <c r="C93" s="137" t="s">
+      <c r="C93" s="136" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D93" s="136" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E93" s="136" t="s">
+        <v>131</v>
+      </c>
+      <c r="F93" s="136" t="s">
+        <v>131</v>
+      </c>
+      <c r="G93" s="15" t="s">
         <v>1430</v>
-      </c>
-      <c r="D93" s="137" t="s">
-        <v>1431</v>
-      </c>
-      <c r="E93" s="137" t="s">
-        <v>131</v>
-      </c>
-      <c r="F93" s="137" t="s">
-        <v>131</v>
-      </c>
-      <c r="G93" s="15" t="s">
-        <v>1432</v>
       </c>
       <c r="H93" s="36" t="s">
         <v>681</v>
       </c>
-      <c r="I93" s="137" t="s">
+      <c r="I93" s="136" t="s">
         <v>648</v>
       </c>
-      <c r="J93" s="137"/>
+      <c r="J93" s="136"/>
     </row>
     <row r="94" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="139">
+      <c r="B94" s="138">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="C94" s="136"/>
-      <c r="D94" s="136"/>
-      <c r="E94" s="136"/>
-      <c r="F94" s="136"/>
+      <c r="C94" s="135"/>
+      <c r="D94" s="135"/>
+      <c r="E94" s="135"/>
+      <c r="F94" s="135"/>
       <c r="G94" s="15" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="H94" s="36" t="s">
         <v>681</v>
       </c>
-      <c r="I94" s="136" t="s">
+      <c r="I94" s="135" t="s">
         <v>648</v>
       </c>
-      <c r="J94" s="136"/>
+      <c r="J94" s="135"/>
     </row>
     <row r="95" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="139">
+      <c r="B95" s="138">
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
-      <c r="C95" s="138"/>
-      <c r="D95" s="138"/>
-      <c r="E95" s="138"/>
-      <c r="F95" s="138"/>
+      <c r="C95" s="137"/>
+      <c r="D95" s="137"/>
+      <c r="E95" s="137"/>
+      <c r="F95" s="137"/>
       <c r="G95" s="15" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="H95" s="36" t="s">
         <v>681</v>
       </c>
-      <c r="I95" s="138" t="s">
+      <c r="I95" s="137" t="s">
         <v>390</v>
       </c>
-      <c r="J95" s="138"/>
+      <c r="J95" s="137"/>
     </row>
     <row r="96" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="139">
+      <c r="B96" s="138">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="C96" s="137" t="s">
+      <c r="C96" s="136" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D96" s="136" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E96" s="136" t="s">
+        <v>131</v>
+      </c>
+      <c r="F96" s="136" t="s">
+        <v>131</v>
+      </c>
+      <c r="G96" s="15" t="s">
         <v>1435</v>
-      </c>
-      <c r="D96" s="137" t="s">
-        <v>1436</v>
-      </c>
-      <c r="E96" s="137" t="s">
-        <v>131</v>
-      </c>
-      <c r="F96" s="137" t="s">
-        <v>131</v>
-      </c>
-      <c r="G96" s="15" t="s">
-        <v>1437</v>
       </c>
       <c r="H96" s="36" t="s">
         <v>681</v>
       </c>
-      <c r="I96" s="137" t="s">
-        <v>1438</v>
-      </c>
-      <c r="J96" s="137"/>
+      <c r="I96" s="136" t="s">
+        <v>1436</v>
+      </c>
+      <c r="J96" s="136"/>
     </row>
     <row r="97" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B97" s="139">
+      <c r="B97" s="138">
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="C97" s="136"/>
-      <c r="D97" s="136"/>
-      <c r="E97" s="138"/>
-      <c r="F97" s="138"/>
+      <c r="C97" s="135"/>
+      <c r="D97" s="135"/>
+      <c r="E97" s="137"/>
+      <c r="F97" s="137"/>
       <c r="G97" s="15" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="H97" s="36" t="s">
         <v>681</v>
       </c>
-      <c r="I97" s="136" t="s">
+      <c r="I97" s="135" t="s">
         <v>648</v>
       </c>
-      <c r="J97" s="136"/>
+      <c r="J97" s="135"/>
     </row>
     <row r="98" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="139">
+      <c r="B98" s="138">
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="C98" s="138"/>
-      <c r="D98" s="138"/>
+      <c r="C98" s="137"/>
+      <c r="D98" s="137"/>
       <c r="E98" s="15" t="s">
         <v>1139</v>
       </c>
@@ -40649,15 +40616,15 @@
         <v>131</v>
       </c>
       <c r="G98" s="15" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="H98" s="36" t="s">
         <v>681</v>
       </c>
-      <c r="I98" s="138" t="s">
+      <c r="I98" s="137" t="s">
         <v>390</v>
       </c>
-      <c r="J98" s="138"/>
+      <c r="J98" s="137"/>
     </row>
     <row r="99" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="100" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -43529,7 +43496,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="136"/>
+      <c r="D18" s="135"/>
       <c r="E18" s="13"/>
       <c r="F18" s="79"/>
       <c r="G18" s="26" t="s">
@@ -43546,7 +43513,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="136"/>
+      <c r="D19" s="135"/>
       <c r="E19" s="14"/>
       <c r="F19" s="40"/>
       <c r="G19" s="41" t="s">
@@ -43555,30 +43522,30 @@
       <c r="H19" s="41" t="s">
         <v>841</v>
       </c>
-      <c r="I19" s="136"/>
+      <c r="I19" s="135"/>
       <c r="J19" s="41"/>
     </row>
     <row r="20" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="139">
+      <c r="B20" s="138">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C20" s="138"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="138" t="s">
-        <v>1441</v>
-      </c>
-      <c r="F20" s="138" t="s">
+      <c r="C20" s="137"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="137" t="s">
+        <v>1439</v>
+      </c>
+      <c r="F20" s="137" t="s">
         <v>131</v>
       </c>
-      <c r="G20" s="138" t="s">
-        <v>1442</v>
-      </c>
-      <c r="H20" s="138" t="s">
+      <c r="G20" s="137" t="s">
+        <v>1440</v>
+      </c>
+      <c r="H20" s="137" t="s">
         <v>841</v>
       </c>
-      <c r="I20" s="138"/>
-      <c r="J20" s="138"/>
+      <c r="I20" s="137"/>
+      <c r="J20" s="137"/>
     </row>
     <row r="21" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="48" spans="7:7" x14ac:dyDescent="0.35">

--- a/docs/テスト観点カタログ.xlsx
+++ b/docs/テスト観点カタログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFA71F8-364B-4919-B28A-B5D8D6ED2DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CB94EC-F87D-41CA-99E3-6F3270A95859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21454,9 +21454,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -21466,6 +21505,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -21474,54 +21522,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="561">
@@ -28094,35 +28094,35 @@
       <c r="C4" s="62" t="s">
         <v>924</v>
       </c>
-      <c r="D4" s="152" t="s">
+      <c r="D4" s="162" t="s">
         <v>1148</v>
       </c>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152" t="s">
+      <c r="E4" s="162"/>
+      <c r="F4" s="162"/>
+      <c r="G4" s="162"/>
+      <c r="H4" s="162" t="s">
         <v>1149</v>
       </c>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="152"/>
-      <c r="L4" s="152"/>
-      <c r="M4" s="152"/>
-      <c r="N4" s="152"/>
-      <c r="O4" s="152"/>
-      <c r="P4" s="152"/>
-      <c r="Q4" s="152"/>
+      <c r="I4" s="162"/>
+      <c r="J4" s="162"/>
+      <c r="K4" s="162"/>
+      <c r="L4" s="162"/>
+      <c r="M4" s="162"/>
+      <c r="N4" s="162"/>
+      <c r="O4" s="162"/>
+      <c r="P4" s="162"/>
+      <c r="Q4" s="162"/>
     </row>
     <row r="5" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="61">
         <v>1</v>
       </c>
-      <c r="D5" s="153" t="s">
+      <c r="D5" s="166" t="s">
         <v>1150</v>
       </c>
-      <c r="E5" s="154"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="155"/>
+      <c r="E5" s="167"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="168"/>
       <c r="H5" s="151" t="s">
         <v>1151</v>
       </c>
@@ -28140,10 +28140,10 @@
       <c r="C6" s="61">
         <v>2</v>
       </c>
-      <c r="D6" s="156"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="158"/>
+      <c r="D6" s="172"/>
+      <c r="E6" s="173"/>
+      <c r="F6" s="173"/>
+      <c r="G6" s="174"/>
       <c r="H6" s="151" t="s">
         <v>1152</v>
       </c>
@@ -28166,35 +28166,35 @@
       <c r="C10" s="62" t="s">
         <v>924</v>
       </c>
-      <c r="D10" s="152" t="s">
+      <c r="D10" s="162" t="s">
         <v>1148</v>
       </c>
-      <c r="E10" s="152"/>
-      <c r="F10" s="152"/>
-      <c r="G10" s="152"/>
-      <c r="H10" s="152" t="s">
+      <c r="E10" s="162"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="162"/>
+      <c r="H10" s="162" t="s">
         <v>1149</v>
       </c>
-      <c r="I10" s="152"/>
-      <c r="J10" s="152"/>
-      <c r="K10" s="152"/>
-      <c r="L10" s="152"/>
-      <c r="M10" s="152"/>
-      <c r="N10" s="152"/>
-      <c r="O10" s="152"/>
-      <c r="P10" s="152"/>
-      <c r="Q10" s="152"/>
+      <c r="I10" s="162"/>
+      <c r="J10" s="162"/>
+      <c r="K10" s="162"/>
+      <c r="L10" s="162"/>
+      <c r="M10" s="162"/>
+      <c r="N10" s="162"/>
+      <c r="O10" s="162"/>
+      <c r="P10" s="162"/>
+      <c r="Q10" s="162"/>
     </row>
     <row r="11" spans="2:17" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" s="61">
         <v>1</v>
       </c>
-      <c r="D11" s="153" t="s">
+      <c r="D11" s="166" t="s">
         <v>1154</v>
       </c>
-      <c r="E11" s="154"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="155"/>
+      <c r="E11" s="167"/>
+      <c r="F11" s="167"/>
+      <c r="G11" s="168"/>
       <c r="H11" s="151" t="s">
         <v>1155</v>
       </c>
@@ -28212,10 +28212,10 @@
       <c r="C12" s="61">
         <v>2</v>
       </c>
-      <c r="D12" s="163"/>
-      <c r="E12" s="164"/>
-      <c r="F12" s="164"/>
-      <c r="G12" s="165"/>
+      <c r="D12" s="169"/>
+      <c r="E12" s="170"/>
+      <c r="F12" s="170"/>
+      <c r="G12" s="171"/>
       <c r="H12" s="151" t="s">
         <v>1156</v>
       </c>
@@ -28233,87 +28233,87 @@
       <c r="C13" s="61">
         <v>3</v>
       </c>
-      <c r="D13" s="156"/>
-      <c r="E13" s="157"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="158"/>
+      <c r="D13" s="172"/>
+      <c r="E13" s="173"/>
+      <c r="F13" s="173"/>
+      <c r="G13" s="174"/>
       <c r="H13" s="151" t="s">
         <v>1157</v>
       </c>
-      <c r="I13" s="159"/>
-      <c r="J13" s="159"/>
-      <c r="K13" s="159"/>
-      <c r="L13" s="159"/>
-      <c r="M13" s="159"/>
-      <c r="N13" s="159"/>
-      <c r="O13" s="159"/>
-      <c r="P13" s="159"/>
-      <c r="Q13" s="159"/>
+      <c r="I13" s="152"/>
+      <c r="J13" s="152"/>
+      <c r="K13" s="152"/>
+      <c r="L13" s="152"/>
+      <c r="M13" s="152"/>
+      <c r="N13" s="152"/>
+      <c r="O13" s="152"/>
+      <c r="P13" s="152"/>
+      <c r="Q13" s="152"/>
     </row>
     <row r="14" spans="2:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C14" s="61">
         <v>4</v>
       </c>
-      <c r="D14" s="166" t="s">
+      <c r="D14" s="153" t="s">
         <v>1158</v>
       </c>
-      <c r="E14" s="167"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="168"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="155"/>
       <c r="H14" s="151" t="s">
         <v>1159</v>
       </c>
-      <c r="I14" s="159"/>
-      <c r="J14" s="159"/>
-      <c r="K14" s="159"/>
-      <c r="L14" s="159"/>
-      <c r="M14" s="159"/>
-      <c r="N14" s="159"/>
-      <c r="O14" s="159"/>
-      <c r="P14" s="159"/>
-      <c r="Q14" s="159"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="152"/>
+      <c r="K14" s="152"/>
+      <c r="L14" s="152"/>
+      <c r="M14" s="152"/>
+      <c r="N14" s="152"/>
+      <c r="O14" s="152"/>
+      <c r="P14" s="152"/>
+      <c r="Q14" s="152"/>
     </row>
     <row r="15" spans="2:17" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C15" s="61">
         <v>5</v>
       </c>
-      <c r="D15" s="169"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="170"/>
-      <c r="G15" s="171"/>
-      <c r="H15" s="159" t="s">
+      <c r="D15" s="156"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="152" t="s">
         <v>1160</v>
       </c>
-      <c r="I15" s="159"/>
-      <c r="J15" s="159"/>
-      <c r="K15" s="159"/>
-      <c r="L15" s="159"/>
-      <c r="M15" s="159"/>
-      <c r="N15" s="159"/>
-      <c r="O15" s="159"/>
-      <c r="P15" s="159"/>
-      <c r="Q15" s="159"/>
+      <c r="I15" s="152"/>
+      <c r="J15" s="152"/>
+      <c r="K15" s="152"/>
+      <c r="L15" s="152"/>
+      <c r="M15" s="152"/>
+      <c r="N15" s="152"/>
+      <c r="O15" s="152"/>
+      <c r="P15" s="152"/>
+      <c r="Q15" s="152"/>
     </row>
     <row r="16" spans="2:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C16" s="61">
         <v>6</v>
       </c>
-      <c r="D16" s="172"/>
-      <c r="E16" s="173"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="174"/>
-      <c r="H16" s="160" t="s">
+      <c r="D16" s="159"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="160"/>
+      <c r="G16" s="161"/>
+      <c r="H16" s="163" t="s">
         <v>1161</v>
       </c>
-      <c r="I16" s="161"/>
-      <c r="J16" s="161"/>
-      <c r="K16" s="161"/>
-      <c r="L16" s="161"/>
-      <c r="M16" s="161"/>
-      <c r="N16" s="161"/>
-      <c r="O16" s="161"/>
-      <c r="P16" s="161"/>
-      <c r="Q16" s="162"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="164"/>
+      <c r="K16" s="164"/>
+      <c r="L16" s="164"/>
+      <c r="M16" s="164"/>
+      <c r="N16" s="164"/>
+      <c r="O16" s="164"/>
+      <c r="P16" s="164"/>
+      <c r="Q16" s="165"/>
     </row>
     <row r="17" spans="3:17" ht="161.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="61">
@@ -28322,9 +28322,9 @@
       <c r="D17" s="151" t="s">
         <v>1162</v>
       </c>
-      <c r="E17" s="159"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="159"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="152"/>
       <c r="H17" s="151" t="s">
         <v>1163</v>
       </c>
@@ -28345,24 +28345,36 @@
       <c r="D18" s="151" t="s">
         <v>1164</v>
       </c>
-      <c r="E18" s="159"/>
-      <c r="F18" s="159"/>
-      <c r="G18" s="159"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
       <c r="H18" s="151" t="s">
         <v>1165</v>
       </c>
-      <c r="I18" s="159"/>
-      <c r="J18" s="159"/>
-      <c r="K18" s="159"/>
-      <c r="L18" s="159"/>
-      <c r="M18" s="159"/>
-      <c r="N18" s="159"/>
-      <c r="O18" s="159"/>
-      <c r="P18" s="159"/>
-      <c r="Q18" s="159"/>
+      <c r="I18" s="152"/>
+      <c r="J18" s="152"/>
+      <c r="K18" s="152"/>
+      <c r="L18" s="152"/>
+      <c r="M18" s="152"/>
+      <c r="N18" s="152"/>
+      <c r="O18" s="152"/>
+      <c r="P18" s="152"/>
+      <c r="Q18" s="152"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="H5:Q5"/>
+    <mergeCell ref="H4:Q4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H6:Q6"/>
+    <mergeCell ref="D5:G6"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:Q10"/>
+    <mergeCell ref="H14:Q14"/>
+    <mergeCell ref="H15:Q15"/>
+    <mergeCell ref="H16:Q16"/>
+    <mergeCell ref="D11:G13"/>
+    <mergeCell ref="H11:Q11"/>
     <mergeCell ref="H17:Q17"/>
     <mergeCell ref="D17:G17"/>
     <mergeCell ref="H18:Q18"/>
@@ -28370,18 +28382,6 @@
     <mergeCell ref="H12:Q12"/>
     <mergeCell ref="H13:Q13"/>
     <mergeCell ref="D14:G16"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H10:Q10"/>
-    <mergeCell ref="H14:Q14"/>
-    <mergeCell ref="H15:Q15"/>
-    <mergeCell ref="H16:Q16"/>
-    <mergeCell ref="D11:G13"/>
-    <mergeCell ref="H11:Q11"/>
-    <mergeCell ref="H5:Q5"/>
-    <mergeCell ref="H4:Q4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H6:Q6"/>
-    <mergeCell ref="D5:G6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/docs/テスト観点カタログ.xlsx
+++ b/docs/テスト観点カタログ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CB94EC-F87D-41CA-99E3-6F3270A95859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA990CC-1CA5-4B44-A2C9-559BE5C37AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="48" r:id="rId1"/>
@@ -21454,9 +21454,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -21483,45 +21522,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="561">
@@ -22569,7 +22569,7 @@
   </sheetPr>
   <dimension ref="A1:AI510"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
   <cols>
@@ -26238,9 +26238,7 @@
   </sheetPr>
   <dimension ref="B1:J90"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A79" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
@@ -28094,35 +28092,35 @@
       <c r="C4" s="62" t="s">
         <v>924</v>
       </c>
-      <c r="D4" s="162" t="s">
+      <c r="D4" s="152" t="s">
         <v>1148</v>
       </c>
-      <c r="E4" s="162"/>
-      <c r="F4" s="162"/>
-      <c r="G4" s="162"/>
-      <c r="H4" s="162" t="s">
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152" t="s">
         <v>1149</v>
       </c>
-      <c r="I4" s="162"/>
-      <c r="J4" s="162"/>
-      <c r="K4" s="162"/>
-      <c r="L4" s="162"/>
-      <c r="M4" s="162"/>
-      <c r="N4" s="162"/>
-      <c r="O4" s="162"/>
-      <c r="P4" s="162"/>
-      <c r="Q4" s="162"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="152"/>
+      <c r="K4" s="152"/>
+      <c r="L4" s="152"/>
+      <c r="M4" s="152"/>
+      <c r="N4" s="152"/>
+      <c r="O4" s="152"/>
+      <c r="P4" s="152"/>
+      <c r="Q4" s="152"/>
     </row>
     <row r="5" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="61">
         <v>1</v>
       </c>
-      <c r="D5" s="166" t="s">
+      <c r="D5" s="153" t="s">
         <v>1150</v>
       </c>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="168"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="155"/>
       <c r="H5" s="151" t="s">
         <v>1151</v>
       </c>
@@ -28140,10 +28138,10 @@
       <c r="C6" s="61">
         <v>2</v>
       </c>
-      <c r="D6" s="172"/>
-      <c r="E6" s="173"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="174"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="158"/>
       <c r="H6" s="151" t="s">
         <v>1152</v>
       </c>
@@ -28166,35 +28164,35 @@
       <c r="C10" s="62" t="s">
         <v>924</v>
       </c>
-      <c r="D10" s="162" t="s">
+      <c r="D10" s="152" t="s">
         <v>1148</v>
       </c>
-      <c r="E10" s="162"/>
-      <c r="F10" s="162"/>
-      <c r="G10" s="162"/>
-      <c r="H10" s="162" t="s">
+      <c r="E10" s="152"/>
+      <c r="F10" s="152"/>
+      <c r="G10" s="152"/>
+      <c r="H10" s="152" t="s">
         <v>1149</v>
       </c>
-      <c r="I10" s="162"/>
-      <c r="J10" s="162"/>
-      <c r="K10" s="162"/>
-      <c r="L10" s="162"/>
-      <c r="M10" s="162"/>
-      <c r="N10" s="162"/>
-      <c r="O10" s="162"/>
-      <c r="P10" s="162"/>
-      <c r="Q10" s="162"/>
+      <c r="I10" s="152"/>
+      <c r="J10" s="152"/>
+      <c r="K10" s="152"/>
+      <c r="L10" s="152"/>
+      <c r="M10" s="152"/>
+      <c r="N10" s="152"/>
+      <c r="O10" s="152"/>
+      <c r="P10" s="152"/>
+      <c r="Q10" s="152"/>
     </row>
     <row r="11" spans="2:17" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" s="61">
         <v>1</v>
       </c>
-      <c r="D11" s="166" t="s">
+      <c r="D11" s="153" t="s">
         <v>1154</v>
       </c>
-      <c r="E11" s="167"/>
-      <c r="F11" s="167"/>
-      <c r="G11" s="168"/>
+      <c r="E11" s="154"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="155"/>
       <c r="H11" s="151" t="s">
         <v>1155</v>
       </c>
@@ -28212,10 +28210,10 @@
       <c r="C12" s="61">
         <v>2</v>
       </c>
-      <c r="D12" s="169"/>
-      <c r="E12" s="170"/>
-      <c r="F12" s="170"/>
-      <c r="G12" s="171"/>
+      <c r="D12" s="163"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="165"/>
       <c r="H12" s="151" t="s">
         <v>1156</v>
       </c>
@@ -28233,87 +28231,87 @@
       <c r="C13" s="61">
         <v>3</v>
       </c>
-      <c r="D13" s="172"/>
-      <c r="E13" s="173"/>
-      <c r="F13" s="173"/>
-      <c r="G13" s="174"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="158"/>
       <c r="H13" s="151" t="s">
         <v>1157</v>
       </c>
-      <c r="I13" s="152"/>
-      <c r="J13" s="152"/>
-      <c r="K13" s="152"/>
-      <c r="L13" s="152"/>
-      <c r="M13" s="152"/>
-      <c r="N13" s="152"/>
-      <c r="O13" s="152"/>
-      <c r="P13" s="152"/>
-      <c r="Q13" s="152"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="159"/>
+      <c r="K13" s="159"/>
+      <c r="L13" s="159"/>
+      <c r="M13" s="159"/>
+      <c r="N13" s="159"/>
+      <c r="O13" s="159"/>
+      <c r="P13" s="159"/>
+      <c r="Q13" s="159"/>
     </row>
     <row r="14" spans="2:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C14" s="61">
         <v>4</v>
       </c>
-      <c r="D14" s="153" t="s">
+      <c r="D14" s="166" t="s">
         <v>1158</v>
       </c>
-      <c r="E14" s="154"/>
-      <c r="F14" s="154"/>
-      <c r="G14" s="155"/>
+      <c r="E14" s="167"/>
+      <c r="F14" s="167"/>
+      <c r="G14" s="168"/>
       <c r="H14" s="151" t="s">
         <v>1159</v>
       </c>
-      <c r="I14" s="152"/>
-      <c r="J14" s="152"/>
-      <c r="K14" s="152"/>
-      <c r="L14" s="152"/>
-      <c r="M14" s="152"/>
-      <c r="N14" s="152"/>
-      <c r="O14" s="152"/>
-      <c r="P14" s="152"/>
-      <c r="Q14" s="152"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="159"/>
+      <c r="K14" s="159"/>
+      <c r="L14" s="159"/>
+      <c r="M14" s="159"/>
+      <c r="N14" s="159"/>
+      <c r="O14" s="159"/>
+      <c r="P14" s="159"/>
+      <c r="Q14" s="159"/>
     </row>
     <row r="15" spans="2:17" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C15" s="61">
         <v>5</v>
       </c>
-      <c r="D15" s="156"/>
-      <c r="E15" s="157"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="158"/>
-      <c r="H15" s="152" t="s">
+      <c r="D15" s="169"/>
+      <c r="E15" s="170"/>
+      <c r="F15" s="170"/>
+      <c r="G15" s="171"/>
+      <c r="H15" s="159" t="s">
         <v>1160</v>
       </c>
-      <c r="I15" s="152"/>
-      <c r="J15" s="152"/>
-      <c r="K15" s="152"/>
-      <c r="L15" s="152"/>
-      <c r="M15" s="152"/>
-      <c r="N15" s="152"/>
-      <c r="O15" s="152"/>
-      <c r="P15" s="152"/>
-      <c r="Q15" s="152"/>
+      <c r="I15" s="159"/>
+      <c r="J15" s="159"/>
+      <c r="K15" s="159"/>
+      <c r="L15" s="159"/>
+      <c r="M15" s="159"/>
+      <c r="N15" s="159"/>
+      <c r="O15" s="159"/>
+      <c r="P15" s="159"/>
+      <c r="Q15" s="159"/>
     </row>
     <row r="16" spans="2:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C16" s="61">
         <v>6</v>
       </c>
-      <c r="D16" s="159"/>
-      <c r="E16" s="160"/>
-      <c r="F16" s="160"/>
-      <c r="G16" s="161"/>
-      <c r="H16" s="163" t="s">
+      <c r="D16" s="172"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="160" t="s">
         <v>1161</v>
       </c>
-      <c r="I16" s="164"/>
-      <c r="J16" s="164"/>
-      <c r="K16" s="164"/>
-      <c r="L16" s="164"/>
-      <c r="M16" s="164"/>
-      <c r="N16" s="164"/>
-      <c r="O16" s="164"/>
-      <c r="P16" s="164"/>
-      <c r="Q16" s="165"/>
+      <c r="I16" s="161"/>
+      <c r="J16" s="161"/>
+      <c r="K16" s="161"/>
+      <c r="L16" s="161"/>
+      <c r="M16" s="161"/>
+      <c r="N16" s="161"/>
+      <c r="O16" s="161"/>
+      <c r="P16" s="161"/>
+      <c r="Q16" s="162"/>
     </row>
     <row r="17" spans="3:17" ht="161.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="61">
@@ -28322,9 +28320,9 @@
       <c r="D17" s="151" t="s">
         <v>1162</v>
       </c>
-      <c r="E17" s="152"/>
-      <c r="F17" s="152"/>
-      <c r="G17" s="152"/>
+      <c r="E17" s="159"/>
+      <c r="F17" s="159"/>
+      <c r="G17" s="159"/>
       <c r="H17" s="151" t="s">
         <v>1163</v>
       </c>
@@ -28345,29 +28343,31 @@
       <c r="D18" s="151" t="s">
         <v>1164</v>
       </c>
-      <c r="E18" s="152"/>
-      <c r="F18" s="152"/>
-      <c r="G18" s="152"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="159"/>
       <c r="H18" s="151" t="s">
         <v>1165</v>
       </c>
-      <c r="I18" s="152"/>
-      <c r="J18" s="152"/>
-      <c r="K18" s="152"/>
-      <c r="L18" s="152"/>
-      <c r="M18" s="152"/>
-      <c r="N18" s="152"/>
-      <c r="O18" s="152"/>
-      <c r="P18" s="152"/>
-      <c r="Q18" s="152"/>
+      <c r="I18" s="159"/>
+      <c r="J18" s="159"/>
+      <c r="K18" s="159"/>
+      <c r="L18" s="159"/>
+      <c r="M18" s="159"/>
+      <c r="N18" s="159"/>
+      <c r="O18" s="159"/>
+      <c r="P18" s="159"/>
+      <c r="Q18" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="H5:Q5"/>
-    <mergeCell ref="H4:Q4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H6:Q6"/>
-    <mergeCell ref="D5:G6"/>
+    <mergeCell ref="H17:Q17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="H18:Q18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H12:Q12"/>
+    <mergeCell ref="H13:Q13"/>
+    <mergeCell ref="D14:G16"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="H10:Q10"/>
     <mergeCell ref="H14:Q14"/>
@@ -28375,13 +28375,11 @@
     <mergeCell ref="H16:Q16"/>
     <mergeCell ref="D11:G13"/>
     <mergeCell ref="H11:Q11"/>
-    <mergeCell ref="H17:Q17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="H18:Q18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="H12:Q12"/>
-    <mergeCell ref="H13:Q13"/>
-    <mergeCell ref="D14:G16"/>
+    <mergeCell ref="H5:Q5"/>
+    <mergeCell ref="H4:Q4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H6:Q6"/>
+    <mergeCell ref="D5:G6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -30479,9 +30477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA9DBA0-2246-4C3A-80ED-646269B04D10}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
@@ -32698,9 +32694,7 @@
   </sheetPr>
   <dimension ref="B1:K311"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
@@ -38747,9 +38741,7 @@
   </sheetPr>
   <dimension ref="B1:J100"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
@@ -43161,9 +43153,7 @@
   </sheetPr>
   <dimension ref="B1:J50"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>

--- a/docs/テスト観点カタログ.xlsx
+++ b/docs/テスト観点カタログ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA990CC-1CA5-4B44-A2C9-559BE5C37AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A009AA53-8A65-4FCE-BA8F-FEE673DC15F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="48" r:id="rId1"/>
@@ -21454,9 +21454,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -21466,6 +21505,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -21474,54 +21522,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="561">
@@ -28092,35 +28092,35 @@
       <c r="C4" s="62" t="s">
         <v>924</v>
       </c>
-      <c r="D4" s="152" t="s">
+      <c r="D4" s="162" t="s">
         <v>1148</v>
       </c>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152" t="s">
+      <c r="E4" s="162"/>
+      <c r="F4" s="162"/>
+      <c r="G4" s="162"/>
+      <c r="H4" s="162" t="s">
         <v>1149</v>
       </c>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="152"/>
-      <c r="L4" s="152"/>
-      <c r="M4" s="152"/>
-      <c r="N4" s="152"/>
-      <c r="O4" s="152"/>
-      <c r="P4" s="152"/>
-      <c r="Q4" s="152"/>
+      <c r="I4" s="162"/>
+      <c r="J4" s="162"/>
+      <c r="K4" s="162"/>
+      <c r="L4" s="162"/>
+      <c r="M4" s="162"/>
+      <c r="N4" s="162"/>
+      <c r="O4" s="162"/>
+      <c r="P4" s="162"/>
+      <c r="Q4" s="162"/>
     </row>
     <row r="5" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="61">
         <v>1</v>
       </c>
-      <c r="D5" s="153" t="s">
+      <c r="D5" s="166" t="s">
         <v>1150</v>
       </c>
-      <c r="E5" s="154"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="155"/>
+      <c r="E5" s="167"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="168"/>
       <c r="H5" s="151" t="s">
         <v>1151</v>
       </c>
@@ -28138,10 +28138,10 @@
       <c r="C6" s="61">
         <v>2</v>
       </c>
-      <c r="D6" s="156"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="158"/>
+      <c r="D6" s="172"/>
+      <c r="E6" s="173"/>
+      <c r="F6" s="173"/>
+      <c r="G6" s="174"/>
       <c r="H6" s="151" t="s">
         <v>1152</v>
       </c>
@@ -28164,35 +28164,35 @@
       <c r="C10" s="62" t="s">
         <v>924</v>
       </c>
-      <c r="D10" s="152" t="s">
+      <c r="D10" s="162" t="s">
         <v>1148</v>
       </c>
-      <c r="E10" s="152"/>
-      <c r="F10" s="152"/>
-      <c r="G10" s="152"/>
-      <c r="H10" s="152" t="s">
+      <c r="E10" s="162"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="162"/>
+      <c r="H10" s="162" t="s">
         <v>1149</v>
       </c>
-      <c r="I10" s="152"/>
-      <c r="J10" s="152"/>
-      <c r="K10" s="152"/>
-      <c r="L10" s="152"/>
-      <c r="M10" s="152"/>
-      <c r="N10" s="152"/>
-      <c r="O10" s="152"/>
-      <c r="P10" s="152"/>
-      <c r="Q10" s="152"/>
+      <c r="I10" s="162"/>
+      <c r="J10" s="162"/>
+      <c r="K10" s="162"/>
+      <c r="L10" s="162"/>
+      <c r="M10" s="162"/>
+      <c r="N10" s="162"/>
+      <c r="O10" s="162"/>
+      <c r="P10" s="162"/>
+      <c r="Q10" s="162"/>
     </row>
     <row r="11" spans="2:17" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" s="61">
         <v>1</v>
       </c>
-      <c r="D11" s="153" t="s">
+      <c r="D11" s="166" t="s">
         <v>1154</v>
       </c>
-      <c r="E11" s="154"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="155"/>
+      <c r="E11" s="167"/>
+      <c r="F11" s="167"/>
+      <c r="G11" s="168"/>
       <c r="H11" s="151" t="s">
         <v>1155</v>
       </c>
@@ -28210,10 +28210,10 @@
       <c r="C12" s="61">
         <v>2</v>
       </c>
-      <c r="D12" s="163"/>
-      <c r="E12" s="164"/>
-      <c r="F12" s="164"/>
-      <c r="G12" s="165"/>
+      <c r="D12" s="169"/>
+      <c r="E12" s="170"/>
+      <c r="F12" s="170"/>
+      <c r="G12" s="171"/>
       <c r="H12" s="151" t="s">
         <v>1156</v>
       </c>
@@ -28231,87 +28231,87 @@
       <c r="C13" s="61">
         <v>3</v>
       </c>
-      <c r="D13" s="156"/>
-      <c r="E13" s="157"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="158"/>
+      <c r="D13" s="172"/>
+      <c r="E13" s="173"/>
+      <c r="F13" s="173"/>
+      <c r="G13" s="174"/>
       <c r="H13" s="151" t="s">
         <v>1157</v>
       </c>
-      <c r="I13" s="159"/>
-      <c r="J13" s="159"/>
-      <c r="K13" s="159"/>
-      <c r="L13" s="159"/>
-      <c r="M13" s="159"/>
-      <c r="N13" s="159"/>
-      <c r="O13" s="159"/>
-      <c r="P13" s="159"/>
-      <c r="Q13" s="159"/>
+      <c r="I13" s="152"/>
+      <c r="J13" s="152"/>
+      <c r="K13" s="152"/>
+      <c r="L13" s="152"/>
+      <c r="M13" s="152"/>
+      <c r="N13" s="152"/>
+      <c r="O13" s="152"/>
+      <c r="P13" s="152"/>
+      <c r="Q13" s="152"/>
     </row>
     <row r="14" spans="2:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C14" s="61">
         <v>4</v>
       </c>
-      <c r="D14" s="166" t="s">
+      <c r="D14" s="153" t="s">
         <v>1158</v>
       </c>
-      <c r="E14" s="167"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="168"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="155"/>
       <c r="H14" s="151" t="s">
         <v>1159</v>
       </c>
-      <c r="I14" s="159"/>
-      <c r="J14" s="159"/>
-      <c r="K14" s="159"/>
-      <c r="L14" s="159"/>
-      <c r="M14" s="159"/>
-      <c r="N14" s="159"/>
-      <c r="O14" s="159"/>
-      <c r="P14" s="159"/>
-      <c r="Q14" s="159"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="152"/>
+      <c r="K14" s="152"/>
+      <c r="L14" s="152"/>
+      <c r="M14" s="152"/>
+      <c r="N14" s="152"/>
+      <c r="O14" s="152"/>
+      <c r="P14" s="152"/>
+      <c r="Q14" s="152"/>
     </row>
     <row r="15" spans="2:17" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C15" s="61">
         <v>5</v>
       </c>
-      <c r="D15" s="169"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="170"/>
-      <c r="G15" s="171"/>
-      <c r="H15" s="159" t="s">
+      <c r="D15" s="156"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="152" t="s">
         <v>1160</v>
       </c>
-      <c r="I15" s="159"/>
-      <c r="J15" s="159"/>
-      <c r="K15" s="159"/>
-      <c r="L15" s="159"/>
-      <c r="M15" s="159"/>
-      <c r="N15" s="159"/>
-      <c r="O15" s="159"/>
-      <c r="P15" s="159"/>
-      <c r="Q15" s="159"/>
+      <c r="I15" s="152"/>
+      <c r="J15" s="152"/>
+      <c r="K15" s="152"/>
+      <c r="L15" s="152"/>
+      <c r="M15" s="152"/>
+      <c r="N15" s="152"/>
+      <c r="O15" s="152"/>
+      <c r="P15" s="152"/>
+      <c r="Q15" s="152"/>
     </row>
     <row r="16" spans="2:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C16" s="61">
         <v>6</v>
       </c>
-      <c r="D16" s="172"/>
-      <c r="E16" s="173"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="174"/>
-      <c r="H16" s="160" t="s">
+      <c r="D16" s="159"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="160"/>
+      <c r="G16" s="161"/>
+      <c r="H16" s="163" t="s">
         <v>1161</v>
       </c>
-      <c r="I16" s="161"/>
-      <c r="J16" s="161"/>
-      <c r="K16" s="161"/>
-      <c r="L16" s="161"/>
-      <c r="M16" s="161"/>
-      <c r="N16" s="161"/>
-      <c r="O16" s="161"/>
-      <c r="P16" s="161"/>
-      <c r="Q16" s="162"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="164"/>
+      <c r="K16" s="164"/>
+      <c r="L16" s="164"/>
+      <c r="M16" s="164"/>
+      <c r="N16" s="164"/>
+      <c r="O16" s="164"/>
+      <c r="P16" s="164"/>
+      <c r="Q16" s="165"/>
     </row>
     <row r="17" spans="3:17" ht="161.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="61">
@@ -28320,9 +28320,9 @@
       <c r="D17" s="151" t="s">
         <v>1162</v>
       </c>
-      <c r="E17" s="159"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="159"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="152"/>
       <c r="H17" s="151" t="s">
         <v>1163</v>
       </c>
@@ -28343,24 +28343,36 @@
       <c r="D18" s="151" t="s">
         <v>1164</v>
       </c>
-      <c r="E18" s="159"/>
-      <c r="F18" s="159"/>
-      <c r="G18" s="159"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
       <c r="H18" s="151" t="s">
         <v>1165</v>
       </c>
-      <c r="I18" s="159"/>
-      <c r="J18" s="159"/>
-      <c r="K18" s="159"/>
-      <c r="L18" s="159"/>
-      <c r="M18" s="159"/>
-      <c r="N18" s="159"/>
-      <c r="O18" s="159"/>
-      <c r="P18" s="159"/>
-      <c r="Q18" s="159"/>
+      <c r="I18" s="152"/>
+      <c r="J18" s="152"/>
+      <c r="K18" s="152"/>
+      <c r="L18" s="152"/>
+      <c r="M18" s="152"/>
+      <c r="N18" s="152"/>
+      <c r="O18" s="152"/>
+      <c r="P18" s="152"/>
+      <c r="Q18" s="152"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="H5:Q5"/>
+    <mergeCell ref="H4:Q4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H6:Q6"/>
+    <mergeCell ref="D5:G6"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:Q10"/>
+    <mergeCell ref="H14:Q14"/>
+    <mergeCell ref="H15:Q15"/>
+    <mergeCell ref="H16:Q16"/>
+    <mergeCell ref="D11:G13"/>
+    <mergeCell ref="H11:Q11"/>
     <mergeCell ref="H17:Q17"/>
     <mergeCell ref="D17:G17"/>
     <mergeCell ref="H18:Q18"/>
@@ -28368,18 +28380,6 @@
     <mergeCell ref="H12:Q12"/>
     <mergeCell ref="H13:Q13"/>
     <mergeCell ref="D14:G16"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H10:Q10"/>
-    <mergeCell ref="H14:Q14"/>
-    <mergeCell ref="H15:Q15"/>
-    <mergeCell ref="H16:Q16"/>
-    <mergeCell ref="D11:G13"/>
-    <mergeCell ref="H11:Q11"/>
-    <mergeCell ref="H5:Q5"/>
-    <mergeCell ref="H4:Q4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H6:Q6"/>
-    <mergeCell ref="D5:G6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -33079,7 +33079,8 @@
     </row>
     <row r="20" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B20" s="15">
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="C20" s="42"/>
       <c r="D20" s="42"/>

--- a/docs/テスト観点カタログ.xlsx
+++ b/docs/テスト観点カタログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A009AA53-8A65-4FCE-BA8F-FEE673DC15F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D1120B-6550-40D8-8E3B-5C6E1CAA0A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18236,13 +18236,13 @@
   <si>
     <t>機能テスト【共通】
 ■バリデーション
-　No.14</t>
+　No.15</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>機能テスト【共通】
 ■バリデーション
-　No.15</t>
+　No.16</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -21454,9 +21454,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -21483,45 +21522,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="561">
@@ -28092,35 +28092,35 @@
       <c r="C4" s="62" t="s">
         <v>924</v>
       </c>
-      <c r="D4" s="162" t="s">
+      <c r="D4" s="152" t="s">
         <v>1148</v>
       </c>
-      <c r="E4" s="162"/>
-      <c r="F4" s="162"/>
-      <c r="G4" s="162"/>
-      <c r="H4" s="162" t="s">
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152" t="s">
         <v>1149</v>
       </c>
-      <c r="I4" s="162"/>
-      <c r="J4" s="162"/>
-      <c r="K4" s="162"/>
-      <c r="L4" s="162"/>
-      <c r="M4" s="162"/>
-      <c r="N4" s="162"/>
-      <c r="O4" s="162"/>
-      <c r="P4" s="162"/>
-      <c r="Q4" s="162"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="152"/>
+      <c r="K4" s="152"/>
+      <c r="L4" s="152"/>
+      <c r="M4" s="152"/>
+      <c r="N4" s="152"/>
+      <c r="O4" s="152"/>
+      <c r="P4" s="152"/>
+      <c r="Q4" s="152"/>
     </row>
     <row r="5" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="61">
         <v>1</v>
       </c>
-      <c r="D5" s="166" t="s">
+      <c r="D5" s="153" t="s">
         <v>1150</v>
       </c>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="168"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="155"/>
       <c r="H5" s="151" t="s">
         <v>1151</v>
       </c>
@@ -28138,10 +28138,10 @@
       <c r="C6" s="61">
         <v>2</v>
       </c>
-      <c r="D6" s="172"/>
-      <c r="E6" s="173"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="174"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="158"/>
       <c r="H6" s="151" t="s">
         <v>1152</v>
       </c>
@@ -28164,35 +28164,35 @@
       <c r="C10" s="62" t="s">
         <v>924</v>
       </c>
-      <c r="D10" s="162" t="s">
+      <c r="D10" s="152" t="s">
         <v>1148</v>
       </c>
-      <c r="E10" s="162"/>
-      <c r="F10" s="162"/>
-      <c r="G10" s="162"/>
-      <c r="H10" s="162" t="s">
+      <c r="E10" s="152"/>
+      <c r="F10" s="152"/>
+      <c r="G10" s="152"/>
+      <c r="H10" s="152" t="s">
         <v>1149</v>
       </c>
-      <c r="I10" s="162"/>
-      <c r="J10" s="162"/>
-      <c r="K10" s="162"/>
-      <c r="L10" s="162"/>
-      <c r="M10" s="162"/>
-      <c r="N10" s="162"/>
-      <c r="O10" s="162"/>
-      <c r="P10" s="162"/>
-      <c r="Q10" s="162"/>
+      <c r="I10" s="152"/>
+      <c r="J10" s="152"/>
+      <c r="K10" s="152"/>
+      <c r="L10" s="152"/>
+      <c r="M10" s="152"/>
+      <c r="N10" s="152"/>
+      <c r="O10" s="152"/>
+      <c r="P10" s="152"/>
+      <c r="Q10" s="152"/>
     </row>
     <row r="11" spans="2:17" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" s="61">
         <v>1</v>
       </c>
-      <c r="D11" s="166" t="s">
+      <c r="D11" s="153" t="s">
         <v>1154</v>
       </c>
-      <c r="E11" s="167"/>
-      <c r="F11" s="167"/>
-      <c r="G11" s="168"/>
+      <c r="E11" s="154"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="155"/>
       <c r="H11" s="151" t="s">
         <v>1155</v>
       </c>
@@ -28210,10 +28210,10 @@
       <c r="C12" s="61">
         <v>2</v>
       </c>
-      <c r="D12" s="169"/>
-      <c r="E12" s="170"/>
-      <c r="F12" s="170"/>
-      <c r="G12" s="171"/>
+      <c r="D12" s="163"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="165"/>
       <c r="H12" s="151" t="s">
         <v>1156</v>
       </c>
@@ -28231,87 +28231,87 @@
       <c r="C13" s="61">
         <v>3</v>
       </c>
-      <c r="D13" s="172"/>
-      <c r="E13" s="173"/>
-      <c r="F13" s="173"/>
-      <c r="G13" s="174"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="158"/>
       <c r="H13" s="151" t="s">
         <v>1157</v>
       </c>
-      <c r="I13" s="152"/>
-      <c r="J13" s="152"/>
-      <c r="K13" s="152"/>
-      <c r="L13" s="152"/>
-      <c r="M13" s="152"/>
-      <c r="N13" s="152"/>
-      <c r="O13" s="152"/>
-      <c r="P13" s="152"/>
-      <c r="Q13" s="152"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="159"/>
+      <c r="K13" s="159"/>
+      <c r="L13" s="159"/>
+      <c r="M13" s="159"/>
+      <c r="N13" s="159"/>
+      <c r="O13" s="159"/>
+      <c r="P13" s="159"/>
+      <c r="Q13" s="159"/>
     </row>
     <row r="14" spans="2:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C14" s="61">
         <v>4</v>
       </c>
-      <c r="D14" s="153" t="s">
+      <c r="D14" s="166" t="s">
         <v>1158</v>
       </c>
-      <c r="E14" s="154"/>
-      <c r="F14" s="154"/>
-      <c r="G14" s="155"/>
+      <c r="E14" s="167"/>
+      <c r="F14" s="167"/>
+      <c r="G14" s="168"/>
       <c r="H14" s="151" t="s">
         <v>1159</v>
       </c>
-      <c r="I14" s="152"/>
-      <c r="J14" s="152"/>
-      <c r="K14" s="152"/>
-      <c r="L14" s="152"/>
-      <c r="M14" s="152"/>
-      <c r="N14" s="152"/>
-      <c r="O14" s="152"/>
-      <c r="P14" s="152"/>
-      <c r="Q14" s="152"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="159"/>
+      <c r="K14" s="159"/>
+      <c r="L14" s="159"/>
+      <c r="M14" s="159"/>
+      <c r="N14" s="159"/>
+      <c r="O14" s="159"/>
+      <c r="P14" s="159"/>
+      <c r="Q14" s="159"/>
     </row>
     <row r="15" spans="2:17" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C15" s="61">
         <v>5</v>
       </c>
-      <c r="D15" s="156"/>
-      <c r="E15" s="157"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="158"/>
-      <c r="H15" s="152" t="s">
+      <c r="D15" s="169"/>
+      <c r="E15" s="170"/>
+      <c r="F15" s="170"/>
+      <c r="G15" s="171"/>
+      <c r="H15" s="159" t="s">
         <v>1160</v>
       </c>
-      <c r="I15" s="152"/>
-      <c r="J15" s="152"/>
-      <c r="K15" s="152"/>
-      <c r="L15" s="152"/>
-      <c r="M15" s="152"/>
-      <c r="N15" s="152"/>
-      <c r="O15" s="152"/>
-      <c r="P15" s="152"/>
-      <c r="Q15" s="152"/>
+      <c r="I15" s="159"/>
+      <c r="J15" s="159"/>
+      <c r="K15" s="159"/>
+      <c r="L15" s="159"/>
+      <c r="M15" s="159"/>
+      <c r="N15" s="159"/>
+      <c r="O15" s="159"/>
+      <c r="P15" s="159"/>
+      <c r="Q15" s="159"/>
     </row>
     <row r="16" spans="2:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C16" s="61">
         <v>6</v>
       </c>
-      <c r="D16" s="159"/>
-      <c r="E16" s="160"/>
-      <c r="F16" s="160"/>
-      <c r="G16" s="161"/>
-      <c r="H16" s="163" t="s">
+      <c r="D16" s="172"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="160" t="s">
         <v>1161</v>
       </c>
-      <c r="I16" s="164"/>
-      <c r="J16" s="164"/>
-      <c r="K16" s="164"/>
-      <c r="L16" s="164"/>
-      <c r="M16" s="164"/>
-      <c r="N16" s="164"/>
-      <c r="O16" s="164"/>
-      <c r="P16" s="164"/>
-      <c r="Q16" s="165"/>
+      <c r="I16" s="161"/>
+      <c r="J16" s="161"/>
+      <c r="K16" s="161"/>
+      <c r="L16" s="161"/>
+      <c r="M16" s="161"/>
+      <c r="N16" s="161"/>
+      <c r="O16" s="161"/>
+      <c r="P16" s="161"/>
+      <c r="Q16" s="162"/>
     </row>
     <row r="17" spans="3:17" ht="161.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="61">
@@ -28320,9 +28320,9 @@
       <c r="D17" s="151" t="s">
         <v>1162</v>
       </c>
-      <c r="E17" s="152"/>
-      <c r="F17" s="152"/>
-      <c r="G17" s="152"/>
+      <c r="E17" s="159"/>
+      <c r="F17" s="159"/>
+      <c r="G17" s="159"/>
       <c r="H17" s="151" t="s">
         <v>1163</v>
       </c>
@@ -28343,29 +28343,31 @@
       <c r="D18" s="151" t="s">
         <v>1164</v>
       </c>
-      <c r="E18" s="152"/>
-      <c r="F18" s="152"/>
-      <c r="G18" s="152"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="159"/>
       <c r="H18" s="151" t="s">
         <v>1165</v>
       </c>
-      <c r="I18" s="152"/>
-      <c r="J18" s="152"/>
-      <c r="K18" s="152"/>
-      <c r="L18" s="152"/>
-      <c r="M18" s="152"/>
-      <c r="N18" s="152"/>
-      <c r="O18" s="152"/>
-      <c r="P18" s="152"/>
-      <c r="Q18" s="152"/>
+      <c r="I18" s="159"/>
+      <c r="J18" s="159"/>
+      <c r="K18" s="159"/>
+      <c r="L18" s="159"/>
+      <c r="M18" s="159"/>
+      <c r="N18" s="159"/>
+      <c r="O18" s="159"/>
+      <c r="P18" s="159"/>
+      <c r="Q18" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="H5:Q5"/>
-    <mergeCell ref="H4:Q4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H6:Q6"/>
-    <mergeCell ref="D5:G6"/>
+    <mergeCell ref="H17:Q17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="H18:Q18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H12:Q12"/>
+    <mergeCell ref="H13:Q13"/>
+    <mergeCell ref="D14:G16"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="H10:Q10"/>
     <mergeCell ref="H14:Q14"/>
@@ -28373,13 +28375,11 @@
     <mergeCell ref="H16:Q16"/>
     <mergeCell ref="D11:G13"/>
     <mergeCell ref="H11:Q11"/>
-    <mergeCell ref="H17:Q17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="H18:Q18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="H12:Q12"/>
-    <mergeCell ref="H13:Q13"/>
-    <mergeCell ref="D14:G16"/>
+    <mergeCell ref="H5:Q5"/>
+    <mergeCell ref="H4:Q4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H6:Q6"/>
+    <mergeCell ref="D5:G6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -28768,7 +28768,7 @@
       <c r="I19" s="43"/>
       <c r="J19" s="82"/>
     </row>
-    <row r="20" spans="2:10" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10" s="8" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="15">
         <f t="shared" si="0"/>
         <v>16</v>

--- a/docs/テスト観点カタログ.xlsx
+++ b/docs/テスト観点カタログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877FDC5D-B0CA-48F2-AD64-2EEDF96F1754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9899FBB-4BE7-44C7-B2F6-B2F01A9E00A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" tabRatio="735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21119,9 +21119,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -21131,6 +21170,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -21139,54 +21187,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="561">
@@ -27661,35 +27661,35 @@
       <c r="C4" s="62" t="s">
         <v>924</v>
       </c>
-      <c r="D4" s="149" t="s">
+      <c r="D4" s="159" t="s">
         <v>1148</v>
       </c>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149" t="s">
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159" t="s">
         <v>1149</v>
       </c>
-      <c r="I4" s="149"/>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
-      <c r="M4" s="149"/>
-      <c r="N4" s="149"/>
-      <c r="O4" s="149"/>
-      <c r="P4" s="149"/>
-      <c r="Q4" s="149"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="159"/>
+      <c r="O4" s="159"/>
+      <c r="P4" s="159"/>
+      <c r="Q4" s="159"/>
     </row>
     <row r="5" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="61">
         <v>1</v>
       </c>
-      <c r="D5" s="150" t="s">
+      <c r="D5" s="163" t="s">
         <v>1150</v>
       </c>
-      <c r="E5" s="151"/>
-      <c r="F5" s="151"/>
-      <c r="G5" s="152"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="164"/>
+      <c r="G5" s="165"/>
       <c r="H5" s="148" t="s">
         <v>1151</v>
       </c>
@@ -27707,10 +27707,10 @@
       <c r="C6" s="61">
         <v>2</v>
       </c>
-      <c r="D6" s="153"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="155"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="171"/>
       <c r="H6" s="148" t="s">
         <v>1152</v>
       </c>
@@ -27733,35 +27733,35 @@
       <c r="C10" s="62" t="s">
         <v>924</v>
       </c>
-      <c r="D10" s="149" t="s">
+      <c r="D10" s="159" t="s">
         <v>1148</v>
       </c>
-      <c r="E10" s="149"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="149"/>
-      <c r="H10" s="149" t="s">
+      <c r="E10" s="159"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="159" t="s">
         <v>1149</v>
       </c>
-      <c r="I10" s="149"/>
-      <c r="J10" s="149"/>
-      <c r="K10" s="149"/>
-      <c r="L10" s="149"/>
-      <c r="M10" s="149"/>
-      <c r="N10" s="149"/>
-      <c r="O10" s="149"/>
-      <c r="P10" s="149"/>
-      <c r="Q10" s="149"/>
+      <c r="I10" s="159"/>
+      <c r="J10" s="159"/>
+      <c r="K10" s="159"/>
+      <c r="L10" s="159"/>
+      <c r="M10" s="159"/>
+      <c r="N10" s="159"/>
+      <c r="O10" s="159"/>
+      <c r="P10" s="159"/>
+      <c r="Q10" s="159"/>
     </row>
     <row r="11" spans="2:17" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" s="61">
         <v>1</v>
       </c>
-      <c r="D11" s="150" t="s">
+      <c r="D11" s="163" t="s">
         <v>1154</v>
       </c>
-      <c r="E11" s="151"/>
-      <c r="F11" s="151"/>
-      <c r="G11" s="152"/>
+      <c r="E11" s="164"/>
+      <c r="F11" s="164"/>
+      <c r="G11" s="165"/>
       <c r="H11" s="148" t="s">
         <v>1155</v>
       </c>
@@ -27779,10 +27779,10 @@
       <c r="C12" s="61">
         <v>2</v>
       </c>
-      <c r="D12" s="160"/>
-      <c r="E12" s="161"/>
-      <c r="F12" s="161"/>
-      <c r="G12" s="162"/>
+      <c r="D12" s="166"/>
+      <c r="E12" s="167"/>
+      <c r="F12" s="167"/>
+      <c r="G12" s="168"/>
       <c r="H12" s="148" t="s">
         <v>1156</v>
       </c>
@@ -27800,87 +27800,87 @@
       <c r="C13" s="61">
         <v>3</v>
       </c>
-      <c r="D13" s="153"/>
-      <c r="E13" s="154"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="155"/>
+      <c r="D13" s="169"/>
+      <c r="E13" s="170"/>
+      <c r="F13" s="170"/>
+      <c r="G13" s="171"/>
       <c r="H13" s="148" t="s">
         <v>1157</v>
       </c>
-      <c r="I13" s="156"/>
-      <c r="J13" s="156"/>
-      <c r="K13" s="156"/>
-      <c r="L13" s="156"/>
-      <c r="M13" s="156"/>
-      <c r="N13" s="156"/>
-      <c r="O13" s="156"/>
-      <c r="P13" s="156"/>
-      <c r="Q13" s="156"/>
+      <c r="I13" s="149"/>
+      <c r="J13" s="149"/>
+      <c r="K13" s="149"/>
+      <c r="L13" s="149"/>
+      <c r="M13" s="149"/>
+      <c r="N13" s="149"/>
+      <c r="O13" s="149"/>
+      <c r="P13" s="149"/>
+      <c r="Q13" s="149"/>
     </row>
     <row r="14" spans="2:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C14" s="61">
         <v>4</v>
       </c>
-      <c r="D14" s="163" t="s">
+      <c r="D14" s="150" t="s">
         <v>1158</v>
       </c>
-      <c r="E14" s="164"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="165"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="152"/>
       <c r="H14" s="148" t="s">
         <v>1159</v>
       </c>
-      <c r="I14" s="156"/>
-      <c r="J14" s="156"/>
-      <c r="K14" s="156"/>
-      <c r="L14" s="156"/>
-      <c r="M14" s="156"/>
-      <c r="N14" s="156"/>
-      <c r="O14" s="156"/>
-      <c r="P14" s="156"/>
-      <c r="Q14" s="156"/>
+      <c r="I14" s="149"/>
+      <c r="J14" s="149"/>
+      <c r="K14" s="149"/>
+      <c r="L14" s="149"/>
+      <c r="M14" s="149"/>
+      <c r="N14" s="149"/>
+      <c r="O14" s="149"/>
+      <c r="P14" s="149"/>
+      <c r="Q14" s="149"/>
     </row>
     <row r="15" spans="2:17" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C15" s="61">
         <v>5</v>
       </c>
-      <c r="D15" s="166"/>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="156" t="s">
+      <c r="D15" s="153"/>
+      <c r="E15" s="154"/>
+      <c r="F15" s="154"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="149" t="s">
         <v>1160</v>
       </c>
-      <c r="I15" s="156"/>
-      <c r="J15" s="156"/>
-      <c r="K15" s="156"/>
-      <c r="L15" s="156"/>
-      <c r="M15" s="156"/>
-      <c r="N15" s="156"/>
-      <c r="O15" s="156"/>
-      <c r="P15" s="156"/>
-      <c r="Q15" s="156"/>
+      <c r="I15" s="149"/>
+      <c r="J15" s="149"/>
+      <c r="K15" s="149"/>
+      <c r="L15" s="149"/>
+      <c r="M15" s="149"/>
+      <c r="N15" s="149"/>
+      <c r="O15" s="149"/>
+      <c r="P15" s="149"/>
+      <c r="Q15" s="149"/>
     </row>
     <row r="16" spans="2:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C16" s="61">
         <v>6</v>
       </c>
-      <c r="D16" s="169"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="170"/>
-      <c r="G16" s="171"/>
-      <c r="H16" s="157" t="s">
+      <c r="D16" s="156"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="160" t="s">
         <v>1161</v>
       </c>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
-      <c r="M16" s="158"/>
-      <c r="N16" s="158"/>
-      <c r="O16" s="158"/>
-      <c r="P16" s="158"/>
-      <c r="Q16" s="159"/>
+      <c r="I16" s="161"/>
+      <c r="J16" s="161"/>
+      <c r="K16" s="161"/>
+      <c r="L16" s="161"/>
+      <c r="M16" s="161"/>
+      <c r="N16" s="161"/>
+      <c r="O16" s="161"/>
+      <c r="P16" s="161"/>
+      <c r="Q16" s="162"/>
     </row>
     <row r="17" spans="3:17" ht="161.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="61">
@@ -27889,9 +27889,9 @@
       <c r="D17" s="148" t="s">
         <v>1162</v>
       </c>
-      <c r="E17" s="156"/>
-      <c r="F17" s="156"/>
-      <c r="G17" s="156"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="149"/>
       <c r="H17" s="148" t="s">
         <v>1163</v>
       </c>
@@ -27912,24 +27912,36 @@
       <c r="D18" s="148" t="s">
         <v>1164</v>
       </c>
-      <c r="E18" s="156"/>
-      <c r="F18" s="156"/>
-      <c r="G18" s="156"/>
+      <c r="E18" s="149"/>
+      <c r="F18" s="149"/>
+      <c r="G18" s="149"/>
       <c r="H18" s="148" t="s">
         <v>1165</v>
       </c>
-      <c r="I18" s="156"/>
-      <c r="J18" s="156"/>
-      <c r="K18" s="156"/>
-      <c r="L18" s="156"/>
-      <c r="M18" s="156"/>
-      <c r="N18" s="156"/>
-      <c r="O18" s="156"/>
-      <c r="P18" s="156"/>
-      <c r="Q18" s="156"/>
+      <c r="I18" s="149"/>
+      <c r="J18" s="149"/>
+      <c r="K18" s="149"/>
+      <c r="L18" s="149"/>
+      <c r="M18" s="149"/>
+      <c r="N18" s="149"/>
+      <c r="O18" s="149"/>
+      <c r="P18" s="149"/>
+      <c r="Q18" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="H5:Q5"/>
+    <mergeCell ref="H4:Q4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H6:Q6"/>
+    <mergeCell ref="D5:G6"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:Q10"/>
+    <mergeCell ref="H14:Q14"/>
+    <mergeCell ref="H15:Q15"/>
+    <mergeCell ref="H16:Q16"/>
+    <mergeCell ref="D11:G13"/>
+    <mergeCell ref="H11:Q11"/>
     <mergeCell ref="H17:Q17"/>
     <mergeCell ref="D17:G17"/>
     <mergeCell ref="H18:Q18"/>
@@ -27937,18 +27949,6 @@
     <mergeCell ref="H12:Q12"/>
     <mergeCell ref="H13:Q13"/>
     <mergeCell ref="D14:G16"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H10:Q10"/>
-    <mergeCell ref="H14:Q14"/>
-    <mergeCell ref="H15:Q15"/>
-    <mergeCell ref="H16:Q16"/>
-    <mergeCell ref="D11:G13"/>
-    <mergeCell ref="H11:Q11"/>
-    <mergeCell ref="H5:Q5"/>
-    <mergeCell ref="H4:Q4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H6:Q6"/>
-    <mergeCell ref="D5:G6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -30236,7 +30236,7 @@
         <v>1413</v>
       </c>
       <c r="C10" s="132">
-        <v>45394</v>
+        <v>45401</v>
       </c>
       <c r="D10" s="133" t="s">
         <v>1399</v>
@@ -30256,7 +30256,7 @@
         <v>1413</v>
       </c>
       <c r="C11" s="132">
-        <v>45394</v>
+        <v>45401</v>
       </c>
       <c r="D11" s="133" t="s">
         <v>1399</v>

--- a/docs/テスト観点カタログ.xlsx
+++ b/docs/テスト観点カタログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8177D655-3945-4233-8642-B6992FFAC7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB0E52A-25DF-4FDA-BDA0-9D7F6E559544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" tabRatio="735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="12">構成テスト!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="18">障害テスト!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="16">'性能テスト、ストレステストなど'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$3</definedName>
     <definedName name="シナリオテスト_バッチ">業務シナリオテスト!$A$22</definedName>
     <definedName name="シナリオテスト_共通">業務シナリオテスト!$A$3</definedName>
     <definedName name="ストレステスト_共通">'性能テスト、ストレステストなど'!$A$20</definedName>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2838" uniqueCount="1419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2839" uniqueCount="1420">
   <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="18"/>
@@ -17907,6 +17907,28 @@
   </si>
   <si>
     <t>2024年4月19日</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※1.0版、1.1版は内部向け文書のため欠番</t>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ブンショ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケツバン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -18973,34 +18995,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="double">
         <color indexed="64"/>
@@ -19025,6 +19019,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="561">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -20663,7 +20681,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -21018,28 +21036,22 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="513" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="513" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="43" xfId="513" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="41" xfId="513" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -21066,6 +21078,18 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -24047,9 +24071,9 @@
   <hyperlinks>
     <hyperlink ref="E35" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId2"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -24058,7 +24082,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FFCCFFCC"/>
-    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:J25"/>
   <sheetViews>
@@ -24305,9 +24328,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="8" scale="72" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -24315,7 +24337,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FFCCFFCC"/>
-    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:K34"/>
   <sheetViews>
@@ -24856,9 +24877,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="8" scale="61" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -24866,7 +24886,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
-    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:Q38"/>
   <sheetViews>
@@ -24895,24 +24914,24 @@
       <c r="C4" s="80" t="s">
         <v>923</v>
       </c>
-      <c r="D4" s="145" t="s">
+      <c r="D4" s="147" t="s">
         <v>924</v>
       </c>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145" t="s">
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="145"/>
-      <c r="J4" s="145"/>
-      <c r="K4" s="145"/>
-      <c r="L4" s="145"/>
-      <c r="M4" s="145"/>
-      <c r="N4" s="145"/>
-      <c r="O4" s="145"/>
-      <c r="P4" s="145"/>
-      <c r="Q4" s="145"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
+      <c r="M4" s="147"/>
+      <c r="N4" s="147"/>
+      <c r="O4" s="147"/>
+      <c r="P4" s="147"/>
+      <c r="Q4" s="147"/>
     </row>
     <row r="5" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="49">
@@ -25242,12 +25261,8 @@
     <mergeCell ref="H4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="32" max="16" man="1"/>
-  </rowBreaks>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="8" scale="98" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="17" max="1048575" man="1"/>
   </colBreaks>
@@ -25258,7 +25273,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFCCFFCC"/>
-    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:K25"/>
   <sheetViews>
@@ -25580,9 +25594,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="8" scale="61" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -25590,7 +25603,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
-    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:Q24"/>
   <sheetViews>
@@ -25618,24 +25630,24 @@
       <c r="C4" s="80" t="s">
         <v>923</v>
       </c>
-      <c r="D4" s="145" t="s">
+      <c r="D4" s="147" t="s">
         <v>924</v>
       </c>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145" t="s">
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="145"/>
-      <c r="J4" s="145"/>
-      <c r="K4" s="145"/>
-      <c r="L4" s="145"/>
-      <c r="M4" s="145"/>
-      <c r="N4" s="145"/>
-      <c r="O4" s="145"/>
-      <c r="P4" s="145"/>
-      <c r="Q4" s="145"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
+      <c r="M4" s="147"/>
+      <c r="N4" s="147"/>
+      <c r="O4" s="147"/>
+      <c r="P4" s="147"/>
+      <c r="Q4" s="147"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C5" s="49">
@@ -25871,9 +25883,8 @@
     <mergeCell ref="H4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="8" scale="98" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -25881,7 +25892,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFCCFFCC"/>
-    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:J86"/>
   <sheetViews>
@@ -26417,7 +26427,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C26" s="146" t="s">
+      <c r="C26" s="148" t="s">
         <v>1055</v>
       </c>
       <c r="D26" s="81" t="s">
@@ -26445,7 +26455,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C27" s="147"/>
+      <c r="C27" s="149"/>
       <c r="D27" s="82"/>
       <c r="E27" s="43"/>
       <c r="F27" s="82"/>
@@ -27100,7 +27110,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C58" s="146" t="s">
+      <c r="C58" s="148" t="s">
         <v>1060</v>
       </c>
       <c r="D58" s="81" t="s">
@@ -27130,7 +27140,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C59" s="144"/>
+      <c r="C59" s="146"/>
       <c r="D59" s="79"/>
       <c r="E59" s="42"/>
       <c r="F59" s="41" t="s">
@@ -27548,7 +27558,7 @@
         <f>ROW()-ROW($B$83)</f>
         <v>2</v>
       </c>
-      <c r="C85" s="146" t="s">
+      <c r="C85" s="148" t="s">
         <v>1060</v>
       </c>
       <c r="D85" s="81" t="s">
@@ -27578,7 +27588,7 @@
         <f>ROW()-ROW($B$83)</f>
         <v>3</v>
       </c>
-      <c r="C86" s="147"/>
+      <c r="C86" s="149"/>
       <c r="D86" s="82"/>
       <c r="E86" s="45" t="s">
         <v>1006</v>
@@ -27602,9 +27612,8 @@
     <mergeCell ref="C85:C86"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="8" scale="72" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="44" max="9" man="1"/>
   </rowBreaks>
@@ -27615,7 +27624,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
-    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:Q18"/>
   <sheetViews>
@@ -27643,68 +27651,68 @@
       <c r="C4" s="62" t="s">
         <v>923</v>
       </c>
-      <c r="D4" s="149" t="s">
+      <c r="D4" s="151" t="s">
         <v>1147</v>
       </c>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149" t="s">
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151" t="s">
         <v>1148</v>
       </c>
-      <c r="I4" s="149"/>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
-      <c r="M4" s="149"/>
-      <c r="N4" s="149"/>
-      <c r="O4" s="149"/>
-      <c r="P4" s="149"/>
-      <c r="Q4" s="149"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="151"/>
+      <c r="L4" s="151"/>
+      <c r="M4" s="151"/>
+      <c r="N4" s="151"/>
+      <c r="O4" s="151"/>
+      <c r="P4" s="151"/>
+      <c r="Q4" s="151"/>
     </row>
     <row r="5" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="61">
         <v>1</v>
       </c>
-      <c r="D5" s="150" t="s">
+      <c r="D5" s="152" t="s">
         <v>1149</v>
       </c>
-      <c r="E5" s="151"/>
-      <c r="F5" s="151"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="148" t="s">
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="150" t="s">
         <v>1150</v>
       </c>
-      <c r="I5" s="148"/>
-      <c r="J5" s="148"/>
-      <c r="K5" s="148"/>
-      <c r="L5" s="148"/>
-      <c r="M5" s="148"/>
-      <c r="N5" s="148"/>
-      <c r="O5" s="148"/>
-      <c r="P5" s="148"/>
-      <c r="Q5" s="148"/>
+      <c r="I5" s="150"/>
+      <c r="J5" s="150"/>
+      <c r="K5" s="150"/>
+      <c r="L5" s="150"/>
+      <c r="M5" s="150"/>
+      <c r="N5" s="150"/>
+      <c r="O5" s="150"/>
+      <c r="P5" s="150"/>
+      <c r="Q5" s="150"/>
     </row>
     <row r="6" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="61">
         <v>2</v>
       </c>
-      <c r="D6" s="153"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="148" t="s">
+      <c r="D6" s="155"/>
+      <c r="E6" s="156"/>
+      <c r="F6" s="156"/>
+      <c r="G6" s="157"/>
+      <c r="H6" s="150" t="s">
         <v>1151</v>
       </c>
-      <c r="I6" s="148"/>
-      <c r="J6" s="148"/>
-      <c r="K6" s="148"/>
-      <c r="L6" s="148"/>
-      <c r="M6" s="148"/>
-      <c r="N6" s="148"/>
-      <c r="O6" s="148"/>
-      <c r="P6" s="148"/>
-      <c r="Q6" s="148"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="150"/>
+      <c r="L6" s="150"/>
+      <c r="M6" s="150"/>
+      <c r="N6" s="150"/>
+      <c r="O6" s="150"/>
+      <c r="P6" s="150"/>
+      <c r="Q6" s="150"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B9" s="78" t="s">
@@ -27715,200 +27723,200 @@
       <c r="C10" s="62" t="s">
         <v>923</v>
       </c>
-      <c r="D10" s="149" t="s">
+      <c r="D10" s="151" t="s">
         <v>1147</v>
       </c>
-      <c r="E10" s="149"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="149"/>
-      <c r="H10" s="149" t="s">
+      <c r="E10" s="151"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="151" t="s">
         <v>1148</v>
       </c>
-      <c r="I10" s="149"/>
-      <c r="J10" s="149"/>
-      <c r="K10" s="149"/>
-      <c r="L10" s="149"/>
-      <c r="M10" s="149"/>
-      <c r="N10" s="149"/>
-      <c r="O10" s="149"/>
-      <c r="P10" s="149"/>
-      <c r="Q10" s="149"/>
+      <c r="I10" s="151"/>
+      <c r="J10" s="151"/>
+      <c r="K10" s="151"/>
+      <c r="L10" s="151"/>
+      <c r="M10" s="151"/>
+      <c r="N10" s="151"/>
+      <c r="O10" s="151"/>
+      <c r="P10" s="151"/>
+      <c r="Q10" s="151"/>
     </row>
     <row r="11" spans="2:17" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" s="61">
         <v>1</v>
       </c>
-      <c r="D11" s="150" t="s">
+      <c r="D11" s="152" t="s">
         <v>1153</v>
       </c>
-      <c r="E11" s="151"/>
-      <c r="F11" s="151"/>
-      <c r="G11" s="152"/>
-      <c r="H11" s="148" t="s">
+      <c r="E11" s="153"/>
+      <c r="F11" s="153"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="150" t="s">
         <v>1154</v>
       </c>
-      <c r="I11" s="148"/>
-      <c r="J11" s="148"/>
-      <c r="K11" s="148"/>
-      <c r="L11" s="148"/>
-      <c r="M11" s="148"/>
-      <c r="N11" s="148"/>
-      <c r="O11" s="148"/>
-      <c r="P11" s="148"/>
-      <c r="Q11" s="148"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="150"/>
+      <c r="K11" s="150"/>
+      <c r="L11" s="150"/>
+      <c r="M11" s="150"/>
+      <c r="N11" s="150"/>
+      <c r="O11" s="150"/>
+      <c r="P11" s="150"/>
+      <c r="Q11" s="150"/>
     </row>
     <row r="12" spans="2:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C12" s="61">
         <v>2</v>
       </c>
-      <c r="D12" s="160"/>
-      <c r="E12" s="161"/>
-      <c r="F12" s="161"/>
-      <c r="G12" s="162"/>
-      <c r="H12" s="148" t="s">
+      <c r="D12" s="162"/>
+      <c r="E12" s="163"/>
+      <c r="F12" s="163"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="150" t="s">
         <v>1155</v>
       </c>
-      <c r="I12" s="148"/>
-      <c r="J12" s="148"/>
-      <c r="K12" s="148"/>
-      <c r="L12" s="148"/>
-      <c r="M12" s="148"/>
-      <c r="N12" s="148"/>
-      <c r="O12" s="148"/>
-      <c r="P12" s="148"/>
-      <c r="Q12" s="148"/>
+      <c r="I12" s="150"/>
+      <c r="J12" s="150"/>
+      <c r="K12" s="150"/>
+      <c r="L12" s="150"/>
+      <c r="M12" s="150"/>
+      <c r="N12" s="150"/>
+      <c r="O12" s="150"/>
+      <c r="P12" s="150"/>
+      <c r="Q12" s="150"/>
     </row>
     <row r="13" spans="2:17" ht="131.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C13" s="61">
         <v>3</v>
       </c>
-      <c r="D13" s="153"/>
-      <c r="E13" s="154"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="148" t="s">
+      <c r="D13" s="155"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="157"/>
+      <c r="H13" s="150" t="s">
         <v>1156</v>
       </c>
-      <c r="I13" s="156"/>
-      <c r="J13" s="156"/>
-      <c r="K13" s="156"/>
-      <c r="L13" s="156"/>
-      <c r="M13" s="156"/>
-      <c r="N13" s="156"/>
-      <c r="O13" s="156"/>
-      <c r="P13" s="156"/>
-      <c r="Q13" s="156"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="158"/>
+      <c r="K13" s="158"/>
+      <c r="L13" s="158"/>
+      <c r="M13" s="158"/>
+      <c r="N13" s="158"/>
+      <c r="O13" s="158"/>
+      <c r="P13" s="158"/>
+      <c r="Q13" s="158"/>
     </row>
     <row r="14" spans="2:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C14" s="61">
         <v>4</v>
       </c>
-      <c r="D14" s="163" t="s">
+      <c r="D14" s="165" t="s">
         <v>1157</v>
       </c>
-      <c r="E14" s="164"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="165"/>
-      <c r="H14" s="148" t="s">
+      <c r="E14" s="166"/>
+      <c r="F14" s="166"/>
+      <c r="G14" s="167"/>
+      <c r="H14" s="150" t="s">
         <v>1158</v>
       </c>
-      <c r="I14" s="156"/>
-      <c r="J14" s="156"/>
-      <c r="K14" s="156"/>
-      <c r="L14" s="156"/>
-      <c r="M14" s="156"/>
-      <c r="N14" s="156"/>
-      <c r="O14" s="156"/>
-      <c r="P14" s="156"/>
-      <c r="Q14" s="156"/>
+      <c r="I14" s="158"/>
+      <c r="J14" s="158"/>
+      <c r="K14" s="158"/>
+      <c r="L14" s="158"/>
+      <c r="M14" s="158"/>
+      <c r="N14" s="158"/>
+      <c r="O14" s="158"/>
+      <c r="P14" s="158"/>
+      <c r="Q14" s="158"/>
     </row>
     <row r="15" spans="2:17" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C15" s="61">
         <v>5</v>
       </c>
-      <c r="D15" s="166"/>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="156" t="s">
+      <c r="D15" s="168"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="169"/>
+      <c r="G15" s="170"/>
+      <c r="H15" s="158" t="s">
         <v>1159</v>
       </c>
-      <c r="I15" s="156"/>
-      <c r="J15" s="156"/>
-      <c r="K15" s="156"/>
-      <c r="L15" s="156"/>
-      <c r="M15" s="156"/>
-      <c r="N15" s="156"/>
-      <c r="O15" s="156"/>
-      <c r="P15" s="156"/>
-      <c r="Q15" s="156"/>
+      <c r="I15" s="158"/>
+      <c r="J15" s="158"/>
+      <c r="K15" s="158"/>
+      <c r="L15" s="158"/>
+      <c r="M15" s="158"/>
+      <c r="N15" s="158"/>
+      <c r="O15" s="158"/>
+      <c r="P15" s="158"/>
+      <c r="Q15" s="158"/>
     </row>
     <row r="16" spans="2:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C16" s="61">
         <v>6</v>
       </c>
-      <c r="D16" s="169"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="170"/>
-      <c r="G16" s="171"/>
-      <c r="H16" s="157" t="s">
+      <c r="D16" s="171"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="172"/>
+      <c r="G16" s="173"/>
+      <c r="H16" s="159" t="s">
         <v>1160</v>
       </c>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
-      <c r="M16" s="158"/>
-      <c r="N16" s="158"/>
-      <c r="O16" s="158"/>
-      <c r="P16" s="158"/>
-      <c r="Q16" s="159"/>
+      <c r="I16" s="160"/>
+      <c r="J16" s="160"/>
+      <c r="K16" s="160"/>
+      <c r="L16" s="160"/>
+      <c r="M16" s="160"/>
+      <c r="N16" s="160"/>
+      <c r="O16" s="160"/>
+      <c r="P16" s="160"/>
+      <c r="Q16" s="161"/>
     </row>
     <row r="17" spans="3:17" ht="161.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="61">
         <v>7</v>
       </c>
-      <c r="D17" s="148" t="s">
+      <c r="D17" s="150" t="s">
         <v>1161</v>
       </c>
-      <c r="E17" s="156"/>
-      <c r="F17" s="156"/>
-      <c r="G17" s="156"/>
-      <c r="H17" s="148" t="s">
+      <c r="E17" s="158"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="150" t="s">
         <v>1162</v>
       </c>
-      <c r="I17" s="148"/>
-      <c r="J17" s="148"/>
-      <c r="K17" s="148"/>
-      <c r="L17" s="148"/>
-      <c r="M17" s="148"/>
-      <c r="N17" s="148"/>
-      <c r="O17" s="148"/>
-      <c r="P17" s="148"/>
-      <c r="Q17" s="148"/>
+      <c r="I17" s="150"/>
+      <c r="J17" s="150"/>
+      <c r="K17" s="150"/>
+      <c r="L17" s="150"/>
+      <c r="M17" s="150"/>
+      <c r="N17" s="150"/>
+      <c r="O17" s="150"/>
+      <c r="P17" s="150"/>
+      <c r="Q17" s="150"/>
     </row>
     <row r="18" spans="3:17" ht="145.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C18" s="61">
         <v>8</v>
       </c>
-      <c r="D18" s="148" t="s">
+      <c r="D18" s="150" t="s">
         <v>1163</v>
       </c>
-      <c r="E18" s="156"/>
-      <c r="F18" s="156"/>
-      <c r="G18" s="156"/>
-      <c r="H18" s="148" t="s">
+      <c r="E18" s="158"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="150" t="s">
         <v>1164</v>
       </c>
-      <c r="I18" s="156"/>
-      <c r="J18" s="156"/>
-      <c r="K18" s="156"/>
-      <c r="L18" s="156"/>
-      <c r="M18" s="156"/>
-      <c r="N18" s="156"/>
-      <c r="O18" s="156"/>
-      <c r="P18" s="156"/>
-      <c r="Q18" s="156"/>
+      <c r="I18" s="158"/>
+      <c r="J18" s="158"/>
+      <c r="K18" s="158"/>
+      <c r="L18" s="158"/>
+      <c r="M18" s="158"/>
+      <c r="N18" s="158"/>
+      <c r="O18" s="158"/>
+      <c r="P18" s="158"/>
+      <c r="Q18" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -27933,9 +27941,8 @@
     <mergeCell ref="D5:G6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="8" scale="98" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -27943,7 +27950,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
-    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:J63"/>
   <sheetViews>
@@ -29051,9 +29057,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="8" scale="72" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="34" max="9" man="1"/>
   </rowBreaks>
@@ -29064,7 +29069,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
-    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:Q54"/>
   <sheetViews>
@@ -29092,24 +29096,24 @@
       <c r="C4" s="80" t="s">
         <v>923</v>
       </c>
-      <c r="D4" s="145" t="s">
+      <c r="D4" s="147" t="s">
         <v>924</v>
       </c>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145" t="s">
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="145"/>
-      <c r="J4" s="145"/>
-      <c r="K4" s="145"/>
-      <c r="L4" s="145"/>
-      <c r="M4" s="145"/>
-      <c r="N4" s="145"/>
-      <c r="O4" s="145"/>
-      <c r="P4" s="145"/>
-      <c r="Q4" s="145"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
+      <c r="M4" s="147"/>
+      <c r="N4" s="147"/>
+      <c r="O4" s="147"/>
+      <c r="P4" s="147"/>
+      <c r="Q4" s="147"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C5" s="50">
@@ -29356,24 +29360,24 @@
       <c r="C28" s="80" t="s">
         <v>923</v>
       </c>
-      <c r="D28" s="145" t="s">
+      <c r="D28" s="147" t="s">
         <v>924</v>
       </c>
-      <c r="E28" s="145"/>
-      <c r="F28" s="145"/>
-      <c r="G28" s="145"/>
-      <c r="H28" s="145" t="s">
+      <c r="E28" s="147"/>
+      <c r="F28" s="147"/>
+      <c r="G28" s="147"/>
+      <c r="H28" s="147" t="s">
         <v>65</v>
       </c>
-      <c r="I28" s="145"/>
-      <c r="J28" s="145"/>
-      <c r="K28" s="145"/>
-      <c r="L28" s="145"/>
-      <c r="M28" s="145"/>
-      <c r="N28" s="145"/>
-      <c r="O28" s="145"/>
-      <c r="P28" s="145"/>
-      <c r="Q28" s="145"/>
+      <c r="I28" s="147"/>
+      <c r="J28" s="147"/>
+      <c r="K28" s="147"/>
+      <c r="L28" s="147"/>
+      <c r="M28" s="147"/>
+      <c r="N28" s="147"/>
+      <c r="O28" s="147"/>
+      <c r="P28" s="147"/>
+      <c r="Q28" s="147"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C29" s="50">
@@ -29425,24 +29429,24 @@
       <c r="C35" s="80" t="s">
         <v>923</v>
       </c>
-      <c r="D35" s="145" t="s">
+      <c r="D35" s="147" t="s">
         <v>924</v>
       </c>
-      <c r="E35" s="145"/>
-      <c r="F35" s="145"/>
-      <c r="G35" s="145"/>
-      <c r="H35" s="145" t="s">
+      <c r="E35" s="147"/>
+      <c r="F35" s="147"/>
+      <c r="G35" s="147"/>
+      <c r="H35" s="147" t="s">
         <v>65</v>
       </c>
-      <c r="I35" s="145"/>
-      <c r="J35" s="145"/>
-      <c r="K35" s="145"/>
-      <c r="L35" s="145"/>
-      <c r="M35" s="145"/>
-      <c r="N35" s="145"/>
-      <c r="O35" s="145"/>
-      <c r="P35" s="145"/>
-      <c r="Q35" s="145"/>
+      <c r="I35" s="147"/>
+      <c r="J35" s="147"/>
+      <c r="K35" s="147"/>
+      <c r="L35" s="147"/>
+      <c r="M35" s="147"/>
+      <c r="N35" s="147"/>
+      <c r="O35" s="147"/>
+      <c r="P35" s="147"/>
+      <c r="Q35" s="147"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C36" s="49">
@@ -29504,24 +29508,24 @@
       <c r="C42" s="80" t="s">
         <v>923</v>
       </c>
-      <c r="D42" s="145" t="s">
+      <c r="D42" s="147" t="s">
         <v>924</v>
       </c>
-      <c r="E42" s="145"/>
-      <c r="F42" s="145"/>
-      <c r="G42" s="145"/>
-      <c r="H42" s="145" t="s">
+      <c r="E42" s="147"/>
+      <c r="F42" s="147"/>
+      <c r="G42" s="147"/>
+      <c r="H42" s="147" t="s">
         <v>65</v>
       </c>
-      <c r="I42" s="145"/>
-      <c r="J42" s="145"/>
-      <c r="K42" s="145"/>
-      <c r="L42" s="145"/>
-      <c r="M42" s="145"/>
-      <c r="N42" s="145"/>
-      <c r="O42" s="145"/>
-      <c r="P42" s="145"/>
-      <c r="Q42" s="145"/>
+      <c r="I42" s="147"/>
+      <c r="J42" s="147"/>
+      <c r="K42" s="147"/>
+      <c r="L42" s="147"/>
+      <c r="M42" s="147"/>
+      <c r="N42" s="147"/>
+      <c r="O42" s="147"/>
+      <c r="P42" s="147"/>
+      <c r="Q42" s="147"/>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C43" s="49">
@@ -29604,24 +29608,24 @@
       <c r="C50" s="80" t="s">
         <v>923</v>
       </c>
-      <c r="D50" s="145" t="s">
+      <c r="D50" s="147" t="s">
         <v>924</v>
       </c>
-      <c r="E50" s="145"/>
-      <c r="F50" s="145"/>
-      <c r="G50" s="145"/>
-      <c r="H50" s="145" t="s">
+      <c r="E50" s="147"/>
+      <c r="F50" s="147"/>
+      <c r="G50" s="147"/>
+      <c r="H50" s="147" t="s">
         <v>65</v>
       </c>
-      <c r="I50" s="145"/>
-      <c r="J50" s="145"/>
-      <c r="K50" s="145"/>
-      <c r="L50" s="145"/>
-      <c r="M50" s="145"/>
-      <c r="N50" s="145"/>
-      <c r="O50" s="145"/>
-      <c r="P50" s="145"/>
-      <c r="Q50" s="145"/>
+      <c r="I50" s="147"/>
+      <c r="J50" s="147"/>
+      <c r="K50" s="147"/>
+      <c r="L50" s="147"/>
+      <c r="M50" s="147"/>
+      <c r="N50" s="147"/>
+      <c r="O50" s="147"/>
+      <c r="P50" s="147"/>
+      <c r="Q50" s="147"/>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C51" s="65">
@@ -29695,9 +29699,11 @@
     <mergeCell ref="H35:Q35"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="8" scale="98" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="48" max="16" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 
@@ -29705,7 +29711,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFCCFFCC"/>
-    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K28"/>
   <sheetViews>
@@ -30018,26 +30023,25 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="8" scale="61" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA9DBA0-2246-4C3A-80ED-646269B04D10}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="134" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="134" customWidth="1"/>
-    <col min="3" max="4" width="10.42578125" style="134" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" style="134" customWidth="1"/>
-    <col min="6" max="6" width="49.7109375" style="134" customWidth="1"/>
-    <col min="7" max="16384" width="3.85546875" style="134"/>
+    <col min="1" max="1" width="4.42578125" style="132" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="132" customWidth="1"/>
+    <col min="3" max="4" width="10.42578125" style="132" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" style="132" customWidth="1"/>
+    <col min="6" max="6" width="49.7109375" style="132" customWidth="1"/>
+    <col min="7" max="16384" width="3.85546875" style="132"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="119" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -30050,210 +30054,220 @@
       <c r="E1" s="117"/>
       <c r="F1" s="118"/>
     </row>
-    <row r="2" spans="1:6" s="122" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="120" t="s">
+    <row r="2" spans="1:6" s="120" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="137" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+    </row>
+    <row r="3" spans="1:6" s="120" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="135" t="s">
         <v>1388</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B3" s="136" t="s">
         <v>1389</v>
       </c>
-      <c r="C2" s="121" t="s">
+      <c r="C3" s="136" t="s">
         <v>1390</v>
       </c>
-      <c r="D2" s="121" t="s">
+      <c r="D3" s="136" t="s">
         <v>1391</v>
       </c>
-      <c r="E2" s="121" t="s">
+      <c r="E3" s="136" t="s">
         <v>1392</v>
       </c>
-      <c r="F2" s="120" t="s">
+      <c r="F3" s="135" t="s">
         <v>1393</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="122" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="123">
+    <row r="4" spans="1:6" s="120" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="121">
         <v>1</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B4" s="122" t="s">
         <v>1394</v>
       </c>
-      <c r="C3" s="125">
+      <c r="C4" s="123">
         <v>43328</v>
       </c>
-      <c r="D3" s="124" t="s">
+      <c r="D4" s="122" t="s">
         <v>1395</v>
       </c>
-      <c r="E3" s="126" t="s">
+      <c r="E4" s="124" t="s">
         <v>1396</v>
       </c>
-      <c r="F3" s="127" t="s">
+      <c r="F4" s="125" t="s">
         <v>1397</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="122" customFormat="1" ht="60" x14ac:dyDescent="0.35">
-      <c r="A4" s="123">
+    <row r="5" spans="1:6" s="120" customFormat="1" ht="60" x14ac:dyDescent="0.35">
+      <c r="A5" s="121">
         <v>2</v>
       </c>
-      <c r="B4" s="129" t="s">
+      <c r="B5" s="127" t="s">
         <v>1399</v>
       </c>
-      <c r="C4" s="132">
+      <c r="C5" s="130">
         <v>44651</v>
       </c>
-      <c r="D4" s="133" t="s">
+      <c r="D5" s="131" t="s">
         <v>1398</v>
       </c>
-      <c r="E4" s="130" t="s">
+      <c r="E5" s="128" t="s">
         <v>1400</v>
       </c>
-      <c r="F4" s="131" t="s">
+      <c r="F5" s="129" t="s">
         <v>1407</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="122" customFormat="1" ht="60" x14ac:dyDescent="0.35">
-      <c r="A5" s="128">
+    <row r="6" spans="1:6" s="120" customFormat="1" ht="60" x14ac:dyDescent="0.35">
+      <c r="A6" s="126">
         <v>3</v>
       </c>
-      <c r="B5" s="129" t="s">
+      <c r="B6" s="127" t="s">
         <v>1399</v>
       </c>
-      <c r="C5" s="132">
+      <c r="C6" s="130">
         <v>44651</v>
       </c>
-      <c r="D5" s="133" t="s">
+      <c r="D6" s="131" t="s">
         <v>1398</v>
       </c>
-      <c r="E5" s="130" t="s">
+      <c r="E6" s="128" t="s">
         <v>1401</v>
       </c>
-      <c r="F5" s="131" t="s">
+      <c r="F6" s="129" t="s">
         <v>1402</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="122" customFormat="1" ht="60" x14ac:dyDescent="0.35">
-      <c r="A6" s="123">
+    <row r="7" spans="1:6" s="120" customFormat="1" ht="60" x14ac:dyDescent="0.35">
+      <c r="A7" s="121">
         <v>4</v>
       </c>
-      <c r="B6" s="129" t="s">
+      <c r="B7" s="127" t="s">
         <v>1399</v>
       </c>
-      <c r="C6" s="132">
+      <c r="C7" s="130">
         <v>44651</v>
       </c>
-      <c r="D6" s="133" t="s">
+      <c r="D7" s="131" t="s">
         <v>1398</v>
       </c>
-      <c r="E6" s="130" t="s">
+      <c r="E7" s="128" t="s">
         <v>1403</v>
       </c>
-      <c r="F6" s="131" t="s">
+      <c r="F7" s="129" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="122" customFormat="1" ht="60" x14ac:dyDescent="0.35">
-      <c r="A7" s="128">
+    <row r="8" spans="1:6" s="120" customFormat="1" ht="60" x14ac:dyDescent="0.35">
+      <c r="A8" s="126">
         <v>5</v>
       </c>
-      <c r="B7" s="129" t="s">
+      <c r="B8" s="127" t="s">
         <v>1405</v>
       </c>
-      <c r="C7" s="132">
+      <c r="C8" s="130">
         <v>45016</v>
       </c>
-      <c r="D7" s="133" t="s">
+      <c r="D8" s="131" t="s">
         <v>1398</v>
       </c>
-      <c r="E7" s="130" t="s">
+      <c r="E8" s="128" t="s">
         <v>1415</v>
       </c>
-      <c r="F7" s="131" t="s">
+      <c r="F8" s="129" t="s">
         <v>1408</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="122" customFormat="1" ht="30" x14ac:dyDescent="0.35">
-      <c r="A8" s="123">
+    <row r="9" spans="1:6" s="120" customFormat="1" ht="30" x14ac:dyDescent="0.35">
+      <c r="A9" s="121">
         <v>6</v>
       </c>
-      <c r="B8" s="129" t="s">
+      <c r="B9" s="127" t="s">
         <v>1405</v>
       </c>
-      <c r="C8" s="132">
+      <c r="C9" s="130">
         <v>45016</v>
       </c>
-      <c r="D8" s="133" t="s">
+      <c r="D9" s="131" t="s">
         <v>1398</v>
       </c>
-      <c r="E8" s="130" t="s">
+      <c r="E9" s="128" t="s">
         <v>1404</v>
       </c>
-      <c r="F8" s="131" t="s">
+      <c r="F9" s="129" t="s">
         <v>1411</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="122" customFormat="1" ht="45" x14ac:dyDescent="0.35">
-      <c r="A9" s="128">
+    <row r="10" spans="1:6" s="120" customFormat="1" ht="45" x14ac:dyDescent="0.35">
+      <c r="A10" s="126">
         <v>7</v>
       </c>
-      <c r="B9" s="129" t="s">
+      <c r="B10" s="127" t="s">
         <v>1405</v>
       </c>
-      <c r="C9" s="132">
+      <c r="C10" s="130">
         <v>45016</v>
       </c>
-      <c r="D9" s="133" t="s">
+      <c r="D10" s="131" t="s">
         <v>1398</v>
       </c>
-      <c r="E9" s="130" t="s">
+      <c r="E10" s="128" t="s">
         <v>1409</v>
       </c>
-      <c r="F9" s="131" t="s">
+      <c r="F10" s="129" t="s">
         <v>1410</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="122" customFormat="1" ht="45" x14ac:dyDescent="0.35">
-      <c r="A10" s="123">
+    <row r="11" spans="1:6" s="120" customFormat="1" ht="45" x14ac:dyDescent="0.35">
+      <c r="A11" s="121">
         <v>8</v>
       </c>
-      <c r="B10" s="129" t="s">
+      <c r="B11" s="127" t="s">
         <v>1412</v>
       </c>
-      <c r="C10" s="132">
+      <c r="C11" s="130">
         <v>45401</v>
       </c>
-      <c r="D10" s="133" t="s">
+      <c r="D11" s="131" t="s">
         <v>1398</v>
       </c>
-      <c r="E10" s="130" t="s">
+      <c r="E11" s="128" t="s">
         <v>1417</v>
       </c>
-      <c r="F10" s="131" t="s">
+      <c r="F11" s="129" t="s">
         <v>1413</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="122" customFormat="1" ht="45" x14ac:dyDescent="0.35">
-      <c r="A11" s="128">
+    <row r="12" spans="1:6" s="120" customFormat="1" ht="45" x14ac:dyDescent="0.35">
+      <c r="A12" s="126">
         <v>9</v>
       </c>
-      <c r="B11" s="129" t="s">
+      <c r="B12" s="127" t="s">
         <v>1412</v>
       </c>
-      <c r="C11" s="132">
+      <c r="C12" s="130">
         <v>45401</v>
       </c>
-      <c r="D11" s="133" t="s">
+      <c r="D12" s="131" t="s">
         <v>1398</v>
       </c>
-      <c r="E11" s="130" t="s">
+      <c r="E12" s="128" t="s">
         <v>1416</v>
       </c>
-      <c r="F11" s="131" t="s">
+      <c r="F12" s="129" t="s">
         <v>1414</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="98" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="6" max="1048575" man="1"/>
   </colBreaks>
@@ -30264,7 +30278,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
-    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:Q8"/>
   <sheetViews>
@@ -30292,24 +30305,24 @@
       <c r="C4" s="80" t="s">
         <v>923</v>
       </c>
-      <c r="D4" s="145" t="s">
+      <c r="D4" s="147" t="s">
         <v>924</v>
       </c>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145" t="s">
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="145"/>
-      <c r="J4" s="145"/>
-      <c r="K4" s="145"/>
-      <c r="L4" s="145"/>
-      <c r="M4" s="145"/>
-      <c r="N4" s="145"/>
-      <c r="O4" s="145"/>
-      <c r="P4" s="145"/>
-      <c r="Q4" s="145"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
+      <c r="M4" s="147"/>
+      <c r="N4" s="147"/>
+      <c r="O4" s="147"/>
+      <c r="P4" s="147"/>
+      <c r="Q4" s="147"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C5" s="49">
@@ -30377,9 +30390,8 @@
     <mergeCell ref="H4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="8" scale="98" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -30387,7 +30399,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFCCFFCC"/>
-    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K30"/>
   <sheetViews>
@@ -30774,9 +30785,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="8" scale="61" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -30784,7 +30794,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
-    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:Q22"/>
   <sheetViews>
@@ -30812,24 +30821,24 @@
       <c r="C4" s="80" t="s">
         <v>923</v>
       </c>
-      <c r="D4" s="145" t="s">
+      <c r="D4" s="147" t="s">
         <v>924</v>
       </c>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145" t="s">
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="145"/>
-      <c r="J4" s="145"/>
-      <c r="K4" s="145"/>
-      <c r="L4" s="145"/>
-      <c r="M4" s="145"/>
-      <c r="N4" s="145"/>
-      <c r="O4" s="145"/>
-      <c r="P4" s="145"/>
-      <c r="Q4" s="145"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
+      <c r="M4" s="147"/>
+      <c r="N4" s="147"/>
+      <c r="O4" s="147"/>
+      <c r="P4" s="147"/>
+      <c r="Q4" s="147"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C5" s="50">
@@ -30949,24 +30958,24 @@
       <c r="C17" s="80" t="s">
         <v>923</v>
       </c>
-      <c r="D17" s="145" t="s">
+      <c r="D17" s="147" t="s">
         <v>924</v>
       </c>
-      <c r="E17" s="145"/>
-      <c r="F17" s="145"/>
-      <c r="G17" s="145"/>
-      <c r="H17" s="145" t="s">
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="147" t="s">
         <v>65</v>
       </c>
-      <c r="I17" s="145"/>
-      <c r="J17" s="145"/>
-      <c r="K17" s="145"/>
-      <c r="L17" s="145"/>
-      <c r="M17" s="145"/>
-      <c r="N17" s="145"/>
-      <c r="O17" s="145"/>
-      <c r="P17" s="145"/>
-      <c r="Q17" s="145"/>
+      <c r="I17" s="147"/>
+      <c r="J17" s="147"/>
+      <c r="K17" s="147"/>
+      <c r="L17" s="147"/>
+      <c r="M17" s="147"/>
+      <c r="N17" s="147"/>
+      <c r="O17" s="147"/>
+      <c r="P17" s="147"/>
+      <c r="Q17" s="147"/>
     </row>
     <row r="18" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C18" s="49">
@@ -31045,9 +31054,8 @@
     <mergeCell ref="H17:Q17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="8" scale="98" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -31055,7 +31063,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFCCFFCC"/>
-    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:J38"/>
   <sheetViews>
@@ -31566,17 +31573,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="8" scale="72" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="B2:M47"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -31595,25 +31598,25 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="139"/>
-      <c r="D4" s="137" t="s">
+      <c r="C4" s="141"/>
+      <c r="D4" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="137"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
       <c r="K4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B5" s="140"/>
-      <c r="C5" s="141"/>
+      <c r="B5" s="142"/>
+      <c r="C5" s="143"/>
       <c r="D5" s="48" t="s">
         <v>8</v>
       </c>
@@ -31641,10 +31644,10 @@
       <c r="M5" s="56"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B6" s="142" t="s">
+      <c r="B6" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="143"/>
+      <c r="C6" s="145"/>
       <c r="D6" s="63" t="s">
         <v>17</v>
       </c>
@@ -31672,10 +31675,10 @@
       <c r="M6" s="57"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B7" s="142" t="s">
+      <c r="B7" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="143"/>
+      <c r="C7" s="145"/>
       <c r="D7" s="63" t="s">
         <v>17</v>
       </c>
@@ -31703,10 +31706,10 @@
       <c r="M7" s="57"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B8" s="142" t="s">
+      <c r="B8" s="144" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="143"/>
+      <c r="C8" s="145"/>
       <c r="D8" s="63" t="s">
         <v>17</v>
       </c>
@@ -31727,10 +31730,10 @@
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B9" s="142" t="s">
+      <c r="B9" s="144" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="143"/>
+      <c r="C9" s="145"/>
       <c r="D9" s="63" t="s">
         <v>17</v>
       </c>
@@ -31751,10 +31754,10 @@
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B10" s="142" t="s">
+      <c r="B10" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="143"/>
+      <c r="C10" s="145"/>
       <c r="D10" s="63" t="s">
         <v>17</v>
       </c>
@@ -31775,10 +31778,10 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B11" s="142" t="s">
+      <c r="B11" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="143"/>
+      <c r="C11" s="145"/>
       <c r="D11" s="63" t="s">
         <v>17</v>
       </c>
@@ -31799,10 +31802,10 @@
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B12" s="142" t="s">
+      <c r="B12" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="143"/>
+      <c r="C12" s="145"/>
       <c r="D12" s="63" t="s">
         <v>17</v>
       </c>
@@ -31823,10 +31826,10 @@
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B13" s="142" t="s">
+      <c r="B13" s="144" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="143"/>
+      <c r="C13" s="145"/>
       <c r="D13" s="63" t="s">
         <v>17</v>
       </c>
@@ -31847,10 +31850,10 @@
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B14" s="142" t="s">
+      <c r="B14" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="143"/>
+      <c r="C14" s="145"/>
       <c r="D14" s="63" t="s">
         <v>17</v>
       </c>
@@ -31871,10 +31874,10 @@
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B15" s="142" t="s">
+      <c r="B15" s="144" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="143"/>
+      <c r="C15" s="145"/>
       <c r="D15" s="63" t="s">
         <v>19</v>
       </c>
@@ -31895,10 +31898,10 @@
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B16" s="142" t="s">
+      <c r="B16" s="144" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="143"/>
+      <c r="C16" s="145"/>
       <c r="D16" s="63" t="s">
         <v>17</v>
       </c>
@@ -31919,10 +31922,10 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B17" s="142" t="s">
+      <c r="B17" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="143"/>
+      <c r="C17" s="145"/>
       <c r="D17" s="83" t="s">
         <v>22</v>
       </c>
@@ -32131,9 +32134,8 @@
     <hyperlink ref="F6" location="機能テスト【モバイルアプリケーション】!A1" display="■" xr:uid="{03522B6B-E310-4DB2-8890-9DBFCC7D1A01}"/>
     <hyperlink ref="F11" location="'性能テスト、ストレステストなど'!B42" display="■" xr:uid="{4CA7757F-3F65-4991-890A-7DEA3698FA58}"/>
   </hyperlinks>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="8" scale="81" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -32141,7 +32143,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFCC"/>
-    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:K310"/>
   <sheetViews>
@@ -32362,7 +32363,7 @@
       <c r="C11" s="42"/>
       <c r="D11" s="42"/>
       <c r="E11" s="13"/>
-      <c r="F11" s="135"/>
+      <c r="F11" s="133"/>
       <c r="G11" s="40" t="s">
         <v>93</v>
       </c>
@@ -34360,7 +34361,7 @@
         <f t="shared" ref="B115:B182" si="2">ROW()-ROW($B$113)</f>
         <v>2</v>
       </c>
-      <c r="C115" s="144" t="s">
+      <c r="C115" s="146" t="s">
         <v>279</v>
       </c>
       <c r="D115" s="13"/>
@@ -34382,7 +34383,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="C116" s="144"/>
+      <c r="C116" s="146"/>
       <c r="D116" s="13"/>
       <c r="E116" s="79"/>
       <c r="F116" s="42"/>
@@ -34762,7 +34763,7 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="C135" s="144" t="s">
+      <c r="C135" s="146" t="s">
         <v>311</v>
       </c>
       <c r="D135" s="13"/>
@@ -34784,7 +34785,7 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="C136" s="144"/>
+      <c r="C136" s="146"/>
       <c r="D136" s="13"/>
       <c r="E136" s="79"/>
       <c r="F136" s="79"/>
@@ -38147,9 +38148,8 @@
     <mergeCell ref="C135:C136"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="8" scale="73" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="8" scale="71" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="10" manualBreakCount="10">
     <brk id="38" max="9" man="1"/>
     <brk id="76" max="9" man="1"/>
@@ -38169,7 +38169,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFCC"/>
-    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:J93"/>
   <sheetViews>
@@ -39886,9 +39885,8 @@
     <row r="93" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="8" scale="72" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="48" max="9" man="1"/>
   </rowBreaks>
@@ -39899,7 +39897,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E4876C-B3C0-4B83-860C-2FEB618D4411}">
   <sheetPr>
     <tabColor rgb="FFFFFFCC"/>
-    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J77"/>
   <sheetViews>
@@ -41350,9 +41347,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="8" scale="72" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="15" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 
@@ -41360,7 +41359,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFCC"/>
-    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:J50"/>
   <sheetViews>
@@ -41941,9 +41939,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="8" scale="72" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -41951,7 +41948,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFCC"/>
-    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:J51"/>
   <sheetViews>
@@ -42403,9 +42399,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="8" scale="72" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -42413,7 +42408,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFCC"/>
-    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:J49"/>
   <sheetViews>
@@ -42750,7 +42744,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="135"/>
+      <c r="D18" s="133"/>
       <c r="E18" s="13"/>
       <c r="F18" s="79"/>
       <c r="G18" s="26" t="s">
@@ -42767,16 +42761,16 @@
         <v>15</v>
       </c>
       <c r="C19" s="18"/>
-      <c r="D19" s="136"/>
+      <c r="D19" s="134"/>
       <c r="E19" s="18"/>
-      <c r="F19" s="136"/>
+      <c r="F19" s="134"/>
       <c r="G19" s="45" t="s">
         <v>804</v>
       </c>
       <c r="H19" s="45" t="s">
         <v>840</v>
       </c>
-      <c r="I19" s="136"/>
+      <c r="I19" s="134"/>
       <c r="J19" s="45"/>
     </row>
     <row r="20" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -42791,8 +42785,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="8" scale="72" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/テスト観点カタログ.xlsx
+++ b/docs/テスト観点カタログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C1CBEA-3D18-4832-A8CA-601F2E63BDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BC4E3B-B240-4E4C-8064-68ECF955A14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" tabRatio="735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21127,9 +21127,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -21156,45 +21195,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="561">
@@ -22237,9 +22237,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:AI510"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -24073,7 +24070,7 @@
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="8" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="8" scale="135" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -27651,35 +27648,35 @@
       <c r="C4" s="62" t="s">
         <v>923</v>
       </c>
-      <c r="D4" s="161" t="s">
+      <c r="D4" s="151" t="s">
         <v>1147</v>
       </c>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161" t="s">
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151" t="s">
         <v>1148</v>
       </c>
-      <c r="I4" s="161"/>
-      <c r="J4" s="161"/>
-      <c r="K4" s="161"/>
-      <c r="L4" s="161"/>
-      <c r="M4" s="161"/>
-      <c r="N4" s="161"/>
-      <c r="O4" s="161"/>
-      <c r="P4" s="161"/>
-      <c r="Q4" s="161"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="151"/>
+      <c r="L4" s="151"/>
+      <c r="M4" s="151"/>
+      <c r="N4" s="151"/>
+      <c r="O4" s="151"/>
+      <c r="P4" s="151"/>
+      <c r="Q4" s="151"/>
     </row>
     <row r="5" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C5" s="61">
         <v>1</v>
       </c>
-      <c r="D5" s="165" t="s">
+      <c r="D5" s="152" t="s">
         <v>1149</v>
       </c>
-      <c r="E5" s="166"/>
-      <c r="F5" s="166"/>
-      <c r="G5" s="167"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="154"/>
       <c r="H5" s="150" t="s">
         <v>1150</v>
       </c>
@@ -27697,10 +27694,10 @@
       <c r="C6" s="61">
         <v>2</v>
       </c>
-      <c r="D6" s="171"/>
-      <c r="E6" s="172"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="173"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="156"/>
+      <c r="F6" s="156"/>
+      <c r="G6" s="157"/>
       <c r="H6" s="150" t="s">
         <v>1151</v>
       </c>
@@ -27723,35 +27720,35 @@
       <c r="C10" s="62" t="s">
         <v>923</v>
       </c>
-      <c r="D10" s="161" t="s">
+      <c r="D10" s="151" t="s">
         <v>1147</v>
       </c>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="161" t="s">
+      <c r="E10" s="151"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="151" t="s">
         <v>1148</v>
       </c>
-      <c r="I10" s="161"/>
-      <c r="J10" s="161"/>
-      <c r="K10" s="161"/>
-      <c r="L10" s="161"/>
-      <c r="M10" s="161"/>
-      <c r="N10" s="161"/>
-      <c r="O10" s="161"/>
-      <c r="P10" s="161"/>
-      <c r="Q10" s="161"/>
+      <c r="I10" s="151"/>
+      <c r="J10" s="151"/>
+      <c r="K10" s="151"/>
+      <c r="L10" s="151"/>
+      <c r="M10" s="151"/>
+      <c r="N10" s="151"/>
+      <c r="O10" s="151"/>
+      <c r="P10" s="151"/>
+      <c r="Q10" s="151"/>
     </row>
     <row r="11" spans="2:17" ht="55.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C11" s="61">
         <v>1</v>
       </c>
-      <c r="D11" s="165" t="s">
+      <c r="D11" s="152" t="s">
         <v>1153</v>
       </c>
-      <c r="E11" s="166"/>
-      <c r="F11" s="166"/>
-      <c r="G11" s="167"/>
+      <c r="E11" s="153"/>
+      <c r="F11" s="153"/>
+      <c r="G11" s="154"/>
       <c r="H11" s="150" t="s">
         <v>1154</v>
       </c>
@@ -27769,10 +27766,10 @@
       <c r="C12" s="61">
         <v>2</v>
       </c>
-      <c r="D12" s="168"/>
-      <c r="E12" s="169"/>
-      <c r="F12" s="169"/>
-      <c r="G12" s="170"/>
+      <c r="D12" s="162"/>
+      <c r="E12" s="163"/>
+      <c r="F12" s="163"/>
+      <c r="G12" s="164"/>
       <c r="H12" s="150" t="s">
         <v>1155</v>
       </c>
@@ -27790,87 +27787,87 @@
       <c r="C13" s="61">
         <v>3</v>
       </c>
-      <c r="D13" s="171"/>
-      <c r="E13" s="172"/>
-      <c r="F13" s="172"/>
-      <c r="G13" s="173"/>
+      <c r="D13" s="155"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="157"/>
       <c r="H13" s="150" t="s">
         <v>1156</v>
       </c>
-      <c r="I13" s="151"/>
-      <c r="J13" s="151"/>
-      <c r="K13" s="151"/>
-      <c r="L13" s="151"/>
-      <c r="M13" s="151"/>
-      <c r="N13" s="151"/>
-      <c r="O13" s="151"/>
-      <c r="P13" s="151"/>
-      <c r="Q13" s="151"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="158"/>
+      <c r="K13" s="158"/>
+      <c r="L13" s="158"/>
+      <c r="M13" s="158"/>
+      <c r="N13" s="158"/>
+      <c r="O13" s="158"/>
+      <c r="P13" s="158"/>
+      <c r="Q13" s="158"/>
     </row>
     <row r="14" spans="2:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C14" s="61">
         <v>4</v>
       </c>
-      <c r="D14" s="152" t="s">
+      <c r="D14" s="165" t="s">
         <v>1157</v>
       </c>
-      <c r="E14" s="153"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="154"/>
+      <c r="E14" s="166"/>
+      <c r="F14" s="166"/>
+      <c r="G14" s="167"/>
       <c r="H14" s="150" t="s">
         <v>1158</v>
       </c>
-      <c r="I14" s="151"/>
-      <c r="J14" s="151"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="151"/>
-      <c r="M14" s="151"/>
-      <c r="N14" s="151"/>
-      <c r="O14" s="151"/>
-      <c r="P14" s="151"/>
-      <c r="Q14" s="151"/>
+      <c r="I14" s="158"/>
+      <c r="J14" s="158"/>
+      <c r="K14" s="158"/>
+      <c r="L14" s="158"/>
+      <c r="M14" s="158"/>
+      <c r="N14" s="158"/>
+      <c r="O14" s="158"/>
+      <c r="P14" s="158"/>
+      <c r="Q14" s="158"/>
     </row>
     <row r="15" spans="2:17" ht="39" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C15" s="61">
         <v>5</v>
       </c>
-      <c r="D15" s="155"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="156"/>
-      <c r="G15" s="157"/>
-      <c r="H15" s="151" t="s">
+      <c r="D15" s="168"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="169"/>
+      <c r="G15" s="170"/>
+      <c r="H15" s="158" t="s">
         <v>1159</v>
       </c>
-      <c r="I15" s="151"/>
-      <c r="J15" s="151"/>
-      <c r="K15" s="151"/>
-      <c r="L15" s="151"/>
-      <c r="M15" s="151"/>
-      <c r="N15" s="151"/>
-      <c r="O15" s="151"/>
-      <c r="P15" s="151"/>
-      <c r="Q15" s="151"/>
+      <c r="I15" s="158"/>
+      <c r="J15" s="158"/>
+      <c r="K15" s="158"/>
+      <c r="L15" s="158"/>
+      <c r="M15" s="158"/>
+      <c r="N15" s="158"/>
+      <c r="O15" s="158"/>
+      <c r="P15" s="158"/>
+      <c r="Q15" s="158"/>
     </row>
     <row r="16" spans="2:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C16" s="61">
         <v>6</v>
       </c>
-      <c r="D16" s="158"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="160"/>
-      <c r="H16" s="162" t="s">
+      <c r="D16" s="171"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="172"/>
+      <c r="G16" s="173"/>
+      <c r="H16" s="159" t="s">
         <v>1160</v>
       </c>
-      <c r="I16" s="163"/>
-      <c r="J16" s="163"/>
-      <c r="K16" s="163"/>
-      <c r="L16" s="163"/>
-      <c r="M16" s="163"/>
-      <c r="N16" s="163"/>
-      <c r="O16" s="163"/>
-      <c r="P16" s="163"/>
-      <c r="Q16" s="164"/>
+      <c r="I16" s="160"/>
+      <c r="J16" s="160"/>
+      <c r="K16" s="160"/>
+      <c r="L16" s="160"/>
+      <c r="M16" s="160"/>
+      <c r="N16" s="160"/>
+      <c r="O16" s="160"/>
+      <c r="P16" s="160"/>
+      <c r="Q16" s="161"/>
     </row>
     <row r="17" spans="3:17" ht="161.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C17" s="61">
@@ -27879,9 +27876,9 @@
       <c r="D17" s="150" t="s">
         <v>1161</v>
       </c>
-      <c r="E17" s="151"/>
-      <c r="F17" s="151"/>
-      <c r="G17" s="151"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="158"/>
       <c r="H17" s="150" t="s">
         <v>1162</v>
       </c>
@@ -27902,29 +27899,31 @@
       <c r="D18" s="150" t="s">
         <v>1163</v>
       </c>
-      <c r="E18" s="151"/>
-      <c r="F18" s="151"/>
-      <c r="G18" s="151"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="158"/>
       <c r="H18" s="150" t="s">
         <v>1164</v>
       </c>
-      <c r="I18" s="151"/>
-      <c r="J18" s="151"/>
-      <c r="K18" s="151"/>
-      <c r="L18" s="151"/>
-      <c r="M18" s="151"/>
-      <c r="N18" s="151"/>
-      <c r="O18" s="151"/>
-      <c r="P18" s="151"/>
-      <c r="Q18" s="151"/>
+      <c r="I18" s="158"/>
+      <c r="J18" s="158"/>
+      <c r="K18" s="158"/>
+      <c r="L18" s="158"/>
+      <c r="M18" s="158"/>
+      <c r="N18" s="158"/>
+      <c r="O18" s="158"/>
+      <c r="P18" s="158"/>
+      <c r="Q18" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="H5:Q5"/>
-    <mergeCell ref="H4:Q4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H6:Q6"/>
-    <mergeCell ref="D5:G6"/>
+    <mergeCell ref="H17:Q17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="H18:Q18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H12:Q12"/>
+    <mergeCell ref="H13:Q13"/>
+    <mergeCell ref="D14:G16"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="H10:Q10"/>
     <mergeCell ref="H14:Q14"/>
@@ -27932,13 +27931,11 @@
     <mergeCell ref="H16:Q16"/>
     <mergeCell ref="D11:G13"/>
     <mergeCell ref="H11:Q11"/>
-    <mergeCell ref="H17:Q17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="H18:Q18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="H12:Q12"/>
-    <mergeCell ref="H13:Q13"/>
-    <mergeCell ref="D14:G16"/>
+    <mergeCell ref="H5:Q5"/>
+    <mergeCell ref="H4:Q4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H6:Q6"/>
+    <mergeCell ref="D5:G6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -30266,8 +30263,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="8" scale="98" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="6" max="1048575" man="1"/>
   </colBreaks>

--- a/docs/テスト観点カタログ.xlsx
+++ b/docs/テスト観点カタログ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62626746-E4FC-4CDC-819C-82CE7B5AA34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AA46E9-6311-497C-8B9A-6A7015B8AFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3770" yWindow="1170" windowWidth="29740" windowHeight="18210" tabRatio="735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5010" yWindow="2060" windowWidth="33040" windowHeight="18210" tabRatio="735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="48" r:id="rId1"/>
@@ -21912,9 +21912,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -21941,45 +21980,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="589">
@@ -29232,36 +29232,36 @@
       <c r="C4" s="144" t="s">
         <v>835</v>
       </c>
-      <c r="D4" s="183" t="s">
+      <c r="D4" s="173" t="s">
         <v>1242</v>
       </c>
-      <c r="E4" s="183"/>
-      <c r="F4" s="183"/>
-      <c r="G4" s="183"/>
-      <c r="H4" s="183" t="s">
+      <c r="E4" s="173"/>
+      <c r="F4" s="173"/>
+      <c r="G4" s="173"/>
+      <c r="H4" s="173" t="s">
         <v>1243</v>
       </c>
-      <c r="I4" s="183"/>
-      <c r="J4" s="183"/>
-      <c r="K4" s="183"/>
-      <c r="L4" s="183"/>
-      <c r="M4" s="183"/>
-      <c r="N4" s="183"/>
-      <c r="O4" s="183"/>
-      <c r="P4" s="183"/>
-      <c r="Q4" s="183"/>
+      <c r="I4" s="173"/>
+      <c r="J4" s="173"/>
+      <c r="K4" s="173"/>
+      <c r="L4" s="173"/>
+      <c r="M4" s="173"/>
+      <c r="N4" s="173"/>
+      <c r="O4" s="173"/>
+      <c r="P4" s="173"/>
+      <c r="Q4" s="173"/>
     </row>
     <row r="5" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B5" s="145"/>
       <c r="C5" s="143">
         <v>1</v>
       </c>
-      <c r="D5" s="187" t="s">
+      <c r="D5" s="174" t="s">
         <v>1244</v>
       </c>
-      <c r="E5" s="188"/>
-      <c r="F5" s="188"/>
-      <c r="G5" s="189"/>
+      <c r="E5" s="175"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="176"/>
       <c r="H5" s="172" t="s">
         <v>1245</v>
       </c>
@@ -29280,10 +29280,10 @@
       <c r="C6" s="143">
         <v>2</v>
       </c>
-      <c r="D6" s="193"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
-      <c r="G6" s="195"/>
+      <c r="D6" s="177"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="179"/>
       <c r="H6" s="172" t="s">
         <v>1246</v>
       </c>
@@ -29322,36 +29322,36 @@
       <c r="C10" s="144" t="s">
         <v>835</v>
       </c>
-      <c r="D10" s="183" t="s">
+      <c r="D10" s="173" t="s">
         <v>1242</v>
       </c>
-      <c r="E10" s="183"/>
-      <c r="F10" s="183"/>
-      <c r="G10" s="183"/>
-      <c r="H10" s="183" t="s">
+      <c r="E10" s="173"/>
+      <c r="F10" s="173"/>
+      <c r="G10" s="173"/>
+      <c r="H10" s="173" t="s">
         <v>1243</v>
       </c>
-      <c r="I10" s="183"/>
-      <c r="J10" s="183"/>
-      <c r="K10" s="183"/>
-      <c r="L10" s="183"/>
-      <c r="M10" s="183"/>
-      <c r="N10" s="183"/>
-      <c r="O10" s="183"/>
-      <c r="P10" s="183"/>
-      <c r="Q10" s="183"/>
+      <c r="I10" s="173"/>
+      <c r="J10" s="173"/>
+      <c r="K10" s="173"/>
+      <c r="L10" s="173"/>
+      <c r="M10" s="173"/>
+      <c r="N10" s="173"/>
+      <c r="O10" s="173"/>
+      <c r="P10" s="173"/>
+      <c r="Q10" s="173"/>
     </row>
     <row r="11" spans="2:17" ht="55.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B11" s="145"/>
       <c r="C11" s="143">
         <v>1</v>
       </c>
-      <c r="D11" s="187" t="s">
+      <c r="D11" s="174" t="s">
         <v>1248</v>
       </c>
-      <c r="E11" s="188"/>
-      <c r="F11" s="188"/>
-      <c r="G11" s="189"/>
+      <c r="E11" s="175"/>
+      <c r="F11" s="175"/>
+      <c r="G11" s="176"/>
       <c r="H11" s="172" t="s">
         <v>1249</v>
       </c>
@@ -29370,10 +29370,10 @@
       <c r="C12" s="143">
         <v>2</v>
       </c>
-      <c r="D12" s="190"/>
-      <c r="E12" s="191"/>
-      <c r="F12" s="191"/>
-      <c r="G12" s="192"/>
+      <c r="D12" s="184"/>
+      <c r="E12" s="185"/>
+      <c r="F12" s="185"/>
+      <c r="G12" s="186"/>
       <c r="H12" s="172" t="s">
         <v>1250</v>
       </c>
@@ -29392,90 +29392,90 @@
       <c r="C13" s="143">
         <v>3</v>
       </c>
-      <c r="D13" s="193"/>
-      <c r="E13" s="194"/>
-      <c r="F13" s="194"/>
-      <c r="G13" s="195"/>
+      <c r="D13" s="177"/>
+      <c r="E13" s="178"/>
+      <c r="F13" s="178"/>
+      <c r="G13" s="179"/>
       <c r="H13" s="172" t="s">
         <v>1251</v>
       </c>
-      <c r="I13" s="173"/>
-      <c r="J13" s="173"/>
-      <c r="K13" s="173"/>
-      <c r="L13" s="173"/>
-      <c r="M13" s="173"/>
-      <c r="N13" s="173"/>
-      <c r="O13" s="173"/>
-      <c r="P13" s="173"/>
-      <c r="Q13" s="173"/>
+      <c r="I13" s="180"/>
+      <c r="J13" s="180"/>
+      <c r="K13" s="180"/>
+      <c r="L13" s="180"/>
+      <c r="M13" s="180"/>
+      <c r="N13" s="180"/>
+      <c r="O13" s="180"/>
+      <c r="P13" s="180"/>
+      <c r="Q13" s="180"/>
     </row>
     <row r="14" spans="2:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B14" s="145"/>
       <c r="C14" s="143">
         <v>4</v>
       </c>
-      <c r="D14" s="174" t="s">
+      <c r="D14" s="187" t="s">
         <v>1252</v>
       </c>
-      <c r="E14" s="175"/>
-      <c r="F14" s="175"/>
-      <c r="G14" s="176"/>
+      <c r="E14" s="188"/>
+      <c r="F14" s="188"/>
+      <c r="G14" s="189"/>
       <c r="H14" s="172" t="s">
         <v>1253</v>
       </c>
-      <c r="I14" s="173"/>
-      <c r="J14" s="173"/>
-      <c r="K14" s="173"/>
-      <c r="L14" s="173"/>
-      <c r="M14" s="173"/>
-      <c r="N14" s="173"/>
-      <c r="O14" s="173"/>
-      <c r="P14" s="173"/>
-      <c r="Q14" s="173"/>
+      <c r="I14" s="180"/>
+      <c r="J14" s="180"/>
+      <c r="K14" s="180"/>
+      <c r="L14" s="180"/>
+      <c r="M14" s="180"/>
+      <c r="N14" s="180"/>
+      <c r="O14" s="180"/>
+      <c r="P14" s="180"/>
+      <c r="Q14" s="180"/>
     </row>
     <row r="15" spans="2:17" ht="39" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B15" s="145"/>
       <c r="C15" s="143">
         <v>5</v>
       </c>
-      <c r="D15" s="177"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="178"/>
-      <c r="G15" s="179"/>
-      <c r="H15" s="173" t="s">
+      <c r="D15" s="190"/>
+      <c r="E15" s="191"/>
+      <c r="F15" s="191"/>
+      <c r="G15" s="192"/>
+      <c r="H15" s="180" t="s">
         <v>1254</v>
       </c>
-      <c r="I15" s="173"/>
-      <c r="J15" s="173"/>
-      <c r="K15" s="173"/>
-      <c r="L15" s="173"/>
-      <c r="M15" s="173"/>
-      <c r="N15" s="173"/>
-      <c r="O15" s="173"/>
-      <c r="P15" s="173"/>
-      <c r="Q15" s="173"/>
+      <c r="I15" s="180"/>
+      <c r="J15" s="180"/>
+      <c r="K15" s="180"/>
+      <c r="L15" s="180"/>
+      <c r="M15" s="180"/>
+      <c r="N15" s="180"/>
+      <c r="O15" s="180"/>
+      <c r="P15" s="180"/>
+      <c r="Q15" s="180"/>
     </row>
     <row r="16" spans="2:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B16" s="145"/>
       <c r="C16" s="143">
         <v>6</v>
       </c>
-      <c r="D16" s="180"/>
-      <c r="E16" s="181"/>
-      <c r="F16" s="181"/>
-      <c r="G16" s="182"/>
-      <c r="H16" s="184" t="s">
+      <c r="D16" s="193"/>
+      <c r="E16" s="194"/>
+      <c r="F16" s="194"/>
+      <c r="G16" s="195"/>
+      <c r="H16" s="181" t="s">
         <v>1255</v>
       </c>
-      <c r="I16" s="185"/>
-      <c r="J16" s="185"/>
-      <c r="K16" s="185"/>
-      <c r="L16" s="185"/>
-      <c r="M16" s="185"/>
-      <c r="N16" s="185"/>
-      <c r="O16" s="185"/>
-      <c r="P16" s="185"/>
-      <c r="Q16" s="186"/>
+      <c r="I16" s="182"/>
+      <c r="J16" s="182"/>
+      <c r="K16" s="182"/>
+      <c r="L16" s="182"/>
+      <c r="M16" s="182"/>
+      <c r="N16" s="182"/>
+      <c r="O16" s="182"/>
+      <c r="P16" s="182"/>
+      <c r="Q16" s="183"/>
     </row>
     <row r="17" spans="3:17" ht="161.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C17" s="143">
@@ -29484,9 +29484,9 @@
       <c r="D17" s="172" t="s">
         <v>1256</v>
       </c>
-      <c r="E17" s="173"/>
-      <c r="F17" s="173"/>
-      <c r="G17" s="173"/>
+      <c r="E17" s="180"/>
+      <c r="F17" s="180"/>
+      <c r="G17" s="180"/>
       <c r="H17" s="172" t="s">
         <v>1257</v>
       </c>
@@ -29507,29 +29507,31 @@
       <c r="D18" s="172" t="s">
         <v>1258</v>
       </c>
-      <c r="E18" s="173"/>
-      <c r="F18" s="173"/>
-      <c r="G18" s="173"/>
+      <c r="E18" s="180"/>
+      <c r="F18" s="180"/>
+      <c r="G18" s="180"/>
       <c r="H18" s="172" t="s">
         <v>1259</v>
       </c>
-      <c r="I18" s="173"/>
-      <c r="J18" s="173"/>
-      <c r="K18" s="173"/>
-      <c r="L18" s="173"/>
-      <c r="M18" s="173"/>
-      <c r="N18" s="173"/>
-      <c r="O18" s="173"/>
-      <c r="P18" s="173"/>
-      <c r="Q18" s="173"/>
+      <c r="I18" s="180"/>
+      <c r="J18" s="180"/>
+      <c r="K18" s="180"/>
+      <c r="L18" s="180"/>
+      <c r="M18" s="180"/>
+      <c r="N18" s="180"/>
+      <c r="O18" s="180"/>
+      <c r="P18" s="180"/>
+      <c r="Q18" s="180"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="H5:Q5"/>
-    <mergeCell ref="H4:Q4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H6:Q6"/>
-    <mergeCell ref="D5:G6"/>
+    <mergeCell ref="H17:Q17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="H18:Q18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H12:Q12"/>
+    <mergeCell ref="H13:Q13"/>
+    <mergeCell ref="D14:G16"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="H10:Q10"/>
     <mergeCell ref="H14:Q14"/>
@@ -29537,13 +29539,11 @@
     <mergeCell ref="H16:Q16"/>
     <mergeCell ref="D11:G13"/>
     <mergeCell ref="H11:Q11"/>
-    <mergeCell ref="H17:Q17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="H18:Q18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="H12:Q12"/>
-    <mergeCell ref="H13:Q13"/>
-    <mergeCell ref="D14:G16"/>
+    <mergeCell ref="H5:Q5"/>
+    <mergeCell ref="H4:Q4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H6:Q6"/>
+    <mergeCell ref="D5:G6"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -44582,7 +44582,7 @@
   </sheetPr>
   <dimension ref="B1:J51"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="70" zoomScaleSheetLayoutView="110" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
   <cols>
@@ -45300,15 +45300,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="2c110d16-b2f3-4191-8d86-b97e5df61d02">
@@ -45317,6 +45308,15 @@
     <TaxCatchAll xmlns="31f7597b-996b-44c9-8e1a-1409602a35bb" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -45339,14 +45339,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02D53399-DE4A-41CB-AD4B-2064B849853F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E50B137-FA82-41DB-83C7-EA24D18568E8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -45355,4 +45347,12 @@
     <ds:schemaRef ds:uri="31f7597b-996b-44c9-8e1a-1409602a35bb"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02D53399-DE4A-41CB-AD4B-2064B849853F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/テスト観点カタログ.xlsx
+++ b/docs/テスト観点カタログ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AA46E9-6311-497C-8B9A-6A7015B8AFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC2B9C2-C21F-4831-B056-64B98E7E55E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5010" yWindow="2060" windowWidth="33040" windowHeight="18210" tabRatio="735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3050" yWindow="1200" windowWidth="33040" windowHeight="18210" tabRatio="735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="48" r:id="rId1"/>
@@ -21912,9 +21912,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -21924,6 +21963,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -21932,54 +21980,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="589">
@@ -29232,36 +29232,36 @@
       <c r="C4" s="144" t="s">
         <v>835</v>
       </c>
-      <c r="D4" s="173" t="s">
+      <c r="D4" s="183" t="s">
         <v>1242</v>
       </c>
-      <c r="E4" s="173"/>
-      <c r="F4" s="173"/>
-      <c r="G4" s="173"/>
-      <c r="H4" s="173" t="s">
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="183"/>
+      <c r="H4" s="183" t="s">
         <v>1243</v>
       </c>
-      <c r="I4" s="173"/>
-      <c r="J4" s="173"/>
-      <c r="K4" s="173"/>
-      <c r="L4" s="173"/>
-      <c r="M4" s="173"/>
-      <c r="N4" s="173"/>
-      <c r="O4" s="173"/>
-      <c r="P4" s="173"/>
-      <c r="Q4" s="173"/>
+      <c r="I4" s="183"/>
+      <c r="J4" s="183"/>
+      <c r="K4" s="183"/>
+      <c r="L4" s="183"/>
+      <c r="M4" s="183"/>
+      <c r="N4" s="183"/>
+      <c r="O4" s="183"/>
+      <c r="P4" s="183"/>
+      <c r="Q4" s="183"/>
     </row>
     <row r="5" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B5" s="145"/>
       <c r="C5" s="143">
         <v>1</v>
       </c>
-      <c r="D5" s="174" t="s">
+      <c r="D5" s="187" t="s">
         <v>1244</v>
       </c>
-      <c r="E5" s="175"/>
-      <c r="F5" s="175"/>
-      <c r="G5" s="176"/>
+      <c r="E5" s="188"/>
+      <c r="F5" s="188"/>
+      <c r="G5" s="189"/>
       <c r="H5" s="172" t="s">
         <v>1245</v>
       </c>
@@ -29280,10 +29280,10 @@
       <c r="C6" s="143">
         <v>2</v>
       </c>
-      <c r="D6" s="177"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="179"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="194"/>
+      <c r="G6" s="195"/>
       <c r="H6" s="172" t="s">
         <v>1246</v>
       </c>
@@ -29322,36 +29322,36 @@
       <c r="C10" s="144" t="s">
         <v>835</v>
       </c>
-      <c r="D10" s="173" t="s">
+      <c r="D10" s="183" t="s">
         <v>1242</v>
       </c>
-      <c r="E10" s="173"/>
-      <c r="F10" s="173"/>
-      <c r="G10" s="173"/>
-      <c r="H10" s="173" t="s">
+      <c r="E10" s="183"/>
+      <c r="F10" s="183"/>
+      <c r="G10" s="183"/>
+      <c r="H10" s="183" t="s">
         <v>1243</v>
       </c>
-      <c r="I10" s="173"/>
-      <c r="J10" s="173"/>
-      <c r="K10" s="173"/>
-      <c r="L10" s="173"/>
-      <c r="M10" s="173"/>
-      <c r="N10" s="173"/>
-      <c r="O10" s="173"/>
-      <c r="P10" s="173"/>
-      <c r="Q10" s="173"/>
+      <c r="I10" s="183"/>
+      <c r="J10" s="183"/>
+      <c r="K10" s="183"/>
+      <c r="L10" s="183"/>
+      <c r="M10" s="183"/>
+      <c r="N10" s="183"/>
+      <c r="O10" s="183"/>
+      <c r="P10" s="183"/>
+      <c r="Q10" s="183"/>
     </row>
     <row r="11" spans="2:17" ht="55.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B11" s="145"/>
       <c r="C11" s="143">
         <v>1</v>
       </c>
-      <c r="D11" s="174" t="s">
+      <c r="D11" s="187" t="s">
         <v>1248</v>
       </c>
-      <c r="E11" s="175"/>
-      <c r="F11" s="175"/>
-      <c r="G11" s="176"/>
+      <c r="E11" s="188"/>
+      <c r="F11" s="188"/>
+      <c r="G11" s="189"/>
       <c r="H11" s="172" t="s">
         <v>1249</v>
       </c>
@@ -29370,10 +29370,10 @@
       <c r="C12" s="143">
         <v>2</v>
       </c>
-      <c r="D12" s="184"/>
-      <c r="E12" s="185"/>
-      <c r="F12" s="185"/>
-      <c r="G12" s="186"/>
+      <c r="D12" s="190"/>
+      <c r="E12" s="191"/>
+      <c r="F12" s="191"/>
+      <c r="G12" s="192"/>
       <c r="H12" s="172" t="s">
         <v>1250</v>
       </c>
@@ -29392,90 +29392,90 @@
       <c r="C13" s="143">
         <v>3</v>
       </c>
-      <c r="D13" s="177"/>
-      <c r="E13" s="178"/>
-      <c r="F13" s="178"/>
-      <c r="G13" s="179"/>
+      <c r="D13" s="193"/>
+      <c r="E13" s="194"/>
+      <c r="F13" s="194"/>
+      <c r="G13" s="195"/>
       <c r="H13" s="172" t="s">
         <v>1251</v>
       </c>
-      <c r="I13" s="180"/>
-      <c r="J13" s="180"/>
-      <c r="K13" s="180"/>
-      <c r="L13" s="180"/>
-      <c r="M13" s="180"/>
-      <c r="N13" s="180"/>
-      <c r="O13" s="180"/>
-      <c r="P13" s="180"/>
-      <c r="Q13" s="180"/>
+      <c r="I13" s="173"/>
+      <c r="J13" s="173"/>
+      <c r="K13" s="173"/>
+      <c r="L13" s="173"/>
+      <c r="M13" s="173"/>
+      <c r="N13" s="173"/>
+      <c r="O13" s="173"/>
+      <c r="P13" s="173"/>
+      <c r="Q13" s="173"/>
     </row>
     <row r="14" spans="2:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B14" s="145"/>
       <c r="C14" s="143">
         <v>4</v>
       </c>
-      <c r="D14" s="187" t="s">
+      <c r="D14" s="174" t="s">
         <v>1252</v>
       </c>
-      <c r="E14" s="188"/>
-      <c r="F14" s="188"/>
-      <c r="G14" s="189"/>
+      <c r="E14" s="175"/>
+      <c r="F14" s="175"/>
+      <c r="G14" s="176"/>
       <c r="H14" s="172" t="s">
         <v>1253</v>
       </c>
-      <c r="I14" s="180"/>
-      <c r="J14" s="180"/>
-      <c r="K14" s="180"/>
-      <c r="L14" s="180"/>
-      <c r="M14" s="180"/>
-      <c r="N14" s="180"/>
-      <c r="O14" s="180"/>
-      <c r="P14" s="180"/>
-      <c r="Q14" s="180"/>
+      <c r="I14" s="173"/>
+      <c r="J14" s="173"/>
+      <c r="K14" s="173"/>
+      <c r="L14" s="173"/>
+      <c r="M14" s="173"/>
+      <c r="N14" s="173"/>
+      <c r="O14" s="173"/>
+      <c r="P14" s="173"/>
+      <c r="Q14" s="173"/>
     </row>
     <row r="15" spans="2:17" ht="39" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B15" s="145"/>
       <c r="C15" s="143">
         <v>5</v>
       </c>
-      <c r="D15" s="190"/>
-      <c r="E15" s="191"/>
-      <c r="F15" s="191"/>
-      <c r="G15" s="192"/>
-      <c r="H15" s="180" t="s">
+      <c r="D15" s="177"/>
+      <c r="E15" s="178"/>
+      <c r="F15" s="178"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="173" t="s">
         <v>1254</v>
       </c>
-      <c r="I15" s="180"/>
-      <c r="J15" s="180"/>
-      <c r="K15" s="180"/>
-      <c r="L15" s="180"/>
-      <c r="M15" s="180"/>
-      <c r="N15" s="180"/>
-      <c r="O15" s="180"/>
-      <c r="P15" s="180"/>
-      <c r="Q15" s="180"/>
+      <c r="I15" s="173"/>
+      <c r="J15" s="173"/>
+      <c r="K15" s="173"/>
+      <c r="L15" s="173"/>
+      <c r="M15" s="173"/>
+      <c r="N15" s="173"/>
+      <c r="O15" s="173"/>
+      <c r="P15" s="173"/>
+      <c r="Q15" s="173"/>
     </row>
     <row r="16" spans="2:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B16" s="145"/>
       <c r="C16" s="143">
         <v>6</v>
       </c>
-      <c r="D16" s="193"/>
-      <c r="E16" s="194"/>
-      <c r="F16" s="194"/>
-      <c r="G16" s="195"/>
-      <c r="H16" s="181" t="s">
+      <c r="D16" s="180"/>
+      <c r="E16" s="181"/>
+      <c r="F16" s="181"/>
+      <c r="G16" s="182"/>
+      <c r="H16" s="184" t="s">
         <v>1255</v>
       </c>
-      <c r="I16" s="182"/>
-      <c r="J16" s="182"/>
-      <c r="K16" s="182"/>
-      <c r="L16" s="182"/>
-      <c r="M16" s="182"/>
-      <c r="N16" s="182"/>
-      <c r="O16" s="182"/>
-      <c r="P16" s="182"/>
-      <c r="Q16" s="183"/>
+      <c r="I16" s="185"/>
+      <c r="J16" s="185"/>
+      <c r="K16" s="185"/>
+      <c r="L16" s="185"/>
+      <c r="M16" s="185"/>
+      <c r="N16" s="185"/>
+      <c r="O16" s="185"/>
+      <c r="P16" s="185"/>
+      <c r="Q16" s="186"/>
     </row>
     <row r="17" spans="3:17" ht="161.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C17" s="143">
@@ -29484,9 +29484,9 @@
       <c r="D17" s="172" t="s">
         <v>1256</v>
       </c>
-      <c r="E17" s="180"/>
-      <c r="F17" s="180"/>
-      <c r="G17" s="180"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="173"/>
       <c r="H17" s="172" t="s">
         <v>1257</v>
       </c>
@@ -29507,24 +29507,36 @@
       <c r="D18" s="172" t="s">
         <v>1258</v>
       </c>
-      <c r="E18" s="180"/>
-      <c r="F18" s="180"/>
-      <c r="G18" s="180"/>
+      <c r="E18" s="173"/>
+      <c r="F18" s="173"/>
+      <c r="G18" s="173"/>
       <c r="H18" s="172" t="s">
         <v>1259</v>
       </c>
-      <c r="I18" s="180"/>
-      <c r="J18" s="180"/>
-      <c r="K18" s="180"/>
-      <c r="L18" s="180"/>
-      <c r="M18" s="180"/>
-      <c r="N18" s="180"/>
-      <c r="O18" s="180"/>
-      <c r="P18" s="180"/>
-      <c r="Q18" s="180"/>
+      <c r="I18" s="173"/>
+      <c r="J18" s="173"/>
+      <c r="K18" s="173"/>
+      <c r="L18" s="173"/>
+      <c r="M18" s="173"/>
+      <c r="N18" s="173"/>
+      <c r="O18" s="173"/>
+      <c r="P18" s="173"/>
+      <c r="Q18" s="173"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="H5:Q5"/>
+    <mergeCell ref="H4:Q4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H6:Q6"/>
+    <mergeCell ref="D5:G6"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:Q10"/>
+    <mergeCell ref="H14:Q14"/>
+    <mergeCell ref="H15:Q15"/>
+    <mergeCell ref="H16:Q16"/>
+    <mergeCell ref="D11:G13"/>
+    <mergeCell ref="H11:Q11"/>
     <mergeCell ref="H17:Q17"/>
     <mergeCell ref="D17:G17"/>
     <mergeCell ref="H18:Q18"/>
@@ -29532,18 +29544,6 @@
     <mergeCell ref="H12:Q12"/>
     <mergeCell ref="H13:Q13"/>
     <mergeCell ref="D14:G16"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H10:Q10"/>
-    <mergeCell ref="H14:Q14"/>
-    <mergeCell ref="H15:Q15"/>
-    <mergeCell ref="H16:Q16"/>
-    <mergeCell ref="D11:G13"/>
-    <mergeCell ref="H11:Q11"/>
-    <mergeCell ref="H5:Q5"/>
-    <mergeCell ref="H4:Q4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H6:Q6"/>
-    <mergeCell ref="D5:G6"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -45068,291 +45068,4 @@
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="8" scale="72" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D9F778E06089974A85533549D8445CDC" ma:contentTypeVersion="14" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="1016be08fdef45ebcfa8e118f096e0cf">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2c110d16-b2f3-4191-8d86-b97e5df61d02" xmlns:ns3="31f7597b-996b-44c9-8e1a-1409602a35bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="192a7712706290d90006e6b1c28f6121" ns2:_="" ns3:_="">
-    <xsd:import namespace="2c110d16-b2f3-4191-8d86-b97e5df61d02"/>
-    <xsd:import namespace="31f7597b-996b-44c9-8e1a-1409602a35bb"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="2c110d16-b2f3-4191-8d86-b97e5df61d02" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="画像タグ" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="e33717ea-bcde-468e-bdb9-e6e0ac669728" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="21" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="31f7597b-996b-44c9-8e1a-1409602a35bb" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="12" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{4ac3aaf6-749b-475c-8762-b960088c701b}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="31f7597b-996b-44c9-8e1a-1409602a35bb">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="共有相手" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="共有相手の詳細情報" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="コンテンツ タイプ"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="タイトル"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2c110d16-b2f3-4191-8d86-b97e5df61d02">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="31f7597b-996b-44c9-8e1a-1409602a35bb" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5F19A55-1B33-4825-BDC1-669DEDF21395}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2c110d16-b2f3-4191-8d86-b97e5df61d02"/>
-    <ds:schemaRef ds:uri="31f7597b-996b-44c9-8e1a-1409602a35bb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E50B137-FA82-41DB-83C7-EA24D18568E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2c110d16-b2f3-4191-8d86-b97e5df61d02"/>
-    <ds:schemaRef ds:uri="31f7597b-996b-44c9-8e1a-1409602a35bb"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02D53399-DE4A-41CB-AD4B-2064B849853F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>